--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="2005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="2015">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -6936,6 +6936,36 @@
   </si>
   <si>
     <t>webapps</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>doubleclikc</t>
+  </si>
+  <si>
+    <t>mouse movement</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; AJAX / iphone &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>jane3#</t>
   </si>
 </sst>
 </file>
@@ -7725,7 +7755,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="591">
+  <cellXfs count="592">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -8573,6 +8603,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8603,9 +8639,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8615,11 +8648,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8675,63 +8762,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8759,52 +8789,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8867,17 +8867,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -31710,7 +31743,7 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="499">
+      <c r="C21" s="490">
         <v>43909</v>
       </c>
       <c r="D21" s="488"/>
@@ -31730,13 +31763,13 @@
       <c r="N21" s="488"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="499"/>
+      <c r="C22" s="490"/>
       <c r="D22" s="488"/>
       <c r="E22" s="488"/>
       <c r="F22" s="488"/>
       <c r="G22" s="488"/>
       <c r="H22" s="488"/>
-      <c r="I22" s="503" t="s">
+      <c r="I22" s="489" t="s">
         <v>303</v>
       </c>
       <c r="J22" s="488"/>
@@ -31748,13 +31781,13 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="499"/>
+      <c r="C23" s="490"/>
       <c r="D23" s="488"/>
       <c r="E23" s="488"/>
       <c r="F23" s="488"/>
       <c r="G23" s="488"/>
       <c r="H23" s="488"/>
-      <c r="I23" s="503"/>
+      <c r="I23" s="489"/>
       <c r="J23" s="488"/>
       <c r="K23" s="488"/>
       <c r="L23" s="488" t="s">
@@ -31764,13 +31797,13 @@
       <c r="N23" s="488"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="499"/>
+      <c r="C24" s="490"/>
       <c r="D24" s="488"/>
       <c r="E24" s="488"/>
       <c r="F24" s="488"/>
       <c r="G24" s="488"/>
       <c r="H24" s="488"/>
-      <c r="I24" s="503"/>
+      <c r="I24" s="489"/>
       <c r="J24" s="488"/>
       <c r="K24" s="488"/>
       <c r="L24" s="98" t="s">
@@ -31803,16 +31836,16 @@
       <c r="C26" s="96">
         <v>43911</v>
       </c>
-      <c r="D26" s="489"/>
-      <c r="E26" s="490"/>
-      <c r="F26" s="490"/>
-      <c r="G26" s="490"/>
-      <c r="H26" s="491"/>
-      <c r="I26" s="496" t="s">
+      <c r="D26" s="491"/>
+      <c r="E26" s="492"/>
+      <c r="F26" s="492"/>
+      <c r="G26" s="492"/>
+      <c r="H26" s="493"/>
+      <c r="I26" s="498" t="s">
         <v>303</v>
       </c>
-      <c r="J26" s="489"/>
-      <c r="K26" s="491"/>
+      <c r="J26" s="491"/>
+      <c r="K26" s="493"/>
       <c r="L26" s="97" t="s">
         <v>304</v>
       </c>
@@ -31821,14 +31854,14 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="492"/>
+      <c r="D27" s="494"/>
       <c r="E27" s="482"/>
       <c r="F27" s="482"/>
       <c r="G27" s="482"/>
-      <c r="H27" s="493"/>
-      <c r="I27" s="497"/>
-      <c r="J27" s="492"/>
-      <c r="K27" s="493"/>
+      <c r="H27" s="495"/>
+      <c r="I27" s="499"/>
+      <c r="J27" s="494"/>
+      <c r="K27" s="495"/>
       <c r="L27" s="488" t="s">
         <v>308</v>
       </c>
@@ -31837,14 +31870,14 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="492"/>
+      <c r="D28" s="494"/>
       <c r="E28" s="482"/>
       <c r="F28" s="482"/>
       <c r="G28" s="482"/>
-      <c r="H28" s="493"/>
-      <c r="I28" s="497"/>
-      <c r="J28" s="492"/>
-      <c r="K28" s="493"/>
+      <c r="H28" s="495"/>
+      <c r="I28" s="499"/>
+      <c r="J28" s="494"/>
+      <c r="K28" s="495"/>
       <c r="L28" s="98" t="s">
         <v>303</v>
       </c>
@@ -31853,14 +31886,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="494"/>
+      <c r="D29" s="496"/>
       <c r="E29" s="475"/>
       <c r="F29" s="475"/>
       <c r="G29" s="475"/>
-      <c r="H29" s="495"/>
-      <c r="I29" s="498"/>
-      <c r="J29" s="494"/>
-      <c r="K29" s="495"/>
+      <c r="H29" s="497"/>
+      <c r="I29" s="500"/>
+      <c r="J29" s="496"/>
+      <c r="K29" s="497"/>
       <c r="L29" s="99" t="s">
         <v>309</v>
       </c>
@@ -31925,7 +31958,7 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="499">
+      <c r="C34" s="490">
         <v>43909</v>
       </c>
       <c r="D34" s="488"/>
@@ -31933,7 +31966,7 @@
       <c r="F34" s="488"/>
       <c r="G34" s="488"/>
       <c r="H34" s="488"/>
-      <c r="I34" s="500"/>
+      <c r="I34" s="501"/>
       <c r="J34" s="488"/>
       <c r="K34" s="488"/>
       <c r="L34" s="488" t="s">
@@ -31943,13 +31976,13 @@
       <c r="N34" s="488"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="499"/>
+      <c r="C35" s="490"/>
       <c r="D35" s="488"/>
       <c r="E35" s="488"/>
       <c r="F35" s="488"/>
       <c r="G35" s="488"/>
       <c r="H35" s="488"/>
-      <c r="I35" s="501"/>
+      <c r="I35" s="502"/>
       <c r="J35" s="488"/>
       <c r="K35" s="488"/>
       <c r="L35" s="97" t="s">
@@ -31959,13 +31992,13 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="499"/>
+      <c r="C36" s="490"/>
       <c r="D36" s="488"/>
       <c r="E36" s="488"/>
       <c r="F36" s="488"/>
       <c r="G36" s="488"/>
       <c r="H36" s="488"/>
-      <c r="I36" s="501"/>
+      <c r="I36" s="502"/>
       <c r="J36" s="488"/>
       <c r="K36" s="488"/>
       <c r="L36" s="488" t="s">
@@ -31975,13 +32008,13 @@
       <c r="N36" s="488"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="499"/>
+      <c r="C37" s="490"/>
       <c r="D37" s="488"/>
       <c r="E37" s="488"/>
       <c r="F37" s="488"/>
       <c r="G37" s="488"/>
       <c r="H37" s="488"/>
-      <c r="I37" s="502"/>
+      <c r="I37" s="503"/>
       <c r="J37" s="488"/>
       <c r="K37" s="488"/>
       <c r="L37" s="98" t="s">
@@ -32014,14 +32047,14 @@
       <c r="C39" s="96">
         <v>43911</v>
       </c>
-      <c r="D39" s="489"/>
-      <c r="E39" s="490"/>
-      <c r="F39" s="490"/>
-      <c r="G39" s="490"/>
-      <c r="H39" s="491"/>
-      <c r="I39" s="496"/>
-      <c r="J39" s="489"/>
-      <c r="K39" s="491"/>
+      <c r="D39" s="491"/>
+      <c r="E39" s="492"/>
+      <c r="F39" s="492"/>
+      <c r="G39" s="492"/>
+      <c r="H39" s="493"/>
+      <c r="I39" s="498"/>
+      <c r="J39" s="491"/>
+      <c r="K39" s="493"/>
       <c r="L39" s="97" t="s">
         <v>304</v>
       </c>
@@ -32030,14 +32063,14 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="492"/>
+      <c r="D40" s="494"/>
       <c r="E40" s="482"/>
       <c r="F40" s="482"/>
       <c r="G40" s="482"/>
-      <c r="H40" s="493"/>
-      <c r="I40" s="497"/>
-      <c r="J40" s="492"/>
-      <c r="K40" s="493"/>
+      <c r="H40" s="495"/>
+      <c r="I40" s="499"/>
+      <c r="J40" s="494"/>
+      <c r="K40" s="495"/>
       <c r="L40" s="488" t="s">
         <v>308</v>
       </c>
@@ -32046,14 +32079,14 @@
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="492"/>
+      <c r="D41" s="494"/>
       <c r="E41" s="482"/>
       <c r="F41" s="482"/>
       <c r="G41" s="482"/>
-      <c r="H41" s="493"/>
-      <c r="I41" s="498"/>
-      <c r="J41" s="492"/>
-      <c r="K41" s="493"/>
+      <c r="H41" s="495"/>
+      <c r="I41" s="500"/>
+      <c r="J41" s="494"/>
+      <c r="K41" s="495"/>
       <c r="L41" s="98" t="s">
         <v>310</v>
       </c>
@@ -32062,16 +32095,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="494"/>
+      <c r="D42" s="496"/>
       <c r="E42" s="475"/>
       <c r="F42" s="475"/>
       <c r="G42" s="475"/>
-      <c r="H42" s="495"/>
+      <c r="H42" s="497"/>
       <c r="I42" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="J42" s="494"/>
-      <c r="K42" s="495"/>
+      <c r="J42" s="496"/>
+      <c r="K42" s="497"/>
       <c r="L42" s="99" t="s">
         <v>309</v>
       </c>
@@ -32383,12 +32416,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -32396,17 +32434,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32428,29 +32461,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="523" t="s">
+      <c r="B2" s="514" t="s">
         <v>769</v>
       </c>
-      <c r="C2" s="523"/>
-      <c r="D2" s="523"/>
-      <c r="E2" s="523"/>
-      <c r="F2" s="523"/>
-      <c r="G2" s="523"/>
-      <c r="H2" s="523"/>
-      <c r="I2" s="523"/>
-      <c r="J2" s="523"/>
-      <c r="K2" s="523"/>
-      <c r="L2" s="523"/>
-      <c r="M2" s="523"/>
-      <c r="N2" s="523"/>
-      <c r="O2" s="523"/>
-      <c r="P2" s="523"/>
-      <c r="Q2" s="523"/>
-      <c r="R2" s="523"/>
-      <c r="S2" s="523"/>
-      <c r="T2" s="523"/>
-      <c r="U2" s="523"/>
-      <c r="V2" s="523"/>
+      <c r="C2" s="514"/>
+      <c r="D2" s="514"/>
+      <c r="E2" s="514"/>
+      <c r="F2" s="514"/>
+      <c r="G2" s="514"/>
+      <c r="H2" s="514"/>
+      <c r="I2" s="514"/>
+      <c r="J2" s="514"/>
+      <c r="K2" s="514"/>
+      <c r="L2" s="514"/>
+      <c r="M2" s="514"/>
+      <c r="N2" s="514"/>
+      <c r="O2" s="514"/>
+      <c r="P2" s="514"/>
+      <c r="Q2" s="514"/>
+      <c r="R2" s="514"/>
+      <c r="S2" s="514"/>
+      <c r="T2" s="514"/>
+      <c r="U2" s="514"/>
+      <c r="V2" s="514"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -32483,22 +32516,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="504" t="s">
+      <c r="G5" s="519" t="s">
         <v>331</v>
       </c>
-      <c r="H5" s="504"/>
-      <c r="I5" s="504" t="s">
+      <c r="H5" s="519"/>
+      <c r="I5" s="519" t="s">
         <v>332</v>
       </c>
-      <c r="J5" s="504"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="504"/>
-      <c r="M5" s="504"/>
-      <c r="N5" s="504"/>
-      <c r="O5" s="504" t="s">
+      <c r="J5" s="519"/>
+      <c r="K5" s="519"/>
+      <c r="L5" s="519"/>
+      <c r="M5" s="519"/>
+      <c r="N5" s="519"/>
+      <c r="O5" s="519" t="s">
         <v>333</v>
       </c>
-      <c r="P5" s="504"/>
+      <c r="P5" s="519"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -32510,7 +32543,7 @@
       <c r="D6" s="113"/>
       <c r="E6" s="114"/>
       <c r="F6" s="116"/>
-      <c r="G6" s="505" t="s">
+      <c r="G6" s="524" t="s">
         <v>334</v>
       </c>
       <c r="H6" s="91"/>
@@ -32540,25 +32573,25 @@
       <c r="E7" s="116"/>
       <c r="F7" s="116"/>
       <c r="G7" s="440"/>
-      <c r="H7" s="506" t="s">
+      <c r="H7" s="525" t="s">
         <v>336</v>
       </c>
-      <c r="I7" s="509" t="s">
+      <c r="I7" s="528" t="s">
         <v>337</v>
       </c>
-      <c r="J7" s="510"/>
-      <c r="K7" s="511" t="s">
+      <c r="J7" s="529"/>
+      <c r="K7" s="530" t="s">
         <v>338</v>
       </c>
-      <c r="L7" s="512"/>
-      <c r="M7" s="509" t="s">
+      <c r="L7" s="531"/>
+      <c r="M7" s="528" t="s">
         <v>339</v>
       </c>
-      <c r="N7" s="510"/>
-      <c r="O7" s="517" t="s">
+      <c r="N7" s="529"/>
+      <c r="O7" s="536" t="s">
         <v>340</v>
       </c>
-      <c r="P7" s="518"/>
+      <c r="P7" s="537"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -32571,15 +32604,15 @@
       <c r="E8" s="118"/>
       <c r="F8" s="116"/>
       <c r="G8" s="440"/>
-      <c r="H8" s="507"/>
+      <c r="H8" s="526"/>
       <c r="I8" s="430"/>
       <c r="J8" s="432"/>
-      <c r="K8" s="513"/>
-      <c r="L8" s="514"/>
+      <c r="K8" s="532"/>
+      <c r="L8" s="533"/>
       <c r="M8" s="430"/>
       <c r="N8" s="432"/>
-      <c r="O8" s="519"/>
-      <c r="P8" s="520"/>
+      <c r="O8" s="538"/>
+      <c r="P8" s="539"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>66</v>
@@ -32598,15 +32631,15 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="440"/>
-      <c r="H9" s="507"/>
+      <c r="H9" s="526"/>
       <c r="I9" s="430"/>
       <c r="J9" s="432"/>
-      <c r="K9" s="513"/>
-      <c r="L9" s="514"/>
+      <c r="K9" s="532"/>
+      <c r="L9" s="533"/>
       <c r="M9" s="430"/>
       <c r="N9" s="432"/>
-      <c r="O9" s="519"/>
-      <c r="P9" s="520"/>
+      <c r="O9" s="538"/>
+      <c r="P9" s="539"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -32627,15 +32660,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="440"/>
-      <c r="H10" s="507"/>
+      <c r="H10" s="526"/>
       <c r="I10" s="430"/>
       <c r="J10" s="432"/>
-      <c r="K10" s="513"/>
-      <c r="L10" s="514"/>
+      <c r="K10" s="532"/>
+      <c r="L10" s="533"/>
       <c r="M10" s="430"/>
       <c r="N10" s="432"/>
-      <c r="O10" s="519"/>
-      <c r="P10" s="520"/>
+      <c r="O10" s="538"/>
+      <c r="P10" s="539"/>
       <c r="Q10" s="5" t="s">
         <v>71</v>
       </c>
@@ -32652,15 +32685,15 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="440"/>
-      <c r="H11" s="507"/>
+      <c r="H11" s="526"/>
       <c r="I11" s="430"/>
       <c r="J11" s="432"/>
-      <c r="K11" s="513"/>
-      <c r="L11" s="514"/>
+      <c r="K11" s="532"/>
+      <c r="L11" s="533"/>
       <c r="M11" s="430"/>
       <c r="N11" s="432"/>
-      <c r="O11" s="519"/>
-      <c r="P11" s="520"/>
+      <c r="O11" s="538"/>
+      <c r="P11" s="539"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -32679,15 +32712,15 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="440"/>
-      <c r="H12" s="507"/>
+      <c r="H12" s="526"/>
       <c r="I12" s="430"/>
       <c r="J12" s="432"/>
-      <c r="K12" s="513"/>
-      <c r="L12" s="514"/>
+      <c r="K12" s="532"/>
+      <c r="L12" s="533"/>
       <c r="M12" s="430"/>
       <c r="N12" s="432"/>
-      <c r="O12" s="519"/>
-      <c r="P12" s="520"/>
+      <c r="O12" s="538"/>
+      <c r="P12" s="539"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -32702,15 +32735,15 @@
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
       <c r="G13" s="440"/>
-      <c r="H13" s="507"/>
+      <c r="H13" s="526"/>
       <c r="I13" s="430"/>
       <c r="J13" s="432"/>
-      <c r="K13" s="513"/>
-      <c r="L13" s="514"/>
+      <c r="K13" s="532"/>
+      <c r="L13" s="533"/>
       <c r="M13" s="430"/>
       <c r="N13" s="432"/>
-      <c r="O13" s="519"/>
-      <c r="P13" s="520"/>
+      <c r="O13" s="538"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -32723,15 +32756,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
       <c r="G14" s="440"/>
-      <c r="H14" s="507"/>
+      <c r="H14" s="526"/>
       <c r="I14" s="430"/>
       <c r="J14" s="432"/>
-      <c r="K14" s="513"/>
-      <c r="L14" s="514"/>
+      <c r="K14" s="532"/>
+      <c r="L14" s="533"/>
       <c r="M14" s="430"/>
       <c r="N14" s="432"/>
-      <c r="O14" s="519"/>
-      <c r="P14" s="520"/>
+      <c r="O14" s="538"/>
+      <c r="P14" s="539"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -32746,15 +32779,15 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="440"/>
-      <c r="H15" s="507"/>
+      <c r="H15" s="526"/>
       <c r="I15" s="430"/>
       <c r="J15" s="432"/>
-      <c r="K15" s="513"/>
-      <c r="L15" s="514"/>
+      <c r="K15" s="532"/>
+      <c r="L15" s="533"/>
       <c r="M15" s="430"/>
       <c r="N15" s="432"/>
-      <c r="O15" s="519"/>
-      <c r="P15" s="520"/>
+      <c r="O15" s="538"/>
+      <c r="P15" s="539"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -32767,15 +32800,15 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="440"/>
-      <c r="H16" s="507"/>
+      <c r="H16" s="526"/>
       <c r="I16" s="430"/>
       <c r="J16" s="432"/>
-      <c r="K16" s="513"/>
-      <c r="L16" s="514"/>
+      <c r="K16" s="532"/>
+      <c r="L16" s="533"/>
       <c r="M16" s="430"/>
       <c r="N16" s="432"/>
-      <c r="O16" s="519"/>
-      <c r="P16" s="520"/>
+      <c r="O16" s="538"/>
+      <c r="P16" s="539"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -32788,15 +32821,15 @@
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
       <c r="G17" s="440"/>
-      <c r="H17" s="507"/>
+      <c r="H17" s="526"/>
       <c r="I17" s="430"/>
       <c r="J17" s="432"/>
-      <c r="K17" s="513"/>
-      <c r="L17" s="514"/>
+      <c r="K17" s="532"/>
+      <c r="L17" s="533"/>
       <c r="M17" s="430"/>
       <c r="N17" s="432"/>
-      <c r="O17" s="519"/>
-      <c r="P17" s="520"/>
+      <c r="O17" s="538"/>
+      <c r="P17" s="539"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -32809,15 +32842,15 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="440"/>
-      <c r="H18" s="507"/>
+      <c r="H18" s="526"/>
       <c r="I18" s="430"/>
       <c r="J18" s="432"/>
-      <c r="K18" s="513"/>
-      <c r="L18" s="514"/>
+      <c r="K18" s="532"/>
+      <c r="L18" s="533"/>
       <c r="M18" s="430"/>
       <c r="N18" s="432"/>
-      <c r="O18" s="519"/>
-      <c r="P18" s="520"/>
+      <c r="O18" s="538"/>
+      <c r="P18" s="539"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -32832,15 +32865,15 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="440"/>
-      <c r="H19" s="507"/>
+      <c r="H19" s="526"/>
       <c r="I19" s="430"/>
       <c r="J19" s="432"/>
-      <c r="K19" s="513"/>
-      <c r="L19" s="514"/>
+      <c r="K19" s="532"/>
+      <c r="L19" s="533"/>
       <c r="M19" s="430"/>
       <c r="N19" s="432"/>
-      <c r="O19" s="519"/>
-      <c r="P19" s="520"/>
+      <c r="O19" s="538"/>
+      <c r="P19" s="539"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -32853,15 +32886,15 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="441"/>
-      <c r="H20" s="508"/>
+      <c r="H20" s="527"/>
       <c r="I20" s="433"/>
       <c r="J20" s="435"/>
-      <c r="K20" s="515"/>
-      <c r="L20" s="516"/>
+      <c r="K20" s="534"/>
+      <c r="L20" s="535"/>
       <c r="M20" s="433"/>
       <c r="N20" s="435"/>
-      <c r="O20" s="521"/>
-      <c r="P20" s="522"/>
+      <c r="O20" s="540"/>
+      <c r="P20" s="541"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -32942,53 +32975,53 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="523" t="s">
+      <c r="B25" s="514" t="s">
         <v>768</v>
       </c>
-      <c r="C25" s="523"/>
-      <c r="D25" s="523"/>
-      <c r="E25" s="523"/>
-      <c r="F25" s="523"/>
-      <c r="G25" s="523"/>
-      <c r="H25" s="523"/>
-      <c r="I25" s="523"/>
-      <c r="J25" s="523"/>
-      <c r="K25" s="523"/>
-      <c r="L25" s="523"/>
-      <c r="M25" s="523"/>
-      <c r="N25" s="523"/>
-      <c r="O25" s="523"/>
-      <c r="P25" s="523"/>
-      <c r="Q25" s="523"/>
-      <c r="R25" s="523"/>
-      <c r="S25" s="523"/>
-      <c r="T25" s="523"/>
-      <c r="U25" s="523"/>
-      <c r="V25" s="523"/>
+      <c r="C25" s="514"/>
+      <c r="D25" s="514"/>
+      <c r="E25" s="514"/>
+      <c r="F25" s="514"/>
+      <c r="G25" s="514"/>
+      <c r="H25" s="514"/>
+      <c r="I25" s="514"/>
+      <c r="J25" s="514"/>
+      <c r="K25" s="514"/>
+      <c r="L25" s="514"/>
+      <c r="M25" s="514"/>
+      <c r="N25" s="514"/>
+      <c r="O25" s="514"/>
+      <c r="P25" s="514"/>
+      <c r="Q25" s="514"/>
+      <c r="R25" s="514"/>
+      <c r="S25" s="514"/>
+      <c r="T25" s="514"/>
+      <c r="U25" s="514"/>
+      <c r="V25" s="514"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="524" t="s">
+      <c r="C26" s="515" t="s">
         <v>368</v>
       </c>
-      <c r="D26" s="524"/>
-      <c r="E26" s="524"/>
-      <c r="F26" s="524"/>
-      <c r="G26" s="524"/>
-      <c r="H26" s="524"/>
-      <c r="I26" s="524"/>
-      <c r="J26" s="524"/>
-      <c r="K26" s="524"/>
-      <c r="L26" s="524"/>
-      <c r="M26" s="524"/>
+      <c r="D26" s="515"/>
+      <c r="E26" s="515"/>
+      <c r="F26" s="515"/>
+      <c r="G26" s="515"/>
+      <c r="H26" s="515"/>
+      <c r="I26" s="515"/>
+      <c r="J26" s="515"/>
+      <c r="K26" s="515"/>
+      <c r="L26" s="515"/>
+      <c r="M26" s="515"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="525" t="s">
+      <c r="E27" s="516" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="526"/>
-      <c r="G27" s="526"/>
+      <c r="F27" s="517"/>
+      <c r="G27" s="517"/>
       <c r="H27" s="413"/>
       <c r="I27" s="413"/>
       <c r="J27" s="413"/>
@@ -33027,11 +33060,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="527" t="s">
+      <c r="O29" s="518" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="527"/>
-      <c r="Q29" s="527"/>
+      <c r="P29" s="518"/>
+      <c r="Q29" s="518"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -33076,21 +33109,21 @@
         <v>74</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="531" t="s">
+      <c r="E32" s="511" t="s">
         <v>772</v>
       </c>
-      <c r="F32" s="532"/>
-      <c r="G32" s="533"/>
-      <c r="H32" s="531" t="s">
+      <c r="F32" s="512"/>
+      <c r="G32" s="513"/>
+      <c r="H32" s="511" t="s">
         <v>773</v>
       </c>
-      <c r="I32" s="532"/>
-      <c r="J32" s="533"/>
-      <c r="K32" s="531" t="s">
+      <c r="I32" s="512"/>
+      <c r="J32" s="513"/>
+      <c r="K32" s="511" t="s">
         <v>774</v>
       </c>
-      <c r="L32" s="532"/>
-      <c r="M32" s="533"/>
+      <c r="L32" s="512"/>
+      <c r="M32" s="513"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -33107,15 +33140,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="531"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="533"/>
-      <c r="H33" s="531"/>
-      <c r="I33" s="532"/>
-      <c r="J33" s="533"/>
-      <c r="K33" s="531"/>
-      <c r="L33" s="532"/>
-      <c r="M33" s="533"/>
+      <c r="E33" s="511"/>
+      <c r="F33" s="512"/>
+      <c r="G33" s="513"/>
+      <c r="H33" s="511"/>
+      <c r="I33" s="512"/>
+      <c r="J33" s="513"/>
+      <c r="K33" s="511"/>
+      <c r="L33" s="512"/>
+      <c r="M33" s="513"/>
       <c r="N33" s="5" t="s">
         <v>71</v>
       </c>
@@ -33132,15 +33165,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="531"/>
-      <c r="F34" s="532"/>
-      <c r="G34" s="533"/>
-      <c r="H34" s="531"/>
-      <c r="I34" s="532"/>
-      <c r="J34" s="533"/>
-      <c r="K34" s="531"/>
-      <c r="L34" s="532"/>
-      <c r="M34" s="533"/>
+      <c r="E34" s="511"/>
+      <c r="F34" s="512"/>
+      <c r="G34" s="513"/>
+      <c r="H34" s="511"/>
+      <c r="I34" s="512"/>
+      <c r="J34" s="513"/>
+      <c r="K34" s="511"/>
+      <c r="L34" s="512"/>
+      <c r="M34" s="513"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -33151,15 +33184,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="531"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="533"/>
-      <c r="H35" s="531"/>
-      <c r="I35" s="532"/>
-      <c r="J35" s="533"/>
-      <c r="K35" s="531"/>
-      <c r="L35" s="532"/>
-      <c r="M35" s="533"/>
+      <c r="E35" s="511"/>
+      <c r="F35" s="512"/>
+      <c r="G35" s="513"/>
+      <c r="H35" s="511"/>
+      <c r="I35" s="512"/>
+      <c r="J35" s="513"/>
+      <c r="K35" s="511"/>
+      <c r="L35" s="512"/>
+      <c r="M35" s="513"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -33290,15 +33323,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="535"/>
-      <c r="F42" s="536"/>
-      <c r="G42" s="536"/>
-      <c r="H42" s="536"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="536"/>
-      <c r="K42" s="536"/>
-      <c r="L42" s="536"/>
-      <c r="M42" s="537"/>
+      <c r="E42" s="504"/>
+      <c r="F42" s="505"/>
+      <c r="G42" s="505"/>
+      <c r="H42" s="505"/>
+      <c r="I42" s="505"/>
+      <c r="J42" s="505"/>
+      <c r="K42" s="505"/>
+      <c r="L42" s="505"/>
+      <c r="M42" s="506"/>
       <c r="N42" s="35" t="s">
         <v>373</v>
       </c>
@@ -33353,55 +33386,55 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="523" t="s">
+      <c r="B47" s="514" t="s">
         <v>770</v>
       </c>
-      <c r="C47" s="523"/>
-      <c r="D47" s="523"/>
-      <c r="E47" s="523"/>
-      <c r="F47" s="523"/>
-      <c r="G47" s="523"/>
-      <c r="H47" s="523"/>
-      <c r="I47" s="523"/>
-      <c r="J47" s="523"/>
-      <c r="K47" s="523"/>
-      <c r="L47" s="523"/>
-      <c r="M47" s="523"/>
-      <c r="N47" s="523"/>
-      <c r="O47" s="523"/>
-      <c r="P47" s="523"/>
-      <c r="Q47" s="523"/>
-      <c r="R47" s="523"/>
-      <c r="S47" s="523"/>
-      <c r="T47" s="523"/>
-      <c r="U47" s="523"/>
-      <c r="V47" s="523"/>
+      <c r="C47" s="514"/>
+      <c r="D47" s="514"/>
+      <c r="E47" s="514"/>
+      <c r="F47" s="514"/>
+      <c r="G47" s="514"/>
+      <c r="H47" s="514"/>
+      <c r="I47" s="514"/>
+      <c r="J47" s="514"/>
+      <c r="K47" s="514"/>
+      <c r="L47" s="514"/>
+      <c r="M47" s="514"/>
+      <c r="N47" s="514"/>
+      <c r="O47" s="514"/>
+      <c r="P47" s="514"/>
+      <c r="Q47" s="514"/>
+      <c r="R47" s="514"/>
+      <c r="S47" s="514"/>
+      <c r="T47" s="514"/>
+      <c r="U47" s="514"/>
+      <c r="V47" s="514"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="524" t="s">
+      <c r="C48" s="515" t="s">
         <v>368</v>
       </c>
-      <c r="D48" s="524"/>
-      <c r="E48" s="524"/>
-      <c r="F48" s="524"/>
-      <c r="G48" s="524"/>
-      <c r="H48" s="524"/>
-      <c r="I48" s="524"/>
-      <c r="J48" s="524"/>
-      <c r="K48" s="524"/>
-      <c r="L48" s="524"/>
-      <c r="M48" s="524"/>
+      <c r="D48" s="515"/>
+      <c r="E48" s="515"/>
+      <c r="F48" s="515"/>
+      <c r="G48" s="515"/>
+      <c r="H48" s="515"/>
+      <c r="I48" s="515"/>
+      <c r="J48" s="515"/>
+      <c r="K48" s="515"/>
+      <c r="L48" s="515"/>
+      <c r="M48" s="515"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="525" t="s">
+      <c r="E49" s="516" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="526"/>
-      <c r="G49" s="526"/>
+      <c r="F49" s="517"/>
+      <c r="G49" s="517"/>
       <c r="H49" s="413"/>
       <c r="I49" s="413"/>
       <c r="J49" s="413"/>
@@ -33427,16 +33460,16 @@
       <c r="G50" s="187" t="s">
         <v>1297</v>
       </c>
-      <c r="H50" s="528" t="s">
+      <c r="H50" s="520" t="s">
         <v>773</v>
       </c>
-      <c r="I50" s="529"/>
-      <c r="J50" s="530"/>
-      <c r="K50" s="528" t="s">
+      <c r="I50" s="521"/>
+      <c r="J50" s="522"/>
+      <c r="K50" s="520" t="s">
         <v>774</v>
       </c>
-      <c r="L50" s="529"/>
-      <c r="M50" s="530"/>
+      <c r="L50" s="521"/>
+      <c r="M50" s="522"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -33450,20 +33483,20 @@
         <v>788</v>
       </c>
       <c r="F51" s="228"/>
-      <c r="G51" s="534" t="s">
+      <c r="G51" s="523" t="s">
         <v>796</v>
       </c>
-      <c r="H51" s="531"/>
-      <c r="I51" s="532"/>
-      <c r="J51" s="533"/>
-      <c r="K51" s="531"/>
-      <c r="L51" s="532"/>
-      <c r="M51" s="533"/>
-      <c r="O51" s="527" t="s">
+      <c r="H51" s="511"/>
+      <c r="I51" s="512"/>
+      <c r="J51" s="513"/>
+      <c r="K51" s="511"/>
+      <c r="L51" s="512"/>
+      <c r="M51" s="513"/>
+      <c r="O51" s="518" t="s">
         <v>63</v>
       </c>
-      <c r="P51" s="527"/>
-      <c r="Q51" s="527"/>
+      <c r="P51" s="518"/>
+      <c r="Q51" s="518"/>
       <c r="S51" s="215"/>
       <c r="T51" s="215"/>
       <c r="W51" s="35" t="s">
@@ -33477,13 +33510,13 @@
         <v>789</v>
       </c>
       <c r="F52" s="229"/>
-      <c r="G52" s="534"/>
-      <c r="H52" s="531"/>
-      <c r="I52" s="532"/>
-      <c r="J52" s="533"/>
-      <c r="K52" s="531"/>
-      <c r="L52" s="532"/>
-      <c r="M52" s="533"/>
+      <c r="G52" s="523"/>
+      <c r="H52" s="511"/>
+      <c r="I52" s="512"/>
+      <c r="J52" s="513"/>
+      <c r="K52" s="511"/>
+      <c r="L52" s="512"/>
+      <c r="M52" s="513"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -33494,13 +33527,13 @@
         <v>790</v>
       </c>
       <c r="F53" s="230"/>
-      <c r="G53" s="534"/>
-      <c r="H53" s="531"/>
-      <c r="I53" s="532"/>
-      <c r="J53" s="533"/>
-      <c r="K53" s="531"/>
-      <c r="L53" s="532"/>
-      <c r="M53" s="533"/>
+      <c r="G53" s="523"/>
+      <c r="H53" s="511"/>
+      <c r="I53" s="512"/>
+      <c r="J53" s="513"/>
+      <c r="K53" s="511"/>
+      <c r="L53" s="512"/>
+      <c r="M53" s="513"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>66</v>
@@ -33539,7 +33572,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="216"/>
       <c r="F54" s="231"/>
-      <c r="G54" s="540" t="s">
+      <c r="G54" s="509" t="s">
         <v>800</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -33586,11 +33619,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="538" t="s">
+      <c r="E55" s="507" t="s">
         <v>801</v>
       </c>
-      <c r="F55" s="539"/>
-      <c r="G55" s="541"/>
+      <c r="F55" s="508"/>
+      <c r="G55" s="510"/>
       <c r="H55" s="119" t="s">
         <v>792</v>
       </c>
@@ -33634,9 +33667,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="538"/>
-      <c r="F56" s="539"/>
-      <c r="G56" s="541"/>
+      <c r="E56" s="507"/>
+      <c r="F56" s="508"/>
+      <c r="G56" s="510"/>
       <c r="H56" s="119" t="s">
         <v>793</v>
       </c>
@@ -33666,9 +33699,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="538"/>
-      <c r="F57" s="539"/>
-      <c r="G57" s="541"/>
+      <c r="E57" s="507"/>
+      <c r="F57" s="508"/>
+      <c r="G57" s="510"/>
       <c r="H57" s="4" t="s">
         <v>805</v>
       </c>
@@ -33698,9 +33731,9 @@
         <v>76</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="538"/>
-      <c r="F58" s="539"/>
-      <c r="G58" s="541"/>
+      <c r="E58" s="507"/>
+      <c r="F58" s="508"/>
+      <c r="G58" s="510"/>
       <c r="H58" s="220" t="s">
         <v>791</v>
       </c>
@@ -33725,9 +33758,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="538"/>
-      <c r="F59" s="539"/>
-      <c r="G59" s="541"/>
+      <c r="E59" s="507"/>
+      <c r="F59" s="508"/>
+      <c r="G59" s="510"/>
       <c r="H59" s="220" t="s">
         <v>361</v>
       </c>
@@ -33752,9 +33785,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="538"/>
-      <c r="F60" s="539"/>
-      <c r="G60" s="541"/>
+      <c r="E60" s="507"/>
+      <c r="F60" s="508"/>
+      <c r="G60" s="510"/>
       <c r="H60" s="222"/>
       <c r="I60" s="223" t="s">
         <v>807</v>
@@ -33774,9 +33807,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="538"/>
-      <c r="F61" s="539"/>
-      <c r="G61" s="541"/>
+      <c r="E61" s="507"/>
+      <c r="F61" s="508"/>
+      <c r="G61" s="510"/>
       <c r="H61" s="222"/>
       <c r="I61" s="223" t="s">
         <v>808</v>
@@ -33796,7 +33829,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="211"/>
       <c r="F62" s="227"/>
-      <c r="G62" s="541"/>
+      <c r="G62" s="510"/>
       <c r="H62" s="224"/>
       <c r="I62" s="226" t="s">
         <v>809</v>
@@ -33838,17 +33871,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="535" t="s">
+      <c r="E64" s="504" t="s">
         <v>1298</v>
       </c>
-      <c r="F64" s="536"/>
-      <c r="G64" s="536"/>
-      <c r="H64" s="536"/>
-      <c r="I64" s="536"/>
-      <c r="J64" s="536"/>
-      <c r="K64" s="536"/>
-      <c r="L64" s="536"/>
-      <c r="M64" s="537"/>
+      <c r="F64" s="505"/>
+      <c r="G64" s="505"/>
+      <c r="H64" s="505"/>
+      <c r="I64" s="505"/>
+      <c r="J64" s="505"/>
+      <c r="K64" s="505"/>
+      <c r="L64" s="505"/>
+      <c r="M64" s="506"/>
       <c r="N64" s="35" t="s">
         <v>373</v>
       </c>
@@ -34727,30 +34760,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -34767,6 +34776,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -37742,26 +37775,26 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C2" s="524" t="s">
+      <c r="C2" s="515" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="524"/>
-      <c r="E2" s="524"/>
-      <c r="F2" s="524"/>
-      <c r="G2" s="524"/>
-      <c r="H2" s="524"/>
-      <c r="I2" s="524"/>
-      <c r="J2" s="524"/>
-      <c r="K2" s="524"/>
-      <c r="L2" s="524"/>
+      <c r="D2" s="515"/>
+      <c r="E2" s="515"/>
+      <c r="F2" s="515"/>
+      <c r="G2" s="515"/>
+      <c r="H2" s="515"/>
+      <c r="I2" s="515"/>
+      <c r="J2" s="515"/>
+      <c r="K2" s="515"/>
+      <c r="L2" s="515"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="525" t="s">
+      <c r="E3" s="516" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="526"/>
+      <c r="F3" s="517"/>
       <c r="G3" s="413"/>
       <c r="H3" s="413"/>
       <c r="I3" s="413"/>
@@ -37798,11 +37831,11 @@
         <v>378</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="527" t="s">
+      <c r="N5" s="518" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="527"/>
-      <c r="P5" s="527"/>
+      <c r="O5" s="518"/>
+      <c r="P5" s="518"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -37862,20 +37895,20 @@
         <v>74</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="531" t="s">
+      <c r="E8" s="511" t="s">
         <v>369</v>
       </c>
-      <c r="F8" s="533"/>
-      <c r="G8" s="531" t="s">
+      <c r="F8" s="513"/>
+      <c r="G8" s="511" t="s">
         <v>370</v>
       </c>
-      <c r="H8" s="532"/>
-      <c r="I8" s="533"/>
-      <c r="J8" s="531" t="s">
+      <c r="H8" s="512"/>
+      <c r="I8" s="513"/>
+      <c r="J8" s="511" t="s">
         <v>371</v>
       </c>
-      <c r="K8" s="532"/>
-      <c r="L8" s="533"/>
+      <c r="K8" s="512"/>
+      <c r="L8" s="513"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -37898,14 +37931,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="531"/>
-      <c r="F9" s="533"/>
-      <c r="G9" s="531"/>
-      <c r="H9" s="532"/>
-      <c r="I9" s="533"/>
-      <c r="J9" s="531"/>
-      <c r="K9" s="532"/>
-      <c r="L9" s="533"/>
+      <c r="E9" s="511"/>
+      <c r="F9" s="513"/>
+      <c r="G9" s="511"/>
+      <c r="H9" s="512"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="511"/>
+      <c r="K9" s="512"/>
+      <c r="L9" s="513"/>
       <c r="M9" s="5" t="s">
         <v>71</v>
       </c>
@@ -37922,14 +37955,14 @@
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="531"/>
-      <c r="F10" s="533"/>
-      <c r="G10" s="531"/>
-      <c r="H10" s="532"/>
-      <c r="I10" s="533"/>
-      <c r="J10" s="531"/>
-      <c r="K10" s="532"/>
-      <c r="L10" s="533"/>
+      <c r="E10" s="511"/>
+      <c r="F10" s="513"/>
+      <c r="G10" s="511"/>
+      <c r="H10" s="512"/>
+      <c r="I10" s="513"/>
+      <c r="J10" s="511"/>
+      <c r="K10" s="512"/>
+      <c r="L10" s="513"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -37943,14 +37976,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="531"/>
-      <c r="F11" s="533"/>
-      <c r="G11" s="531"/>
-      <c r="H11" s="532"/>
-      <c r="I11" s="533"/>
-      <c r="J11" s="531"/>
-      <c r="K11" s="532"/>
-      <c r="L11" s="533"/>
+      <c r="E11" s="511"/>
+      <c r="F11" s="513"/>
+      <c r="G11" s="511"/>
+      <c r="H11" s="512"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="511"/>
+      <c r="K11" s="512"/>
+      <c r="L11" s="513"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -38074,16 +38107,16 @@
     <row r="17" spans="2:18" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="535" t="s">
+      <c r="E17" s="504" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="536"/>
-      <c r="G17" s="536"/>
-      <c r="H17" s="536"/>
-      <c r="I17" s="536"/>
-      <c r="J17" s="536"/>
-      <c r="K17" s="536"/>
-      <c r="L17" s="537"/>
+      <c r="F17" s="505"/>
+      <c r="G17" s="505"/>
+      <c r="H17" s="505"/>
+      <c r="I17" s="505"/>
+      <c r="J17" s="505"/>
+      <c r="K17" s="505"/>
+      <c r="L17" s="506"/>
       <c r="M17" s="35" t="s">
         <v>373</v>
       </c>
@@ -39385,22 +39418,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="504" t="s">
+      <c r="E3" s="519" t="s">
         <v>331</v>
       </c>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504" t="s">
+      <c r="F3" s="519"/>
+      <c r="G3" s="519" t="s">
         <v>332</v>
       </c>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="504"/>
-      <c r="M3" s="504" t="s">
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
+      <c r="J3" s="519"/>
+      <c r="K3" s="519"/>
+      <c r="L3" s="519"/>
+      <c r="M3" s="519" t="s">
         <v>333</v>
       </c>
-      <c r="N3" s="504"/>
+      <c r="N3" s="519"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -39411,7 +39444,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="113"/>
       <c r="D4" s="114"/>
-      <c r="E4" s="505" t="s">
+      <c r="E4" s="524" t="s">
         <v>334</v>
       </c>
       <c r="F4" s="109"/>
@@ -39445,16 +39478,16 @@
       </c>
       <c r="G5" s="452"/>
       <c r="H5" s="453"/>
-      <c r="I5" s="588" t="s">
+      <c r="I5" s="551" t="s">
         <v>407</v>
       </c>
-      <c r="J5" s="589"/>
-      <c r="K5" s="589"/>
-      <c r="L5" s="512"/>
-      <c r="M5" s="588" t="s">
+      <c r="J5" s="552"/>
+      <c r="K5" s="552"/>
+      <c r="L5" s="531"/>
+      <c r="M5" s="551" t="s">
         <v>408</v>
       </c>
-      <c r="N5" s="512"/>
+      <c r="N5" s="531"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -39469,12 +39502,12 @@
       <c r="F6" s="454"/>
       <c r="G6" s="455"/>
       <c r="H6" s="456"/>
-      <c r="I6" s="513"/>
+      <c r="I6" s="532"/>
       <c r="J6" s="419"/>
       <c r="K6" s="419"/>
-      <c r="L6" s="514"/>
-      <c r="M6" s="513"/>
-      <c r="N6" s="514"/>
+      <c r="L6" s="533"/>
+      <c r="M6" s="532"/>
+      <c r="N6" s="533"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>66</v>
@@ -39495,12 +39528,12 @@
       <c r="F7" s="454"/>
       <c r="G7" s="455"/>
       <c r="H7" s="456"/>
-      <c r="I7" s="513"/>
+      <c r="I7" s="532"/>
       <c r="J7" s="419"/>
       <c r="K7" s="419"/>
-      <c r="L7" s="514"/>
-      <c r="M7" s="513"/>
-      <c r="N7" s="514"/>
+      <c r="L7" s="533"/>
+      <c r="M7" s="532"/>
+      <c r="N7" s="533"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -39523,12 +39556,12 @@
       <c r="F8" s="454"/>
       <c r="G8" s="455"/>
       <c r="H8" s="456"/>
-      <c r="I8" s="513"/>
+      <c r="I8" s="532"/>
       <c r="J8" s="419"/>
       <c r="K8" s="419"/>
-      <c r="L8" s="514"/>
-      <c r="M8" s="513"/>
-      <c r="N8" s="514"/>
+      <c r="L8" s="533"/>
+      <c r="M8" s="532"/>
+      <c r="N8" s="533"/>
       <c r="O8" s="5" t="s">
         <v>71</v>
       </c>
@@ -39553,12 +39586,12 @@
       <c r="F9" s="454"/>
       <c r="G9" s="455"/>
       <c r="H9" s="456"/>
-      <c r="I9" s="513"/>
+      <c r="I9" s="532"/>
       <c r="J9" s="419"/>
       <c r="K9" s="419"/>
-      <c r="L9" s="514"/>
-      <c r="M9" s="513"/>
-      <c r="N9" s="514"/>
+      <c r="L9" s="533"/>
+      <c r="M9" s="532"/>
+      <c r="N9" s="533"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -39579,12 +39612,12 @@
       <c r="F10" s="454"/>
       <c r="G10" s="455"/>
       <c r="H10" s="456"/>
-      <c r="I10" s="513"/>
+      <c r="I10" s="532"/>
       <c r="J10" s="419"/>
       <c r="K10" s="419"/>
-      <c r="L10" s="514"/>
-      <c r="M10" s="513"/>
-      <c r="N10" s="514"/>
+      <c r="L10" s="533"/>
+      <c r="M10" s="532"/>
+      <c r="N10" s="533"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -39601,12 +39634,12 @@
       <c r="F11" s="454"/>
       <c r="G11" s="455"/>
       <c r="H11" s="456"/>
-      <c r="I11" s="513"/>
+      <c r="I11" s="532"/>
       <c r="J11" s="419"/>
       <c r="K11" s="419"/>
-      <c r="L11" s="514"/>
-      <c r="M11" s="513"/>
-      <c r="N11" s="514"/>
+      <c r="L11" s="533"/>
+      <c r="M11" s="532"/>
+      <c r="N11" s="533"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -39621,12 +39654,12 @@
       <c r="F12" s="454"/>
       <c r="G12" s="455"/>
       <c r="H12" s="456"/>
-      <c r="I12" s="513"/>
+      <c r="I12" s="532"/>
       <c r="J12" s="419"/>
       <c r="K12" s="419"/>
-      <c r="L12" s="514"/>
-      <c r="M12" s="513"/>
-      <c r="N12" s="514"/>
+      <c r="L12" s="533"/>
+      <c r="M12" s="532"/>
+      <c r="N12" s="533"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -39643,12 +39676,12 @@
       <c r="F13" s="454"/>
       <c r="G13" s="455"/>
       <c r="H13" s="456"/>
-      <c r="I13" s="513"/>
+      <c r="I13" s="532"/>
       <c r="J13" s="419"/>
       <c r="K13" s="419"/>
-      <c r="L13" s="514"/>
-      <c r="M13" s="513"/>
-      <c r="N13" s="514"/>
+      <c r="L13" s="533"/>
+      <c r="M13" s="532"/>
+      <c r="N13" s="533"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -39663,12 +39696,12 @@
       <c r="F14" s="454"/>
       <c r="G14" s="455"/>
       <c r="H14" s="456"/>
-      <c r="I14" s="513"/>
+      <c r="I14" s="532"/>
       <c r="J14" s="419"/>
       <c r="K14" s="419"/>
-      <c r="L14" s="514"/>
-      <c r="M14" s="513"/>
-      <c r="N14" s="514"/>
+      <c r="L14" s="533"/>
+      <c r="M14" s="532"/>
+      <c r="N14" s="533"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -39683,12 +39716,12 @@
       <c r="F15" s="454"/>
       <c r="G15" s="455"/>
       <c r="H15" s="456"/>
-      <c r="I15" s="513"/>
+      <c r="I15" s="532"/>
       <c r="J15" s="419"/>
       <c r="K15" s="419"/>
-      <c r="L15" s="514"/>
-      <c r="M15" s="513"/>
-      <c r="N15" s="514"/>
+      <c r="L15" s="533"/>
+      <c r="M15" s="532"/>
+      <c r="N15" s="533"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -39703,12 +39736,12 @@
       <c r="F16" s="454"/>
       <c r="G16" s="455"/>
       <c r="H16" s="456"/>
-      <c r="I16" s="513"/>
+      <c r="I16" s="532"/>
       <c r="J16" s="419"/>
       <c r="K16" s="419"/>
-      <c r="L16" s="514"/>
-      <c r="M16" s="513"/>
-      <c r="N16" s="514"/>
+      <c r="L16" s="533"/>
+      <c r="M16" s="532"/>
+      <c r="N16" s="533"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -39725,12 +39758,12 @@
       <c r="F17" s="454"/>
       <c r="G17" s="455"/>
       <c r="H17" s="456"/>
-      <c r="I17" s="513"/>
+      <c r="I17" s="532"/>
       <c r="J17" s="419"/>
       <c r="K17" s="419"/>
-      <c r="L17" s="514"/>
-      <c r="M17" s="513"/>
-      <c r="N17" s="514"/>
+      <c r="L17" s="533"/>
+      <c r="M17" s="532"/>
+      <c r="N17" s="533"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -39745,12 +39778,12 @@
       <c r="F18" s="457"/>
       <c r="G18" s="458"/>
       <c r="H18" s="459"/>
-      <c r="I18" s="515"/>
-      <c r="J18" s="590"/>
-      <c r="K18" s="590"/>
-      <c r="L18" s="516"/>
-      <c r="M18" s="515"/>
-      <c r="N18" s="516"/>
+      <c r="I18" s="534"/>
+      <c r="J18" s="553"/>
+      <c r="K18" s="553"/>
+      <c r="L18" s="535"/>
+      <c r="M18" s="534"/>
+      <c r="N18" s="535"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -39826,29 +39859,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="527" t="s">
+      <c r="B24" s="518" t="s">
         <v>368</v>
       </c>
-      <c r="C24" s="527"/>
-      <c r="D24" s="524"/>
-      <c r="E24" s="524"/>
-      <c r="F24" s="524"/>
-      <c r="G24" s="524"/>
-      <c r="H24" s="524"/>
-      <c r="I24" s="524"/>
-      <c r="J24" s="524"/>
-      <c r="K24" s="524"/>
-      <c r="M24" s="551" t="s">
+      <c r="C24" s="518"/>
+      <c r="D24" s="515"/>
+      <c r="E24" s="515"/>
+      <c r="F24" s="515"/>
+      <c r="G24" s="515"/>
+      <c r="H24" s="515"/>
+      <c r="I24" s="515"/>
+      <c r="J24" s="515"/>
+      <c r="K24" s="515"/>
+      <c r="M24" s="580" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="551"/>
-      <c r="O24" s="551"/>
+      <c r="N24" s="580"/>
+      <c r="O24" s="580"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="552" t="s">
+      <c r="B25" s="581" t="s">
         <v>648</v>
       </c>
-      <c r="C25" s="491"/>
+      <c r="C25" s="493"/>
       <c r="D25" s="413" t="s">
         <v>62</v>
       </c>
@@ -39870,22 +39903,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="492"/>
-      <c r="C26" s="493"/>
-      <c r="D26" s="565" t="s">
+      <c r="B26" s="494"/>
+      <c r="C26" s="495"/>
+      <c r="D26" s="554" t="s">
         <v>641</v>
       </c>
-      <c r="E26" s="566"/>
-      <c r="F26" s="583" t="s">
+      <c r="E26" s="555"/>
+      <c r="F26" s="573" t="s">
         <v>641</v>
       </c>
-      <c r="G26" s="584"/>
-      <c r="H26" s="585"/>
-      <c r="I26" s="587" t="s">
+      <c r="G26" s="574"/>
+      <c r="H26" s="575"/>
+      <c r="I26" s="578" t="s">
         <v>1387</v>
       </c>
-      <c r="J26" s="584"/>
-      <c r="K26" s="585"/>
+      <c r="J26" s="574"/>
+      <c r="K26" s="575"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -39900,22 +39933,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="492"/>
-      <c r="C27" s="493"/>
-      <c r="D27" s="563" t="s">
+      <c r="B27" s="494"/>
+      <c r="C27" s="495"/>
+      <c r="D27" s="556" t="s">
         <v>646</v>
       </c>
-      <c r="E27" s="567"/>
-      <c r="F27" s="586" t="s">
+      <c r="E27" s="557"/>
+      <c r="F27" s="576" t="s">
         <v>642</v>
       </c>
-      <c r="G27" s="563"/>
-      <c r="H27" s="564"/>
-      <c r="I27" s="562" t="s">
+      <c r="G27" s="556"/>
+      <c r="H27" s="577"/>
+      <c r="I27" s="579" t="s">
         <v>1388</v>
       </c>
-      <c r="J27" s="563"/>
-      <c r="K27" s="564"/>
+      <c r="J27" s="556"/>
+      <c r="K27" s="577"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -39930,22 +39963,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="492"/>
-      <c r="C28" s="493"/>
-      <c r="D28" s="563" t="s">
+      <c r="B28" s="494"/>
+      <c r="C28" s="495"/>
+      <c r="D28" s="556" t="s">
         <v>643</v>
       </c>
-      <c r="E28" s="567"/>
-      <c r="F28" s="586" t="s">
+      <c r="E28" s="557"/>
+      <c r="F28" s="576" t="s">
         <v>643</v>
       </c>
-      <c r="G28" s="563"/>
-      <c r="H28" s="564"/>
-      <c r="I28" s="562" t="s">
+      <c r="G28" s="556"/>
+      <c r="H28" s="577"/>
+      <c r="I28" s="579" t="s">
         <v>1389</v>
       </c>
-      <c r="J28" s="563"/>
-      <c r="K28" s="564"/>
+      <c r="J28" s="556"/>
+      <c r="K28" s="577"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -39954,22 +39987,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="494"/>
-      <c r="C29" s="495"/>
-      <c r="D29" s="563" t="s">
+      <c r="B29" s="496"/>
+      <c r="C29" s="497"/>
+      <c r="D29" s="556" t="s">
         <v>644</v>
       </c>
-      <c r="E29" s="567"/>
-      <c r="F29" s="586" t="s">
+      <c r="E29" s="557"/>
+      <c r="F29" s="576" t="s">
         <v>644</v>
       </c>
-      <c r="G29" s="563"/>
-      <c r="H29" s="564"/>
-      <c r="I29" s="562" t="s">
+      <c r="G29" s="556"/>
+      <c r="H29" s="577"/>
+      <c r="I29" s="579" t="s">
         <v>1390</v>
       </c>
-      <c r="J29" s="563"/>
-      <c r="K29" s="564"/>
+      <c r="J29" s="556"/>
+      <c r="K29" s="577"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -39982,20 +40015,20 @@
         <v>647</v>
       </c>
       <c r="C30" s="428"/>
-      <c r="D30" s="568" t="s">
+      <c r="D30" s="558" t="s">
         <v>369</v>
       </c>
-      <c r="E30" s="569"/>
-      <c r="F30" s="574" t="s">
+      <c r="E30" s="559"/>
+      <c r="F30" s="564" t="s">
         <v>370</v>
       </c>
-      <c r="G30" s="575"/>
-      <c r="H30" s="569"/>
-      <c r="I30" s="574" t="s">
+      <c r="G30" s="565"/>
+      <c r="H30" s="559"/>
+      <c r="I30" s="564" t="s">
         <v>371</v>
       </c>
-      <c r="J30" s="575"/>
-      <c r="K30" s="580"/>
+      <c r="J30" s="565"/>
+      <c r="K30" s="570"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
@@ -40004,14 +40037,14 @@
     <row r="31" spans="2:19">
       <c r="B31" s="430"/>
       <c r="C31" s="431"/>
-      <c r="D31" s="570"/>
-      <c r="E31" s="571"/>
-      <c r="F31" s="576"/>
-      <c r="G31" s="577"/>
-      <c r="H31" s="571"/>
-      <c r="I31" s="576"/>
-      <c r="J31" s="577"/>
-      <c r="K31" s="581"/>
+      <c r="D31" s="560"/>
+      <c r="E31" s="561"/>
+      <c r="F31" s="566"/>
+      <c r="G31" s="567"/>
+      <c r="H31" s="561"/>
+      <c r="I31" s="566"/>
+      <c r="J31" s="567"/>
+      <c r="K31" s="571"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
@@ -40020,107 +40053,107 @@
     <row r="32" spans="2:19">
       <c r="B32" s="430"/>
       <c r="C32" s="431"/>
-      <c r="D32" s="570"/>
-      <c r="E32" s="571"/>
-      <c r="F32" s="576"/>
-      <c r="G32" s="577"/>
-      <c r="H32" s="571"/>
-      <c r="I32" s="576"/>
-      <c r="J32" s="577"/>
-      <c r="K32" s="581"/>
+      <c r="D32" s="560"/>
+      <c r="E32" s="561"/>
+      <c r="F32" s="566"/>
+      <c r="G32" s="567"/>
+      <c r="H32" s="561"/>
+      <c r="I32" s="566"/>
+      <c r="J32" s="567"/>
+      <c r="K32" s="571"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="430"/>
       <c r="C33" s="431"/>
-      <c r="D33" s="572"/>
-      <c r="E33" s="573"/>
-      <c r="F33" s="578"/>
-      <c r="G33" s="579"/>
-      <c r="H33" s="573"/>
-      <c r="I33" s="578"/>
-      <c r="J33" s="579"/>
-      <c r="K33" s="582"/>
+      <c r="D33" s="562"/>
+      <c r="E33" s="563"/>
+      <c r="F33" s="568"/>
+      <c r="G33" s="569"/>
+      <c r="H33" s="563"/>
+      <c r="I33" s="568"/>
+      <c r="J33" s="569"/>
+      <c r="K33" s="572"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="430"/>
       <c r="C34" s="432"/>
-      <c r="D34" s="553" t="s">
+      <c r="D34" s="582" t="s">
         <v>634</v>
       </c>
-      <c r="E34" s="554"/>
-      <c r="F34" s="553" t="s">
+      <c r="E34" s="583"/>
+      <c r="F34" s="582" t="s">
         <v>382</v>
       </c>
-      <c r="G34" s="559"/>
-      <c r="H34" s="554"/>
-      <c r="I34" s="553" t="s">
+      <c r="G34" s="588"/>
+      <c r="H34" s="583"/>
+      <c r="I34" s="582" t="s">
         <v>649</v>
       </c>
-      <c r="J34" s="559"/>
-      <c r="K34" s="554"/>
+      <c r="J34" s="588"/>
+      <c r="K34" s="583"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="430"/>
       <c r="C35" s="432"/>
-      <c r="D35" s="555"/>
-      <c r="E35" s="556"/>
-      <c r="F35" s="555"/>
-      <c r="G35" s="560"/>
-      <c r="H35" s="556"/>
-      <c r="I35" s="555"/>
-      <c r="J35" s="560"/>
-      <c r="K35" s="556"/>
+      <c r="D35" s="584"/>
+      <c r="E35" s="585"/>
+      <c r="F35" s="584"/>
+      <c r="G35" s="589"/>
+      <c r="H35" s="585"/>
+      <c r="I35" s="584"/>
+      <c r="J35" s="589"/>
+      <c r="K35" s="585"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="430"/>
       <c r="C36" s="432"/>
-      <c r="D36" s="555"/>
-      <c r="E36" s="556"/>
-      <c r="F36" s="555"/>
-      <c r="G36" s="560"/>
-      <c r="H36" s="556"/>
-      <c r="I36" s="555"/>
-      <c r="J36" s="560"/>
-      <c r="K36" s="556"/>
+      <c r="D36" s="584"/>
+      <c r="E36" s="585"/>
+      <c r="F36" s="584"/>
+      <c r="G36" s="589"/>
+      <c r="H36" s="585"/>
+      <c r="I36" s="584"/>
+      <c r="J36" s="589"/>
+      <c r="K36" s="585"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="430"/>
       <c r="C37" s="432"/>
-      <c r="D37" s="555"/>
-      <c r="E37" s="556"/>
-      <c r="F37" s="555"/>
-      <c r="G37" s="560"/>
-      <c r="H37" s="556"/>
-      <c r="I37" s="555"/>
-      <c r="J37" s="560"/>
-      <c r="K37" s="556"/>
+      <c r="D37" s="584"/>
+      <c r="E37" s="585"/>
+      <c r="F37" s="584"/>
+      <c r="G37" s="589"/>
+      <c r="H37" s="585"/>
+      <c r="I37" s="584"/>
+      <c r="J37" s="589"/>
+      <c r="K37" s="585"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="B38" s="430"/>
       <c r="C38" s="432"/>
-      <c r="D38" s="557"/>
-      <c r="E38" s="558"/>
-      <c r="F38" s="557"/>
-      <c r="G38" s="561"/>
-      <c r="H38" s="558"/>
-      <c r="I38" s="557"/>
-      <c r="J38" s="561"/>
-      <c r="K38" s="558"/>
+      <c r="D38" s="586"/>
+      <c r="E38" s="587"/>
+      <c r="F38" s="586"/>
+      <c r="G38" s="590"/>
+      <c r="H38" s="587"/>
+      <c r="I38" s="586"/>
+      <c r="J38" s="590"/>
+      <c r="K38" s="587"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
       <c r="B39" s="433"/>
       <c r="C39" s="435"/>
-      <c r="D39" s="535" t="s">
+      <c r="D39" s="504" t="s">
         <v>372</v>
       </c>
-      <c r="E39" s="536"/>
-      <c r="F39" s="536"/>
-      <c r="G39" s="536"/>
-      <c r="H39" s="536"/>
-      <c r="I39" s="536"/>
-      <c r="J39" s="536"/>
-      <c r="K39" s="537"/>
+      <c r="E39" s="505"/>
+      <c r="F39" s="505"/>
+      <c r="G39" s="505"/>
+      <c r="H39" s="505"/>
+      <c r="I39" s="505"/>
+      <c r="J39" s="505"/>
+      <c r="K39" s="506"/>
       <c r="L39" s="35" t="s">
         <v>373</v>
       </c>
@@ -40157,16 +40190,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -40183,17 +40217,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -42009,7 +42042,7 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42154,13 +42187,15 @@
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="20" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="51" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="21"/>
       <c r="G7" t="s">
         <v>2000</v>
@@ -42199,7 +42234,9 @@
       <c r="C8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="51" t="s">
+        <v>2014</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="H8" s="4"/>
       <c r="I8" s="1"/>
@@ -42327,6 +42364,9 @@
       <c r="C12" s="431"/>
       <c r="D12" s="431"/>
       <c r="E12" s="432"/>
+      <c r="F12" t="s">
+        <v>2013</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
@@ -42397,7 +42437,13 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C15" s="35"/>
+      <c r="A15" s="516" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="517"/>
+      <c r="C15" s="517"/>
+      <c r="D15" s="517"/>
+      <c r="E15" s="591"/>
       <c r="G15" t="s">
         <v>2003</v>
       </c>
@@ -42431,10 +42477,18 @@
         <v>1096</v>
       </c>
       <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="C16" s="24" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>2009</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
@@ -42461,10 +42515,18 @@
     <row r="17" spans="1:22" ht="15.75" thickBot="1">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="C17" s="24" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>2012</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
         <v>77</v>
@@ -44325,7 +44387,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="M160:N160"/>
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="A11:E14"/>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="2015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="2017">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -6966,6 +6966,12 @@
   </si>
   <si>
     <t>jane3#</t>
+  </si>
+  <si>
+    <t>mywebsit.com</t>
+  </si>
+  <si>
+    <t>http://mywebsite.com/welcome.html</t>
   </si>
 </sst>
 </file>
@@ -8408,6 +8414,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8603,12 +8618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8639,6 +8648,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8648,65 +8660,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8762,6 +8720,57 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8789,22 +8798,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8867,50 +8906,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13312,13 +13318,13 @@
         <v>65</v>
       </c>
       <c r="J3" s="126"/>
-      <c r="K3" s="460"/>
-      <c r="L3" s="460"/>
-      <c r="M3" s="460"/>
-      <c r="N3" s="460"/>
-      <c r="O3" s="460"/>
-      <c r="P3" s="460"/>
-      <c r="Q3" s="461"/>
+      <c r="K3" s="463"/>
+      <c r="L3" s="463"/>
+      <c r="M3" s="463"/>
+      <c r="N3" s="463"/>
+      <c r="O3" s="463"/>
+      <c r="P3" s="463"/>
+      <c r="Q3" s="464"/>
       <c r="T3" s="35" t="s">
         <v>63</v>
       </c>
@@ -13586,13 +13592,13 @@
       <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="451" t="s">
+      <c r="A12" s="454" t="s">
         <v>424</v>
       </c>
-      <c r="B12" s="452"/>
-      <c r="C12" s="452"/>
-      <c r="D12" s="452"/>
-      <c r="E12" s="453"/>
+      <c r="B12" s="455"/>
+      <c r="C12" s="455"/>
+      <c r="D12" s="455"/>
+      <c r="E12" s="456"/>
       <c r="F12" t="s">
         <v>437</v>
       </c>
@@ -13615,11 +13621,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="454"/>
-      <c r="B13" s="455"/>
-      <c r="C13" s="455"/>
-      <c r="D13" s="455"/>
-      <c r="E13" s="456"/>
+      <c r="A13" s="457"/>
+      <c r="B13" s="458"/>
+      <c r="C13" s="458"/>
+      <c r="D13" s="458"/>
+      <c r="E13" s="459"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -13640,11 +13646,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="454"/>
-      <c r="B14" s="455"/>
-      <c r="C14" s="455"/>
-      <c r="D14" s="455"/>
-      <c r="E14" s="456"/>
+      <c r="A14" s="457"/>
+      <c r="B14" s="458"/>
+      <c r="C14" s="458"/>
+      <c r="D14" s="458"/>
+      <c r="E14" s="459"/>
       <c r="F14" t="s">
         <v>434</v>
       </c>
@@ -13667,11 +13673,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="457"/>
-      <c r="B15" s="458"/>
-      <c r="C15" s="458"/>
-      <c r="D15" s="458"/>
-      <c r="E15" s="459"/>
+      <c r="A15" s="460"/>
+      <c r="B15" s="461"/>
+      <c r="C15" s="461"/>
+      <c r="D15" s="461"/>
+      <c r="E15" s="462"/>
       <c r="F15" s="24"/>
       <c r="H15" s="150"/>
       <c r="I15" s="4" t="s">
@@ -17157,7 +17163,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="462">
+      <c r="O109" s="465">
         <v>123</v>
       </c>
       <c r="P109" s="249" t="s">
@@ -17179,7 +17185,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="440"/>
+      <c r="O110" s="443"/>
       <c r="P110" s="249"/>
       <c r="Q110" s="33" t="s">
         <v>207</v>
@@ -17197,7 +17203,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="440"/>
+      <c r="O111" s="443"/>
       <c r="P111" s="249"/>
       <c r="Q111" s="33" t="s">
         <v>724</v>
@@ -17215,7 +17221,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="440"/>
+      <c r="O112" s="443"/>
       <c r="P112" s="249"/>
       <c r="Q112" s="33"/>
     </row>
@@ -17234,7 +17240,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="441"/>
+      <c r="O113" s="444"/>
       <c r="P113" s="249"/>
       <c r="Q113" s="33"/>
     </row>
@@ -17259,7 +17265,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="462">
+      <c r="O114" s="465">
         <v>456</v>
       </c>
       <c r="P114" s="249" t="s">
@@ -17281,7 +17287,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="440"/>
+      <c r="O115" s="443"/>
       <c r="P115" s="249"/>
       <c r="Q115" s="33" t="s">
         <v>1153</v>
@@ -17302,7 +17308,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="440"/>
+      <c r="O116" s="443"/>
       <c r="P116" s="249"/>
       <c r="Q116" s="33"/>
     </row>
@@ -17321,7 +17327,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="441"/>
+      <c r="O117" s="444"/>
       <c r="P117" s="249"/>
       <c r="Q117" s="33"/>
     </row>
@@ -17337,7 +17343,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="462">
+      <c r="O118" s="465">
         <v>777</v>
       </c>
       <c r="P118" s="249"/>
@@ -17360,7 +17366,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="440"/>
+      <c r="O119" s="443"/>
       <c r="P119" s="249"/>
       <c r="Q119" s="33"/>
     </row>
@@ -17379,7 +17385,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="440"/>
+      <c r="O120" s="443"/>
       <c r="P120" s="249"/>
       <c r="Q120" s="33"/>
     </row>
@@ -17398,7 +17404,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="441"/>
+      <c r="O121" s="444"/>
       <c r="P121" s="249"/>
       <c r="Q121" s="33"/>
     </row>
@@ -17560,10 +17566,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="466">
+      <c r="O133" s="469">
         <v>123</v>
       </c>
-      <c r="P133" s="463" t="s">
+      <c r="P133" s="466" t="s">
         <v>522</v>
       </c>
       <c r="Q133" s="265" t="s">
@@ -17582,8 +17588,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="467"/>
-      <c r="P134" s="464"/>
+      <c r="O134" s="470"/>
+      <c r="P134" s="467"/>
       <c r="Q134" s="265" t="s">
         <v>207</v>
       </c>
@@ -17600,8 +17606,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="467"/>
-      <c r="P135" s="464"/>
+      <c r="O135" s="470"/>
+      <c r="P135" s="467"/>
       <c r="Q135" s="265"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -17620,8 +17626,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="467"/>
-      <c r="P136" s="464"/>
+      <c r="O136" s="470"/>
+      <c r="P136" s="467"/>
       <c r="Q136" s="265"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -17643,8 +17649,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="468"/>
-      <c r="P137" s="465"/>
+      <c r="O137" s="471"/>
+      <c r="P137" s="468"/>
       <c r="Q137" s="265"/>
     </row>
     <row r="138" spans="1:17">
@@ -17664,7 +17670,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="462"/>
+      <c r="O138" s="465"/>
       <c r="P138" s="249"/>
       <c r="Q138" s="33"/>
     </row>
@@ -17680,7 +17686,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="440"/>
+      <c r="O139" s="443"/>
       <c r="P139" s="249"/>
       <c r="Q139" s="33"/>
     </row>
@@ -17698,7 +17704,7 @@
       <c r="L140" s="38"/>
       <c r="M140" s="45"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="440"/>
+      <c r="O140" s="443"/>
       <c r="P140" s="249"/>
       <c r="Q140" s="33"/>
     </row>
@@ -17717,7 +17723,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="441"/>
+      <c r="O141" s="444"/>
       <c r="P141" s="249"/>
       <c r="Q141" s="33"/>
     </row>
@@ -17735,7 +17741,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="462"/>
+      <c r="O142" s="465"/>
       <c r="P142" s="249"/>
       <c r="Q142" s="33"/>
     </row>
@@ -17755,7 +17761,7 @@
       </c>
       <c r="M143" s="264"/>
       <c r="N143" s="151"/>
-      <c r="O143" s="440"/>
+      <c r="O143" s="443"/>
       <c r="P143" s="249"/>
       <c r="Q143" s="33"/>
     </row>
@@ -17771,7 +17777,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="440"/>
+      <c r="O144" s="443"/>
       <c r="P144" s="249"/>
       <c r="Q144" s="33"/>
     </row>
@@ -17791,7 +17797,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="441"/>
+      <c r="O145" s="444"/>
       <c r="P145" s="249"/>
       <c r="Q145" s="33"/>
     </row>
@@ -20175,8 +20181,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="472"/>
-      <c r="B2" s="432"/>
+      <c r="A2" s="475"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="27" t="s">
         <v>1477</v>
       </c>
@@ -20194,8 +20200,8 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="472"/>
-      <c r="B3" s="432"/>
+      <c r="A3" s="475"/>
+      <c r="B3" s="435"/>
       <c r="C3" s="4" t="s">
         <v>174</v>
       </c>
@@ -20219,8 +20225,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="473"/>
-      <c r="B4" s="474"/>
+      <c r="A4" s="476"/>
+      <c r="B4" s="477"/>
       <c r="C4" s="7" t="s">
         <v>1713</v>
       </c>
@@ -20261,8 +20267,8 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="472"/>
-      <c r="B7" s="432"/>
+      <c r="A7" s="475"/>
+      <c r="B7" s="435"/>
       <c r="C7" s="27" t="s">
         <v>1477</v>
       </c>
@@ -20278,8 +20284,8 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="472"/>
-      <c r="B8" s="432"/>
+      <c r="A8" s="475"/>
+      <c r="B8" s="435"/>
       <c r="C8" s="4" t="s">
         <v>174</v>
       </c>
@@ -20299,8 +20305,8 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="473"/>
-      <c r="B9" s="474"/>
+      <c r="A9" s="476"/>
+      <c r="B9" s="477"/>
       <c r="C9" s="7" t="s">
         <v>1716</v>
       </c>
@@ -20630,8 +20636,8 @@
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="472"/>
-      <c r="B35" s="432"/>
+      <c r="A35" s="475"/>
+      <c r="B35" s="435"/>
       <c r="C35" s="27" t="s">
         <v>1477</v>
       </c>
@@ -20652,8 +20658,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A36" s="472"/>
-      <c r="B36" s="432"/>
+      <c r="A36" s="475"/>
+      <c r="B36" s="435"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
         <v>207</v>
@@ -20680,8 +20686,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A37" s="473"/>
-      <c r="B37" s="474"/>
+      <c r="A37" s="476"/>
+      <c r="B37" s="477"/>
       <c r="C37" s="7" t="s">
         <v>1725</v>
       </c>
@@ -20725,8 +20731,8 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="472"/>
-      <c r="B40" s="432"/>
+      <c r="A40" s="475"/>
+      <c r="B40" s="435"/>
       <c r="C40" s="27" t="s">
         <v>1477</v>
       </c>
@@ -20742,8 +20748,8 @@
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A41" s="472"/>
-      <c r="B41" s="432"/>
+      <c r="A41" s="475"/>
+      <c r="B41" s="435"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
         <v>174</v>
@@ -20761,8 +20767,8 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A42" s="473"/>
-      <c r="B42" s="474"/>
+      <c r="A42" s="476"/>
+      <c r="B42" s="477"/>
       <c r="C42" s="7" t="s">
         <v>1726</v>
       </c>
@@ -22149,7 +22155,7 @@
       <c r="E114" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="I114" s="469" t="s">
+      <c r="I114" s="472" t="s">
         <v>1761</v>
       </c>
       <c r="J114" s="375" t="s">
@@ -22170,7 +22176,7 @@
       <c r="B115" s="7"/>
       <c r="C115" s="87"/>
       <c r="D115" s="88"/>
-      <c r="I115" s="470"/>
+      <c r="I115" s="473"/>
       <c r="J115" s="5"/>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
@@ -22184,7 +22190,7 @@
       <c r="E116" t="s">
         <v>147</v>
       </c>
-      <c r="I116" s="471"/>
+      <c r="I116" s="474"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -22226,7 +22232,7 @@
       <c r="N119" s="6"/>
     </row>
     <row r="120" spans="2:14">
-      <c r="I120" s="469" t="s">
+      <c r="I120" s="472" t="s">
         <v>1762</v>
       </c>
       <c r="J120" s="5"/>
@@ -22236,7 +22242,7 @@
       <c r="N120" s="6"/>
     </row>
     <row r="121" spans="2:14">
-      <c r="I121" s="470"/>
+      <c r="I121" s="473"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -22244,7 +22250,7 @@
       <c r="N121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1">
-      <c r="I122" s="471"/>
+      <c r="I122" s="474"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -23309,10 +23315,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="475" t="s">
+      <c r="L35" s="478" t="s">
         <v>217</v>
       </c>
-      <c r="M35" s="475"/>
+      <c r="M35" s="478"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -25242,10 +25248,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="476" t="s">
+      <c r="A155" s="479" t="s">
         <v>715</v>
       </c>
-      <c r="B155" s="476"/>
+      <c r="B155" s="479"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="73" t="s">
@@ -26043,18 +26049,18 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="477" t="s">
+      <c r="B29" s="480" t="s">
         <v>1036</v>
       </c>
-      <c r="C29" s="477"/>
-      <c r="D29" s="477"/>
-      <c r="E29" s="477"/>
-      <c r="F29" s="477"/>
-      <c r="I29" s="477" t="s">
+      <c r="C29" s="480"/>
+      <c r="D29" s="480"/>
+      <c r="E29" s="480"/>
+      <c r="F29" s="480"/>
+      <c r="I29" s="480" t="s">
         <v>1220</v>
       </c>
-      <c r="J29" s="477"/>
-      <c r="K29" s="477"/>
+      <c r="J29" s="480"/>
+      <c r="K29" s="480"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
@@ -27731,7 +27737,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="484" t="s">
+      <c r="E6" s="487" t="s">
         <v>249</v>
       </c>
       <c r="F6" s="423"/>
@@ -27755,7 +27761,7 @@
       <c r="B7" t="s">
         <v>1289</v>
       </c>
-      <c r="D7" s="478">
+      <c r="D7" s="481">
         <v>80</v>
       </c>
       <c r="E7" s="269" t="s">
@@ -27775,7 +27781,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="478"/>
+      <c r="D8" s="481"/>
       <c r="E8" s="266" t="s">
         <v>251</v>
       </c>
@@ -27810,7 +27816,7 @@
       <c r="B9" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="478"/>
+      <c r="D9" s="481"/>
       <c r="E9" s="272"/>
       <c r="F9" s="273"/>
       <c r="G9" s="272"/>
@@ -27837,7 +27843,7 @@
       <c r="A10" t="s">
         <v>1294</v>
       </c>
-      <c r="D10" s="478"/>
+      <c r="D10" s="481"/>
       <c r="E10" s="269"/>
       <c r="F10" s="270"/>
       <c r="G10" s="269"/>
@@ -27861,7 +27867,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="478"/>
+      <c r="D11" s="481"/>
       <c r="E11" s="266" t="s">
         <v>255</v>
       </c>
@@ -27890,7 +27896,7 @@
       <c r="B12" s="165" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="478"/>
+      <c r="D12" s="481"/>
       <c r="E12" s="272"/>
       <c r="F12" s="273"/>
       <c r="G12" s="272"/>
@@ -27911,7 +27917,7 @@
       <c r="B13" t="s">
         <v>1290</v>
       </c>
-      <c r="D13" s="478"/>
+      <c r="D13" s="481"/>
       <c r="E13" s="269"/>
       <c r="F13" s="270"/>
       <c r="G13" s="269"/>
@@ -27930,7 +27936,7 @@
       <c r="B14" t="s">
         <v>1291</v>
       </c>
-      <c r="D14" s="478"/>
+      <c r="D14" s="481"/>
       <c r="E14" s="266" t="s">
         <v>260</v>
       </c>
@@ -27957,7 +27963,7 @@
       <c r="B15" t="s">
         <v>1292</v>
       </c>
-      <c r="D15" s="478"/>
+      <c r="D15" s="481"/>
       <c r="E15" s="272"/>
       <c r="F15" s="273"/>
       <c r="G15" s="272"/>
@@ -27976,7 +27982,7 @@
       <c r="B16" t="s">
         <v>1293</v>
       </c>
-      <c r="D16" s="478"/>
+      <c r="D16" s="481"/>
       <c r="E16" s="269"/>
       <c r="F16" s="270"/>
       <c r="G16" s="274"/>
@@ -27992,7 +27998,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="478"/>
+      <c r="D17" s="481"/>
       <c r="E17" s="266" t="s">
         <v>264</v>
       </c>
@@ -28016,7 +28022,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="478"/>
+      <c r="D18" s="481"/>
       <c r="E18" s="272"/>
       <c r="F18" s="273"/>
       <c r="G18" s="275"/>
@@ -28033,20 +28039,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="485" t="s">
+      <c r="E19" s="488" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="486"/>
-      <c r="G19" s="485" t="s">
+      <c r="F19" s="489"/>
+      <c r="G19" s="488" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="486"/>
-      <c r="I19" s="485" t="s">
+      <c r="H19" s="489"/>
+      <c r="I19" s="488" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="487"/>
-      <c r="K19" s="487"/>
-      <c r="L19" s="486"/>
+      <c r="J19" s="490"/>
+      <c r="K19" s="490"/>
+      <c r="L19" s="489"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -28111,12 +28117,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="482"/>
-      <c r="H24" s="482"/>
-      <c r="I24" s="482"/>
-      <c r="J24" s="482"/>
-      <c r="K24" s="482"/>
-      <c r="L24" s="482"/>
+      <c r="G24" s="485"/>
+      <c r="H24" s="485"/>
+      <c r="I24" s="485"/>
+      <c r="J24" s="485"/>
+      <c r="K24" s="485"/>
+      <c r="L24" s="485"/>
       <c r="O24" s="35" t="s">
         <v>63</v>
       </c>
@@ -28491,11 +28497,11 @@
       <c r="G47" s="178" t="s">
         <v>620</v>
       </c>
-      <c r="H47" s="479" t="s">
+      <c r="H47" s="482" t="s">
         <v>1004</v>
       </c>
-      <c r="I47" s="480"/>
-      <c r="J47" s="481"/>
+      <c r="I47" s="483"/>
+      <c r="J47" s="484"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -29121,11 +29127,11 @@
       <c r="F97" s="418" t="s">
         <v>1146</v>
       </c>
-      <c r="G97" s="477"/>
-      <c r="H97" s="477"/>
-      <c r="I97" s="477"/>
-      <c r="J97" s="477"/>
-      <c r="K97" s="483"/>
+      <c r="G97" s="480"/>
+      <c r="H97" s="480"/>
+      <c r="I97" s="480"/>
+      <c r="J97" s="480"/>
+      <c r="K97" s="486"/>
       <c r="L97" s="4" t="s">
         <v>1279</v>
       </c>
@@ -31726,13 +31732,13 @@
       <c r="C20" s="96">
         <v>43908</v>
       </c>
-      <c r="D20" s="488" t="s">
+      <c r="D20" s="491" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="488"/>
-      <c r="F20" s="488"/>
-      <c r="G20" s="488"/>
-      <c r="H20" s="488"/>
+      <c r="E20" s="491"/>
+      <c r="F20" s="491"/>
+      <c r="G20" s="491"/>
+      <c r="H20" s="491"/>
       <c r="I20" s="33" t="s">
         <v>300</v>
       </c>
@@ -31743,37 +31749,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="490">
+      <c r="C21" s="502">
         <v>43909</v>
       </c>
-      <c r="D21" s="488"/>
-      <c r="E21" s="488"/>
-      <c r="F21" s="488"/>
-      <c r="G21" s="488"/>
-      <c r="H21" s="488"/>
+      <c r="D21" s="491"/>
+      <c r="E21" s="491"/>
+      <c r="F21" s="491"/>
+      <c r="G21" s="491"/>
+      <c r="H21" s="491"/>
       <c r="I21" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="J21" s="488"/>
-      <c r="K21" s="488"/>
-      <c r="L21" s="488" t="s">
+      <c r="J21" s="491"/>
+      <c r="K21" s="491"/>
+      <c r="L21" s="491" t="s">
         <v>302</v>
       </c>
-      <c r="M21" s="488"/>
-      <c r="N21" s="488"/>
+      <c r="M21" s="491"/>
+      <c r="N21" s="491"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="490"/>
-      <c r="D22" s="488"/>
-      <c r="E22" s="488"/>
-      <c r="F22" s="488"/>
-      <c r="G22" s="488"/>
-      <c r="H22" s="488"/>
-      <c r="I22" s="489" t="s">
+      <c r="C22" s="502"/>
+      <c r="D22" s="491"/>
+      <c r="E22" s="491"/>
+      <c r="F22" s="491"/>
+      <c r="G22" s="491"/>
+      <c r="H22" s="491"/>
+      <c r="I22" s="506" t="s">
         <v>303</v>
       </c>
-      <c r="J22" s="488"/>
-      <c r="K22" s="488"/>
+      <c r="J22" s="491"/>
+      <c r="K22" s="491"/>
       <c r="L22" s="97" t="s">
         <v>304</v>
       </c>
@@ -31781,31 +31787,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="490"/>
-      <c r="D23" s="488"/>
-      <c r="E23" s="488"/>
-      <c r="F23" s="488"/>
-      <c r="G23" s="488"/>
-      <c r="H23" s="488"/>
-      <c r="I23" s="489"/>
-      <c r="J23" s="488"/>
-      <c r="K23" s="488"/>
-      <c r="L23" s="488" t="s">
+      <c r="C23" s="502"/>
+      <c r="D23" s="491"/>
+      <c r="E23" s="491"/>
+      <c r="F23" s="491"/>
+      <c r="G23" s="491"/>
+      <c r="H23" s="491"/>
+      <c r="I23" s="506"/>
+      <c r="J23" s="491"/>
+      <c r="K23" s="491"/>
+      <c r="L23" s="491" t="s">
         <v>305</v>
       </c>
-      <c r="M23" s="488"/>
-      <c r="N23" s="488"/>
+      <c r="M23" s="491"/>
+      <c r="N23" s="491"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="490"/>
-      <c r="D24" s="488"/>
-      <c r="E24" s="488"/>
-      <c r="F24" s="488"/>
-      <c r="G24" s="488"/>
-      <c r="H24" s="488"/>
-      <c r="I24" s="489"/>
-      <c r="J24" s="488"/>
-      <c r="K24" s="488"/>
+      <c r="C24" s="502"/>
+      <c r="D24" s="491"/>
+      <c r="E24" s="491"/>
+      <c r="F24" s="491"/>
+      <c r="G24" s="491"/>
+      <c r="H24" s="491"/>
+      <c r="I24" s="506"/>
+      <c r="J24" s="491"/>
+      <c r="K24" s="491"/>
       <c r="L24" s="98" t="s">
         <v>303</v>
       </c>
@@ -31816,13 +31822,13 @@
       <c r="C25" s="96">
         <v>43910</v>
       </c>
-      <c r="D25" s="488" t="s">
+      <c r="D25" s="491" t="s">
         <v>306</v>
       </c>
-      <c r="E25" s="488"/>
-      <c r="F25" s="488"/>
-      <c r="G25" s="488"/>
-      <c r="H25" s="488"/>
+      <c r="E25" s="491"/>
+      <c r="F25" s="491"/>
+      <c r="G25" s="491"/>
+      <c r="H25" s="491"/>
       <c r="I25" s="33" t="s">
         <v>307</v>
       </c>
@@ -31836,16 +31842,16 @@
       <c r="C26" s="96">
         <v>43911</v>
       </c>
-      <c r="D26" s="491"/>
-      <c r="E26" s="492"/>
-      <c r="F26" s="492"/>
-      <c r="G26" s="492"/>
-      <c r="H26" s="493"/>
-      <c r="I26" s="498" t="s">
+      <c r="D26" s="492"/>
+      <c r="E26" s="493"/>
+      <c r="F26" s="493"/>
+      <c r="G26" s="493"/>
+      <c r="H26" s="494"/>
+      <c r="I26" s="499" t="s">
         <v>303</v>
       </c>
-      <c r="J26" s="491"/>
-      <c r="K26" s="493"/>
+      <c r="J26" s="492"/>
+      <c r="K26" s="494"/>
       <c r="L26" s="97" t="s">
         <v>304</v>
       </c>
@@ -31854,30 +31860,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="494"/>
-      <c r="E27" s="482"/>
-      <c r="F27" s="482"/>
-      <c r="G27" s="482"/>
-      <c r="H27" s="495"/>
-      <c r="I27" s="499"/>
-      <c r="J27" s="494"/>
-      <c r="K27" s="495"/>
-      <c r="L27" s="488" t="s">
+      <c r="D27" s="495"/>
+      <c r="E27" s="485"/>
+      <c r="F27" s="485"/>
+      <c r="G27" s="485"/>
+      <c r="H27" s="496"/>
+      <c r="I27" s="500"/>
+      <c r="J27" s="495"/>
+      <c r="K27" s="496"/>
+      <c r="L27" s="491" t="s">
         <v>308</v>
       </c>
-      <c r="M27" s="488"/>
-      <c r="N27" s="488"/>
+      <c r="M27" s="491"/>
+      <c r="N27" s="491"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="494"/>
-      <c r="E28" s="482"/>
-      <c r="F28" s="482"/>
-      <c r="G28" s="482"/>
-      <c r="H28" s="495"/>
-      <c r="I28" s="499"/>
-      <c r="J28" s="494"/>
-      <c r="K28" s="495"/>
+      <c r="D28" s="495"/>
+      <c r="E28" s="485"/>
+      <c r="F28" s="485"/>
+      <c r="G28" s="485"/>
+      <c r="H28" s="496"/>
+      <c r="I28" s="500"/>
+      <c r="J28" s="495"/>
+      <c r="K28" s="496"/>
       <c r="L28" s="98" t="s">
         <v>303</v>
       </c>
@@ -31886,14 +31892,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="496"/>
-      <c r="E29" s="475"/>
-      <c r="F29" s="475"/>
-      <c r="G29" s="475"/>
-      <c r="H29" s="497"/>
-      <c r="I29" s="500"/>
-      <c r="J29" s="496"/>
-      <c r="K29" s="497"/>
+      <c r="D29" s="497"/>
+      <c r="E29" s="478"/>
+      <c r="F29" s="478"/>
+      <c r="G29" s="478"/>
+      <c r="H29" s="498"/>
+      <c r="I29" s="501"/>
+      <c r="J29" s="497"/>
+      <c r="K29" s="498"/>
       <c r="L29" s="99" t="s">
         <v>309</v>
       </c>
@@ -31941,13 +31947,13 @@
       <c r="C33" s="96">
         <v>43908</v>
       </c>
-      <c r="D33" s="488" t="s">
+      <c r="D33" s="491" t="s">
         <v>299</v>
       </c>
-      <c r="E33" s="488"/>
-      <c r="F33" s="488"/>
-      <c r="G33" s="488"/>
-      <c r="H33" s="488"/>
+      <c r="E33" s="491"/>
+      <c r="F33" s="491"/>
+      <c r="G33" s="491"/>
+      <c r="H33" s="491"/>
       <c r="I33" s="33" t="s">
         <v>300</v>
       </c>
@@ -31958,33 +31964,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="490">
+      <c r="C34" s="502">
         <v>43909</v>
       </c>
-      <c r="D34" s="488"/>
-      <c r="E34" s="488"/>
-      <c r="F34" s="488"/>
-      <c r="G34" s="488"/>
-      <c r="H34" s="488"/>
-      <c r="I34" s="501"/>
-      <c r="J34" s="488"/>
-      <c r="K34" s="488"/>
-      <c r="L34" s="488" t="s">
+      <c r="D34" s="491"/>
+      <c r="E34" s="491"/>
+      <c r="F34" s="491"/>
+      <c r="G34" s="491"/>
+      <c r="H34" s="491"/>
+      <c r="I34" s="503"/>
+      <c r="J34" s="491"/>
+      <c r="K34" s="491"/>
+      <c r="L34" s="491" t="s">
         <v>302</v>
       </c>
-      <c r="M34" s="488"/>
-      <c r="N34" s="488"/>
+      <c r="M34" s="491"/>
+      <c r="N34" s="491"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="490"/>
-      <c r="D35" s="488"/>
-      <c r="E35" s="488"/>
-      <c r="F35" s="488"/>
-      <c r="G35" s="488"/>
-      <c r="H35" s="488"/>
-      <c r="I35" s="502"/>
-      <c r="J35" s="488"/>
-      <c r="K35" s="488"/>
+      <c r="C35" s="502"/>
+      <c r="D35" s="491"/>
+      <c r="E35" s="491"/>
+      <c r="F35" s="491"/>
+      <c r="G35" s="491"/>
+      <c r="H35" s="491"/>
+      <c r="I35" s="504"/>
+      <c r="J35" s="491"/>
+      <c r="K35" s="491"/>
       <c r="L35" s="97" t="s">
         <v>304</v>
       </c>
@@ -31992,31 +31998,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="490"/>
-      <c r="D36" s="488"/>
-      <c r="E36" s="488"/>
-      <c r="F36" s="488"/>
-      <c r="G36" s="488"/>
-      <c r="H36" s="488"/>
-      <c r="I36" s="502"/>
-      <c r="J36" s="488"/>
-      <c r="K36" s="488"/>
-      <c r="L36" s="488" t="s">
+      <c r="C36" s="502"/>
+      <c r="D36" s="491"/>
+      <c r="E36" s="491"/>
+      <c r="F36" s="491"/>
+      <c r="G36" s="491"/>
+      <c r="H36" s="491"/>
+      <c r="I36" s="504"/>
+      <c r="J36" s="491"/>
+      <c r="K36" s="491"/>
+      <c r="L36" s="491" t="s">
         <v>305</v>
       </c>
-      <c r="M36" s="488"/>
-      <c r="N36" s="488"/>
+      <c r="M36" s="491"/>
+      <c r="N36" s="491"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="490"/>
-      <c r="D37" s="488"/>
-      <c r="E37" s="488"/>
-      <c r="F37" s="488"/>
-      <c r="G37" s="488"/>
-      <c r="H37" s="488"/>
-      <c r="I37" s="503"/>
-      <c r="J37" s="488"/>
-      <c r="K37" s="488"/>
+      <c r="C37" s="502"/>
+      <c r="D37" s="491"/>
+      <c r="E37" s="491"/>
+      <c r="F37" s="491"/>
+      <c r="G37" s="491"/>
+      <c r="H37" s="491"/>
+      <c r="I37" s="505"/>
+      <c r="J37" s="491"/>
+      <c r="K37" s="491"/>
       <c r="L37" s="98" t="s">
         <v>310</v>
       </c>
@@ -32027,13 +32033,13 @@
       <c r="C38" s="96">
         <v>43910</v>
       </c>
-      <c r="D38" s="488" t="s">
+      <c r="D38" s="491" t="s">
         <v>306</v>
       </c>
-      <c r="E38" s="488"/>
-      <c r="F38" s="488"/>
-      <c r="G38" s="488"/>
-      <c r="H38" s="488"/>
+      <c r="E38" s="491"/>
+      <c r="F38" s="491"/>
+      <c r="G38" s="491"/>
+      <c r="H38" s="491"/>
       <c r="I38" s="33" t="s">
         <v>307</v>
       </c>
@@ -32047,14 +32053,14 @@
       <c r="C39" s="96">
         <v>43911</v>
       </c>
-      <c r="D39" s="491"/>
-      <c r="E39" s="492"/>
-      <c r="F39" s="492"/>
-      <c r="G39" s="492"/>
-      <c r="H39" s="493"/>
-      <c r="I39" s="498"/>
-      <c r="J39" s="491"/>
-      <c r="K39" s="493"/>
+      <c r="D39" s="492"/>
+      <c r="E39" s="493"/>
+      <c r="F39" s="493"/>
+      <c r="G39" s="493"/>
+      <c r="H39" s="494"/>
+      <c r="I39" s="499"/>
+      <c r="J39" s="492"/>
+      <c r="K39" s="494"/>
       <c r="L39" s="97" t="s">
         <v>304</v>
       </c>
@@ -32063,30 +32069,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="494"/>
-      <c r="E40" s="482"/>
-      <c r="F40" s="482"/>
-      <c r="G40" s="482"/>
-      <c r="H40" s="495"/>
-      <c r="I40" s="499"/>
-      <c r="J40" s="494"/>
-      <c r="K40" s="495"/>
-      <c r="L40" s="488" t="s">
+      <c r="D40" s="495"/>
+      <c r="E40" s="485"/>
+      <c r="F40" s="485"/>
+      <c r="G40" s="485"/>
+      <c r="H40" s="496"/>
+      <c r="I40" s="500"/>
+      <c r="J40" s="495"/>
+      <c r="K40" s="496"/>
+      <c r="L40" s="491" t="s">
         <v>308</v>
       </c>
-      <c r="M40" s="488"/>
-      <c r="N40" s="488"/>
+      <c r="M40" s="491"/>
+      <c r="N40" s="491"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="494"/>
-      <c r="E41" s="482"/>
-      <c r="F41" s="482"/>
-      <c r="G41" s="482"/>
-      <c r="H41" s="495"/>
-      <c r="I41" s="500"/>
-      <c r="J41" s="494"/>
-      <c r="K41" s="495"/>
+      <c r="D41" s="495"/>
+      <c r="E41" s="485"/>
+      <c r="F41" s="485"/>
+      <c r="G41" s="485"/>
+      <c r="H41" s="496"/>
+      <c r="I41" s="501"/>
+      <c r="J41" s="495"/>
+      <c r="K41" s="496"/>
       <c r="L41" s="98" t="s">
         <v>310</v>
       </c>
@@ -32095,16 +32101,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="496"/>
-      <c r="E42" s="475"/>
-      <c r="F42" s="475"/>
-      <c r="G42" s="475"/>
-      <c r="H42" s="497"/>
+      <c r="D42" s="497"/>
+      <c r="E42" s="478"/>
+      <c r="F42" s="478"/>
+      <c r="G42" s="478"/>
+      <c r="H42" s="498"/>
       <c r="I42" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="J42" s="496"/>
-      <c r="K42" s="497"/>
+      <c r="J42" s="497"/>
+      <c r="K42" s="498"/>
       <c r="L42" s="99" t="s">
         <v>309</v>
       </c>
@@ -32416,17 +32422,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -32434,12 +32435,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32461,29 +32467,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="514" t="s">
+      <c r="B2" s="526" t="s">
         <v>769</v>
       </c>
-      <c r="C2" s="514"/>
-      <c r="D2" s="514"/>
-      <c r="E2" s="514"/>
-      <c r="F2" s="514"/>
-      <c r="G2" s="514"/>
-      <c r="H2" s="514"/>
-      <c r="I2" s="514"/>
-      <c r="J2" s="514"/>
-      <c r="K2" s="514"/>
-      <c r="L2" s="514"/>
-      <c r="M2" s="514"/>
-      <c r="N2" s="514"/>
-      <c r="O2" s="514"/>
-      <c r="P2" s="514"/>
-      <c r="Q2" s="514"/>
-      <c r="R2" s="514"/>
-      <c r="S2" s="514"/>
-      <c r="T2" s="514"/>
-      <c r="U2" s="514"/>
-      <c r="V2" s="514"/>
+      <c r="C2" s="526"/>
+      <c r="D2" s="526"/>
+      <c r="E2" s="526"/>
+      <c r="F2" s="526"/>
+      <c r="G2" s="526"/>
+      <c r="H2" s="526"/>
+      <c r="I2" s="526"/>
+      <c r="J2" s="526"/>
+      <c r="K2" s="526"/>
+      <c r="L2" s="526"/>
+      <c r="M2" s="526"/>
+      <c r="N2" s="526"/>
+      <c r="O2" s="526"/>
+      <c r="P2" s="526"/>
+      <c r="Q2" s="526"/>
+      <c r="R2" s="526"/>
+      <c r="S2" s="526"/>
+      <c r="T2" s="526"/>
+      <c r="U2" s="526"/>
+      <c r="V2" s="526"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -32516,22 +32522,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="519" t="s">
+      <c r="G5" s="507" t="s">
         <v>331</v>
       </c>
-      <c r="H5" s="519"/>
-      <c r="I5" s="519" t="s">
+      <c r="H5" s="507"/>
+      <c r="I5" s="507" t="s">
         <v>332</v>
       </c>
-      <c r="J5" s="519"/>
-      <c r="K5" s="519"/>
-      <c r="L5" s="519"/>
-      <c r="M5" s="519"/>
-      <c r="N5" s="519"/>
-      <c r="O5" s="519" t="s">
+      <c r="J5" s="507"/>
+      <c r="K5" s="507"/>
+      <c r="L5" s="507"/>
+      <c r="M5" s="507"/>
+      <c r="N5" s="507"/>
+      <c r="O5" s="507" t="s">
         <v>333</v>
       </c>
-      <c r="P5" s="519"/>
+      <c r="P5" s="507"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -32543,7 +32549,7 @@
       <c r="D6" s="113"/>
       <c r="E6" s="114"/>
       <c r="F6" s="116"/>
-      <c r="G6" s="524" t="s">
+      <c r="G6" s="508" t="s">
         <v>334</v>
       </c>
       <c r="H6" s="91"/>
@@ -32572,26 +32578,26 @@
       </c>
       <c r="E7" s="116"/>
       <c r="F7" s="116"/>
-      <c r="G7" s="440"/>
-      <c r="H7" s="525" t="s">
+      <c r="G7" s="443"/>
+      <c r="H7" s="509" t="s">
         <v>336</v>
       </c>
-      <c r="I7" s="528" t="s">
+      <c r="I7" s="512" t="s">
         <v>337</v>
       </c>
-      <c r="J7" s="529"/>
-      <c r="K7" s="530" t="s">
+      <c r="J7" s="513"/>
+      <c r="K7" s="514" t="s">
         <v>338</v>
       </c>
-      <c r="L7" s="531"/>
-      <c r="M7" s="528" t="s">
+      <c r="L7" s="515"/>
+      <c r="M7" s="512" t="s">
         <v>339</v>
       </c>
-      <c r="N7" s="529"/>
-      <c r="O7" s="536" t="s">
+      <c r="N7" s="513"/>
+      <c r="O7" s="520" t="s">
         <v>340</v>
       </c>
-      <c r="P7" s="537"/>
+      <c r="P7" s="521"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -32603,16 +32609,16 @@
       <c r="D8" s="117"/>
       <c r="E8" s="118"/>
       <c r="F8" s="116"/>
-      <c r="G8" s="440"/>
-      <c r="H8" s="526"/>
-      <c r="I8" s="430"/>
-      <c r="J8" s="432"/>
-      <c r="K8" s="532"/>
-      <c r="L8" s="533"/>
-      <c r="M8" s="430"/>
-      <c r="N8" s="432"/>
-      <c r="O8" s="538"/>
-      <c r="P8" s="539"/>
+      <c r="G8" s="443"/>
+      <c r="H8" s="510"/>
+      <c r="I8" s="433"/>
+      <c r="J8" s="435"/>
+      <c r="K8" s="516"/>
+      <c r="L8" s="517"/>
+      <c r="M8" s="433"/>
+      <c r="N8" s="435"/>
+      <c r="O8" s="522"/>
+      <c r="P8" s="523"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>66</v>
@@ -32630,16 +32636,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="440"/>
-      <c r="H9" s="526"/>
-      <c r="I9" s="430"/>
-      <c r="J9" s="432"/>
-      <c r="K9" s="532"/>
-      <c r="L9" s="533"/>
-      <c r="M9" s="430"/>
-      <c r="N9" s="432"/>
-      <c r="O9" s="538"/>
-      <c r="P9" s="539"/>
+      <c r="G9" s="443"/>
+      <c r="H9" s="510"/>
+      <c r="I9" s="433"/>
+      <c r="J9" s="435"/>
+      <c r="K9" s="516"/>
+      <c r="L9" s="517"/>
+      <c r="M9" s="433"/>
+      <c r="N9" s="435"/>
+      <c r="O9" s="522"/>
+      <c r="P9" s="523"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -32659,16 +32665,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="440"/>
-      <c r="H10" s="526"/>
-      <c r="I10" s="430"/>
-      <c r="J10" s="432"/>
-      <c r="K10" s="532"/>
-      <c r="L10" s="533"/>
-      <c r="M10" s="430"/>
-      <c r="N10" s="432"/>
-      <c r="O10" s="538"/>
-      <c r="P10" s="539"/>
+      <c r="G10" s="443"/>
+      <c r="H10" s="510"/>
+      <c r="I10" s="433"/>
+      <c r="J10" s="435"/>
+      <c r="K10" s="516"/>
+      <c r="L10" s="517"/>
+      <c r="M10" s="433"/>
+      <c r="N10" s="435"/>
+      <c r="O10" s="522"/>
+      <c r="P10" s="523"/>
       <c r="Q10" s="5" t="s">
         <v>71</v>
       </c>
@@ -32684,16 +32690,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="440"/>
-      <c r="H11" s="526"/>
-      <c r="I11" s="430"/>
-      <c r="J11" s="432"/>
-      <c r="K11" s="532"/>
-      <c r="L11" s="533"/>
-      <c r="M11" s="430"/>
-      <c r="N11" s="432"/>
-      <c r="O11" s="538"/>
-      <c r="P11" s="539"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="510"/>
+      <c r="I11" s="433"/>
+      <c r="J11" s="435"/>
+      <c r="K11" s="516"/>
+      <c r="L11" s="517"/>
+      <c r="M11" s="433"/>
+      <c r="N11" s="435"/>
+      <c r="O11" s="522"/>
+      <c r="P11" s="523"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -32711,16 +32717,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="440"/>
-      <c r="H12" s="526"/>
-      <c r="I12" s="430"/>
-      <c r="J12" s="432"/>
-      <c r="K12" s="532"/>
-      <c r="L12" s="533"/>
-      <c r="M12" s="430"/>
-      <c r="N12" s="432"/>
-      <c r="O12" s="538"/>
-      <c r="P12" s="539"/>
+      <c r="G12" s="443"/>
+      <c r="H12" s="510"/>
+      <c r="I12" s="433"/>
+      <c r="J12" s="435"/>
+      <c r="K12" s="516"/>
+      <c r="L12" s="517"/>
+      <c r="M12" s="433"/>
+      <c r="N12" s="435"/>
+      <c r="O12" s="522"/>
+      <c r="P12" s="523"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -32734,16 +32740,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="440"/>
-      <c r="H13" s="526"/>
-      <c r="I13" s="430"/>
-      <c r="J13" s="432"/>
-      <c r="K13" s="532"/>
-      <c r="L13" s="533"/>
-      <c r="M13" s="430"/>
-      <c r="N13" s="432"/>
-      <c r="O13" s="538"/>
-      <c r="P13" s="539"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="510"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="435"/>
+      <c r="K13" s="516"/>
+      <c r="L13" s="517"/>
+      <c r="M13" s="433"/>
+      <c r="N13" s="435"/>
+      <c r="O13" s="522"/>
+      <c r="P13" s="523"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -32755,16 +32761,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="440"/>
-      <c r="H14" s="526"/>
-      <c r="I14" s="430"/>
-      <c r="J14" s="432"/>
-      <c r="K14" s="532"/>
-      <c r="L14" s="533"/>
-      <c r="M14" s="430"/>
-      <c r="N14" s="432"/>
-      <c r="O14" s="538"/>
-      <c r="P14" s="539"/>
+      <c r="G14" s="443"/>
+      <c r="H14" s="510"/>
+      <c r="I14" s="433"/>
+      <c r="J14" s="435"/>
+      <c r="K14" s="516"/>
+      <c r="L14" s="517"/>
+      <c r="M14" s="433"/>
+      <c r="N14" s="435"/>
+      <c r="O14" s="522"/>
+      <c r="P14" s="523"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -32778,16 +32784,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="440"/>
-      <c r="H15" s="526"/>
-      <c r="I15" s="430"/>
-      <c r="J15" s="432"/>
-      <c r="K15" s="532"/>
-      <c r="L15" s="533"/>
-      <c r="M15" s="430"/>
-      <c r="N15" s="432"/>
-      <c r="O15" s="538"/>
-      <c r="P15" s="539"/>
+      <c r="G15" s="443"/>
+      <c r="H15" s="510"/>
+      <c r="I15" s="433"/>
+      <c r="J15" s="435"/>
+      <c r="K15" s="516"/>
+      <c r="L15" s="517"/>
+      <c r="M15" s="433"/>
+      <c r="N15" s="435"/>
+      <c r="O15" s="522"/>
+      <c r="P15" s="523"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -32799,16 +32805,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="440"/>
-      <c r="H16" s="526"/>
-      <c r="I16" s="430"/>
-      <c r="J16" s="432"/>
-      <c r="K16" s="532"/>
-      <c r="L16" s="533"/>
-      <c r="M16" s="430"/>
-      <c r="N16" s="432"/>
-      <c r="O16" s="538"/>
-      <c r="P16" s="539"/>
+      <c r="G16" s="443"/>
+      <c r="H16" s="510"/>
+      <c r="I16" s="433"/>
+      <c r="J16" s="435"/>
+      <c r="K16" s="516"/>
+      <c r="L16" s="517"/>
+      <c r="M16" s="433"/>
+      <c r="N16" s="435"/>
+      <c r="O16" s="522"/>
+      <c r="P16" s="523"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -32820,16 +32826,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="440"/>
-      <c r="H17" s="526"/>
-      <c r="I17" s="430"/>
-      <c r="J17" s="432"/>
-      <c r="K17" s="532"/>
-      <c r="L17" s="533"/>
-      <c r="M17" s="430"/>
-      <c r="N17" s="432"/>
-      <c r="O17" s="538"/>
-      <c r="P17" s="539"/>
+      <c r="G17" s="443"/>
+      <c r="H17" s="510"/>
+      <c r="I17" s="433"/>
+      <c r="J17" s="435"/>
+      <c r="K17" s="516"/>
+      <c r="L17" s="517"/>
+      <c r="M17" s="433"/>
+      <c r="N17" s="435"/>
+      <c r="O17" s="522"/>
+      <c r="P17" s="523"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -32841,16 +32847,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="440"/>
-      <c r="H18" s="526"/>
-      <c r="I18" s="430"/>
-      <c r="J18" s="432"/>
-      <c r="K18" s="532"/>
-      <c r="L18" s="533"/>
-      <c r="M18" s="430"/>
-      <c r="N18" s="432"/>
-      <c r="O18" s="538"/>
-      <c r="P18" s="539"/>
+      <c r="G18" s="443"/>
+      <c r="H18" s="510"/>
+      <c r="I18" s="433"/>
+      <c r="J18" s="435"/>
+      <c r="K18" s="516"/>
+      <c r="L18" s="517"/>
+      <c r="M18" s="433"/>
+      <c r="N18" s="435"/>
+      <c r="O18" s="522"/>
+      <c r="P18" s="523"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -32864,16 +32870,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="440"/>
-      <c r="H19" s="526"/>
-      <c r="I19" s="430"/>
-      <c r="J19" s="432"/>
-      <c r="K19" s="532"/>
-      <c r="L19" s="533"/>
-      <c r="M19" s="430"/>
-      <c r="N19" s="432"/>
-      <c r="O19" s="538"/>
-      <c r="P19" s="539"/>
+      <c r="G19" s="443"/>
+      <c r="H19" s="510"/>
+      <c r="I19" s="433"/>
+      <c r="J19" s="435"/>
+      <c r="K19" s="516"/>
+      <c r="L19" s="517"/>
+      <c r="M19" s="433"/>
+      <c r="N19" s="435"/>
+      <c r="O19" s="522"/>
+      <c r="P19" s="523"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -32885,16 +32891,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="441"/>
-      <c r="H20" s="527"/>
-      <c r="I20" s="433"/>
-      <c r="J20" s="435"/>
-      <c r="K20" s="534"/>
-      <c r="L20" s="535"/>
-      <c r="M20" s="433"/>
-      <c r="N20" s="435"/>
-      <c r="O20" s="540"/>
-      <c r="P20" s="541"/>
+      <c r="G20" s="444"/>
+      <c r="H20" s="511"/>
+      <c r="I20" s="436"/>
+      <c r="J20" s="438"/>
+      <c r="K20" s="518"/>
+      <c r="L20" s="519"/>
+      <c r="M20" s="436"/>
+      <c r="N20" s="438"/>
+      <c r="O20" s="524"/>
+      <c r="P20" s="525"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -32924,27 +32930,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="424" t="s">
+      <c r="D22" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="425"/>
+      <c r="E22" s="428"/>
       <c r="F22" s="207"/>
       <c r="G22" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="424" t="s">
+      <c r="H22" s="427" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="436"/>
-      <c r="J22" s="436"/>
-      <c r="K22" s="436"/>
-      <c r="L22" s="436"/>
-      <c r="M22" s="436"/>
-      <c r="N22" s="425"/>
-      <c r="O22" s="424" t="s">
+      <c r="I22" s="439"/>
+      <c r="J22" s="439"/>
+      <c r="K22" s="439"/>
+      <c r="L22" s="439"/>
+      <c r="M22" s="439"/>
+      <c r="N22" s="428"/>
+      <c r="O22" s="427" t="s">
         <v>341</v>
       </c>
-      <c r="P22" s="425"/>
+      <c r="P22" s="428"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -32975,53 +32981,53 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="514" t="s">
+      <c r="B25" s="526" t="s">
         <v>768</v>
       </c>
-      <c r="C25" s="514"/>
-      <c r="D25" s="514"/>
-      <c r="E25" s="514"/>
-      <c r="F25" s="514"/>
-      <c r="G25" s="514"/>
-      <c r="H25" s="514"/>
-      <c r="I25" s="514"/>
-      <c r="J25" s="514"/>
-      <c r="K25" s="514"/>
-      <c r="L25" s="514"/>
-      <c r="M25" s="514"/>
-      <c r="N25" s="514"/>
-      <c r="O25" s="514"/>
-      <c r="P25" s="514"/>
-      <c r="Q25" s="514"/>
-      <c r="R25" s="514"/>
-      <c r="S25" s="514"/>
-      <c r="T25" s="514"/>
-      <c r="U25" s="514"/>
-      <c r="V25" s="514"/>
+      <c r="C25" s="526"/>
+      <c r="D25" s="526"/>
+      <c r="E25" s="526"/>
+      <c r="F25" s="526"/>
+      <c r="G25" s="526"/>
+      <c r="H25" s="526"/>
+      <c r="I25" s="526"/>
+      <c r="J25" s="526"/>
+      <c r="K25" s="526"/>
+      <c r="L25" s="526"/>
+      <c r="M25" s="526"/>
+      <c r="N25" s="526"/>
+      <c r="O25" s="526"/>
+      <c r="P25" s="526"/>
+      <c r="Q25" s="526"/>
+      <c r="R25" s="526"/>
+      <c r="S25" s="526"/>
+      <c r="T25" s="526"/>
+      <c r="U25" s="526"/>
+      <c r="V25" s="526"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="515" t="s">
+      <c r="C26" s="527" t="s">
         <v>368</v>
       </c>
-      <c r="D26" s="515"/>
-      <c r="E26" s="515"/>
-      <c r="F26" s="515"/>
-      <c r="G26" s="515"/>
-      <c r="H26" s="515"/>
-      <c r="I26" s="515"/>
-      <c r="J26" s="515"/>
-      <c r="K26" s="515"/>
-      <c r="L26" s="515"/>
-      <c r="M26" s="515"/>
+      <c r="D26" s="527"/>
+      <c r="E26" s="527"/>
+      <c r="F26" s="527"/>
+      <c r="G26" s="527"/>
+      <c r="H26" s="527"/>
+      <c r="I26" s="527"/>
+      <c r="J26" s="527"/>
+      <c r="K26" s="527"/>
+      <c r="L26" s="527"/>
+      <c r="M26" s="527"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="516" t="s">
+      <c r="E27" s="424" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="517"/>
-      <c r="G27" s="517"/>
+      <c r="F27" s="425"/>
+      <c r="G27" s="425"/>
       <c r="H27" s="413"/>
       <c r="I27" s="413"/>
       <c r="J27" s="413"/>
@@ -33060,11 +33066,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="518" t="s">
+      <c r="O29" s="528" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="518"/>
-      <c r="Q29" s="518"/>
+      <c r="P29" s="528"/>
+      <c r="Q29" s="528"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -33109,21 +33115,21 @@
         <v>74</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="511" t="s">
+      <c r="E32" s="532" t="s">
         <v>772</v>
       </c>
-      <c r="F32" s="512"/>
-      <c r="G32" s="513"/>
-      <c r="H32" s="511" t="s">
+      <c r="F32" s="533"/>
+      <c r="G32" s="534"/>
+      <c r="H32" s="532" t="s">
         <v>773</v>
       </c>
-      <c r="I32" s="512"/>
-      <c r="J32" s="513"/>
-      <c r="K32" s="511" t="s">
+      <c r="I32" s="533"/>
+      <c r="J32" s="534"/>
+      <c r="K32" s="532" t="s">
         <v>774</v>
       </c>
-      <c r="L32" s="512"/>
-      <c r="M32" s="513"/>
+      <c r="L32" s="533"/>
+      <c r="M32" s="534"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -33140,15 +33146,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="511"/>
-      <c r="F33" s="512"/>
-      <c r="G33" s="513"/>
-      <c r="H33" s="511"/>
-      <c r="I33" s="512"/>
-      <c r="J33" s="513"/>
-      <c r="K33" s="511"/>
-      <c r="L33" s="512"/>
-      <c r="M33" s="513"/>
+      <c r="E33" s="532"/>
+      <c r="F33" s="533"/>
+      <c r="G33" s="534"/>
+      <c r="H33" s="532"/>
+      <c r="I33" s="533"/>
+      <c r="J33" s="534"/>
+      <c r="K33" s="532"/>
+      <c r="L33" s="533"/>
+      <c r="M33" s="534"/>
       <c r="N33" s="5" t="s">
         <v>71</v>
       </c>
@@ -33165,15 +33171,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="511"/>
-      <c r="F34" s="512"/>
-      <c r="G34" s="513"/>
-      <c r="H34" s="511"/>
-      <c r="I34" s="512"/>
-      <c r="J34" s="513"/>
-      <c r="K34" s="511"/>
-      <c r="L34" s="512"/>
-      <c r="M34" s="513"/>
+      <c r="E34" s="532"/>
+      <c r="F34" s="533"/>
+      <c r="G34" s="534"/>
+      <c r="H34" s="532"/>
+      <c r="I34" s="533"/>
+      <c r="J34" s="534"/>
+      <c r="K34" s="532"/>
+      <c r="L34" s="533"/>
+      <c r="M34" s="534"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -33184,15 +33190,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="511"/>
-      <c r="F35" s="512"/>
-      <c r="G35" s="513"/>
-      <c r="H35" s="511"/>
-      <c r="I35" s="512"/>
-      <c r="J35" s="513"/>
-      <c r="K35" s="511"/>
-      <c r="L35" s="512"/>
-      <c r="M35" s="513"/>
+      <c r="E35" s="532"/>
+      <c r="F35" s="533"/>
+      <c r="G35" s="534"/>
+      <c r="H35" s="532"/>
+      <c r="I35" s="533"/>
+      <c r="J35" s="534"/>
+      <c r="K35" s="532"/>
+      <c r="L35" s="533"/>
+      <c r="M35" s="534"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -33323,15 +33329,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="504"/>
-      <c r="F42" s="505"/>
-      <c r="G42" s="505"/>
-      <c r="H42" s="505"/>
-      <c r="I42" s="505"/>
-      <c r="J42" s="505"/>
-      <c r="K42" s="505"/>
-      <c r="L42" s="505"/>
-      <c r="M42" s="506"/>
+      <c r="E42" s="536"/>
+      <c r="F42" s="537"/>
+      <c r="G42" s="537"/>
+      <c r="H42" s="537"/>
+      <c r="I42" s="537"/>
+      <c r="J42" s="537"/>
+      <c r="K42" s="537"/>
+      <c r="L42" s="537"/>
+      <c r="M42" s="538"/>
       <c r="N42" s="35" t="s">
         <v>373</v>
       </c>
@@ -33350,23 +33356,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="424" t="s">
+      <c r="C44" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="425"/>
-      <c r="E44" s="424" t="s">
+      <c r="D44" s="428"/>
+      <c r="E44" s="427" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="436"/>
-      <c r="G44" s="425"/>
-      <c r="H44" s="424" t="s">
+      <c r="F44" s="439"/>
+      <c r="G44" s="428"/>
+      <c r="H44" s="427" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="436"/>
-      <c r="J44" s="436"/>
-      <c r="K44" s="436"/>
-      <c r="L44" s="436"/>
-      <c r="M44" s="425"/>
+      <c r="I44" s="439"/>
+      <c r="J44" s="439"/>
+      <c r="K44" s="439"/>
+      <c r="L44" s="439"/>
+      <c r="M44" s="428"/>
       <c r="Q44" t="s">
         <v>771</v>
       </c>
@@ -33386,55 +33392,55 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="514" t="s">
+      <c r="B47" s="526" t="s">
         <v>770</v>
       </c>
-      <c r="C47" s="514"/>
-      <c r="D47" s="514"/>
-      <c r="E47" s="514"/>
-      <c r="F47" s="514"/>
-      <c r="G47" s="514"/>
-      <c r="H47" s="514"/>
-      <c r="I47" s="514"/>
-      <c r="J47" s="514"/>
-      <c r="K47" s="514"/>
-      <c r="L47" s="514"/>
-      <c r="M47" s="514"/>
-      <c r="N47" s="514"/>
-      <c r="O47" s="514"/>
-      <c r="P47" s="514"/>
-      <c r="Q47" s="514"/>
-      <c r="R47" s="514"/>
-      <c r="S47" s="514"/>
-      <c r="T47" s="514"/>
-      <c r="U47" s="514"/>
-      <c r="V47" s="514"/>
+      <c r="C47" s="526"/>
+      <c r="D47" s="526"/>
+      <c r="E47" s="526"/>
+      <c r="F47" s="526"/>
+      <c r="G47" s="526"/>
+      <c r="H47" s="526"/>
+      <c r="I47" s="526"/>
+      <c r="J47" s="526"/>
+      <c r="K47" s="526"/>
+      <c r="L47" s="526"/>
+      <c r="M47" s="526"/>
+      <c r="N47" s="526"/>
+      <c r="O47" s="526"/>
+      <c r="P47" s="526"/>
+      <c r="Q47" s="526"/>
+      <c r="R47" s="526"/>
+      <c r="S47" s="526"/>
+      <c r="T47" s="526"/>
+      <c r="U47" s="526"/>
+      <c r="V47" s="526"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="515" t="s">
+      <c r="C48" s="527" t="s">
         <v>368</v>
       </c>
-      <c r="D48" s="515"/>
-      <c r="E48" s="515"/>
-      <c r="F48" s="515"/>
-      <c r="G48" s="515"/>
-      <c r="H48" s="515"/>
-      <c r="I48" s="515"/>
-      <c r="J48" s="515"/>
-      <c r="K48" s="515"/>
-      <c r="L48" s="515"/>
-      <c r="M48" s="515"/>
+      <c r="D48" s="527"/>
+      <c r="E48" s="527"/>
+      <c r="F48" s="527"/>
+      <c r="G48" s="527"/>
+      <c r="H48" s="527"/>
+      <c r="I48" s="527"/>
+      <c r="J48" s="527"/>
+      <c r="K48" s="527"/>
+      <c r="L48" s="527"/>
+      <c r="M48" s="527"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="516" t="s">
+      <c r="E49" s="424" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="517"/>
-      <c r="G49" s="517"/>
+      <c r="F49" s="425"/>
+      <c r="G49" s="425"/>
       <c r="H49" s="413"/>
       <c r="I49" s="413"/>
       <c r="J49" s="413"/>
@@ -33460,16 +33466,16 @@
       <c r="G50" s="187" t="s">
         <v>1297</v>
       </c>
-      <c r="H50" s="520" t="s">
+      <c r="H50" s="529" t="s">
         <v>773</v>
       </c>
-      <c r="I50" s="521"/>
-      <c r="J50" s="522"/>
-      <c r="K50" s="520" t="s">
+      <c r="I50" s="530"/>
+      <c r="J50" s="531"/>
+      <c r="K50" s="529" t="s">
         <v>774</v>
       </c>
-      <c r="L50" s="521"/>
-      <c r="M50" s="522"/>
+      <c r="L50" s="530"/>
+      <c r="M50" s="531"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -33483,20 +33489,20 @@
         <v>788</v>
       </c>
       <c r="F51" s="228"/>
-      <c r="G51" s="523" t="s">
+      <c r="G51" s="535" t="s">
         <v>796</v>
       </c>
-      <c r="H51" s="511"/>
-      <c r="I51" s="512"/>
-      <c r="J51" s="513"/>
-      <c r="K51" s="511"/>
-      <c r="L51" s="512"/>
-      <c r="M51" s="513"/>
-      <c r="O51" s="518" t="s">
+      <c r="H51" s="532"/>
+      <c r="I51" s="533"/>
+      <c r="J51" s="534"/>
+      <c r="K51" s="532"/>
+      <c r="L51" s="533"/>
+      <c r="M51" s="534"/>
+      <c r="O51" s="528" t="s">
         <v>63</v>
       </c>
-      <c r="P51" s="518"/>
-      <c r="Q51" s="518"/>
+      <c r="P51" s="528"/>
+      <c r="Q51" s="528"/>
       <c r="S51" s="215"/>
       <c r="T51" s="215"/>
       <c r="W51" s="35" t="s">
@@ -33510,13 +33516,13 @@
         <v>789</v>
       </c>
       <c r="F52" s="229"/>
-      <c r="G52" s="523"/>
-      <c r="H52" s="511"/>
-      <c r="I52" s="512"/>
-      <c r="J52" s="513"/>
-      <c r="K52" s="511"/>
-      <c r="L52" s="512"/>
-      <c r="M52" s="513"/>
+      <c r="G52" s="535"/>
+      <c r="H52" s="532"/>
+      <c r="I52" s="533"/>
+      <c r="J52" s="534"/>
+      <c r="K52" s="532"/>
+      <c r="L52" s="533"/>
+      <c r="M52" s="534"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -33527,13 +33533,13 @@
         <v>790</v>
       </c>
       <c r="F53" s="230"/>
-      <c r="G53" s="523"/>
-      <c r="H53" s="511"/>
-      <c r="I53" s="512"/>
-      <c r="J53" s="513"/>
-      <c r="K53" s="511"/>
-      <c r="L53" s="512"/>
-      <c r="M53" s="513"/>
+      <c r="G53" s="535"/>
+      <c r="H53" s="532"/>
+      <c r="I53" s="533"/>
+      <c r="J53" s="534"/>
+      <c r="K53" s="532"/>
+      <c r="L53" s="533"/>
+      <c r="M53" s="534"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>66</v>
@@ -33572,7 +33578,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="216"/>
       <c r="F54" s="231"/>
-      <c r="G54" s="509" t="s">
+      <c r="G54" s="541" t="s">
         <v>800</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -33619,11 +33625,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="507" t="s">
+      <c r="E55" s="539" t="s">
         <v>801</v>
       </c>
-      <c r="F55" s="508"/>
-      <c r="G55" s="510"/>
+      <c r="F55" s="540"/>
+      <c r="G55" s="542"/>
       <c r="H55" s="119" t="s">
         <v>792</v>
       </c>
@@ -33667,9 +33673,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="507"/>
-      <c r="F56" s="508"/>
-      <c r="G56" s="510"/>
+      <c r="E56" s="539"/>
+      <c r="F56" s="540"/>
+      <c r="G56" s="542"/>
       <c r="H56" s="119" t="s">
         <v>793</v>
       </c>
@@ -33699,9 +33705,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="507"/>
-      <c r="F57" s="508"/>
-      <c r="G57" s="510"/>
+      <c r="E57" s="539"/>
+      <c r="F57" s="540"/>
+      <c r="G57" s="542"/>
       <c r="H57" s="4" t="s">
         <v>805</v>
       </c>
@@ -33731,9 +33737,9 @@
         <v>76</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="507"/>
-      <c r="F58" s="508"/>
-      <c r="G58" s="510"/>
+      <c r="E58" s="539"/>
+      <c r="F58" s="540"/>
+      <c r="G58" s="542"/>
       <c r="H58" s="220" t="s">
         <v>791</v>
       </c>
@@ -33758,9 +33764,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="507"/>
-      <c r="F59" s="508"/>
-      <c r="G59" s="510"/>
+      <c r="E59" s="539"/>
+      <c r="F59" s="540"/>
+      <c r="G59" s="542"/>
       <c r="H59" s="220" t="s">
         <v>361</v>
       </c>
@@ -33785,9 +33791,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="507"/>
-      <c r="F60" s="508"/>
-      <c r="G60" s="510"/>
+      <c r="E60" s="539"/>
+      <c r="F60" s="540"/>
+      <c r="G60" s="542"/>
       <c r="H60" s="222"/>
       <c r="I60" s="223" t="s">
         <v>807</v>
@@ -33807,9 +33813,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="507"/>
-      <c r="F61" s="508"/>
-      <c r="G61" s="510"/>
+      <c r="E61" s="539"/>
+      <c r="F61" s="540"/>
+      <c r="G61" s="542"/>
       <c r="H61" s="222"/>
       <c r="I61" s="223" t="s">
         <v>808</v>
@@ -33829,7 +33835,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="211"/>
       <c r="F62" s="227"/>
-      <c r="G62" s="510"/>
+      <c r="G62" s="542"/>
       <c r="H62" s="224"/>
       <c r="I62" s="226" t="s">
         <v>809</v>
@@ -33871,17 +33877,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="504" t="s">
+      <c r="E64" s="536" t="s">
         <v>1298</v>
       </c>
-      <c r="F64" s="505"/>
-      <c r="G64" s="505"/>
-      <c r="H64" s="505"/>
-      <c r="I64" s="505"/>
-      <c r="J64" s="505"/>
-      <c r="K64" s="505"/>
-      <c r="L64" s="505"/>
-      <c r="M64" s="506"/>
+      <c r="F64" s="537"/>
+      <c r="G64" s="537"/>
+      <c r="H64" s="537"/>
+      <c r="I64" s="537"/>
+      <c r="J64" s="537"/>
+      <c r="K64" s="537"/>
+      <c r="L64" s="537"/>
+      <c r="M64" s="538"/>
       <c r="N64" s="35" t="s">
         <v>373</v>
       </c>
@@ -33910,23 +33916,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="424" t="s">
+      <c r="C66" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="425"/>
-      <c r="E66" s="424" t="s">
+      <c r="D66" s="428"/>
+      <c r="E66" s="427" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="436"/>
-      <c r="G66" s="425"/>
-      <c r="H66" s="424" t="s">
+      <c r="F66" s="439"/>
+      <c r="G66" s="428"/>
+      <c r="H66" s="427" t="s">
         <v>80</v>
       </c>
-      <c r="I66" s="436"/>
-      <c r="J66" s="436"/>
-      <c r="K66" s="436"/>
-      <c r="L66" s="436"/>
-      <c r="M66" s="425"/>
+      <c r="I66" s="439"/>
+      <c r="J66" s="439"/>
+      <c r="K66" s="439"/>
+      <c r="L66" s="439"/>
+      <c r="M66" s="428"/>
       <c r="Q66" t="s">
         <v>771</v>
       </c>
@@ -33947,23 +33953,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="488" t="s">
+      <c r="C68" s="491" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="488"/>
-      <c r="E68" s="488" t="s">
+      <c r="D68" s="491"/>
+      <c r="E68" s="491" t="s">
         <v>1006</v>
       </c>
-      <c r="F68" s="488"/>
-      <c r="G68" s="488"/>
-      <c r="H68" s="488" t="s">
+      <c r="F68" s="491"/>
+      <c r="G68" s="491"/>
+      <c r="H68" s="491" t="s">
         <v>1022</v>
       </c>
-      <c r="I68" s="488"/>
-      <c r="J68" s="488"/>
-      <c r="K68" s="488"/>
-      <c r="L68" s="488"/>
-      <c r="M68" s="488"/>
+      <c r="I68" s="491"/>
+      <c r="J68" s="491"/>
+      <c r="K68" s="491"/>
+      <c r="L68" s="491"/>
+      <c r="M68" s="491"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -34760,6 +34766,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -34776,30 +34806,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -34833,12 +34839,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="542" t="s">
+      <c r="B1" s="543" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="542"/>
-      <c r="D1" s="542"/>
-      <c r="E1" s="542"/>
+      <c r="C1" s="543"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
       <c r="I1" s="281" t="s">
         <v>1329</v>
       </c>
@@ -34967,10 +34973,10 @@
       <c r="L7" s="279"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="482"/>
-      <c r="C8" s="482"/>
-      <c r="D8" s="482"/>
-      <c r="E8" s="482"/>
+      <c r="B8" s="485"/>
+      <c r="C8" s="485"/>
+      <c r="D8" s="485"/>
+      <c r="E8" s="485"/>
       <c r="G8" t="s">
         <v>1337</v>
       </c>
@@ -35065,11 +35071,11 @@
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="25" spans="2:18">
-      <c r="B25" s="543" t="s">
+      <c r="B25" s="544" t="s">
         <v>1327</v>
       </c>
-      <c r="C25" s="544"/>
-      <c r="D25" s="544"/>
+      <c r="C25" s="545"/>
+      <c r="D25" s="545"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -37775,26 +37781,26 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C2" s="515" t="s">
+      <c r="C2" s="527" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="515"/>
-      <c r="E2" s="515"/>
-      <c r="F2" s="515"/>
-      <c r="G2" s="515"/>
-      <c r="H2" s="515"/>
-      <c r="I2" s="515"/>
-      <c r="J2" s="515"/>
-      <c r="K2" s="515"/>
-      <c r="L2" s="515"/>
+      <c r="D2" s="527"/>
+      <c r="E2" s="527"/>
+      <c r="F2" s="527"/>
+      <c r="G2" s="527"/>
+      <c r="H2" s="527"/>
+      <c r="I2" s="527"/>
+      <c r="J2" s="527"/>
+      <c r="K2" s="527"/>
+      <c r="L2" s="527"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="516" t="s">
+      <c r="E3" s="424" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="517"/>
+      <c r="F3" s="425"/>
       <c r="G3" s="413"/>
       <c r="H3" s="413"/>
       <c r="I3" s="413"/>
@@ -37831,11 +37837,11 @@
         <v>378</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="518" t="s">
+      <c r="N5" s="528" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="518"/>
-      <c r="P5" s="518"/>
+      <c r="O5" s="528"/>
+      <c r="P5" s="528"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -37895,20 +37901,20 @@
         <v>74</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="511" t="s">
+      <c r="E8" s="532" t="s">
         <v>369</v>
       </c>
-      <c r="F8" s="513"/>
-      <c r="G8" s="511" t="s">
+      <c r="F8" s="534"/>
+      <c r="G8" s="532" t="s">
         <v>370</v>
       </c>
-      <c r="H8" s="512"/>
-      <c r="I8" s="513"/>
-      <c r="J8" s="511" t="s">
+      <c r="H8" s="533"/>
+      <c r="I8" s="534"/>
+      <c r="J8" s="532" t="s">
         <v>371</v>
       </c>
-      <c r="K8" s="512"/>
-      <c r="L8" s="513"/>
+      <c r="K8" s="533"/>
+      <c r="L8" s="534"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -37931,14 +37937,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="511"/>
-      <c r="F9" s="513"/>
-      <c r="G9" s="511"/>
-      <c r="H9" s="512"/>
-      <c r="I9" s="513"/>
-      <c r="J9" s="511"/>
-      <c r="K9" s="512"/>
-      <c r="L9" s="513"/>
+      <c r="E9" s="532"/>
+      <c r="F9" s="534"/>
+      <c r="G9" s="532"/>
+      <c r="H9" s="533"/>
+      <c r="I9" s="534"/>
+      <c r="J9" s="532"/>
+      <c r="K9" s="533"/>
+      <c r="L9" s="534"/>
       <c r="M9" s="5" t="s">
         <v>71</v>
       </c>
@@ -37955,14 +37961,14 @@
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="511"/>
-      <c r="F10" s="513"/>
-      <c r="G10" s="511"/>
-      <c r="H10" s="512"/>
-      <c r="I10" s="513"/>
-      <c r="J10" s="511"/>
-      <c r="K10" s="512"/>
-      <c r="L10" s="513"/>
+      <c r="E10" s="532"/>
+      <c r="F10" s="534"/>
+      <c r="G10" s="532"/>
+      <c r="H10" s="533"/>
+      <c r="I10" s="534"/>
+      <c r="J10" s="532"/>
+      <c r="K10" s="533"/>
+      <c r="L10" s="534"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -37976,14 +37982,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="511"/>
-      <c r="F11" s="513"/>
-      <c r="G11" s="511"/>
-      <c r="H11" s="512"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="511"/>
-      <c r="K11" s="512"/>
-      <c r="L11" s="513"/>
+      <c r="E11" s="532"/>
+      <c r="F11" s="534"/>
+      <c r="G11" s="532"/>
+      <c r="H11" s="533"/>
+      <c r="I11" s="534"/>
+      <c r="J11" s="532"/>
+      <c r="K11" s="533"/>
+      <c r="L11" s="534"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -38107,16 +38113,16 @@
     <row r="17" spans="2:18" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="504" t="s">
+      <c r="E17" s="536" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="505"/>
-      <c r="G17" s="505"/>
-      <c r="H17" s="505"/>
-      <c r="I17" s="505"/>
-      <c r="J17" s="505"/>
-      <c r="K17" s="505"/>
-      <c r="L17" s="506"/>
+      <c r="F17" s="537"/>
+      <c r="G17" s="537"/>
+      <c r="H17" s="537"/>
+      <c r="I17" s="537"/>
+      <c r="J17" s="537"/>
+      <c r="K17" s="537"/>
+      <c r="L17" s="538"/>
       <c r="M17" s="35" t="s">
         <v>373</v>
       </c>
@@ -38146,40 +38152,40 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C19" s="424" t="s">
+      <c r="C19" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="425"/>
-      <c r="E19" s="424" t="s">
+      <c r="D19" s="428"/>
+      <c r="E19" s="427" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="425"/>
-      <c r="G19" s="424" t="s">
+      <c r="F19" s="428"/>
+      <c r="G19" s="427" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="436"/>
-      <c r="I19" s="436"/>
-      <c r="J19" s="436"/>
-      <c r="K19" s="436"/>
-      <c r="L19" s="425"/>
+      <c r="H19" s="439"/>
+      <c r="I19" s="439"/>
+      <c r="J19" s="439"/>
+      <c r="K19" s="439"/>
+      <c r="L19" s="428"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:18" ht="15" customHeight="1">
-      <c r="E21" s="545" t="s">
+      <c r="E21" s="546" t="s">
         <v>1035</v>
       </c>
-      <c r="F21" s="546"/>
+      <c r="F21" s="547"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="E22" s="547"/>
-      <c r="F22" s="548"/>
+      <c r="E22" s="548"/>
+      <c r="F22" s="549"/>
       <c r="J22" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="E23" s="547"/>
-      <c r="F23" s="548"/>
+      <c r="E23" s="548"/>
+      <c r="F23" s="549"/>
       <c r="H23" t="s">
         <v>1042</v>
       </c>
@@ -38191,8 +38197,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1">
-      <c r="E24" s="549"/>
-      <c r="F24" s="550"/>
+      <c r="E24" s="550"/>
+      <c r="F24" s="551"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="2:18" ht="15.75" thickBot="1">
@@ -39418,22 +39424,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="519" t="s">
+      <c r="E3" s="507" t="s">
         <v>331</v>
       </c>
-      <c r="F3" s="519"/>
-      <c r="G3" s="519" t="s">
+      <c r="F3" s="507"/>
+      <c r="G3" s="507" t="s">
         <v>332</v>
       </c>
-      <c r="H3" s="519"/>
-      <c r="I3" s="519"/>
-      <c r="J3" s="519"/>
-      <c r="K3" s="519"/>
-      <c r="L3" s="519"/>
-      <c r="M3" s="519" t="s">
+      <c r="H3" s="507"/>
+      <c r="I3" s="507"/>
+      <c r="J3" s="507"/>
+      <c r="K3" s="507"/>
+      <c r="L3" s="507"/>
+      <c r="M3" s="507" t="s">
         <v>333</v>
       </c>
-      <c r="N3" s="519"/>
+      <c r="N3" s="507"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -39444,7 +39450,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="113"/>
       <c r="D4" s="114"/>
-      <c r="E4" s="524" t="s">
+      <c r="E4" s="508" t="s">
         <v>334</v>
       </c>
       <c r="F4" s="109"/>
@@ -39472,22 +39478,22 @@
         <v>65</v>
       </c>
       <c r="D5" s="116"/>
-      <c r="E5" s="440"/>
-      <c r="F5" s="451" t="s">
+      <c r="E5" s="443"/>
+      <c r="F5" s="454" t="s">
         <v>406</v>
       </c>
-      <c r="G5" s="452"/>
-      <c r="H5" s="453"/>
-      <c r="I5" s="551" t="s">
+      <c r="G5" s="455"/>
+      <c r="H5" s="456"/>
+      <c r="I5" s="589" t="s">
         <v>407</v>
       </c>
-      <c r="J5" s="552"/>
-      <c r="K5" s="552"/>
-      <c r="L5" s="531"/>
-      <c r="M5" s="551" t="s">
+      <c r="J5" s="590"/>
+      <c r="K5" s="590"/>
+      <c r="L5" s="515"/>
+      <c r="M5" s="589" t="s">
         <v>408</v>
       </c>
-      <c r="N5" s="531"/>
+      <c r="N5" s="515"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -39498,16 +39504,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="117"/>
       <c r="D6" s="118"/>
-      <c r="E6" s="440"/>
-      <c r="F6" s="454"/>
-      <c r="G6" s="455"/>
-      <c r="H6" s="456"/>
-      <c r="I6" s="532"/>
+      <c r="E6" s="443"/>
+      <c r="F6" s="457"/>
+      <c r="G6" s="458"/>
+      <c r="H6" s="459"/>
+      <c r="I6" s="516"/>
       <c r="J6" s="419"/>
       <c r="K6" s="419"/>
-      <c r="L6" s="533"/>
-      <c r="M6" s="532"/>
-      <c r="N6" s="533"/>
+      <c r="L6" s="517"/>
+      <c r="M6" s="516"/>
+      <c r="N6" s="517"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>66</v>
@@ -39524,16 +39530,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="455"/>
-      <c r="H7" s="456"/>
-      <c r="I7" s="532"/>
+      <c r="E7" s="443"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="516"/>
       <c r="J7" s="419"/>
       <c r="K7" s="419"/>
-      <c r="L7" s="533"/>
-      <c r="M7" s="532"/>
-      <c r="N7" s="533"/>
+      <c r="L7" s="517"/>
+      <c r="M7" s="516"/>
+      <c r="N7" s="517"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -39552,16 +39558,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="440"/>
-      <c r="F8" s="454"/>
-      <c r="G8" s="455"/>
-      <c r="H8" s="456"/>
-      <c r="I8" s="532"/>
+      <c r="E8" s="443"/>
+      <c r="F8" s="457"/>
+      <c r="G8" s="458"/>
+      <c r="H8" s="459"/>
+      <c r="I8" s="516"/>
       <c r="J8" s="419"/>
       <c r="K8" s="419"/>
-      <c r="L8" s="533"/>
-      <c r="M8" s="532"/>
-      <c r="N8" s="533"/>
+      <c r="L8" s="517"/>
+      <c r="M8" s="516"/>
+      <c r="N8" s="517"/>
       <c r="O8" s="5" t="s">
         <v>71</v>
       </c>
@@ -39582,16 +39588,16 @@
         <v>74</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="440"/>
-      <c r="F9" s="454"/>
-      <c r="G9" s="455"/>
-      <c r="H9" s="456"/>
-      <c r="I9" s="532"/>
+      <c r="E9" s="443"/>
+      <c r="F9" s="457"/>
+      <c r="G9" s="458"/>
+      <c r="H9" s="459"/>
+      <c r="I9" s="516"/>
       <c r="J9" s="419"/>
       <c r="K9" s="419"/>
-      <c r="L9" s="533"/>
-      <c r="M9" s="532"/>
-      <c r="N9" s="533"/>
+      <c r="L9" s="517"/>
+      <c r="M9" s="516"/>
+      <c r="N9" s="517"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -39608,16 +39614,16 @@
         <v>350</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="440"/>
-      <c r="F10" s="454"/>
-      <c r="G10" s="455"/>
-      <c r="H10" s="456"/>
-      <c r="I10" s="532"/>
+      <c r="E10" s="443"/>
+      <c r="F10" s="457"/>
+      <c r="G10" s="458"/>
+      <c r="H10" s="459"/>
+      <c r="I10" s="516"/>
       <c r="J10" s="419"/>
       <c r="K10" s="419"/>
-      <c r="L10" s="533"/>
-      <c r="M10" s="532"/>
-      <c r="N10" s="533"/>
+      <c r="L10" s="517"/>
+      <c r="M10" s="516"/>
+      <c r="N10" s="517"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -39630,16 +39636,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="440"/>
-      <c r="F11" s="454"/>
-      <c r="G11" s="455"/>
-      <c r="H11" s="456"/>
-      <c r="I11" s="532"/>
+      <c r="E11" s="443"/>
+      <c r="F11" s="457"/>
+      <c r="G11" s="458"/>
+      <c r="H11" s="459"/>
+      <c r="I11" s="516"/>
       <c r="J11" s="419"/>
       <c r="K11" s="419"/>
-      <c r="L11" s="533"/>
-      <c r="M11" s="532"/>
-      <c r="N11" s="533"/>
+      <c r="L11" s="517"/>
+      <c r="M11" s="516"/>
+      <c r="N11" s="517"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -39650,16 +39656,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="440"/>
-      <c r="F12" s="454"/>
-      <c r="G12" s="455"/>
-      <c r="H12" s="456"/>
-      <c r="I12" s="532"/>
+      <c r="E12" s="443"/>
+      <c r="F12" s="457"/>
+      <c r="G12" s="458"/>
+      <c r="H12" s="459"/>
+      <c r="I12" s="516"/>
       <c r="J12" s="419"/>
       <c r="K12" s="419"/>
-      <c r="L12" s="533"/>
-      <c r="M12" s="532"/>
-      <c r="N12" s="533"/>
+      <c r="L12" s="517"/>
+      <c r="M12" s="516"/>
+      <c r="N12" s="517"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -39672,16 +39678,16 @@
         <v>76</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="440"/>
-      <c r="F13" s="454"/>
-      <c r="G13" s="455"/>
-      <c r="H13" s="456"/>
-      <c r="I13" s="532"/>
+      <c r="E13" s="443"/>
+      <c r="F13" s="457"/>
+      <c r="G13" s="458"/>
+      <c r="H13" s="459"/>
+      <c r="I13" s="516"/>
       <c r="J13" s="419"/>
       <c r="K13" s="419"/>
-      <c r="L13" s="533"/>
-      <c r="M13" s="532"/>
-      <c r="N13" s="533"/>
+      <c r="L13" s="517"/>
+      <c r="M13" s="516"/>
+      <c r="N13" s="517"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -39692,16 +39698,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="440"/>
-      <c r="F14" s="454"/>
-      <c r="G14" s="455"/>
-      <c r="H14" s="456"/>
-      <c r="I14" s="532"/>
+      <c r="E14" s="443"/>
+      <c r="F14" s="457"/>
+      <c r="G14" s="458"/>
+      <c r="H14" s="459"/>
+      <c r="I14" s="516"/>
       <c r="J14" s="419"/>
       <c r="K14" s="419"/>
-      <c r="L14" s="533"/>
-      <c r="M14" s="532"/>
-      <c r="N14" s="533"/>
+      <c r="L14" s="517"/>
+      <c r="M14" s="516"/>
+      <c r="N14" s="517"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -39712,16 +39718,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="440"/>
-      <c r="F15" s="454"/>
-      <c r="G15" s="455"/>
-      <c r="H15" s="456"/>
-      <c r="I15" s="532"/>
+      <c r="E15" s="443"/>
+      <c r="F15" s="457"/>
+      <c r="G15" s="458"/>
+      <c r="H15" s="459"/>
+      <c r="I15" s="516"/>
       <c r="J15" s="419"/>
       <c r="K15" s="419"/>
-      <c r="L15" s="533"/>
-      <c r="M15" s="532"/>
-      <c r="N15" s="533"/>
+      <c r="L15" s="517"/>
+      <c r="M15" s="516"/>
+      <c r="N15" s="517"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -39732,16 +39738,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="440"/>
-      <c r="F16" s="454"/>
-      <c r="G16" s="455"/>
-      <c r="H16" s="456"/>
-      <c r="I16" s="532"/>
+      <c r="E16" s="443"/>
+      <c r="F16" s="457"/>
+      <c r="G16" s="458"/>
+      <c r="H16" s="459"/>
+      <c r="I16" s="516"/>
       <c r="J16" s="419"/>
       <c r="K16" s="419"/>
-      <c r="L16" s="533"/>
-      <c r="M16" s="532"/>
-      <c r="N16" s="533"/>
+      <c r="L16" s="517"/>
+      <c r="M16" s="516"/>
+      <c r="N16" s="517"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -39754,16 +39760,16 @@
         <v>77</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="440"/>
-      <c r="F17" s="454"/>
-      <c r="G17" s="455"/>
-      <c r="H17" s="456"/>
-      <c r="I17" s="532"/>
+      <c r="E17" s="443"/>
+      <c r="F17" s="457"/>
+      <c r="G17" s="458"/>
+      <c r="H17" s="459"/>
+      <c r="I17" s="516"/>
       <c r="J17" s="419"/>
       <c r="K17" s="419"/>
-      <c r="L17" s="533"/>
-      <c r="M17" s="532"/>
-      <c r="N17" s="533"/>
+      <c r="L17" s="517"/>
+      <c r="M17" s="516"/>
+      <c r="N17" s="517"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -39774,16 +39780,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="441"/>
-      <c r="F18" s="457"/>
-      <c r="G18" s="458"/>
-      <c r="H18" s="459"/>
-      <c r="I18" s="534"/>
-      <c r="J18" s="553"/>
-      <c r="K18" s="553"/>
-      <c r="L18" s="535"/>
-      <c r="M18" s="534"/>
-      <c r="N18" s="535"/>
+      <c r="E18" s="444"/>
+      <c r="F18" s="460"/>
+      <c r="G18" s="461"/>
+      <c r="H18" s="462"/>
+      <c r="I18" s="518"/>
+      <c r="J18" s="591"/>
+      <c r="K18" s="591"/>
+      <c r="L18" s="519"/>
+      <c r="M18" s="518"/>
+      <c r="N18" s="519"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -39812,26 +39818,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="424" t="s">
+      <c r="C20" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="425"/>
+      <c r="D20" s="428"/>
       <c r="E20" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="424" t="s">
+      <c r="F20" s="427" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="436"/>
-      <c r="H20" s="436"/>
-      <c r="I20" s="436"/>
-      <c r="J20" s="436"/>
-      <c r="K20" s="436"/>
-      <c r="L20" s="425"/>
-      <c r="M20" s="424" t="s">
+      <c r="G20" s="439"/>
+      <c r="H20" s="439"/>
+      <c r="I20" s="439"/>
+      <c r="J20" s="439"/>
+      <c r="K20" s="439"/>
+      <c r="L20" s="428"/>
+      <c r="M20" s="427" t="s">
         <v>341</v>
       </c>
-      <c r="N20" s="425"/>
+      <c r="N20" s="428"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -39859,29 +39865,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="518" t="s">
+      <c r="B24" s="528" t="s">
         <v>368</v>
       </c>
-      <c r="C24" s="518"/>
-      <c r="D24" s="515"/>
-      <c r="E24" s="515"/>
-      <c r="F24" s="515"/>
-      <c r="G24" s="515"/>
-      <c r="H24" s="515"/>
-      <c r="I24" s="515"/>
-      <c r="J24" s="515"/>
-      <c r="K24" s="515"/>
-      <c r="M24" s="580" t="s">
+      <c r="C24" s="528"/>
+      <c r="D24" s="527"/>
+      <c r="E24" s="527"/>
+      <c r="F24" s="527"/>
+      <c r="G24" s="527"/>
+      <c r="H24" s="527"/>
+      <c r="I24" s="527"/>
+      <c r="J24" s="527"/>
+      <c r="K24" s="527"/>
+      <c r="M24" s="552" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="580"/>
-      <c r="O24" s="580"/>
+      <c r="N24" s="552"/>
+      <c r="O24" s="552"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="581" t="s">
+      <c r="B25" s="553" t="s">
         <v>648</v>
       </c>
-      <c r="C25" s="493"/>
+      <c r="C25" s="494"/>
       <c r="D25" s="413" t="s">
         <v>62</v>
       </c>
@@ -39903,22 +39909,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="494"/>
-      <c r="C26" s="495"/>
-      <c r="D26" s="554" t="s">
+      <c r="B26" s="495"/>
+      <c r="C26" s="496"/>
+      <c r="D26" s="566" t="s">
         <v>641</v>
       </c>
-      <c r="E26" s="555"/>
-      <c r="F26" s="573" t="s">
+      <c r="E26" s="567"/>
+      <c r="F26" s="584" t="s">
         <v>641</v>
       </c>
-      <c r="G26" s="574"/>
-      <c r="H26" s="575"/>
-      <c r="I26" s="578" t="s">
+      <c r="G26" s="585"/>
+      <c r="H26" s="586"/>
+      <c r="I26" s="588" t="s">
         <v>1387</v>
       </c>
-      <c r="J26" s="574"/>
-      <c r="K26" s="575"/>
+      <c r="J26" s="585"/>
+      <c r="K26" s="586"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -39933,22 +39939,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="494"/>
-      <c r="C27" s="495"/>
-      <c r="D27" s="556" t="s">
+      <c r="B27" s="495"/>
+      <c r="C27" s="496"/>
+      <c r="D27" s="564" t="s">
         <v>646</v>
       </c>
-      <c r="E27" s="557"/>
-      <c r="F27" s="576" t="s">
+      <c r="E27" s="568"/>
+      <c r="F27" s="587" t="s">
         <v>642</v>
       </c>
-      <c r="G27" s="556"/>
-      <c r="H27" s="577"/>
-      <c r="I27" s="579" t="s">
+      <c r="G27" s="564"/>
+      <c r="H27" s="565"/>
+      <c r="I27" s="563" t="s">
         <v>1388</v>
       </c>
-      <c r="J27" s="556"/>
-      <c r="K27" s="577"/>
+      <c r="J27" s="564"/>
+      <c r="K27" s="565"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -39963,22 +39969,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="494"/>
-      <c r="C28" s="495"/>
-      <c r="D28" s="556" t="s">
+      <c r="B28" s="495"/>
+      <c r="C28" s="496"/>
+      <c r="D28" s="564" t="s">
         <v>643</v>
       </c>
-      <c r="E28" s="557"/>
-      <c r="F28" s="576" t="s">
+      <c r="E28" s="568"/>
+      <c r="F28" s="587" t="s">
         <v>643</v>
       </c>
-      <c r="G28" s="556"/>
-      <c r="H28" s="577"/>
-      <c r="I28" s="579" t="s">
+      <c r="G28" s="564"/>
+      <c r="H28" s="565"/>
+      <c r="I28" s="563" t="s">
         <v>1389</v>
       </c>
-      <c r="J28" s="556"/>
-      <c r="K28" s="577"/>
+      <c r="J28" s="564"/>
+      <c r="K28" s="565"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -39987,22 +39993,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="496"/>
-      <c r="C29" s="497"/>
-      <c r="D29" s="556" t="s">
+      <c r="B29" s="497"/>
+      <c r="C29" s="498"/>
+      <c r="D29" s="564" t="s">
         <v>644</v>
       </c>
-      <c r="E29" s="557"/>
-      <c r="F29" s="576" t="s">
+      <c r="E29" s="568"/>
+      <c r="F29" s="587" t="s">
         <v>644</v>
       </c>
-      <c r="G29" s="556"/>
-      <c r="H29" s="577"/>
-      <c r="I29" s="579" t="s">
+      <c r="G29" s="564"/>
+      <c r="H29" s="565"/>
+      <c r="I29" s="563" t="s">
         <v>1390</v>
       </c>
-      <c r="J29" s="556"/>
-      <c r="K29" s="577"/>
+      <c r="J29" s="564"/>
+      <c r="K29" s="565"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -40011,149 +40017,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="426" t="s">
+      <c r="B30" s="429" t="s">
         <v>647</v>
       </c>
-      <c r="C30" s="428"/>
-      <c r="D30" s="558" t="s">
+      <c r="C30" s="431"/>
+      <c r="D30" s="569" t="s">
         <v>369</v>
       </c>
-      <c r="E30" s="559"/>
-      <c r="F30" s="564" t="s">
+      <c r="E30" s="570"/>
+      <c r="F30" s="575" t="s">
         <v>370</v>
       </c>
-      <c r="G30" s="565"/>
-      <c r="H30" s="559"/>
-      <c r="I30" s="564" t="s">
+      <c r="G30" s="576"/>
+      <c r="H30" s="570"/>
+      <c r="I30" s="575" t="s">
         <v>371</v>
       </c>
-      <c r="J30" s="565"/>
-      <c r="K30" s="570"/>
+      <c r="J30" s="576"/>
+      <c r="K30" s="581"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="430"/>
-      <c r="C31" s="431"/>
-      <c r="D31" s="560"/>
-      <c r="E31" s="561"/>
-      <c r="F31" s="566"/>
-      <c r="G31" s="567"/>
-      <c r="H31" s="561"/>
-      <c r="I31" s="566"/>
-      <c r="J31" s="567"/>
-      <c r="K31" s="571"/>
+      <c r="B31" s="433"/>
+      <c r="C31" s="434"/>
+      <c r="D31" s="571"/>
+      <c r="E31" s="572"/>
+      <c r="F31" s="577"/>
+      <c r="G31" s="578"/>
+      <c r="H31" s="572"/>
+      <c r="I31" s="577"/>
+      <c r="J31" s="578"/>
+      <c r="K31" s="582"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="430"/>
-      <c r="C32" s="431"/>
-      <c r="D32" s="560"/>
-      <c r="E32" s="561"/>
-      <c r="F32" s="566"/>
-      <c r="G32" s="567"/>
-      <c r="H32" s="561"/>
-      <c r="I32" s="566"/>
-      <c r="J32" s="567"/>
-      <c r="K32" s="571"/>
+      <c r="B32" s="433"/>
+      <c r="C32" s="434"/>
+      <c r="D32" s="571"/>
+      <c r="E32" s="572"/>
+      <c r="F32" s="577"/>
+      <c r="G32" s="578"/>
+      <c r="H32" s="572"/>
+      <c r="I32" s="577"/>
+      <c r="J32" s="578"/>
+      <c r="K32" s="582"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="430"/>
-      <c r="C33" s="431"/>
-      <c r="D33" s="562"/>
-      <c r="E33" s="563"/>
-      <c r="F33" s="568"/>
-      <c r="G33" s="569"/>
-      <c r="H33" s="563"/>
-      <c r="I33" s="568"/>
-      <c r="J33" s="569"/>
-      <c r="K33" s="572"/>
+      <c r="B33" s="433"/>
+      <c r="C33" s="434"/>
+      <c r="D33" s="573"/>
+      <c r="E33" s="574"/>
+      <c r="F33" s="579"/>
+      <c r="G33" s="580"/>
+      <c r="H33" s="574"/>
+      <c r="I33" s="579"/>
+      <c r="J33" s="580"/>
+      <c r="K33" s="583"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="430"/>
-      <c r="C34" s="432"/>
-      <c r="D34" s="582" t="s">
+      <c r="B34" s="433"/>
+      <c r="C34" s="435"/>
+      <c r="D34" s="554" t="s">
         <v>634</v>
       </c>
-      <c r="E34" s="583"/>
-      <c r="F34" s="582" t="s">
+      <c r="E34" s="555"/>
+      <c r="F34" s="554" t="s">
         <v>382</v>
       </c>
-      <c r="G34" s="588"/>
-      <c r="H34" s="583"/>
-      <c r="I34" s="582" t="s">
+      <c r="G34" s="560"/>
+      <c r="H34" s="555"/>
+      <c r="I34" s="554" t="s">
         <v>649</v>
       </c>
-      <c r="J34" s="588"/>
-      <c r="K34" s="583"/>
+      <c r="J34" s="560"/>
+      <c r="K34" s="555"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="430"/>
-      <c r="C35" s="432"/>
-      <c r="D35" s="584"/>
-      <c r="E35" s="585"/>
-      <c r="F35" s="584"/>
-      <c r="G35" s="589"/>
-      <c r="H35" s="585"/>
-      <c r="I35" s="584"/>
-      <c r="J35" s="589"/>
-      <c r="K35" s="585"/>
+      <c r="B35" s="433"/>
+      <c r="C35" s="435"/>
+      <c r="D35" s="556"/>
+      <c r="E35" s="557"/>
+      <c r="F35" s="556"/>
+      <c r="G35" s="561"/>
+      <c r="H35" s="557"/>
+      <c r="I35" s="556"/>
+      <c r="J35" s="561"/>
+      <c r="K35" s="557"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="430"/>
-      <c r="C36" s="432"/>
-      <c r="D36" s="584"/>
-      <c r="E36" s="585"/>
-      <c r="F36" s="584"/>
-      <c r="G36" s="589"/>
-      <c r="H36" s="585"/>
-      <c r="I36" s="584"/>
-      <c r="J36" s="589"/>
-      <c r="K36" s="585"/>
+      <c r="B36" s="433"/>
+      <c r="C36" s="435"/>
+      <c r="D36" s="556"/>
+      <c r="E36" s="557"/>
+      <c r="F36" s="556"/>
+      <c r="G36" s="561"/>
+      <c r="H36" s="557"/>
+      <c r="I36" s="556"/>
+      <c r="J36" s="561"/>
+      <c r="K36" s="557"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="430"/>
-      <c r="C37" s="432"/>
-      <c r="D37" s="584"/>
-      <c r="E37" s="585"/>
-      <c r="F37" s="584"/>
-      <c r="G37" s="589"/>
-      <c r="H37" s="585"/>
-      <c r="I37" s="584"/>
-      <c r="J37" s="589"/>
-      <c r="K37" s="585"/>
+      <c r="B37" s="433"/>
+      <c r="C37" s="435"/>
+      <c r="D37" s="556"/>
+      <c r="E37" s="557"/>
+      <c r="F37" s="556"/>
+      <c r="G37" s="561"/>
+      <c r="H37" s="557"/>
+      <c r="I37" s="556"/>
+      <c r="J37" s="561"/>
+      <c r="K37" s="557"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="430"/>
-      <c r="C38" s="432"/>
-      <c r="D38" s="586"/>
-      <c r="E38" s="587"/>
-      <c r="F38" s="586"/>
-      <c r="G38" s="590"/>
-      <c r="H38" s="587"/>
-      <c r="I38" s="586"/>
-      <c r="J38" s="590"/>
-      <c r="K38" s="587"/>
+      <c r="B38" s="433"/>
+      <c r="C38" s="435"/>
+      <c r="D38" s="558"/>
+      <c r="E38" s="559"/>
+      <c r="F38" s="558"/>
+      <c r="G38" s="562"/>
+      <c r="H38" s="559"/>
+      <c r="I38" s="558"/>
+      <c r="J38" s="562"/>
+      <c r="K38" s="559"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="433"/>
-      <c r="C39" s="435"/>
-      <c r="D39" s="504" t="s">
+      <c r="B39" s="436"/>
+      <c r="C39" s="438"/>
+      <c r="D39" s="536" t="s">
         <v>372</v>
       </c>
-      <c r="E39" s="505"/>
-      <c r="F39" s="505"/>
-      <c r="G39" s="505"/>
-      <c r="H39" s="505"/>
-      <c r="I39" s="505"/>
-      <c r="J39" s="505"/>
-      <c r="K39" s="506"/>
+      <c r="E39" s="537"/>
+      <c r="F39" s="537"/>
+      <c r="G39" s="537"/>
+      <c r="H39" s="537"/>
+      <c r="I39" s="537"/>
+      <c r="J39" s="537"/>
+      <c r="K39" s="538"/>
       <c r="L39" s="35" t="s">
         <v>373</v>
       </c>
@@ -40171,36 +40177,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="424" t="s">
+      <c r="B41" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="425"/>
-      <c r="D41" s="424" t="s">
+      <c r="C41" s="428"/>
+      <c r="D41" s="427" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="425"/>
-      <c r="F41" s="424" t="s">
+      <c r="E41" s="428"/>
+      <c r="F41" s="427" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="436"/>
-      <c r="H41" s="436"/>
-      <c r="I41" s="436"/>
-      <c r="J41" s="436"/>
-      <c r="K41" s="425"/>
+      <c r="G41" s="439"/>
+      <c r="H41" s="439"/>
+      <c r="I41" s="439"/>
+      <c r="J41" s="439"/>
+      <c r="K41" s="428"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -40217,16 +40222,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -42042,7 +42048,7 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E9" sqref="E9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42052,7 +42058,11 @@
     <col min="13" max="13" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:22" ht="15.75" thickBot="1">
+      <c r="H1" t="s">
+        <v>2015</v>
+      </c>
+    </row>
     <row r="2" spans="1:22">
       <c r="B2" t="s">
         <v>1073</v>
@@ -42124,7 +42134,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="54" t="s">
-        <v>64</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
@@ -42160,7 +42170,9 @@
         <v>1994</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -42245,10 +42257,10 @@
       <c r="L8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="437" t="s">
+      <c r="M8" s="440" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="438"/>
+      <c r="N8" s="441"/>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
@@ -42280,8 +42292,8 @@
       <c r="L9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="438"/>
-      <c r="N9" s="438"/>
+      <c r="M9" s="441"/>
+      <c r="N9" s="441"/>
       <c r="O9" s="5" t="s">
         <v>71</v>
       </c>
@@ -42320,8 +42332,8 @@
       <c r="L10" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="M10" s="438"/>
-      <c r="N10" s="438"/>
+      <c r="M10" s="441"/>
+      <c r="N10" s="441"/>
       <c r="O10" s="5"/>
       <c r="P10" s="188" t="s">
         <v>242</v>
@@ -42334,13 +42346,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="426" t="s">
+      <c r="A11" s="429" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="427"/>
-      <c r="C11" s="428"/>
-      <c r="D11" s="428"/>
-      <c r="E11" s="429"/>
+      <c r="B11" s="430"/>
+      <c r="C11" s="431"/>
+      <c r="D11" s="431"/>
+      <c r="E11" s="432"/>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
         <v>74</v>
@@ -42348,8 +42360,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="438"/>
-      <c r="N11" s="438"/>
+      <c r="M11" s="441"/>
+      <c r="N11" s="441"/>
       <c r="O11" s="5"/>
       <c r="P11" s="188" t="s">
         <v>243</v>
@@ -42359,11 +42371,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="430"/>
-      <c r="B12" s="431"/>
-      <c r="C12" s="431"/>
-      <c r="D12" s="431"/>
-      <c r="E12" s="432"/>
+      <c r="A12" s="433"/>
+      <c r="B12" s="434"/>
+      <c r="C12" s="434"/>
+      <c r="D12" s="434"/>
+      <c r="E12" s="435"/>
       <c r="F12" t="s">
         <v>2013</v>
       </c>
@@ -42372,8 +42384,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="438"/>
-      <c r="N12" s="438"/>
+      <c r="M12" s="441"/>
+      <c r="N12" s="441"/>
       <c r="O12" s="5"/>
       <c r="P12" s="188" t="s">
         <v>980</v>
@@ -42383,11 +42395,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="430"/>
-      <c r="B13" s="431"/>
-      <c r="C13" s="431"/>
-      <c r="D13" s="431"/>
-      <c r="E13" s="432"/>
+      <c r="A13" s="433"/>
+      <c r="B13" s="434"/>
+      <c r="C13" s="434"/>
+      <c r="D13" s="434"/>
+      <c r="E13" s="435"/>
       <c r="G13" t="s">
         <v>2001</v>
       </c>
@@ -42398,8 +42410,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="438"/>
-      <c r="N13" s="438"/>
+      <c r="M13" s="441"/>
+      <c r="N13" s="441"/>
       <c r="O13" s="26"/>
       <c r="P13" s="188"/>
       <c r="S13" t="s">
@@ -42407,11 +42419,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="433"/>
-      <c r="B14" s="434"/>
-      <c r="C14" s="434"/>
-      <c r="D14" s="434"/>
-      <c r="E14" s="435"/>
+      <c r="A14" s="436"/>
+      <c r="B14" s="437"/>
+      <c r="C14" s="437"/>
+      <c r="D14" s="437"/>
+      <c r="E14" s="438"/>
       <c r="G14" t="s">
         <v>2002</v>
       </c>
@@ -42437,13 +42449,13 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="516" t="s">
+      <c r="A15" s="424" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="517"/>
-      <c r="C15" s="517"/>
-      <c r="D15" s="517"/>
-      <c r="E15" s="591"/>
+      <c r="B15" s="425"/>
+      <c r="C15" s="425"/>
+      <c r="D15" s="425"/>
+      <c r="E15" s="426"/>
       <c r="G15" t="s">
         <v>2003</v>
       </c>
@@ -42608,20 +42620,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="424" t="s">
+      <c r="I20" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="425"/>
-      <c r="K20" s="424" t="s">
+      <c r="J20" s="428"/>
+      <c r="K20" s="427" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="425"/>
-      <c r="M20" s="424" t="s">
+      <c r="L20" s="428"/>
+      <c r="M20" s="427" t="s">
         <v>1187</v>
       </c>
-      <c r="N20" s="436"/>
-      <c r="O20" s="436"/>
-      <c r="P20" s="425"/>
+      <c r="N20" s="439"/>
+      <c r="O20" s="439"/>
+      <c r="P20" s="428"/>
       <c r="S20" t="s">
         <v>152</v>
       </c>
@@ -43184,13 +43196,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="443" t="s">
+      <c r="A85" s="446" t="s">
         <v>1081</v>
       </c>
-      <c r="B85" s="431"/>
-      <c r="C85" s="431"/>
-      <c r="D85" s="431"/>
-      <c r="E85" s="431"/>
+      <c r="B85" s="434"/>
+      <c r="C85" s="434"/>
+      <c r="D85" s="434"/>
+      <c r="E85" s="434"/>
       <c r="F85" s="6" t="s">
         <v>1085</v>
       </c>
@@ -43237,14 +43249,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="450" t="s">
+      <c r="K87" s="453" t="s">
         <v>1084</v>
       </c>
-      <c r="L87" s="445"/>
-      <c r="M87" s="450" t="s">
+      <c r="L87" s="448"/>
+      <c r="M87" s="453" t="s">
         <v>1095</v>
       </c>
-      <c r="N87" s="445"/>
+      <c r="N87" s="448"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -43261,10 +43273,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="448"/>
-      <c r="L88" s="449"/>
-      <c r="M88" s="446"/>
-      <c r="N88" s="447"/>
+      <c r="K88" s="451"/>
+      <c r="L88" s="452"/>
+      <c r="M88" s="449"/>
+      <c r="N88" s="450"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -43283,12 +43295,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="444" t="s">
+      <c r="K89" s="447" t="s">
         <v>1076</v>
       </c>
-      <c r="L89" s="445"/>
-      <c r="M89" s="446"/>
-      <c r="N89" s="447"/>
+      <c r="L89" s="448"/>
+      <c r="M89" s="449"/>
+      <c r="N89" s="450"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -43303,10 +43315,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="448"/>
-      <c r="L90" s="449"/>
-      <c r="M90" s="446"/>
-      <c r="N90" s="447"/>
+      <c r="K90" s="451"/>
+      <c r="L90" s="452"/>
+      <c r="M90" s="449"/>
+      <c r="N90" s="450"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -43323,12 +43335,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="444" t="s">
+      <c r="K91" s="447" t="s">
         <v>1077</v>
       </c>
-      <c r="L91" s="445"/>
-      <c r="M91" s="446"/>
-      <c r="N91" s="447"/>
+      <c r="L91" s="448"/>
+      <c r="M91" s="449"/>
+      <c r="N91" s="450"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -43345,10 +43357,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="448"/>
-      <c r="L92" s="449"/>
-      <c r="M92" s="446"/>
-      <c r="N92" s="447"/>
+      <c r="K92" s="451"/>
+      <c r="L92" s="452"/>
+      <c r="M92" s="449"/>
+      <c r="N92" s="450"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -43363,12 +43375,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="444" t="s">
+      <c r="K93" s="447" t="s">
         <v>1078</v>
       </c>
-      <c r="L93" s="445"/>
-      <c r="M93" s="446"/>
-      <c r="N93" s="447"/>
+      <c r="L93" s="448"/>
+      <c r="M93" s="449"/>
+      <c r="N93" s="450"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -43380,10 +43392,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="446"/>
-      <c r="L94" s="447"/>
-      <c r="M94" s="446"/>
-      <c r="N94" s="447"/>
+      <c r="K94" s="449"/>
+      <c r="L94" s="450"/>
+      <c r="M94" s="449"/>
+      <c r="N94" s="450"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -43397,10 +43409,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="448"/>
-      <c r="L95" s="449"/>
-      <c r="M95" s="448"/>
-      <c r="N95" s="449"/>
+      <c r="K95" s="451"/>
+      <c r="L95" s="452"/>
+      <c r="M95" s="451"/>
+      <c r="N95" s="452"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -43417,14 +43429,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="442" t="s">
+      <c r="K96" s="445" t="s">
         <v>1079</v>
       </c>
-      <c r="L96" s="442"/>
-      <c r="M96" s="442" t="s">
+      <c r="L96" s="445"/>
+      <c r="M96" s="445" t="s">
         <v>1080</v>
       </c>
-      <c r="N96" s="442"/>
+      <c r="N96" s="445"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -43548,7 +43560,7 @@
       <c r="E115" s="87"/>
       <c r="F115" s="88"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="439" t="s">
+      <c r="J115" s="442" t="s">
         <v>1108</v>
       </c>
       <c r="K115" s="2"/>
@@ -43565,7 +43577,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="440"/>
+      <c r="J116" s="443"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -43580,7 +43592,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="440"/>
+      <c r="J117" s="443"/>
       <c r="K117" s="5" t="s">
         <v>24</v>
       </c>
@@ -43597,7 +43609,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="440"/>
+      <c r="J118" s="443"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -43612,7 +43624,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="440"/>
+      <c r="J119" s="443"/>
       <c r="K119" s="5" t="s">
         <v>501</v>
       </c>
@@ -43632,7 +43644,7 @@
         <v>1107</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="440"/>
+      <c r="J120" s="443"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -43652,7 +43664,7 @@
         <v>150</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="440"/>
+      <c r="J121" s="443"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -43669,7 +43681,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="440"/>
+      <c r="J122" s="443"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1104</v>
@@ -43688,7 +43700,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="440"/>
+      <c r="J123" s="443"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1102</v>
@@ -43705,7 +43717,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="440"/>
+      <c r="J124" s="443"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>24</v>
@@ -43722,7 +43734,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="440"/>
+      <c r="J125" s="443"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -43737,7 +43749,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="441"/>
+      <c r="J126" s="444"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -44263,10 +44275,10 @@
         <v>152</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="424" t="s">
+      <c r="M160" s="427" t="s">
         <v>78</v>
       </c>
-      <c r="N160" s="425"/>
+      <c r="N160" s="428"/>
       <c r="O160" s="321" t="s">
         <v>79</v>
       </c>
@@ -44388,6 +44400,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M87:N95"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="M160:N160"/>
     <mergeCell ref="K4:P4"/>
@@ -44404,7 +44417,6 @@
     <mergeCell ref="K91:L92"/>
     <mergeCell ref="K89:L90"/>
     <mergeCell ref="K87:L88"/>
-    <mergeCell ref="M87:N95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4834" uniqueCount="2184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="2226">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -7474,6 +7474,132 @@
   </si>
   <si>
     <t>over</t>
+  </si>
+  <si>
+    <t>(Web Service Consumer)</t>
+  </si>
+  <si>
+    <t>(Web Service Publisher)</t>
+  </si>
+  <si>
+    <t>JSON Mapper</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>/jsonReqMul</t>
+  </si>
+  <si>
+    <t>http://www.java.com/jsonReqMul</t>
+  </si>
+  <si>
+    <t>Http URL</t>
+  </si>
+  <si>
+    <t>Http body</t>
+  </si>
+  <si>
+    <t>"param1":10,</t>
+  </si>
+  <si>
+    <t>"param2":20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "param1":10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "param2":20</t>
+  </si>
+  <si>
+    <t>public class Input</t>
+  </si>
+  <si>
+    <t>int param1;</t>
+  </si>
+  <si>
+    <t>int param2;</t>
+  </si>
+  <si>
+    <t>public int mul( Input in)</t>
+  </si>
+  <si>
+    <t>int product=in.param1 X in.param2</t>
+  </si>
+  <si>
+    <t>return product;</t>
+  </si>
+  <si>
+    <t>/complexOutput</t>
+  </si>
+  <si>
+    <t>public CoOp mul( int a, int b)</t>
+  </si>
+  <si>
+    <t>public class complOu</t>
+  </si>
+  <si>
+    <t>co.sub=a-b;</t>
+  </si>
+  <si>
+    <t>co.mul=a*b;</t>
+  </si>
+  <si>
+    <t>co.div=a/b;</t>
+  </si>
+  <si>
+    <t>http://www.java.com/complexOutput/20/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co.add=a+b;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int add=30;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   int sub=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int mul=200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int div=2;</t>
+  </si>
+  <si>
+    <t>retrun co;</t>
+  </si>
+  <si>
+    <t>{  "add":20,</t>
+  </si>
+  <si>
+    <t>"sub":10,</t>
+  </si>
+  <si>
+    <t>"mul":200,</t>
+  </si>
+  <si>
+    <t>"div":2</t>
+  </si>
+  <si>
+    <t>Java to JSON</t>
+  </si>
+  <si>
+    <t>JSON to Java</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>add:20</t>
+  </si>
+  <si>
+    <t>sub:10</t>
+  </si>
+  <si>
+    <t>mul:200</t>
+  </si>
+  <si>
+    <t>div:2</t>
   </si>
 </sst>
 </file>
@@ -8285,7 +8411,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="600">
+  <cellXfs count="607">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -8918,6 +9044,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8954,51 +9083,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9029,6 +9113,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9043,6 +9133,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9167,6 +9296,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9197,9 +9332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9209,11 +9341,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9260,57 +9440,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9338,52 +9467,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9446,16 +9545,56 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10496,11 +10635,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="420" t="s">
+      <c r="H26" s="421" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="421"/>
-      <c r="J26" s="422"/>
+      <c r="I26" s="422"/>
+      <c r="J26" s="423"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="1" t="s">
@@ -10747,11 +10886,11 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="420" t="s">
+      <c r="H36" s="421" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="421"/>
-      <c r="J36" s="422"/>
+      <c r="I36" s="422"/>
+      <c r="J36" s="423"/>
       <c r="K36" s="5"/>
       <c r="L36" s="11"/>
       <c r="M36" s="4"/>
@@ -11135,7 +11274,7 @@
       <c r="M51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N51" s="424">
+      <c r="N51" s="425">
         <v>443</v>
       </c>
       <c r="O51" s="2" t="s">
@@ -11168,7 +11307,7 @@
         <v>1810</v>
       </c>
       <c r="M52" s="24"/>
-      <c r="N52" s="425"/>
+      <c r="N52" s="426"/>
       <c r="O52" s="5" t="s">
         <v>1852</v>
       </c>
@@ -11358,7 +11497,7 @@
         <v>152</v>
       </c>
       <c r="M58" s="5"/>
-      <c r="N58" s="426">
+      <c r="N58" s="427">
         <v>80</v>
       </c>
       <c r="O58" s="5" t="s">
@@ -11389,7 +11528,7 @@
         <v>152</v>
       </c>
       <c r="M59" s="24"/>
-      <c r="N59" s="426"/>
+      <c r="N59" s="427"/>
       <c r="O59" s="5" t="s">
         <v>1868</v>
       </c>
@@ -11484,7 +11623,7 @@
       <c r="H63" s="387" t="s">
         <v>1805</v>
       </c>
-      <c r="I63" s="423" t="s">
+      <c r="I63" s="424" t="s">
         <v>7</v>
       </c>
       <c r="J63" t="s">
@@ -11515,7 +11654,7 @@
       <c r="H64" s="385" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="423"/>
+      <c r="I64" s="424"/>
       <c r="J64" t="s">
         <v>39</v>
       </c>
@@ -15197,7 +15336,7 @@
       <c r="K155" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L155" s="462" t="s">
+      <c r="L155" s="463" t="s">
         <v>893</v>
       </c>
       <c r="M155" s="414"/>
@@ -15222,7 +15361,7 @@
       <c r="K156" s="30">
         <v>80</v>
       </c>
-      <c r="L156" s="463"/>
+      <c r="L156" s="464"/>
       <c r="M156" s="38"/>
       <c r="N156" s="38" t="s">
         <v>1675</v>
@@ -15241,7 +15380,7 @@
         <v>1987</v>
       </c>
       <c r="K157" s="4"/>
-      <c r="L157" s="463"/>
+      <c r="L157" s="464"/>
       <c r="M157" s="38"/>
       <c r="N157" s="38" t="s">
         <v>146</v>
@@ -15259,7 +15398,7 @@
       <c r="E158" s="5"/>
       <c r="F158" s="6"/>
       <c r="K158" s="4"/>
-      <c r="L158" s="463"/>
+      <c r="L158" s="464"/>
       <c r="M158" s="38"/>
       <c r="N158" s="38" t="s">
         <v>24</v>
@@ -15275,7 +15414,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="6"/>
       <c r="K159" s="4"/>
-      <c r="L159" s="463"/>
+      <c r="L159" s="464"/>
       <c r="M159" s="38" t="s">
         <v>836</v>
       </c>
@@ -15293,7 +15432,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="6"/>
       <c r="K160" s="4"/>
-      <c r="L160" s="464"/>
+      <c r="L160" s="465"/>
       <c r="M160" s="415" t="s">
         <v>1374</v>
       </c>
@@ -15361,7 +15500,7 @@
       <c r="K167" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L167" s="462" t="s">
+      <c r="L167" s="463" t="s">
         <v>893</v>
       </c>
       <c r="M167" s="414"/>
@@ -15384,7 +15523,7 @@
       <c r="K168" s="30">
         <v>80</v>
       </c>
-      <c r="L168" s="463"/>
+      <c r="L168" s="464"/>
       <c r="M168" s="38"/>
       <c r="N168" s="38" t="s">
         <v>1675</v>
@@ -15407,7 +15546,7 @@
         <v>1997</v>
       </c>
       <c r="K169" s="4"/>
-      <c r="L169" s="463"/>
+      <c r="L169" s="464"/>
       <c r="M169" s="38"/>
       <c r="N169" s="38" t="s">
         <v>146</v>
@@ -15427,7 +15566,7 @@
       <c r="E170" s="5"/>
       <c r="F170" s="6"/>
       <c r="K170" s="4"/>
-      <c r="L170" s="463"/>
+      <c r="L170" s="464"/>
       <c r="M170" s="38"/>
       <c r="N170" s="38" t="s">
         <v>24</v>
@@ -15445,7 +15584,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="6"/>
       <c r="K171" s="4"/>
-      <c r="L171" s="463"/>
+      <c r="L171" s="464"/>
       <c r="M171" s="38" t="s">
         <v>836</v>
       </c>
@@ -15467,7 +15606,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="6"/>
       <c r="K172" s="4"/>
-      <c r="L172" s="464"/>
+      <c r="L172" s="465"/>
       <c r="M172" s="415" t="s">
         <v>1374</v>
       </c>
@@ -15567,7 +15706,7 @@
       <c r="K186" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L186" s="462" t="s">
+      <c r="L186" s="463" t="s">
         <v>893</v>
       </c>
       <c r="M186" s="414"/>
@@ -15590,7 +15729,7 @@
       <c r="K187" s="30">
         <v>80</v>
       </c>
-      <c r="L187" s="463"/>
+      <c r="L187" s="464"/>
       <c r="M187" s="38"/>
       <c r="N187" s="38" t="s">
         <v>1675</v>
@@ -15613,7 +15752,7 @@
         <v>1997</v>
       </c>
       <c r="K188" s="4"/>
-      <c r="L188" s="463"/>
+      <c r="L188" s="464"/>
       <c r="M188" s="38"/>
       <c r="N188" s="38" t="s">
         <v>146</v>
@@ -15633,7 +15772,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="6"/>
       <c r="K189" s="4"/>
-      <c r="L189" s="463"/>
+      <c r="L189" s="464"/>
       <c r="M189" s="38"/>
       <c r="N189" s="38" t="s">
         <v>24</v>
@@ -15651,7 +15790,7 @@
       <c r="E190" s="5"/>
       <c r="F190" s="6"/>
       <c r="K190" s="4"/>
-      <c r="L190" s="463"/>
+      <c r="L190" s="464"/>
       <c r="M190" s="38" t="s">
         <v>836</v>
       </c>
@@ -15673,7 +15812,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="6"/>
       <c r="K191" s="4"/>
-      <c r="L191" s="464"/>
+      <c r="L191" s="465"/>
       <c r="M191" s="415" t="s">
         <v>1374</v>
       </c>
@@ -15804,7 +15943,7 @@
       <c r="K208" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L208" s="462" t="s">
+      <c r="L208" s="463" t="s">
         <v>893</v>
       </c>
       <c r="M208" s="414"/>
@@ -15824,7 +15963,7 @@
       <c r="K209" s="30">
         <v>80</v>
       </c>
-      <c r="L209" s="463"/>
+      <c r="L209" s="464"/>
       <c r="M209" s="38"/>
       <c r="N209" s="38" t="s">
         <v>1675</v>
@@ -15845,7 +15984,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="6"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="463"/>
+      <c r="L210" s="464"/>
       <c r="M210" s="38"/>
       <c r="N210" s="38" t="s">
         <v>146</v>
@@ -15871,7 +16010,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="6"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="463"/>
+      <c r="L211" s="464"/>
       <c r="M211" s="38"/>
       <c r="N211" s="38" t="s">
         <v>24</v>
@@ -15896,7 +16035,7 @@
       </c>
       <c r="F212" s="6"/>
       <c r="K212" s="4"/>
-      <c r="L212" s="463"/>
+      <c r="L212" s="464"/>
       <c r="M212" s="38" t="s">
         <v>836</v>
       </c>
@@ -15920,7 +16059,7 @@
       </c>
       <c r="F213" s="6"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="464"/>
+      <c r="L213" s="465"/>
       <c r="M213" s="415" t="s">
         <v>1374</v>
       </c>
@@ -16007,7 +16146,7 @@
       <c r="K219" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L219" s="462" t="s">
+      <c r="L219" s="463" t="s">
         <v>893</v>
       </c>
       <c r="M219" s="414"/>
@@ -16027,7 +16166,7 @@
       <c r="K220" s="30">
         <v>80</v>
       </c>
-      <c r="L220" s="463"/>
+      <c r="L220" s="464"/>
       <c r="M220" s="38"/>
       <c r="N220" s="38"/>
       <c r="O220" s="38"/>
@@ -16046,7 +16185,7 @@
         <v>2019</v>
       </c>
       <c r="K221" s="4"/>
-      <c r="L221" s="463"/>
+      <c r="L221" s="464"/>
       <c r="M221" s="38"/>
       <c r="N221" s="38" t="s">
         <v>2014</v>
@@ -16067,7 +16206,7 @@
         <v>2020</v>
       </c>
       <c r="K222" s="4"/>
-      <c r="L222" s="463"/>
+      <c r="L222" s="464"/>
       <c r="M222" s="38"/>
       <c r="N222" s="38"/>
       <c r="O222" s="38"/>
@@ -16083,7 +16222,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="6"/>
       <c r="K223" s="4"/>
-      <c r="L223" s="463"/>
+      <c r="L223" s="464"/>
       <c r="M223" s="38"/>
       <c r="N223" s="38"/>
       <c r="O223" s="38"/>
@@ -16097,7 +16236,7 @@
       <c r="E224" s="10"/>
       <c r="F224" s="9"/>
       <c r="K224" s="8"/>
-      <c r="L224" s="464"/>
+      <c r="L224" s="465"/>
       <c r="M224" s="415"/>
       <c r="N224" s="415"/>
       <c r="O224" s="415"/>
@@ -16135,7 +16274,7 @@
       <c r="K231" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L231" s="462" t="s">
+      <c r="L231" s="463" t="s">
         <v>893</v>
       </c>
       <c r="M231" s="414"/>
@@ -16153,7 +16292,7 @@
       <c r="K232" s="30">
         <v>80</v>
       </c>
-      <c r="L232" s="463"/>
+      <c r="L232" s="464"/>
       <c r="M232" s="38"/>
       <c r="N232" s="38"/>
       <c r="O232" s="38"/>
@@ -16167,7 +16306,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="6"/>
       <c r="K233" s="4"/>
-      <c r="L233" s="463"/>
+      <c r="L233" s="464"/>
       <c r="M233" s="38"/>
       <c r="N233" s="38"/>
       <c r="O233" s="38"/>
@@ -16182,7 +16321,7 @@
       <c r="E234" s="5"/>
       <c r="F234" s="6"/>
       <c r="K234" s="4"/>
-      <c r="L234" s="463"/>
+      <c r="L234" s="464"/>
       <c r="M234" s="38"/>
       <c r="N234" s="38"/>
       <c r="O234" s="38"/>
@@ -16203,7 +16342,7 @@
       </c>
       <c r="F235" s="6"/>
       <c r="K235" s="4"/>
-      <c r="L235" s="463"/>
+      <c r="L235" s="464"/>
       <c r="M235" s="38" t="s">
         <v>2022</v>
       </c>
@@ -16225,7 +16364,7 @@
       </c>
       <c r="F236" s="6"/>
       <c r="K236" s="4"/>
-      <c r="L236" s="464"/>
+      <c r="L236" s="465"/>
       <c r="M236" s="415"/>
       <c r="N236" s="415"/>
       <c r="O236" s="415"/>
@@ -16284,7 +16423,7 @@
       <c r="K241" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L241" s="462" t="s">
+      <c r="L241" s="463" t="s">
         <v>893</v>
       </c>
       <c r="M241" s="414"/>
@@ -16302,7 +16441,7 @@
       <c r="K242" s="30">
         <v>80</v>
       </c>
-      <c r="L242" s="463"/>
+      <c r="L242" s="464"/>
       <c r="M242" s="38"/>
       <c r="N242" s="38"/>
       <c r="O242" s="38"/>
@@ -16316,7 +16455,7 @@
       <c r="E243" s="5"/>
       <c r="F243" s="6"/>
       <c r="K243" s="4"/>
-      <c r="L243" s="463"/>
+      <c r="L243" s="464"/>
       <c r="M243" s="38"/>
       <c r="N243" s="38"/>
       <c r="O243" s="38"/>
@@ -16331,7 +16470,7 @@
       <c r="E244" s="5"/>
       <c r="F244" s="6"/>
       <c r="K244" s="4"/>
-      <c r="L244" s="463"/>
+      <c r="L244" s="464"/>
       <c r="M244" s="38"/>
       <c r="N244" s="38"/>
       <c r="O244" s="38"/>
@@ -16352,7 +16491,7 @@
       </c>
       <c r="F245" s="6"/>
       <c r="K245" s="4"/>
-      <c r="L245" s="463"/>
+      <c r="L245" s="464"/>
       <c r="M245" s="38" t="s">
         <v>2022</v>
       </c>
@@ -16374,7 +16513,7 @@
       </c>
       <c r="F246" s="6"/>
       <c r="K246" s="4"/>
-      <c r="L246" s="464"/>
+      <c r="L246" s="465"/>
       <c r="M246" s="415"/>
       <c r="N246" s="415"/>
       <c r="O246" s="415"/>
@@ -16441,7 +16580,7 @@
       <c r="K252" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L252" s="465" t="s">
+      <c r="L252" s="466" t="s">
         <v>893</v>
       </c>
       <c r="M252" s="140"/>
@@ -16465,7 +16604,7 @@
       <c r="K253" s="30">
         <v>80</v>
       </c>
-      <c r="L253" s="466"/>
+      <c r="L253" s="467"/>
       <c r="M253" s="24"/>
       <c r="N253" s="63" t="s">
         <v>24</v>
@@ -16485,7 +16624,7 @@
       <c r="E254" s="5"/>
       <c r="F254" s="6"/>
       <c r="K254" s="4"/>
-      <c r="L254" s="466"/>
+      <c r="L254" s="467"/>
       <c r="M254" s="24"/>
       <c r="N254" s="63"/>
       <c r="O254" s="24"/>
@@ -16499,7 +16638,7 @@
       <c r="E255" s="5"/>
       <c r="F255" s="6"/>
       <c r="K255" s="4"/>
-      <c r="L255" s="466"/>
+      <c r="L255" s="467"/>
       <c r="M255" s="24"/>
       <c r="N255" s="63"/>
       <c r="O255" s="24"/>
@@ -16515,7 +16654,7 @@
       <c r="E256" s="5"/>
       <c r="F256" s="6"/>
       <c r="K256" s="4"/>
-      <c r="L256" s="466"/>
+      <c r="L256" s="467"/>
       <c r="M256" s="24" t="s">
         <v>2022</v>
       </c>
@@ -16533,7 +16672,7 @@
       <c r="E257" s="5"/>
       <c r="F257" s="6"/>
       <c r="K257" s="4"/>
-      <c r="L257" s="467"/>
+      <c r="L257" s="468"/>
       <c r="M257" s="52"/>
       <c r="N257" s="256"/>
       <c r="O257" s="24"/>
@@ -16713,7 +16852,7 @@
       <c r="K277" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L277" s="465" t="s">
+      <c r="L277" s="466" t="s">
         <v>893</v>
       </c>
       <c r="M277" s="140"/>
@@ -16735,7 +16874,7 @@
       <c r="K278" s="30">
         <v>80</v>
       </c>
-      <c r="L278" s="466"/>
+      <c r="L278" s="467"/>
       <c r="M278" s="24"/>
       <c r="N278" s="63" t="s">
         <v>24</v>
@@ -16755,7 +16894,7 @@
       <c r="E279" s="5"/>
       <c r="F279" s="6"/>
       <c r="K279" s="4"/>
-      <c r="L279" s="466"/>
+      <c r="L279" s="467"/>
       <c r="M279" s="24"/>
       <c r="N279" s="63"/>
       <c r="O279" s="24"/>
@@ -16775,7 +16914,7 @@
       </c>
       <c r="F280" s="6"/>
       <c r="K280" s="4"/>
-      <c r="L280" s="466"/>
+      <c r="L280" s="467"/>
       <c r="M280" s="24"/>
       <c r="N280" s="63"/>
       <c r="O280" s="24"/>
@@ -16795,7 +16934,7 @@
       </c>
       <c r="F281" s="6"/>
       <c r="K281" s="4"/>
-      <c r="L281" s="466"/>
+      <c r="L281" s="467"/>
       <c r="M281" s="24" t="s">
         <v>2022</v>
       </c>
@@ -16817,7 +16956,7 @@
       <c r="E282" s="5"/>
       <c r="F282" s="6"/>
       <c r="K282" s="4"/>
-      <c r="L282" s="467"/>
+      <c r="L282" s="468"/>
       <c r="M282" s="52"/>
       <c r="N282" s="256"/>
       <c r="O282" s="24"/>
@@ -17012,7 +17151,7 @@
       <c r="K299" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L299" s="465" t="s">
+      <c r="L299" s="466" t="s">
         <v>893</v>
       </c>
       <c r="M299" s="140"/>
@@ -17030,7 +17169,7 @@
       <c r="K300" s="30">
         <v>80</v>
       </c>
-      <c r="L300" s="466"/>
+      <c r="L300" s="467"/>
       <c r="M300" s="24"/>
       <c r="N300" s="63" t="s">
         <v>24</v>
@@ -17046,7 +17185,7 @@
       <c r="E301" s="5"/>
       <c r="F301" s="6"/>
       <c r="K301" s="4"/>
-      <c r="L301" s="466"/>
+      <c r="L301" s="467"/>
       <c r="M301" s="24"/>
       <c r="N301" s="63"/>
       <c r="O301" s="24"/>
@@ -17060,7 +17199,7 @@
       <c r="E302" s="5"/>
       <c r="F302" s="6"/>
       <c r="K302" s="4"/>
-      <c r="L302" s="466"/>
+      <c r="L302" s="467"/>
       <c r="M302" s="24"/>
       <c r="N302" s="63"/>
       <c r="O302" s="24"/>
@@ -17074,7 +17213,7 @@
       <c r="E303" s="5"/>
       <c r="F303" s="6"/>
       <c r="K303" s="4"/>
-      <c r="L303" s="466"/>
+      <c r="L303" s="467"/>
       <c r="M303" s="24" t="s">
         <v>2022</v>
       </c>
@@ -17092,7 +17231,7 @@
       <c r="E304" s="5"/>
       <c r="F304" s="6"/>
       <c r="K304" s="4"/>
-      <c r="L304" s="467"/>
+      <c r="L304" s="468"/>
       <c r="M304" s="52"/>
       <c r="N304" s="256"/>
       <c r="O304" s="24"/>
@@ -17624,13 +17763,13 @@
         <v>65</v>
       </c>
       <c r="J3" s="126"/>
-      <c r="K3" s="477"/>
-      <c r="L3" s="477"/>
-      <c r="M3" s="477"/>
-      <c r="N3" s="477"/>
-      <c r="O3" s="477"/>
-      <c r="P3" s="477"/>
-      <c r="Q3" s="478"/>
+      <c r="K3" s="478"/>
+      <c r="L3" s="478"/>
+      <c r="M3" s="478"/>
+      <c r="N3" s="478"/>
+      <c r="O3" s="478"/>
+      <c r="P3" s="478"/>
+      <c r="Q3" s="479"/>
       <c r="T3" s="35" t="s">
         <v>63</v>
       </c>
@@ -17898,13 +18037,13 @@
       <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="468" t="s">
+      <c r="A12" s="469" t="s">
         <v>421</v>
       </c>
-      <c r="B12" s="469"/>
-      <c r="C12" s="469"/>
-      <c r="D12" s="469"/>
-      <c r="E12" s="470"/>
+      <c r="B12" s="470"/>
+      <c r="C12" s="470"/>
+      <c r="D12" s="470"/>
+      <c r="E12" s="471"/>
       <c r="F12" t="s">
         <v>434</v>
       </c>
@@ -17927,11 +18066,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="471"/>
-      <c r="B13" s="472"/>
-      <c r="C13" s="472"/>
-      <c r="D13" s="472"/>
-      <c r="E13" s="473"/>
+      <c r="A13" s="472"/>
+      <c r="B13" s="473"/>
+      <c r="C13" s="473"/>
+      <c r="D13" s="473"/>
+      <c r="E13" s="474"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -17952,11 +18091,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="471"/>
-      <c r="B14" s="472"/>
-      <c r="C14" s="472"/>
-      <c r="D14" s="472"/>
-      <c r="E14" s="473"/>
+      <c r="A14" s="472"/>
+      <c r="B14" s="473"/>
+      <c r="C14" s="473"/>
+      <c r="D14" s="473"/>
+      <c r="E14" s="474"/>
       <c r="F14" t="s">
         <v>431</v>
       </c>
@@ -17979,11 +18118,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="474"/>
-      <c r="B15" s="475"/>
-      <c r="C15" s="475"/>
-      <c r="D15" s="475"/>
-      <c r="E15" s="476"/>
+      <c r="A15" s="475"/>
+      <c r="B15" s="476"/>
+      <c r="C15" s="476"/>
+      <c r="D15" s="476"/>
+      <c r="E15" s="477"/>
       <c r="F15" s="24"/>
       <c r="H15" s="150"/>
       <c r="I15" s="4" t="s">
@@ -18041,17 +18180,17 @@
       <c r="F17" s="146"/>
       <c r="G17" s="107"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="421" t="s">
+      <c r="I17" s="422" t="s">
         <v>848</v>
       </c>
-      <c r="J17" s="421"/>
-      <c r="K17" s="421"/>
-      <c r="L17" s="421"/>
-      <c r="M17" s="421"/>
-      <c r="N17" s="421"/>
-      <c r="O17" s="421"/>
-      <c r="P17" s="421"/>
-      <c r="Q17" s="421"/>
+      <c r="J17" s="422"/>
+      <c r="K17" s="422"/>
+      <c r="L17" s="422"/>
+      <c r="M17" s="422"/>
+      <c r="N17" s="422"/>
+      <c r="O17" s="422"/>
+      <c r="P17" s="422"/>
+      <c r="Q17" s="422"/>
       <c r="S17" t="s">
         <v>201</v>
       </c>
@@ -21495,7 +21634,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="479">
+      <c r="O109" s="480">
         <v>123</v>
       </c>
       <c r="P109" s="249" t="s">
@@ -21517,7 +21656,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="458"/>
+      <c r="O110" s="446"/>
       <c r="P110" s="249"/>
       <c r="Q110" s="33" t="s">
         <v>207</v>
@@ -21535,7 +21674,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="458"/>
+      <c r="O111" s="446"/>
       <c r="P111" s="249"/>
       <c r="Q111" s="33" t="s">
         <v>718</v>
@@ -21553,7 +21692,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="458"/>
+      <c r="O112" s="446"/>
       <c r="P112" s="249"/>
       <c r="Q112" s="33"/>
     </row>
@@ -21572,7 +21711,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="459"/>
+      <c r="O113" s="447"/>
       <c r="P113" s="249"/>
       <c r="Q113" s="33"/>
     </row>
@@ -21597,7 +21736,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="479">
+      <c r="O114" s="480">
         <v>456</v>
       </c>
       <c r="P114" s="249" t="s">
@@ -21619,7 +21758,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="458"/>
+      <c r="O115" s="446"/>
       <c r="P115" s="249"/>
       <c r="Q115" s="33" t="s">
         <v>1142</v>
@@ -21640,7 +21779,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="458"/>
+      <c r="O116" s="446"/>
       <c r="P116" s="249"/>
       <c r="Q116" s="33"/>
     </row>
@@ -21659,7 +21798,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="459"/>
+      <c r="O117" s="447"/>
       <c r="P117" s="249"/>
       <c r="Q117" s="33"/>
     </row>
@@ -21675,7 +21814,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="479">
+      <c r="O118" s="480">
         <v>777</v>
       </c>
       <c r="P118" s="249"/>
@@ -21698,7 +21837,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="458"/>
+      <c r="O119" s="446"/>
       <c r="P119" s="249"/>
       <c r="Q119" s="33"/>
     </row>
@@ -21717,7 +21856,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="458"/>
+      <c r="O120" s="446"/>
       <c r="P120" s="249"/>
       <c r="Q120" s="33"/>
     </row>
@@ -21736,7 +21875,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="459"/>
+      <c r="O121" s="447"/>
       <c r="P121" s="249"/>
       <c r="Q121" s="33"/>
     </row>
@@ -21898,10 +22037,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="462">
+      <c r="O133" s="463">
         <v>123</v>
       </c>
-      <c r="P133" s="480" t="s">
+      <c r="P133" s="481" t="s">
         <v>519</v>
       </c>
       <c r="Q133" s="265" t="s">
@@ -21920,8 +22059,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="463"/>
-      <c r="P134" s="481"/>
+      <c r="O134" s="464"/>
+      <c r="P134" s="482"/>
       <c r="Q134" s="265" t="s">
         <v>207</v>
       </c>
@@ -21938,8 +22077,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="463"/>
-      <c r="P135" s="481"/>
+      <c r="O135" s="464"/>
+      <c r="P135" s="482"/>
       <c r="Q135" s="265"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -21958,8 +22097,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="463"/>
-      <c r="P136" s="481"/>
+      <c r="O136" s="464"/>
+      <c r="P136" s="482"/>
       <c r="Q136" s="265"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -21981,8 +22120,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="464"/>
-      <c r="P137" s="482"/>
+      <c r="O137" s="465"/>
+      <c r="P137" s="483"/>
       <c r="Q137" s="265"/>
     </row>
     <row r="138" spans="1:17">
@@ -22002,7 +22141,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="479"/>
+      <c r="O138" s="480"/>
       <c r="P138" s="249"/>
       <c r="Q138" s="33"/>
     </row>
@@ -22018,7 +22157,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="458"/>
+      <c r="O139" s="446"/>
       <c r="P139" s="249"/>
       <c r="Q139" s="33"/>
     </row>
@@ -22036,7 +22175,7 @@
       <c r="L140" s="38"/>
       <c r="M140" s="45"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="458"/>
+      <c r="O140" s="446"/>
       <c r="P140" s="249"/>
       <c r="Q140" s="33"/>
     </row>
@@ -22055,7 +22194,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="459"/>
+      <c r="O141" s="447"/>
       <c r="P141" s="249"/>
       <c r="Q141" s="33"/>
     </row>
@@ -22073,7 +22212,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="479"/>
+      <c r="O142" s="480"/>
       <c r="P142" s="249"/>
       <c r="Q142" s="33"/>
     </row>
@@ -22093,7 +22232,7 @@
       </c>
       <c r="M143" s="264"/>
       <c r="N143" s="151"/>
-      <c r="O143" s="458"/>
+      <c r="O143" s="446"/>
       <c r="P143" s="249"/>
       <c r="Q143" s="33"/>
     </row>
@@ -22109,7 +22248,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="458"/>
+      <c r="O144" s="446"/>
       <c r="P144" s="249"/>
       <c r="Q144" s="33"/>
     </row>
@@ -22129,7 +22268,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="459"/>
+      <c r="O145" s="447"/>
       <c r="P145" s="249"/>
       <c r="Q145" s="33"/>
     </row>
@@ -24513,8 +24652,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="486"/>
-      <c r="B2" s="438"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="27" t="s">
         <v>1460</v>
       </c>
@@ -24532,8 +24671,8 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="486"/>
-      <c r="B3" s="438"/>
+      <c r="A3" s="487"/>
+      <c r="B3" s="456"/>
       <c r="C3" s="4" t="s">
         <v>174</v>
       </c>
@@ -24557,8 +24696,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="487"/>
-      <c r="B4" s="488"/>
+      <c r="A4" s="488"/>
+      <c r="B4" s="489"/>
       <c r="C4" s="7" t="s">
         <v>1682</v>
       </c>
@@ -24599,8 +24738,8 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="486"/>
-      <c r="B7" s="438"/>
+      <c r="A7" s="487"/>
+      <c r="B7" s="456"/>
       <c r="C7" s="27" t="s">
         <v>1460</v>
       </c>
@@ -24616,8 +24755,8 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="486"/>
-      <c r="B8" s="438"/>
+      <c r="A8" s="487"/>
+      <c r="B8" s="456"/>
       <c r="C8" s="4" t="s">
         <v>174</v>
       </c>
@@ -24637,8 +24776,8 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="487"/>
-      <c r="B9" s="488"/>
+      <c r="A9" s="488"/>
+      <c r="B9" s="489"/>
       <c r="C9" s="7" t="s">
         <v>1685</v>
       </c>
@@ -24968,8 +25107,8 @@
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="486"/>
-      <c r="B35" s="438"/>
+      <c r="A35" s="487"/>
+      <c r="B35" s="456"/>
       <c r="C35" s="27" t="s">
         <v>1460</v>
       </c>
@@ -24990,8 +25129,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A36" s="486"/>
-      <c r="B36" s="438"/>
+      <c r="A36" s="487"/>
+      <c r="B36" s="456"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
         <v>207</v>
@@ -25018,8 +25157,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A37" s="487"/>
-      <c r="B37" s="488"/>
+      <c r="A37" s="488"/>
+      <c r="B37" s="489"/>
       <c r="C37" s="7" t="s">
         <v>1694</v>
       </c>
@@ -25063,8 +25202,8 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="486"/>
-      <c r="B40" s="438"/>
+      <c r="A40" s="487"/>
+      <c r="B40" s="456"/>
       <c r="C40" s="27" t="s">
         <v>1460</v>
       </c>
@@ -25080,8 +25219,8 @@
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A41" s="486"/>
-      <c r="B41" s="438"/>
+      <c r="A41" s="487"/>
+      <c r="B41" s="456"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
         <v>174</v>
@@ -25099,8 +25238,8 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A42" s="487"/>
-      <c r="B42" s="488"/>
+      <c r="A42" s="488"/>
+      <c r="B42" s="489"/>
       <c r="C42" s="7" t="s">
         <v>1695</v>
       </c>
@@ -26487,7 +26626,7 @@
       <c r="E114" s="24" t="s">
         <v>1684</v>
       </c>
-      <c r="I114" s="483" t="s">
+      <c r="I114" s="484" t="s">
         <v>1730</v>
       </c>
       <c r="J114" s="375" t="s">
@@ -26508,7 +26647,7 @@
       <c r="B115" s="7"/>
       <c r="C115" s="87"/>
       <c r="D115" s="88"/>
-      <c r="I115" s="484"/>
+      <c r="I115" s="485"/>
       <c r="J115" s="5"/>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
@@ -26522,7 +26661,7 @@
       <c r="E116" t="s">
         <v>147</v>
       </c>
-      <c r="I116" s="485"/>
+      <c r="I116" s="486"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -26564,7 +26703,7 @@
       <c r="N119" s="6"/>
     </row>
     <row r="120" spans="2:14">
-      <c r="I120" s="483" t="s">
+      <c r="I120" s="484" t="s">
         <v>1731</v>
       </c>
       <c r="J120" s="5"/>
@@ -26574,7 +26713,7 @@
       <c r="N120" s="6"/>
     </row>
     <row r="121" spans="2:14">
-      <c r="I121" s="484"/>
+      <c r="I121" s="485"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -26582,7 +26721,7 @@
       <c r="N121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1">
-      <c r="I122" s="485"/>
+      <c r="I122" s="486"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -27647,10 +27786,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="489" t="s">
+      <c r="L35" s="490" t="s">
         <v>217</v>
       </c>
-      <c r="M35" s="489"/>
+      <c r="M35" s="490"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -29580,10 +29719,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="490" t="s">
+      <c r="A155" s="491" t="s">
         <v>709</v>
       </c>
-      <c r="B155" s="490"/>
+      <c r="B155" s="491"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="73" t="s">
@@ -30381,18 +30520,18 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="491" t="s">
+      <c r="B29" s="492" t="s">
         <v>1025</v>
       </c>
-      <c r="C29" s="491"/>
-      <c r="D29" s="491"/>
-      <c r="E29" s="491"/>
-      <c r="F29" s="491"/>
-      <c r="I29" s="491" t="s">
+      <c r="C29" s="492"/>
+      <c r="D29" s="492"/>
+      <c r="E29" s="492"/>
+      <c r="F29" s="492"/>
+      <c r="I29" s="492" t="s">
         <v>1209</v>
       </c>
-      <c r="J29" s="491"/>
-      <c r="K29" s="491"/>
+      <c r="J29" s="492"/>
+      <c r="K29" s="492"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
@@ -32030,12 +32169,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110:G110"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="J143" sqref="J143:K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32069,18 +32210,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="498" t="s">
+      <c r="E6" s="499" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="431"/>
-      <c r="G6" s="430" t="s">
+      <c r="F6" s="432"/>
+      <c r="G6" s="431" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="430"/>
-      <c r="I6" s="430"/>
-      <c r="J6" s="430"/>
-      <c r="K6" s="430"/>
-      <c r="L6" s="431"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="431"/>
+      <c r="J6" s="431"/>
+      <c r="K6" s="431"/>
+      <c r="L6" s="432"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -32090,7 +32231,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="D7" s="492">
+      <c r="D7" s="493">
         <v>80</v>
       </c>
       <c r="E7" s="269"/>
@@ -32108,7 +32249,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="492"/>
+      <c r="D8" s="493"/>
       <c r="E8" s="266" t="s">
         <v>250</v>
       </c>
@@ -32140,7 +32281,7 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D9" s="492"/>
+      <c r="D9" s="493"/>
       <c r="E9" s="272"/>
       <c r="F9" s="273"/>
       <c r="G9" s="272"/>
@@ -32167,7 +32308,7 @@
       <c r="A10" t="s">
         <v>1278</v>
       </c>
-      <c r="D10" s="492"/>
+      <c r="D10" s="493"/>
       <c r="E10" s="269"/>
       <c r="F10" s="270"/>
       <c r="G10" s="269"/>
@@ -32191,7 +32332,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="492"/>
+      <c r="D11" s="493"/>
       <c r="E11" s="266" t="s">
         <v>254</v>
       </c>
@@ -32220,7 +32361,7 @@
       <c r="B12" s="165" t="s">
         <v>258</v>
       </c>
-      <c r="D12" s="492"/>
+      <c r="D12" s="493"/>
       <c r="E12" s="272"/>
       <c r="F12" s="273"/>
       <c r="G12" s="272"/>
@@ -32241,7 +32382,7 @@
       <c r="B13" t="s">
         <v>2155</v>
       </c>
-      <c r="D13" s="492"/>
+      <c r="D13" s="493"/>
       <c r="E13" s="269"/>
       <c r="F13" s="270"/>
       <c r="G13" s="269"/>
@@ -32260,7 +32401,7 @@
       <c r="B14" t="s">
         <v>2156</v>
       </c>
-      <c r="D14" s="492"/>
+      <c r="D14" s="493"/>
       <c r="E14" s="266" t="s">
         <v>259</v>
       </c>
@@ -32287,7 +32428,7 @@
       <c r="B15" t="s">
         <v>2157</v>
       </c>
-      <c r="D15" s="492"/>
+      <c r="D15" s="493"/>
       <c r="E15" s="272"/>
       <c r="F15" s="273"/>
       <c r="G15" s="272"/>
@@ -32303,7 +32444,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1">
-      <c r="D16" s="492"/>
+      <c r="D16" s="493"/>
       <c r="E16" s="269"/>
       <c r="F16" s="270"/>
       <c r="G16" s="274"/>
@@ -32319,7 +32460,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="492"/>
+      <c r="D17" s="493"/>
       <c r="E17" s="266" t="s">
         <v>263</v>
       </c>
@@ -32343,7 +32484,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="492"/>
+      <c r="D18" s="493"/>
       <c r="E18" s="272"/>
       <c r="F18" s="273"/>
       <c r="G18" s="275"/>
@@ -32360,20 +32501,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="499" t="s">
+      <c r="E19" s="500" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="500"/>
-      <c r="G19" s="499" t="s">
+      <c r="F19" s="501"/>
+      <c r="G19" s="500" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="500"/>
-      <c r="I19" s="499" t="s">
+      <c r="H19" s="501"/>
+      <c r="I19" s="500" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="501"/>
-      <c r="K19" s="501"/>
-      <c r="L19" s="500"/>
+      <c r="J19" s="502"/>
+      <c r="K19" s="502"/>
+      <c r="L19" s="501"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -32441,12 +32582,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="496"/>
-      <c r="H24" s="496"/>
-      <c r="I24" s="496"/>
-      <c r="J24" s="496"/>
-      <c r="K24" s="496"/>
-      <c r="L24" s="496"/>
+      <c r="G24" s="497"/>
+      <c r="H24" s="497"/>
+      <c r="I24" s="497"/>
+      <c r="J24" s="497"/>
+      <c r="K24" s="497"/>
+      <c r="L24" s="497"/>
       <c r="O24" s="35" t="s">
         <v>63</v>
       </c>
@@ -32817,9 +32958,9 @@
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="G47" s="178"/>
-      <c r="H47" s="493"/>
-      <c r="I47" s="494"/>
-      <c r="J47" s="495"/>
+      <c r="H47" s="494"/>
+      <c r="I47" s="495"/>
+      <c r="J47" s="496"/>
       <c r="L47" t="s">
         <v>520</v>
       </c>
@@ -33511,14 +33652,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="426" t="s">
+      <c r="F97" s="427" t="s">
         <v>1135</v>
       </c>
-      <c r="G97" s="491"/>
-      <c r="H97" s="491"/>
-      <c r="I97" s="491"/>
-      <c r="J97" s="491"/>
-      <c r="K97" s="497"/>
+      <c r="G97" s="492"/>
+      <c r="H97" s="492"/>
+      <c r="I97" s="492"/>
+      <c r="J97" s="492"/>
+      <c r="K97" s="498"/>
       <c r="L97" s="4" t="s">
         <v>1268</v>
       </c>
@@ -33684,7 +33825,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="4:13">
+    <row r="113" spans="2:14">
       <c r="D113" s="4"/>
       <c r="E113" s="5" t="s">
         <v>2161</v>
@@ -33704,7 +33845,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="4:13">
+    <row r="114" spans="2:14">
       <c r="D114" s="4"/>
       <c r="E114" s="5" t="s">
         <v>2162</v>
@@ -33724,7 +33865,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
     </row>
-    <row r="115" spans="4:13">
+    <row r="115" spans="2:14">
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
         <v>2174</v>
@@ -33744,7 +33885,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="4:13">
+    <row r="116" spans="2:14">
       <c r="D116" s="4"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -33760,7 +33901,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="4:13">
+    <row r="117" spans="2:14">
       <c r="D117" s="4"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -33776,7 +33917,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="4:13">
+    <row r="118" spans="2:14">
       <c r="D118" s="4"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -33788,7 +33929,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="4:13">
+    <row r="119" spans="2:14">
       <c r="D119" s="4"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -33802,7 +33943,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="4:13">
+    <row r="120" spans="2:14">
       <c r="D120" s="4"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -33816,7 +33957,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="4:13">
+    <row r="121" spans="2:14">
       <c r="D121" s="4"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -33830,7 +33971,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="4:13">
+    <row r="122" spans="2:14">
       <c r="D122" s="4"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -33842,7 +33983,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="4:13">
+    <row r="123" spans="2:14">
       <c r="D123" s="4"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -33854,7 +33995,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="4:13" ht="15.75" thickBot="1">
+    <row r="124" spans="2:14" ht="15.75" thickBot="1">
       <c r="D124" s="8"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -33866,164 +34007,257 @@
       <c r="L124" s="10"/>
       <c r="M124" s="9"/>
     </row>
+    <row r="126" spans="2:14" ht="15.75" thickBot="1">
+      <c r="I126" t="s">
+        <v>55</v>
+      </c>
+      <c r="J126" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B127" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I127" s="27" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="3"/>
+    </row>
+    <row r="128" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B128" s="1"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="3"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="601" t="s">
+        <v>2186</v>
+      </c>
+      <c r="K128" s="601"/>
+      <c r="L128" s="497" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M128" s="497"/>
+      <c r="N128" s="6"/>
+    </row>
     <row r="129" spans="2:17">
-      <c r="B129" s="24"/>
+      <c r="B129" s="112"/>
       <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
+      <c r="D129" s="63"/>
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
       <c r="G129" s="24"/>
       <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="24"/>
+      <c r="I129" s="112"/>
+      <c r="J129" s="125" t="s">
+        <v>358</v>
+      </c>
+      <c r="K129" s="126"/>
+      <c r="L129" s="125"/>
+      <c r="M129" s="126"/>
+      <c r="N129" s="63"/>
       <c r="O129" s="24"/>
       <c r="P129" s="24"/>
       <c r="Q129" s="24"/>
     </row>
     <row r="130" spans="2:17">
-      <c r="B130" s="24"/>
+      <c r="B130" s="112"/>
       <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
+      <c r="D130" s="63"/>
       <c r="E130" s="24"/>
       <c r="F130" s="24"/>
       <c r="G130" s="24"/>
       <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="24"/>
-      <c r="L130" s="24"/>
-      <c r="M130" s="24"/>
-      <c r="N130" s="24"/>
+      <c r="I130" s="112"/>
+      <c r="J130" s="602" t="s">
+        <v>2194</v>
+      </c>
+      <c r="K130" s="603"/>
+      <c r="L130" s="112" t="s">
+        <v>2199</v>
+      </c>
+      <c r="M130" s="63"/>
+      <c r="N130" s="63"/>
       <c r="O130" s="24"/>
       <c r="P130" s="24"/>
       <c r="Q130" s="24"/>
     </row>
-    <row r="131" spans="2:17">
-      <c r="B131" s="24"/>
+    <row r="131" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B131" s="112"/>
       <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
+      <c r="D131" s="63"/>
       <c r="E131" s="24"/>
       <c r="F131" s="24"/>
       <c r="G131" s="24"/>
       <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="24"/>
-      <c r="N131" s="24"/>
+      <c r="I131" s="112" t="s">
+        <v>821</v>
+      </c>
+      <c r="J131" s="602" t="s">
+        <v>2195</v>
+      </c>
+      <c r="K131" s="603"/>
+      <c r="L131" s="112" t="s">
+        <v>358</v>
+      </c>
+      <c r="M131" s="63"/>
+      <c r="N131" s="63"/>
       <c r="O131" s="24"/>
       <c r="P131" s="24"/>
       <c r="Q131" s="24"/>
     </row>
-    <row r="132" spans="2:17">
-      <c r="B132" s="24"/>
+    <row r="132" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B132" s="112"/>
       <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="24" t="s">
+        <v>321</v>
+      </c>
       <c r="F132" s="24"/>
       <c r="G132" s="24"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="24"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="24"/>
-      <c r="N132" s="24"/>
+      <c r="I132" s="284" t="s">
+        <v>2188</v>
+      </c>
+      <c r="J132" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="K132" s="63"/>
+      <c r="L132" s="112" t="s">
+        <v>2200</v>
+      </c>
+      <c r="M132" s="63"/>
+      <c r="N132" s="63"/>
       <c r="O132" s="24"/>
       <c r="P132" s="24"/>
       <c r="Q132" s="24"/>
     </row>
     <row r="133" spans="2:17">
-      <c r="B133" s="24"/>
+      <c r="B133" s="112"/>
       <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
+      <c r="D133" s="130" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E133" s="147" t="s">
+        <v>2189</v>
+      </c>
       <c r="F133" s="24"/>
       <c r="G133" s="24"/>
       <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="24"/>
-      <c r="L133" s="24"/>
-      <c r="M133" s="24"/>
-      <c r="N133" s="24"/>
+      <c r="I133" s="112" t="s">
+        <v>2169</v>
+      </c>
+      <c r="J133" s="112" t="s">
+        <v>2196</v>
+      </c>
+      <c r="K133" s="63"/>
+      <c r="L133" s="112" t="s">
+        <v>2201</v>
+      </c>
+      <c r="M133" s="63"/>
+      <c r="N133" s="63"/>
       <c r="O133" s="24"/>
       <c r="P133" s="24"/>
       <c r="Q133" s="24"/>
     </row>
     <row r="134" spans="2:17">
-      <c r="B134" s="24"/>
+      <c r="B134" s="112"/>
       <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="24"/>
-      <c r="N134" s="24"/>
+      <c r="D134" s="606" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E134" s="420" t="s">
+        <v>358</v>
+      </c>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="112" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J134" s="112" t="s">
+        <v>358</v>
+      </c>
+      <c r="K134" s="63"/>
+      <c r="L134" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="M134" s="63"/>
+      <c r="N134" s="63"/>
       <c r="O134" s="24"/>
       <c r="P134" s="24"/>
       <c r="Q134" s="24"/>
     </row>
     <row r="135" spans="2:17">
-      <c r="B135" s="24"/>
+      <c r="B135" s="112"/>
       <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="24"/>
-      <c r="K135" s="24"/>
-      <c r="L135" s="24"/>
-      <c r="M135" s="24"/>
-      <c r="N135" s="24"/>
+      <c r="D135" s="606"/>
+      <c r="E135" s="420"/>
+      <c r="F135" s="26" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="J135" s="602" t="s">
+        <v>2197</v>
+      </c>
+      <c r="K135" s="603"/>
+      <c r="L135" s="112"/>
+      <c r="M135" s="63"/>
+      <c r="N135" s="63"/>
       <c r="O135" s="24"/>
       <c r="P135" s="24"/>
       <c r="Q135" s="24"/>
     </row>
-    <row r="136" spans="2:17">
-      <c r="B136" s="24"/>
+    <row r="136" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B136" s="112"/>
       <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="24"/>
-      <c r="K136" s="24"/>
-      <c r="L136" s="24"/>
-      <c r="M136" s="24"/>
-      <c r="N136" s="24"/>
+      <c r="D136" s="606"/>
+      <c r="E136" s="420"/>
+      <c r="F136" s="26" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="112"/>
+      <c r="J136" s="604" t="s">
+        <v>2198</v>
+      </c>
+      <c r="K136" s="605"/>
+      <c r="L136" s="127"/>
+      <c r="M136" s="256"/>
+      <c r="N136" s="63"/>
       <c r="O136" s="24"/>
       <c r="P136" s="24"/>
       <c r="Q136" s="24"/>
     </row>
-    <row r="137" spans="2:17">
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="24"/>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
-      <c r="K137" s="24"/>
-      <c r="L137" s="24"/>
-      <c r="M137" s="24"/>
-      <c r="N137" s="24"/>
+    <row r="137" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B137" s="127"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="606"/>
+      <c r="E137" s="420" t="s">
+        <v>120</v>
+      </c>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="127"/>
+      <c r="J137" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="K137" s="52"/>
+      <c r="L137" s="52"/>
+      <c r="M137" s="52"/>
+      <c r="N137" s="256"/>
       <c r="O137" s="24"/>
       <c r="P137" s="24"/>
       <c r="Q137" s="24"/>
@@ -34037,7 +34271,9 @@
       <c r="G138" s="24"/>
       <c r="H138" s="24"/>
       <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
+      <c r="J138" s="250" t="s">
+        <v>2220</v>
+      </c>
       <c r="K138" s="24"/>
       <c r="L138" s="24"/>
       <c r="M138" s="24"/>
@@ -34082,218 +34318,264 @@
       <c r="P140" s="24"/>
       <c r="Q140" s="24"/>
     </row>
-    <row r="141" spans="2:17">
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
-      <c r="M141" s="24"/>
-      <c r="N141" s="24"/>
+    <row r="141" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I141" t="s">
+        <v>55</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2185</v>
+      </c>
       <c r="O141" s="24"/>
       <c r="P141" s="24"/>
       <c r="Q141" s="24"/>
     </row>
-    <row r="142" spans="2:17">
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="24"/>
-      <c r="I142" s="24"/>
-      <c r="J142" s="24"/>
-      <c r="K142" s="24"/>
-      <c r="L142" s="24"/>
-      <c r="M142" s="24"/>
-      <c r="N142" s="24"/>
+    <row r="142" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B142" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I142" s="27" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="3"/>
       <c r="O142" s="24"/>
       <c r="P142" s="24"/>
       <c r="Q142" s="24"/>
     </row>
-    <row r="143" spans="2:17">
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="24"/>
-      <c r="L143" s="24"/>
-      <c r="M143" s="24"/>
-      <c r="N143" s="24"/>
+    <row r="143" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B143" s="1"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="3"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="601" t="s">
+        <v>2186</v>
+      </c>
+      <c r="K143" s="601"/>
+      <c r="L143" s="497" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M143" s="497"/>
+      <c r="N143" s="6"/>
       <c r="O143" s="24"/>
       <c r="P143" s="24"/>
       <c r="Q143" s="24"/>
     </row>
     <row r="144" spans="2:17">
-      <c r="B144" s="24"/>
+      <c r="B144" s="112"/>
       <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
+      <c r="D144" s="63"/>
       <c r="E144" s="24"/>
       <c r="F144" s="24"/>
       <c r="G144" s="24"/>
       <c r="H144" s="24"/>
-      <c r="I144" s="24"/>
-      <c r="J144" s="24"/>
-      <c r="K144" s="24"/>
-      <c r="L144" s="24"/>
-      <c r="M144" s="24"/>
-      <c r="N144" s="24"/>
+      <c r="I144" s="112"/>
+      <c r="J144" s="125" t="s">
+        <v>2215</v>
+      </c>
+      <c r="K144" s="126"/>
+      <c r="L144" s="125"/>
+      <c r="M144" s="126"/>
+      <c r="N144" s="63"/>
       <c r="O144" s="24"/>
       <c r="P144" s="24"/>
       <c r="Q144" s="24"/>
     </row>
     <row r="145" spans="2:17">
-      <c r="B145" s="24"/>
+      <c r="B145" s="112"/>
       <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
+      <c r="D145" s="63"/>
       <c r="E145" s="24"/>
       <c r="F145" s="24"/>
       <c r="G145" s="24"/>
       <c r="H145" s="24"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="24"/>
-      <c r="K145" s="24"/>
-      <c r="L145" s="24"/>
-      <c r="M145" s="24"/>
-      <c r="N145" s="24"/>
+      <c r="I145" s="112"/>
+      <c r="J145" s="602" t="s">
+        <v>2216</v>
+      </c>
+      <c r="K145" s="603"/>
+      <c r="L145" s="112" t="s">
+        <v>2203</v>
+      </c>
+      <c r="M145" s="63"/>
+      <c r="N145" s="63"/>
       <c r="O145" s="24"/>
       <c r="P145" s="24"/>
       <c r="Q145" s="24"/>
     </row>
-    <row r="146" spans="2:17">
-      <c r="B146" s="24"/>
+    <row r="146" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B146" s="112"/>
       <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
+      <c r="D146" s="63"/>
       <c r="E146" s="24"/>
       <c r="F146" s="24"/>
       <c r="G146" s="24"/>
       <c r="H146" s="24"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="24"/>
-      <c r="K146" s="24"/>
-      <c r="L146" s="24"/>
-      <c r="M146" s="147"/>
-      <c r="N146" s="24"/>
+      <c r="I146" s="112"/>
+      <c r="J146" s="602" t="s">
+        <v>2217</v>
+      </c>
+      <c r="K146" s="603"/>
+      <c r="L146" s="112" t="s">
+        <v>358</v>
+      </c>
+      <c r="M146" s="63"/>
+      <c r="N146" s="63"/>
       <c r="O146" s="24"/>
       <c r="P146" s="24"/>
       <c r="Q146" s="24"/>
     </row>
-    <row r="147" spans="2:17">
-      <c r="B147" s="24"/>
+    <row r="147" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B147" s="112"/>
       <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="24" t="s">
+        <v>321</v>
+      </c>
       <c r="F147" s="24"/>
       <c r="G147" s="24"/>
       <c r="H147" s="24"/>
-      <c r="I147" s="24"/>
-      <c r="J147" s="24"/>
-      <c r="K147" s="24"/>
-      <c r="L147" s="24"/>
-      <c r="M147" s="24"/>
-      <c r="N147" s="24"/>
+      <c r="I147" s="284" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J147" s="112" t="s">
+        <v>2218</v>
+      </c>
+      <c r="K147" s="63"/>
+      <c r="L147" s="112" t="s">
+        <v>2209</v>
+      </c>
+      <c r="M147" s="63"/>
+      <c r="N147" s="63"/>
       <c r="O147" s="24"/>
       <c r="P147" s="24"/>
       <c r="Q147" s="24"/>
     </row>
     <row r="148" spans="2:17">
-      <c r="B148" s="24"/>
+      <c r="B148" s="112"/>
       <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
+      <c r="D148" s="130" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E148" s="147" t="s">
+        <v>2208</v>
+      </c>
       <c r="F148" s="24"/>
       <c r="G148" s="24"/>
       <c r="H148" s="24"/>
-      <c r="I148" s="24"/>
-      <c r="J148" s="24"/>
-      <c r="K148" s="24"/>
-      <c r="L148" s="24"/>
-      <c r="M148" s="24"/>
-      <c r="N148" s="24"/>
+      <c r="I148" s="112" t="s">
+        <v>2169</v>
+      </c>
+      <c r="J148" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="K148" s="63"/>
+      <c r="L148" s="112" t="s">
+        <v>2205</v>
+      </c>
+      <c r="M148" s="63"/>
+      <c r="N148" s="63"/>
       <c r="O148" s="24"/>
       <c r="P148" s="24"/>
       <c r="Q148" s="24"/>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="24"/>
+      <c r="B149" s="112"/>
       <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
+      <c r="D149" s="606"/>
+      <c r="E149" s="267"/>
       <c r="F149" s="24"/>
       <c r="G149" s="24"/>
       <c r="H149" s="24"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="24"/>
-      <c r="K149" s="24"/>
-      <c r="L149" s="24"/>
-      <c r="M149" s="24"/>
-      <c r="N149" s="24"/>
+      <c r="I149" s="112" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J149" s="112" t="s">
+        <v>2204</v>
+      </c>
+      <c r="K149" s="63"/>
+      <c r="L149" s="112" t="s">
+        <v>2206</v>
+      </c>
+      <c r="M149" s="63"/>
+      <c r="N149" s="63"/>
       <c r="O149" s="24"/>
       <c r="P149" s="24"/>
       <c r="Q149" s="24"/>
     </row>
     <row r="150" spans="2:17">
-      <c r="B150" s="24"/>
+      <c r="B150" s="112"/>
       <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
+      <c r="D150" s="606"/>
+      <c r="E150" s="290" t="s">
+        <v>2221</v>
+      </c>
       <c r="F150" s="24"/>
       <c r="G150" s="24"/>
       <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="24"/>
-      <c r="M150" s="24"/>
-      <c r="N150" s="24"/>
+      <c r="I150" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="J150" s="602" t="s">
+        <v>2210</v>
+      </c>
+      <c r="K150" s="603"/>
+      <c r="L150" s="112" t="s">
+        <v>2207</v>
+      </c>
+      <c r="M150" s="63"/>
+      <c r="N150" s="63"/>
       <c r="O150" s="24"/>
       <c r="P150" s="24"/>
       <c r="Q150" s="24"/>
     </row>
-    <row r="151" spans="2:17">
-      <c r="B151" s="24"/>
+    <row r="151" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B151" s="112"/>
       <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
+      <c r="D151" s="606"/>
+      <c r="E151" s="267"/>
+      <c r="F151" s="24" t="s">
+        <v>358</v>
+      </c>
       <c r="G151" s="24"/>
       <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
-      <c r="K151" s="24"/>
-      <c r="L151" s="24"/>
-      <c r="M151" s="24"/>
-      <c r="N151" s="24"/>
+      <c r="I151" s="112"/>
+      <c r="J151" s="604" t="s">
+        <v>2211</v>
+      </c>
+      <c r="K151" s="605"/>
+      <c r="L151" s="127" t="s">
+        <v>2214</v>
+      </c>
+      <c r="M151" s="256"/>
+      <c r="N151" s="63"/>
       <c r="O151" s="24"/>
       <c r="P151" s="24"/>
       <c r="Q151" s="24"/>
     </row>
-    <row r="152" spans="2:17">
-      <c r="B152" s="24"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="24"/>
+    <row r="152" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B152" s="127"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="606"/>
+      <c r="E152" s="267"/>
+      <c r="F152" s="24" t="s">
+        <v>2222</v>
+      </c>
       <c r="G152" s="24"/>
       <c r="H152" s="24"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="24"/>
-      <c r="K152" s="24"/>
-      <c r="L152" s="24"/>
-      <c r="M152" s="24"/>
-      <c r="N152" s="24"/>
+      <c r="I152" s="127"/>
+      <c r="J152" s="52" t="s">
+        <v>2212</v>
+      </c>
+      <c r="K152" s="52"/>
+      <c r="L152" s="52"/>
+      <c r="M152" s="52"/>
+      <c r="N152" s="256"/>
       <c r="O152" s="24"/>
       <c r="P152" s="24"/>
       <c r="Q152" s="24"/>
@@ -34303,11 +34585,15 @@
       <c r="C153" s="24"/>
       <c r="D153" s="24"/>
       <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
+      <c r="F153" s="24" t="s">
+        <v>2223</v>
+      </c>
       <c r="G153" s="24"/>
       <c r="H153" s="24"/>
       <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
+      <c r="J153" s="24" t="s">
+        <v>2213</v>
+      </c>
       <c r="K153" s="24"/>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
@@ -34321,12 +34607,16 @@
       <c r="C154" s="24"/>
       <c r="D154" s="24"/>
       <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
+      <c r="F154" s="24" t="s">
+        <v>2224</v>
+      </c>
       <c r="G154" s="24"/>
       <c r="H154" s="24"/>
       <c r="I154" s="24"/>
-      <c r="J154" s="24"/>
-      <c r="K154" s="24"/>
+      <c r="J154" s="250" t="s">
+        <v>2219</v>
+      </c>
+      <c r="K154" s="250"/>
       <c r="L154" s="24"/>
       <c r="M154" s="24"/>
       <c r="N154" s="24"/>
@@ -34339,7 +34629,9 @@
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
       <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
+      <c r="F155" s="24" t="s">
+        <v>2225</v>
+      </c>
       <c r="G155" s="24"/>
       <c r="H155" s="24"/>
       <c r="I155" s="24"/>
@@ -34357,7 +34649,9 @@
       <c r="C156" s="24"/>
       <c r="D156" s="24"/>
       <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
+      <c r="F156" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="G156" s="24"/>
       <c r="H156" s="24"/>
       <c r="I156" s="24"/>
@@ -34375,7 +34669,6 @@
       <c r="C157" s="24"/>
       <c r="D157" s="24"/>
       <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
       <c r="G157" s="24"/>
       <c r="H157" s="24"/>
       <c r="I157" s="24"/>
@@ -36153,7 +36446,13 @@
       <c r="Q255" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="L143:M143"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
@@ -36174,9 +36473,13 @@
     <hyperlink ref="C41" r:id="rId7"/>
     <hyperlink ref="C50" r:id="rId8"/>
     <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="I127" r:id="rId10"/>
+    <hyperlink ref="E133" r:id="rId11"/>
+    <hyperlink ref="I142" r:id="rId12"/>
+    <hyperlink ref="E148" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -36405,13 +36708,13 @@
       <c r="C20" s="96">
         <v>43908</v>
       </c>
-      <c r="D20" s="502" t="s">
+      <c r="D20" s="503" t="s">
         <v>296</v>
       </c>
-      <c r="E20" s="502"/>
-      <c r="F20" s="502"/>
-      <c r="G20" s="502"/>
-      <c r="H20" s="502"/>
+      <c r="E20" s="503"/>
+      <c r="F20" s="503"/>
+      <c r="G20" s="503"/>
+      <c r="H20" s="503"/>
       <c r="I20" s="33" t="s">
         <v>297</v>
       </c>
@@ -36422,37 +36725,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="513">
+      <c r="C21" s="505">
         <v>43909</v>
       </c>
-      <c r="D21" s="502"/>
-      <c r="E21" s="502"/>
-      <c r="F21" s="502"/>
-      <c r="G21" s="502"/>
-      <c r="H21" s="502"/>
+      <c r="D21" s="503"/>
+      <c r="E21" s="503"/>
+      <c r="F21" s="503"/>
+      <c r="G21" s="503"/>
+      <c r="H21" s="503"/>
       <c r="I21" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="J21" s="502"/>
-      <c r="K21" s="502"/>
-      <c r="L21" s="502" t="s">
+      <c r="J21" s="503"/>
+      <c r="K21" s="503"/>
+      <c r="L21" s="503" t="s">
         <v>299</v>
       </c>
-      <c r="M21" s="502"/>
-      <c r="N21" s="502"/>
+      <c r="M21" s="503"/>
+      <c r="N21" s="503"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="513"/>
-      <c r="D22" s="502"/>
-      <c r="E22" s="502"/>
-      <c r="F22" s="502"/>
-      <c r="G22" s="502"/>
-      <c r="H22" s="502"/>
-      <c r="I22" s="517" t="s">
+      <c r="C22" s="505"/>
+      <c r="D22" s="503"/>
+      <c r="E22" s="503"/>
+      <c r="F22" s="503"/>
+      <c r="G22" s="503"/>
+      <c r="H22" s="503"/>
+      <c r="I22" s="504" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="502"/>
-      <c r="K22" s="502"/>
+      <c r="J22" s="503"/>
+      <c r="K22" s="503"/>
       <c r="L22" s="97" t="s">
         <v>301</v>
       </c>
@@ -36460,31 +36763,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="513"/>
-      <c r="D23" s="502"/>
-      <c r="E23" s="502"/>
-      <c r="F23" s="502"/>
-      <c r="G23" s="502"/>
-      <c r="H23" s="502"/>
-      <c r="I23" s="517"/>
-      <c r="J23" s="502"/>
-      <c r="K23" s="502"/>
-      <c r="L23" s="502" t="s">
+      <c r="C23" s="505"/>
+      <c r="D23" s="503"/>
+      <c r="E23" s="503"/>
+      <c r="F23" s="503"/>
+      <c r="G23" s="503"/>
+      <c r="H23" s="503"/>
+      <c r="I23" s="504"/>
+      <c r="J23" s="503"/>
+      <c r="K23" s="503"/>
+      <c r="L23" s="503" t="s">
         <v>302</v>
       </c>
-      <c r="M23" s="502"/>
-      <c r="N23" s="502"/>
+      <c r="M23" s="503"/>
+      <c r="N23" s="503"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="513"/>
-      <c r="D24" s="502"/>
-      <c r="E24" s="502"/>
-      <c r="F24" s="502"/>
-      <c r="G24" s="502"/>
-      <c r="H24" s="502"/>
-      <c r="I24" s="517"/>
-      <c r="J24" s="502"/>
-      <c r="K24" s="502"/>
+      <c r="C24" s="505"/>
+      <c r="D24" s="503"/>
+      <c r="E24" s="503"/>
+      <c r="F24" s="503"/>
+      <c r="G24" s="503"/>
+      <c r="H24" s="503"/>
+      <c r="I24" s="504"/>
+      <c r="J24" s="503"/>
+      <c r="K24" s="503"/>
       <c r="L24" s="98" t="s">
         <v>300</v>
       </c>
@@ -36495,13 +36798,13 @@
       <c r="C25" s="96">
         <v>43910</v>
       </c>
-      <c r="D25" s="502" t="s">
+      <c r="D25" s="503" t="s">
         <v>303</v>
       </c>
-      <c r="E25" s="502"/>
-      <c r="F25" s="502"/>
-      <c r="G25" s="502"/>
-      <c r="H25" s="502"/>
+      <c r="E25" s="503"/>
+      <c r="F25" s="503"/>
+      <c r="G25" s="503"/>
+      <c r="H25" s="503"/>
       <c r="I25" s="33" t="s">
         <v>304</v>
       </c>
@@ -36515,16 +36818,16 @@
       <c r="C26" s="96">
         <v>43911</v>
       </c>
-      <c r="D26" s="503"/>
-      <c r="E26" s="504"/>
-      <c r="F26" s="504"/>
-      <c r="G26" s="504"/>
-      <c r="H26" s="505"/>
-      <c r="I26" s="510" t="s">
+      <c r="D26" s="506"/>
+      <c r="E26" s="507"/>
+      <c r="F26" s="507"/>
+      <c r="G26" s="507"/>
+      <c r="H26" s="508"/>
+      <c r="I26" s="513" t="s">
         <v>300</v>
       </c>
-      <c r="J26" s="503"/>
-      <c r="K26" s="505"/>
+      <c r="J26" s="506"/>
+      <c r="K26" s="508"/>
       <c r="L26" s="97" t="s">
         <v>301</v>
       </c>
@@ -36533,30 +36836,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="506"/>
-      <c r="E27" s="496"/>
-      <c r="F27" s="496"/>
-      <c r="G27" s="496"/>
-      <c r="H27" s="507"/>
-      <c r="I27" s="511"/>
-      <c r="J27" s="506"/>
-      <c r="K27" s="507"/>
-      <c r="L27" s="502" t="s">
+      <c r="D27" s="509"/>
+      <c r="E27" s="497"/>
+      <c r="F27" s="497"/>
+      <c r="G27" s="497"/>
+      <c r="H27" s="510"/>
+      <c r="I27" s="514"/>
+      <c r="J27" s="509"/>
+      <c r="K27" s="510"/>
+      <c r="L27" s="503" t="s">
         <v>305</v>
       </c>
-      <c r="M27" s="502"/>
-      <c r="N27" s="502"/>
+      <c r="M27" s="503"/>
+      <c r="N27" s="503"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="506"/>
-      <c r="E28" s="496"/>
-      <c r="F28" s="496"/>
-      <c r="G28" s="496"/>
-      <c r="H28" s="507"/>
-      <c r="I28" s="511"/>
-      <c r="J28" s="506"/>
-      <c r="K28" s="507"/>
+      <c r="D28" s="509"/>
+      <c r="E28" s="497"/>
+      <c r="F28" s="497"/>
+      <c r="G28" s="497"/>
+      <c r="H28" s="510"/>
+      <c r="I28" s="514"/>
+      <c r="J28" s="509"/>
+      <c r="K28" s="510"/>
       <c r="L28" s="98" t="s">
         <v>300</v>
       </c>
@@ -36565,14 +36868,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="508"/>
-      <c r="E29" s="489"/>
-      <c r="F29" s="489"/>
-      <c r="G29" s="489"/>
-      <c r="H29" s="509"/>
-      <c r="I29" s="512"/>
-      <c r="J29" s="508"/>
-      <c r="K29" s="509"/>
+      <c r="D29" s="511"/>
+      <c r="E29" s="490"/>
+      <c r="F29" s="490"/>
+      <c r="G29" s="490"/>
+      <c r="H29" s="512"/>
+      <c r="I29" s="515"/>
+      <c r="J29" s="511"/>
+      <c r="K29" s="512"/>
       <c r="L29" s="99" t="s">
         <v>306</v>
       </c>
@@ -36620,13 +36923,13 @@
       <c r="C33" s="96">
         <v>43908</v>
       </c>
-      <c r="D33" s="502" t="s">
+      <c r="D33" s="503" t="s">
         <v>296</v>
       </c>
-      <c r="E33" s="502"/>
-      <c r="F33" s="502"/>
-      <c r="G33" s="502"/>
-      <c r="H33" s="502"/>
+      <c r="E33" s="503"/>
+      <c r="F33" s="503"/>
+      <c r="G33" s="503"/>
+      <c r="H33" s="503"/>
       <c r="I33" s="33" t="s">
         <v>297</v>
       </c>
@@ -36637,33 +36940,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="513">
+      <c r="C34" s="505">
         <v>43909</v>
       </c>
-      <c r="D34" s="502"/>
-      <c r="E34" s="502"/>
-      <c r="F34" s="502"/>
-      <c r="G34" s="502"/>
-      <c r="H34" s="502"/>
-      <c r="I34" s="514"/>
-      <c r="J34" s="502"/>
-      <c r="K34" s="502"/>
-      <c r="L34" s="502" t="s">
+      <c r="D34" s="503"/>
+      <c r="E34" s="503"/>
+      <c r="F34" s="503"/>
+      <c r="G34" s="503"/>
+      <c r="H34" s="503"/>
+      <c r="I34" s="516"/>
+      <c r="J34" s="503"/>
+      <c r="K34" s="503"/>
+      <c r="L34" s="503" t="s">
         <v>299</v>
       </c>
-      <c r="M34" s="502"/>
-      <c r="N34" s="502"/>
+      <c r="M34" s="503"/>
+      <c r="N34" s="503"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="513"/>
-      <c r="D35" s="502"/>
-      <c r="E35" s="502"/>
-      <c r="F35" s="502"/>
-      <c r="G35" s="502"/>
-      <c r="H35" s="502"/>
-      <c r="I35" s="515"/>
-      <c r="J35" s="502"/>
-      <c r="K35" s="502"/>
+      <c r="C35" s="505"/>
+      <c r="D35" s="503"/>
+      <c r="E35" s="503"/>
+      <c r="F35" s="503"/>
+      <c r="G35" s="503"/>
+      <c r="H35" s="503"/>
+      <c r="I35" s="517"/>
+      <c r="J35" s="503"/>
+      <c r="K35" s="503"/>
       <c r="L35" s="97" t="s">
         <v>301</v>
       </c>
@@ -36671,31 +36974,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="513"/>
-      <c r="D36" s="502"/>
-      <c r="E36" s="502"/>
-      <c r="F36" s="502"/>
-      <c r="G36" s="502"/>
-      <c r="H36" s="502"/>
-      <c r="I36" s="515"/>
-      <c r="J36" s="502"/>
-      <c r="K36" s="502"/>
-      <c r="L36" s="502" t="s">
+      <c r="C36" s="505"/>
+      <c r="D36" s="503"/>
+      <c r="E36" s="503"/>
+      <c r="F36" s="503"/>
+      <c r="G36" s="503"/>
+      <c r="H36" s="503"/>
+      <c r="I36" s="517"/>
+      <c r="J36" s="503"/>
+      <c r="K36" s="503"/>
+      <c r="L36" s="503" t="s">
         <v>302</v>
       </c>
-      <c r="M36" s="502"/>
-      <c r="N36" s="502"/>
+      <c r="M36" s="503"/>
+      <c r="N36" s="503"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="513"/>
-      <c r="D37" s="502"/>
-      <c r="E37" s="502"/>
-      <c r="F37" s="502"/>
-      <c r="G37" s="502"/>
-      <c r="H37" s="502"/>
-      <c r="I37" s="516"/>
-      <c r="J37" s="502"/>
-      <c r="K37" s="502"/>
+      <c r="C37" s="505"/>
+      <c r="D37" s="503"/>
+      <c r="E37" s="503"/>
+      <c r="F37" s="503"/>
+      <c r="G37" s="503"/>
+      <c r="H37" s="503"/>
+      <c r="I37" s="518"/>
+      <c r="J37" s="503"/>
+      <c r="K37" s="503"/>
       <c r="L37" s="98" t="s">
         <v>307</v>
       </c>
@@ -36706,13 +37009,13 @@
       <c r="C38" s="96">
         <v>43910</v>
       </c>
-      <c r="D38" s="502" t="s">
+      <c r="D38" s="503" t="s">
         <v>303</v>
       </c>
-      <c r="E38" s="502"/>
-      <c r="F38" s="502"/>
-      <c r="G38" s="502"/>
-      <c r="H38" s="502"/>
+      <c r="E38" s="503"/>
+      <c r="F38" s="503"/>
+      <c r="G38" s="503"/>
+      <c r="H38" s="503"/>
       <c r="I38" s="33" t="s">
         <v>304</v>
       </c>
@@ -36726,14 +37029,14 @@
       <c r="C39" s="96">
         <v>43911</v>
       </c>
-      <c r="D39" s="503"/>
-      <c r="E39" s="504"/>
-      <c r="F39" s="504"/>
-      <c r="G39" s="504"/>
-      <c r="H39" s="505"/>
-      <c r="I39" s="510"/>
-      <c r="J39" s="503"/>
-      <c r="K39" s="505"/>
+      <c r="D39" s="506"/>
+      <c r="E39" s="507"/>
+      <c r="F39" s="507"/>
+      <c r="G39" s="507"/>
+      <c r="H39" s="508"/>
+      <c r="I39" s="513"/>
+      <c r="J39" s="506"/>
+      <c r="K39" s="508"/>
       <c r="L39" s="97" t="s">
         <v>301</v>
       </c>
@@ -36742,30 +37045,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="506"/>
-      <c r="E40" s="496"/>
-      <c r="F40" s="496"/>
-      <c r="G40" s="496"/>
-      <c r="H40" s="507"/>
-      <c r="I40" s="511"/>
-      <c r="J40" s="506"/>
-      <c r="K40" s="507"/>
-      <c r="L40" s="502" t="s">
+      <c r="D40" s="509"/>
+      <c r="E40" s="497"/>
+      <c r="F40" s="497"/>
+      <c r="G40" s="497"/>
+      <c r="H40" s="510"/>
+      <c r="I40" s="514"/>
+      <c r="J40" s="509"/>
+      <c r="K40" s="510"/>
+      <c r="L40" s="503" t="s">
         <v>305</v>
       </c>
-      <c r="M40" s="502"/>
-      <c r="N40" s="502"/>
+      <c r="M40" s="503"/>
+      <c r="N40" s="503"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="506"/>
-      <c r="E41" s="496"/>
-      <c r="F41" s="496"/>
-      <c r="G41" s="496"/>
-      <c r="H41" s="507"/>
-      <c r="I41" s="512"/>
-      <c r="J41" s="506"/>
-      <c r="K41" s="507"/>
+      <c r="D41" s="509"/>
+      <c r="E41" s="497"/>
+      <c r="F41" s="497"/>
+      <c r="G41" s="497"/>
+      <c r="H41" s="510"/>
+      <c r="I41" s="515"/>
+      <c r="J41" s="509"/>
+      <c r="K41" s="510"/>
       <c r="L41" s="98" t="s">
         <v>307</v>
       </c>
@@ -36774,16 +37077,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="508"/>
-      <c r="E42" s="489"/>
-      <c r="F42" s="489"/>
-      <c r="G42" s="489"/>
-      <c r="H42" s="509"/>
+      <c r="D42" s="511"/>
+      <c r="E42" s="490"/>
+      <c r="F42" s="490"/>
+      <c r="G42" s="490"/>
+      <c r="H42" s="512"/>
       <c r="I42" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="J42" s="508"/>
-      <c r="K42" s="509"/>
+      <c r="J42" s="511"/>
+      <c r="K42" s="512"/>
       <c r="L42" s="99" t="s">
         <v>306</v>
       </c>
@@ -37095,12 +37398,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -37108,17 +37416,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37140,29 +37443,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="534" t="s">
+      <c r="B2" s="529" t="s">
         <v>762</v>
       </c>
-      <c r="C2" s="534"/>
-      <c r="D2" s="534"/>
-      <c r="E2" s="534"/>
-      <c r="F2" s="534"/>
-      <c r="G2" s="534"/>
-      <c r="H2" s="534"/>
-      <c r="I2" s="534"/>
-      <c r="J2" s="534"/>
-      <c r="K2" s="534"/>
-      <c r="L2" s="534"/>
-      <c r="M2" s="534"/>
-      <c r="N2" s="534"/>
-      <c r="O2" s="534"/>
-      <c r="P2" s="534"/>
-      <c r="Q2" s="534"/>
-      <c r="R2" s="534"/>
-      <c r="S2" s="534"/>
-      <c r="T2" s="534"/>
-      <c r="U2" s="534"/>
-      <c r="V2" s="534"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
+      <c r="E2" s="529"/>
+      <c r="F2" s="529"/>
+      <c r="G2" s="529"/>
+      <c r="H2" s="529"/>
+      <c r="I2" s="529"/>
+      <c r="J2" s="529"/>
+      <c r="K2" s="529"/>
+      <c r="L2" s="529"/>
+      <c r="M2" s="529"/>
+      <c r="N2" s="529"/>
+      <c r="O2" s="529"/>
+      <c r="P2" s="529"/>
+      <c r="Q2" s="529"/>
+      <c r="R2" s="529"/>
+      <c r="S2" s="529"/>
+      <c r="T2" s="529"/>
+      <c r="U2" s="529"/>
+      <c r="V2" s="529"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -37195,22 +37498,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="518" t="s">
+      <c r="G5" s="532" t="s">
         <v>328</v>
       </c>
-      <c r="H5" s="518"/>
-      <c r="I5" s="518" t="s">
+      <c r="H5" s="532"/>
+      <c r="I5" s="532" t="s">
         <v>329</v>
       </c>
-      <c r="J5" s="518"/>
-      <c r="K5" s="518"/>
-      <c r="L5" s="518"/>
-      <c r="M5" s="518"/>
-      <c r="N5" s="518"/>
-      <c r="O5" s="518" t="s">
+      <c r="J5" s="532"/>
+      <c r="K5" s="532"/>
+      <c r="L5" s="532"/>
+      <c r="M5" s="532"/>
+      <c r="N5" s="532"/>
+      <c r="O5" s="532" t="s">
         <v>330</v>
       </c>
-      <c r="P5" s="518"/>
+      <c r="P5" s="532"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -37222,7 +37525,7 @@
       <c r="D6" s="113"/>
       <c r="E6" s="114"/>
       <c r="F6" s="116"/>
-      <c r="G6" s="519" t="s">
+      <c r="G6" s="537" t="s">
         <v>331</v>
       </c>
       <c r="H6" s="91"/>
@@ -37251,26 +37554,26 @@
       </c>
       <c r="E7" s="116"/>
       <c r="F7" s="116"/>
-      <c r="G7" s="458"/>
-      <c r="H7" s="520" t="s">
+      <c r="G7" s="446"/>
+      <c r="H7" s="538" t="s">
         <v>333</v>
       </c>
-      <c r="I7" s="523" t="s">
+      <c r="I7" s="541" t="s">
         <v>334</v>
       </c>
-      <c r="J7" s="524"/>
-      <c r="K7" s="465" t="s">
+      <c r="J7" s="542"/>
+      <c r="K7" s="466" t="s">
         <v>335</v>
       </c>
-      <c r="L7" s="525"/>
-      <c r="M7" s="523" t="s">
+      <c r="L7" s="543"/>
+      <c r="M7" s="541" t="s">
         <v>336</v>
       </c>
-      <c r="N7" s="524"/>
-      <c r="O7" s="528" t="s">
+      <c r="N7" s="542"/>
+      <c r="O7" s="546" t="s">
         <v>337</v>
       </c>
-      <c r="P7" s="529"/>
+      <c r="P7" s="547"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -37282,16 +37585,16 @@
       <c r="D8" s="117"/>
       <c r="E8" s="118"/>
       <c r="F8" s="116"/>
-      <c r="G8" s="458"/>
-      <c r="H8" s="521"/>
-      <c r="I8" s="436"/>
-      <c r="J8" s="438"/>
-      <c r="K8" s="466"/>
-      <c r="L8" s="526"/>
-      <c r="M8" s="436"/>
-      <c r="N8" s="438"/>
-      <c r="O8" s="530"/>
-      <c r="P8" s="531"/>
+      <c r="G8" s="446"/>
+      <c r="H8" s="539"/>
+      <c r="I8" s="455"/>
+      <c r="J8" s="456"/>
+      <c r="K8" s="467"/>
+      <c r="L8" s="544"/>
+      <c r="M8" s="455"/>
+      <c r="N8" s="456"/>
+      <c r="O8" s="548"/>
+      <c r="P8" s="549"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>66</v>
@@ -37309,16 +37612,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="458"/>
-      <c r="H9" s="521"/>
-      <c r="I9" s="436"/>
-      <c r="J9" s="438"/>
-      <c r="K9" s="466"/>
-      <c r="L9" s="526"/>
-      <c r="M9" s="436"/>
-      <c r="N9" s="438"/>
-      <c r="O9" s="530"/>
-      <c r="P9" s="531"/>
+      <c r="G9" s="446"/>
+      <c r="H9" s="539"/>
+      <c r="I9" s="455"/>
+      <c r="J9" s="456"/>
+      <c r="K9" s="467"/>
+      <c r="L9" s="544"/>
+      <c r="M9" s="455"/>
+      <c r="N9" s="456"/>
+      <c r="O9" s="548"/>
+      <c r="P9" s="549"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -37338,16 +37641,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="458"/>
-      <c r="H10" s="521"/>
-      <c r="I10" s="436"/>
-      <c r="J10" s="438"/>
-      <c r="K10" s="466"/>
-      <c r="L10" s="526"/>
-      <c r="M10" s="436"/>
-      <c r="N10" s="438"/>
-      <c r="O10" s="530"/>
-      <c r="P10" s="531"/>
+      <c r="G10" s="446"/>
+      <c r="H10" s="539"/>
+      <c r="I10" s="455"/>
+      <c r="J10" s="456"/>
+      <c r="K10" s="467"/>
+      <c r="L10" s="544"/>
+      <c r="M10" s="455"/>
+      <c r="N10" s="456"/>
+      <c r="O10" s="548"/>
+      <c r="P10" s="549"/>
       <c r="Q10" s="5" t="s">
         <v>71</v>
       </c>
@@ -37363,16 +37666,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="458"/>
-      <c r="H11" s="521"/>
-      <c r="I11" s="436"/>
-      <c r="J11" s="438"/>
-      <c r="K11" s="466"/>
-      <c r="L11" s="526"/>
-      <c r="M11" s="436"/>
-      <c r="N11" s="438"/>
-      <c r="O11" s="530"/>
-      <c r="P11" s="531"/>
+      <c r="G11" s="446"/>
+      <c r="H11" s="539"/>
+      <c r="I11" s="455"/>
+      <c r="J11" s="456"/>
+      <c r="K11" s="467"/>
+      <c r="L11" s="544"/>
+      <c r="M11" s="455"/>
+      <c r="N11" s="456"/>
+      <c r="O11" s="548"/>
+      <c r="P11" s="549"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -37390,16 +37693,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="458"/>
-      <c r="H12" s="521"/>
-      <c r="I12" s="436"/>
-      <c r="J12" s="438"/>
-      <c r="K12" s="466"/>
-      <c r="L12" s="526"/>
-      <c r="M12" s="436"/>
-      <c r="N12" s="438"/>
-      <c r="O12" s="530"/>
-      <c r="P12" s="531"/>
+      <c r="G12" s="446"/>
+      <c r="H12" s="539"/>
+      <c r="I12" s="455"/>
+      <c r="J12" s="456"/>
+      <c r="K12" s="467"/>
+      <c r="L12" s="544"/>
+      <c r="M12" s="455"/>
+      <c r="N12" s="456"/>
+      <c r="O12" s="548"/>
+      <c r="P12" s="549"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -37413,16 +37716,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="458"/>
-      <c r="H13" s="521"/>
-      <c r="I13" s="436"/>
-      <c r="J13" s="438"/>
-      <c r="K13" s="466"/>
-      <c r="L13" s="526"/>
-      <c r="M13" s="436"/>
-      <c r="N13" s="438"/>
-      <c r="O13" s="530"/>
-      <c r="P13" s="531"/>
+      <c r="G13" s="446"/>
+      <c r="H13" s="539"/>
+      <c r="I13" s="455"/>
+      <c r="J13" s="456"/>
+      <c r="K13" s="467"/>
+      <c r="L13" s="544"/>
+      <c r="M13" s="455"/>
+      <c r="N13" s="456"/>
+      <c r="O13" s="548"/>
+      <c r="P13" s="549"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -37434,16 +37737,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="458"/>
-      <c r="H14" s="521"/>
-      <c r="I14" s="436"/>
-      <c r="J14" s="438"/>
-      <c r="K14" s="466"/>
-      <c r="L14" s="526"/>
-      <c r="M14" s="436"/>
-      <c r="N14" s="438"/>
-      <c r="O14" s="530"/>
-      <c r="P14" s="531"/>
+      <c r="G14" s="446"/>
+      <c r="H14" s="539"/>
+      <c r="I14" s="455"/>
+      <c r="J14" s="456"/>
+      <c r="K14" s="467"/>
+      <c r="L14" s="544"/>
+      <c r="M14" s="455"/>
+      <c r="N14" s="456"/>
+      <c r="O14" s="548"/>
+      <c r="P14" s="549"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -37457,16 +37760,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="458"/>
-      <c r="H15" s="521"/>
-      <c r="I15" s="436"/>
-      <c r="J15" s="438"/>
-      <c r="K15" s="466"/>
-      <c r="L15" s="526"/>
-      <c r="M15" s="436"/>
-      <c r="N15" s="438"/>
-      <c r="O15" s="530"/>
-      <c r="P15" s="531"/>
+      <c r="G15" s="446"/>
+      <c r="H15" s="539"/>
+      <c r="I15" s="455"/>
+      <c r="J15" s="456"/>
+      <c r="K15" s="467"/>
+      <c r="L15" s="544"/>
+      <c r="M15" s="455"/>
+      <c r="N15" s="456"/>
+      <c r="O15" s="548"/>
+      <c r="P15" s="549"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -37478,16 +37781,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="458"/>
-      <c r="H16" s="521"/>
-      <c r="I16" s="436"/>
-      <c r="J16" s="438"/>
-      <c r="K16" s="466"/>
-      <c r="L16" s="526"/>
-      <c r="M16" s="436"/>
-      <c r="N16" s="438"/>
-      <c r="O16" s="530"/>
-      <c r="P16" s="531"/>
+      <c r="G16" s="446"/>
+      <c r="H16" s="539"/>
+      <c r="I16" s="455"/>
+      <c r="J16" s="456"/>
+      <c r="K16" s="467"/>
+      <c r="L16" s="544"/>
+      <c r="M16" s="455"/>
+      <c r="N16" s="456"/>
+      <c r="O16" s="548"/>
+      <c r="P16" s="549"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -37499,16 +37802,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="458"/>
-      <c r="H17" s="521"/>
-      <c r="I17" s="436"/>
-      <c r="J17" s="438"/>
-      <c r="K17" s="466"/>
-      <c r="L17" s="526"/>
-      <c r="M17" s="436"/>
-      <c r="N17" s="438"/>
-      <c r="O17" s="530"/>
-      <c r="P17" s="531"/>
+      <c r="G17" s="446"/>
+      <c r="H17" s="539"/>
+      <c r="I17" s="455"/>
+      <c r="J17" s="456"/>
+      <c r="K17" s="467"/>
+      <c r="L17" s="544"/>
+      <c r="M17" s="455"/>
+      <c r="N17" s="456"/>
+      <c r="O17" s="548"/>
+      <c r="P17" s="549"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -37520,16 +37823,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="458"/>
-      <c r="H18" s="521"/>
-      <c r="I18" s="436"/>
-      <c r="J18" s="438"/>
-      <c r="K18" s="466"/>
-      <c r="L18" s="526"/>
-      <c r="M18" s="436"/>
-      <c r="N18" s="438"/>
-      <c r="O18" s="530"/>
-      <c r="P18" s="531"/>
+      <c r="G18" s="446"/>
+      <c r="H18" s="539"/>
+      <c r="I18" s="455"/>
+      <c r="J18" s="456"/>
+      <c r="K18" s="467"/>
+      <c r="L18" s="544"/>
+      <c r="M18" s="455"/>
+      <c r="N18" s="456"/>
+      <c r="O18" s="548"/>
+      <c r="P18" s="549"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -37543,16 +37846,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="458"/>
-      <c r="H19" s="521"/>
-      <c r="I19" s="436"/>
-      <c r="J19" s="438"/>
-      <c r="K19" s="466"/>
-      <c r="L19" s="526"/>
-      <c r="M19" s="436"/>
-      <c r="N19" s="438"/>
-      <c r="O19" s="530"/>
-      <c r="P19" s="531"/>
+      <c r="G19" s="446"/>
+      <c r="H19" s="539"/>
+      <c r="I19" s="455"/>
+      <c r="J19" s="456"/>
+      <c r="K19" s="467"/>
+      <c r="L19" s="544"/>
+      <c r="M19" s="455"/>
+      <c r="N19" s="456"/>
+      <c r="O19" s="548"/>
+      <c r="P19" s="549"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -37564,16 +37867,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="459"/>
-      <c r="H20" s="522"/>
-      <c r="I20" s="439"/>
-      <c r="J20" s="441"/>
-      <c r="K20" s="467"/>
-      <c r="L20" s="527"/>
-      <c r="M20" s="439"/>
-      <c r="N20" s="441"/>
-      <c r="O20" s="532"/>
-      <c r="P20" s="533"/>
+      <c r="G20" s="447"/>
+      <c r="H20" s="540"/>
+      <c r="I20" s="457"/>
+      <c r="J20" s="459"/>
+      <c r="K20" s="468"/>
+      <c r="L20" s="545"/>
+      <c r="M20" s="457"/>
+      <c r="N20" s="459"/>
+      <c r="O20" s="550"/>
+      <c r="P20" s="551"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -37603,27 +37906,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="442" t="s">
+      <c r="D22" s="443" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="443"/>
+      <c r="E22" s="444"/>
       <c r="F22" s="207"/>
       <c r="G22" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="442" t="s">
+      <c r="H22" s="443" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="444"/>
-      <c r="J22" s="444"/>
-      <c r="K22" s="444"/>
-      <c r="L22" s="444"/>
-      <c r="M22" s="444"/>
-      <c r="N22" s="443"/>
-      <c r="O22" s="442" t="s">
+      <c r="I22" s="460"/>
+      <c r="J22" s="460"/>
+      <c r="K22" s="460"/>
+      <c r="L22" s="460"/>
+      <c r="M22" s="460"/>
+      <c r="N22" s="444"/>
+      <c r="O22" s="443" t="s">
         <v>338</v>
       </c>
-      <c r="P22" s="443"/>
+      <c r="P22" s="444"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -37654,59 +37957,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="534" t="s">
+      <c r="B25" s="529" t="s">
         <v>761</v>
       </c>
-      <c r="C25" s="534"/>
-      <c r="D25" s="534"/>
-      <c r="E25" s="534"/>
-      <c r="F25" s="534"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="534"/>
-      <c r="I25" s="534"/>
-      <c r="J25" s="534"/>
-      <c r="K25" s="534"/>
-      <c r="L25" s="534"/>
-      <c r="M25" s="534"/>
-      <c r="N25" s="534"/>
-      <c r="O25" s="534"/>
-      <c r="P25" s="534"/>
-      <c r="Q25" s="534"/>
-      <c r="R25" s="534"/>
-      <c r="S25" s="534"/>
-      <c r="T25" s="534"/>
-      <c r="U25" s="534"/>
-      <c r="V25" s="534"/>
+      <c r="C25" s="529"/>
+      <c r="D25" s="529"/>
+      <c r="E25" s="529"/>
+      <c r="F25" s="529"/>
+      <c r="G25" s="529"/>
+      <c r="H25" s="529"/>
+      <c r="I25" s="529"/>
+      <c r="J25" s="529"/>
+      <c r="K25" s="529"/>
+      <c r="L25" s="529"/>
+      <c r="M25" s="529"/>
+      <c r="N25" s="529"/>
+      <c r="O25" s="529"/>
+      <c r="P25" s="529"/>
+      <c r="Q25" s="529"/>
+      <c r="R25" s="529"/>
+      <c r="S25" s="529"/>
+      <c r="T25" s="529"/>
+      <c r="U25" s="529"/>
+      <c r="V25" s="529"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="535" t="s">
+      <c r="C26" s="530" t="s">
         <v>365</v>
       </c>
-      <c r="D26" s="535"/>
-      <c r="E26" s="535"/>
-      <c r="F26" s="535"/>
-      <c r="G26" s="535"/>
-      <c r="H26" s="535"/>
-      <c r="I26" s="535"/>
-      <c r="J26" s="535"/>
-      <c r="K26" s="535"/>
-      <c r="L26" s="535"/>
-      <c r="M26" s="535"/>
+      <c r="D26" s="530"/>
+      <c r="E26" s="530"/>
+      <c r="F26" s="530"/>
+      <c r="G26" s="530"/>
+      <c r="H26" s="530"/>
+      <c r="I26" s="530"/>
+      <c r="J26" s="530"/>
+      <c r="K26" s="530"/>
+      <c r="L26" s="530"/>
+      <c r="M26" s="530"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="454" t="s">
+      <c r="E27" s="440" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="455"/>
-      <c r="G27" s="455"/>
-      <c r="H27" s="421"/>
-      <c r="I27" s="421"/>
-      <c r="J27" s="421"/>
-      <c r="K27" s="421"/>
-      <c r="L27" s="421"/>
-      <c r="M27" s="422"/>
+      <c r="F27" s="441"/>
+      <c r="G27" s="441"/>
+      <c r="H27" s="422"/>
+      <c r="I27" s="422"/>
+      <c r="J27" s="422"/>
+      <c r="K27" s="422"/>
+      <c r="L27" s="422"/>
+      <c r="M27" s="423"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -37739,11 +38042,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="536" t="s">
+      <c r="O29" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="536"/>
-      <c r="Q29" s="536"/>
+      <c r="P29" s="531"/>
+      <c r="Q29" s="531"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -37788,21 +38091,21 @@
         <v>74</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="540" t="s">
+      <c r="E32" s="526" t="s">
         <v>765</v>
       </c>
-      <c r="F32" s="541"/>
-      <c r="G32" s="542"/>
-      <c r="H32" s="540" t="s">
+      <c r="F32" s="527"/>
+      <c r="G32" s="528"/>
+      <c r="H32" s="526" t="s">
         <v>766</v>
       </c>
-      <c r="I32" s="541"/>
-      <c r="J32" s="542"/>
-      <c r="K32" s="540" t="s">
+      <c r="I32" s="527"/>
+      <c r="J32" s="528"/>
+      <c r="K32" s="526" t="s">
         <v>767</v>
       </c>
-      <c r="L32" s="541"/>
-      <c r="M32" s="542"/>
+      <c r="L32" s="527"/>
+      <c r="M32" s="528"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -37819,15 +38122,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="540"/>
-      <c r="F33" s="541"/>
-      <c r="G33" s="542"/>
-      <c r="H33" s="540"/>
-      <c r="I33" s="541"/>
-      <c r="J33" s="542"/>
-      <c r="K33" s="540"/>
-      <c r="L33" s="541"/>
-      <c r="M33" s="542"/>
+      <c r="E33" s="526"/>
+      <c r="F33" s="527"/>
+      <c r="G33" s="528"/>
+      <c r="H33" s="526"/>
+      <c r="I33" s="527"/>
+      <c r="J33" s="528"/>
+      <c r="K33" s="526"/>
+      <c r="L33" s="527"/>
+      <c r="M33" s="528"/>
       <c r="N33" s="5" t="s">
         <v>71</v>
       </c>
@@ -37844,15 +38147,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="540"/>
-      <c r="F34" s="541"/>
-      <c r="G34" s="542"/>
-      <c r="H34" s="540"/>
-      <c r="I34" s="541"/>
-      <c r="J34" s="542"/>
-      <c r="K34" s="540"/>
-      <c r="L34" s="541"/>
-      <c r="M34" s="542"/>
+      <c r="E34" s="526"/>
+      <c r="F34" s="527"/>
+      <c r="G34" s="528"/>
+      <c r="H34" s="526"/>
+      <c r="I34" s="527"/>
+      <c r="J34" s="528"/>
+      <c r="K34" s="526"/>
+      <c r="L34" s="527"/>
+      <c r="M34" s="528"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -37863,15 +38166,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="540"/>
-      <c r="F35" s="541"/>
-      <c r="G35" s="542"/>
-      <c r="H35" s="540"/>
-      <c r="I35" s="541"/>
-      <c r="J35" s="542"/>
-      <c r="K35" s="540"/>
-      <c r="L35" s="541"/>
-      <c r="M35" s="542"/>
+      <c r="E35" s="526"/>
+      <c r="F35" s="527"/>
+      <c r="G35" s="528"/>
+      <c r="H35" s="526"/>
+      <c r="I35" s="527"/>
+      <c r="J35" s="528"/>
+      <c r="K35" s="526"/>
+      <c r="L35" s="527"/>
+      <c r="M35" s="528"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -38002,15 +38305,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="544"/>
-      <c r="F42" s="545"/>
-      <c r="G42" s="545"/>
-      <c r="H42" s="545"/>
-      <c r="I42" s="545"/>
-      <c r="J42" s="545"/>
-      <c r="K42" s="545"/>
-      <c r="L42" s="545"/>
-      <c r="M42" s="546"/>
+      <c r="E42" s="519"/>
+      <c r="F42" s="520"/>
+      <c r="G42" s="520"/>
+      <c r="H42" s="520"/>
+      <c r="I42" s="520"/>
+      <c r="J42" s="520"/>
+      <c r="K42" s="520"/>
+      <c r="L42" s="520"/>
+      <c r="M42" s="521"/>
       <c r="N42" s="35" t="s">
         <v>370</v>
       </c>
@@ -38029,23 +38332,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="442" t="s">
+      <c r="C44" s="443" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="443"/>
-      <c r="E44" s="442" t="s">
+      <c r="D44" s="444"/>
+      <c r="E44" s="443" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="444"/>
-      <c r="G44" s="443"/>
-      <c r="H44" s="442" t="s">
+      <c r="F44" s="460"/>
+      <c r="G44" s="444"/>
+      <c r="H44" s="443" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="444"/>
-      <c r="J44" s="444"/>
-      <c r="K44" s="444"/>
-      <c r="L44" s="444"/>
-      <c r="M44" s="443"/>
+      <c r="I44" s="460"/>
+      <c r="J44" s="460"/>
+      <c r="K44" s="460"/>
+      <c r="L44" s="460"/>
+      <c r="M44" s="444"/>
       <c r="Q44" t="s">
         <v>764</v>
       </c>
@@ -38065,61 +38368,61 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="534" t="s">
+      <c r="B47" s="529" t="s">
         <v>763</v>
       </c>
-      <c r="C47" s="534"/>
-      <c r="D47" s="534"/>
-      <c r="E47" s="534"/>
-      <c r="F47" s="534"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="534"/>
-      <c r="I47" s="534"/>
-      <c r="J47" s="534"/>
-      <c r="K47" s="534"/>
-      <c r="L47" s="534"/>
-      <c r="M47" s="534"/>
-      <c r="N47" s="534"/>
-      <c r="O47" s="534"/>
-      <c r="P47" s="534"/>
-      <c r="Q47" s="534"/>
-      <c r="R47" s="534"/>
-      <c r="S47" s="534"/>
-      <c r="T47" s="534"/>
-      <c r="U47" s="534"/>
-      <c r="V47" s="534"/>
+      <c r="C47" s="529"/>
+      <c r="D47" s="529"/>
+      <c r="E47" s="529"/>
+      <c r="F47" s="529"/>
+      <c r="G47" s="529"/>
+      <c r="H47" s="529"/>
+      <c r="I47" s="529"/>
+      <c r="J47" s="529"/>
+      <c r="K47" s="529"/>
+      <c r="L47" s="529"/>
+      <c r="M47" s="529"/>
+      <c r="N47" s="529"/>
+      <c r="O47" s="529"/>
+      <c r="P47" s="529"/>
+      <c r="Q47" s="529"/>
+      <c r="R47" s="529"/>
+      <c r="S47" s="529"/>
+      <c r="T47" s="529"/>
+      <c r="U47" s="529"/>
+      <c r="V47" s="529"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="535" t="s">
+      <c r="C48" s="530" t="s">
         <v>365</v>
       </c>
-      <c r="D48" s="535"/>
-      <c r="E48" s="535"/>
-      <c r="F48" s="535"/>
-      <c r="G48" s="535"/>
-      <c r="H48" s="535"/>
-      <c r="I48" s="535"/>
-      <c r="J48" s="535"/>
-      <c r="K48" s="535"/>
-      <c r="L48" s="535"/>
-      <c r="M48" s="535"/>
+      <c r="D48" s="530"/>
+      <c r="E48" s="530"/>
+      <c r="F48" s="530"/>
+      <c r="G48" s="530"/>
+      <c r="H48" s="530"/>
+      <c r="I48" s="530"/>
+      <c r="J48" s="530"/>
+      <c r="K48" s="530"/>
+      <c r="L48" s="530"/>
+      <c r="M48" s="530"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="454" t="s">
+      <c r="E49" s="440" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="455"/>
-      <c r="G49" s="455"/>
-      <c r="H49" s="421"/>
-      <c r="I49" s="421"/>
-      <c r="J49" s="421"/>
-      <c r="K49" s="421"/>
-      <c r="L49" s="421"/>
-      <c r="M49" s="422"/>
+      <c r="F49" s="441"/>
+      <c r="G49" s="441"/>
+      <c r="H49" s="422"/>
+      <c r="I49" s="422"/>
+      <c r="J49" s="422"/>
+      <c r="K49" s="422"/>
+      <c r="L49" s="422"/>
+      <c r="M49" s="423"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -38139,16 +38442,16 @@
       <c r="G50" s="187" t="s">
         <v>1280</v>
       </c>
-      <c r="H50" s="537" t="s">
+      <c r="H50" s="533" t="s">
         <v>766</v>
       </c>
-      <c r="I50" s="538"/>
-      <c r="J50" s="539"/>
-      <c r="K50" s="537" t="s">
+      <c r="I50" s="534"/>
+      <c r="J50" s="535"/>
+      <c r="K50" s="533" t="s">
         <v>767</v>
       </c>
-      <c r="L50" s="538"/>
-      <c r="M50" s="539"/>
+      <c r="L50" s="534"/>
+      <c r="M50" s="535"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -38162,20 +38465,20 @@
         <v>781</v>
       </c>
       <c r="F51" s="228"/>
-      <c r="G51" s="543" t="s">
+      <c r="G51" s="536" t="s">
         <v>789</v>
       </c>
-      <c r="H51" s="540"/>
-      <c r="I51" s="541"/>
-      <c r="J51" s="542"/>
-      <c r="K51" s="540"/>
-      <c r="L51" s="541"/>
-      <c r="M51" s="542"/>
-      <c r="O51" s="536" t="s">
+      <c r="H51" s="526"/>
+      <c r="I51" s="527"/>
+      <c r="J51" s="528"/>
+      <c r="K51" s="526"/>
+      <c r="L51" s="527"/>
+      <c r="M51" s="528"/>
+      <c r="O51" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="P51" s="536"/>
-      <c r="Q51" s="536"/>
+      <c r="P51" s="531"/>
+      <c r="Q51" s="531"/>
       <c r="S51" s="215"/>
       <c r="T51" s="215"/>
       <c r="W51" s="35" t="s">
@@ -38189,13 +38492,13 @@
         <v>782</v>
       </c>
       <c r="F52" s="229"/>
-      <c r="G52" s="543"/>
-      <c r="H52" s="540"/>
-      <c r="I52" s="541"/>
-      <c r="J52" s="542"/>
-      <c r="K52" s="540"/>
-      <c r="L52" s="541"/>
-      <c r="M52" s="542"/>
+      <c r="G52" s="536"/>
+      <c r="H52" s="526"/>
+      <c r="I52" s="527"/>
+      <c r="J52" s="528"/>
+      <c r="K52" s="526"/>
+      <c r="L52" s="527"/>
+      <c r="M52" s="528"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -38206,13 +38509,13 @@
         <v>783</v>
       </c>
       <c r="F53" s="230"/>
-      <c r="G53" s="543"/>
-      <c r="H53" s="540"/>
-      <c r="I53" s="541"/>
-      <c r="J53" s="542"/>
-      <c r="K53" s="540"/>
-      <c r="L53" s="541"/>
-      <c r="M53" s="542"/>
+      <c r="G53" s="536"/>
+      <c r="H53" s="526"/>
+      <c r="I53" s="527"/>
+      <c r="J53" s="528"/>
+      <c r="K53" s="526"/>
+      <c r="L53" s="527"/>
+      <c r="M53" s="528"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>66</v>
@@ -38251,7 +38554,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="216"/>
       <c r="F54" s="231"/>
-      <c r="G54" s="549" t="s">
+      <c r="G54" s="524" t="s">
         <v>793</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -38298,11 +38601,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="547" t="s">
+      <c r="E55" s="522" t="s">
         <v>794</v>
       </c>
-      <c r="F55" s="548"/>
-      <c r="G55" s="550"/>
+      <c r="F55" s="523"/>
+      <c r="G55" s="525"/>
       <c r="H55" s="119" t="s">
         <v>785</v>
       </c>
@@ -38346,9 +38649,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="547"/>
-      <c r="F56" s="548"/>
-      <c r="G56" s="550"/>
+      <c r="E56" s="522"/>
+      <c r="F56" s="523"/>
+      <c r="G56" s="525"/>
       <c r="H56" s="119" t="s">
         <v>786</v>
       </c>
@@ -38378,9 +38681,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="547"/>
-      <c r="F57" s="548"/>
-      <c r="G57" s="550"/>
+      <c r="E57" s="522"/>
+      <c r="F57" s="523"/>
+      <c r="G57" s="525"/>
       <c r="H57" s="4" t="s">
         <v>798</v>
       </c>
@@ -38410,9 +38713,9 @@
         <v>76</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="547"/>
-      <c r="F58" s="548"/>
-      <c r="G58" s="550"/>
+      <c r="E58" s="522"/>
+      <c r="F58" s="523"/>
+      <c r="G58" s="525"/>
       <c r="H58" s="220" t="s">
         <v>784</v>
       </c>
@@ -38437,9 +38740,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="547"/>
-      <c r="F59" s="548"/>
-      <c r="G59" s="550"/>
+      <c r="E59" s="522"/>
+      <c r="F59" s="523"/>
+      <c r="G59" s="525"/>
       <c r="H59" s="220" t="s">
         <v>358</v>
       </c>
@@ -38464,9 +38767,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="547"/>
-      <c r="F60" s="548"/>
-      <c r="G60" s="550"/>
+      <c r="E60" s="522"/>
+      <c r="F60" s="523"/>
+      <c r="G60" s="525"/>
       <c r="H60" s="222"/>
       <c r="I60" s="223" t="s">
         <v>800</v>
@@ -38486,9 +38789,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="547"/>
-      <c r="F61" s="548"/>
-      <c r="G61" s="550"/>
+      <c r="E61" s="522"/>
+      <c r="F61" s="523"/>
+      <c r="G61" s="525"/>
       <c r="H61" s="222"/>
       <c r="I61" s="223" t="s">
         <v>801</v>
@@ -38508,7 +38811,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="211"/>
       <c r="F62" s="227"/>
-      <c r="G62" s="550"/>
+      <c r="G62" s="525"/>
       <c r="H62" s="224"/>
       <c r="I62" s="226" t="s">
         <v>802</v>
@@ -38550,17 +38853,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="544" t="s">
+      <c r="E64" s="519" t="s">
         <v>1281</v>
       </c>
-      <c r="F64" s="545"/>
-      <c r="G64" s="545"/>
-      <c r="H64" s="545"/>
-      <c r="I64" s="545"/>
-      <c r="J64" s="545"/>
-      <c r="K64" s="545"/>
-      <c r="L64" s="545"/>
-      <c r="M64" s="546"/>
+      <c r="F64" s="520"/>
+      <c r="G64" s="520"/>
+      <c r="H64" s="520"/>
+      <c r="I64" s="520"/>
+      <c r="J64" s="520"/>
+      <c r="K64" s="520"/>
+      <c r="L64" s="520"/>
+      <c r="M64" s="521"/>
       <c r="N64" s="35" t="s">
         <v>370</v>
       </c>
@@ -38589,23 +38892,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="442" t="s">
+      <c r="C66" s="443" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="443"/>
-      <c r="E66" s="442" t="s">
+      <c r="D66" s="444"/>
+      <c r="E66" s="443" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="444"/>
-      <c r="G66" s="443"/>
-      <c r="H66" s="442" t="s">
+      <c r="F66" s="460"/>
+      <c r="G66" s="444"/>
+      <c r="H66" s="443" t="s">
         <v>80</v>
       </c>
-      <c r="I66" s="444"/>
-      <c r="J66" s="444"/>
-      <c r="K66" s="444"/>
-      <c r="L66" s="444"/>
-      <c r="M66" s="443"/>
+      <c r="I66" s="460"/>
+      <c r="J66" s="460"/>
+      <c r="K66" s="460"/>
+      <c r="L66" s="460"/>
+      <c r="M66" s="444"/>
       <c r="Q66" t="s">
         <v>764</v>
       </c>
@@ -38626,23 +38929,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="502" t="s">
+      <c r="C68" s="503" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="502"/>
-      <c r="E68" s="502" t="s">
+      <c r="D68" s="503"/>
+      <c r="E68" s="503" t="s">
         <v>995</v>
       </c>
-      <c r="F68" s="502"/>
-      <c r="G68" s="502"/>
-      <c r="H68" s="502" t="s">
+      <c r="F68" s="503"/>
+      <c r="G68" s="503"/>
+      <c r="H68" s="503" t="s">
         <v>1011</v>
       </c>
-      <c r="I68" s="502"/>
-      <c r="J68" s="502"/>
-      <c r="K68" s="502"/>
-      <c r="L68" s="502"/>
-      <c r="M68" s="502"/>
+      <c r="I68" s="503"/>
+      <c r="J68" s="503"/>
+      <c r="K68" s="503"/>
+      <c r="L68" s="503"/>
+      <c r="M68" s="503"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -39439,30 +39742,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -39479,6 +39758,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -41838,12 +42141,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="551" t="s">
+      <c r="B1" s="552" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="551"/>
-      <c r="D1" s="551"/>
-      <c r="E1" s="551"/>
+      <c r="C1" s="552"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
       <c r="I1" s="281" t="s">
         <v>1312</v>
       </c>
@@ -41972,10 +42275,10 @@
       <c r="L7" s="279"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="496"/>
-      <c r="C8" s="496"/>
-      <c r="D8" s="496"/>
-      <c r="E8" s="496"/>
+      <c r="B8" s="497"/>
+      <c r="C8" s="497"/>
+      <c r="D8" s="497"/>
+      <c r="E8" s="497"/>
       <c r="G8" t="s">
         <v>1320</v>
       </c>
@@ -42070,11 +42373,11 @@
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="25" spans="2:18">
-      <c r="B25" s="552" t="s">
+      <c r="B25" s="553" t="s">
         <v>1310</v>
       </c>
-      <c r="C25" s="553"/>
-      <c r="D25" s="553"/>
+      <c r="C25" s="554"/>
+      <c r="D25" s="554"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -42582,32 +42885,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C2" s="535" t="s">
+      <c r="C2" s="530" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="535"/>
-      <c r="E2" s="535"/>
-      <c r="F2" s="535"/>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
-      <c r="L2" s="535"/>
+      <c r="D2" s="530"/>
+      <c r="E2" s="530"/>
+      <c r="F2" s="530"/>
+      <c r="G2" s="530"/>
+      <c r="H2" s="530"/>
+      <c r="I2" s="530"/>
+      <c r="J2" s="530"/>
+      <c r="K2" s="530"/>
+      <c r="L2" s="530"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="454" t="s">
+      <c r="E3" s="440" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="455"/>
-      <c r="G3" s="421"/>
-      <c r="H3" s="421"/>
-      <c r="I3" s="421"/>
-      <c r="J3" s="421"/>
-      <c r="K3" s="421"/>
-      <c r="L3" s="422"/>
+      <c r="F3" s="441"/>
+      <c r="G3" s="422"/>
+      <c r="H3" s="422"/>
+      <c r="I3" s="422"/>
+      <c r="J3" s="422"/>
+      <c r="K3" s="422"/>
+      <c r="L3" s="423"/>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="4" t="s">
@@ -42638,11 +42941,11 @@
         <v>375</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="536" t="s">
+      <c r="N5" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="536"/>
-      <c r="P5" s="536"/>
+      <c r="O5" s="531"/>
+      <c r="P5" s="531"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -42702,20 +43005,20 @@
         <v>74</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="540" t="s">
+      <c r="E8" s="526" t="s">
         <v>366</v>
       </c>
-      <c r="F8" s="542"/>
-      <c r="G8" s="540" t="s">
+      <c r="F8" s="528"/>
+      <c r="G8" s="526" t="s">
         <v>367</v>
       </c>
-      <c r="H8" s="541"/>
-      <c r="I8" s="542"/>
-      <c r="J8" s="540" t="s">
+      <c r="H8" s="527"/>
+      <c r="I8" s="528"/>
+      <c r="J8" s="526" t="s">
         <v>368</v>
       </c>
-      <c r="K8" s="541"/>
-      <c r="L8" s="542"/>
+      <c r="K8" s="527"/>
+      <c r="L8" s="528"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -42738,14 +43041,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="540"/>
-      <c r="F9" s="542"/>
-      <c r="G9" s="540"/>
-      <c r="H9" s="541"/>
-      <c r="I9" s="542"/>
-      <c r="J9" s="540"/>
-      <c r="K9" s="541"/>
-      <c r="L9" s="542"/>
+      <c r="E9" s="526"/>
+      <c r="F9" s="528"/>
+      <c r="G9" s="526"/>
+      <c r="H9" s="527"/>
+      <c r="I9" s="528"/>
+      <c r="J9" s="526"/>
+      <c r="K9" s="527"/>
+      <c r="L9" s="528"/>
       <c r="M9" s="5" t="s">
         <v>71</v>
       </c>
@@ -42762,14 +43065,14 @@
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="540"/>
-      <c r="F10" s="542"/>
-      <c r="G10" s="540"/>
-      <c r="H10" s="541"/>
-      <c r="I10" s="542"/>
-      <c r="J10" s="540"/>
-      <c r="K10" s="541"/>
-      <c r="L10" s="542"/>
+      <c r="E10" s="526"/>
+      <c r="F10" s="528"/>
+      <c r="G10" s="526"/>
+      <c r="H10" s="527"/>
+      <c r="I10" s="528"/>
+      <c r="J10" s="526"/>
+      <c r="K10" s="527"/>
+      <c r="L10" s="528"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -42783,14 +43086,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="540"/>
-      <c r="F11" s="542"/>
-      <c r="G11" s="540"/>
-      <c r="H11" s="541"/>
-      <c r="I11" s="542"/>
-      <c r="J11" s="540"/>
-      <c r="K11" s="541"/>
-      <c r="L11" s="542"/>
+      <c r="E11" s="526"/>
+      <c r="F11" s="528"/>
+      <c r="G11" s="526"/>
+      <c r="H11" s="527"/>
+      <c r="I11" s="528"/>
+      <c r="J11" s="526"/>
+      <c r="K11" s="527"/>
+      <c r="L11" s="528"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -42914,16 +43217,16 @@
     <row r="17" spans="2:18" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="544" t="s">
+      <c r="E17" s="519" t="s">
         <v>369</v>
       </c>
-      <c r="F17" s="545"/>
-      <c r="G17" s="545"/>
-      <c r="H17" s="545"/>
-      <c r="I17" s="545"/>
-      <c r="J17" s="545"/>
-      <c r="K17" s="545"/>
-      <c r="L17" s="546"/>
+      <c r="F17" s="520"/>
+      <c r="G17" s="520"/>
+      <c r="H17" s="520"/>
+      <c r="I17" s="520"/>
+      <c r="J17" s="520"/>
+      <c r="K17" s="520"/>
+      <c r="L17" s="521"/>
       <c r="M17" s="35" t="s">
         <v>370</v>
       </c>
@@ -42953,40 +43256,40 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C19" s="442" t="s">
+      <c r="C19" s="443" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="443"/>
-      <c r="E19" s="442" t="s">
+      <c r="D19" s="444"/>
+      <c r="E19" s="443" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="443"/>
-      <c r="G19" s="442" t="s">
+      <c r="F19" s="444"/>
+      <c r="G19" s="443" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="444"/>
-      <c r="I19" s="444"/>
-      <c r="J19" s="444"/>
-      <c r="K19" s="444"/>
-      <c r="L19" s="443"/>
+      <c r="H19" s="460"/>
+      <c r="I19" s="460"/>
+      <c r="J19" s="460"/>
+      <c r="K19" s="460"/>
+      <c r="L19" s="444"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:18" ht="15" customHeight="1">
-      <c r="E21" s="554" t="s">
+      <c r="E21" s="555" t="s">
         <v>1024</v>
       </c>
-      <c r="F21" s="555"/>
+      <c r="F21" s="556"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="E22" s="556"/>
-      <c r="F22" s="557"/>
+      <c r="E22" s="557"/>
+      <c r="F22" s="558"/>
       <c r="J22" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="E23" s="556"/>
-      <c r="F23" s="557"/>
+      <c r="E23" s="557"/>
+      <c r="F23" s="558"/>
       <c r="H23" t="s">
         <v>1031</v>
       </c>
@@ -42998,8 +43301,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1">
-      <c r="E24" s="558"/>
-      <c r="F24" s="559"/>
+      <c r="E24" s="559"/>
+      <c r="F24" s="560"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="2:18" ht="15.75" thickBot="1">
@@ -44225,22 +44528,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="518" t="s">
+      <c r="E3" s="532" t="s">
         <v>328</v>
       </c>
-      <c r="F3" s="518"/>
-      <c r="G3" s="518" t="s">
+      <c r="F3" s="532"/>
+      <c r="G3" s="532" t="s">
         <v>329</v>
       </c>
-      <c r="H3" s="518"/>
-      <c r="I3" s="518"/>
-      <c r="J3" s="518"/>
-      <c r="K3" s="518"/>
-      <c r="L3" s="518"/>
-      <c r="M3" s="518" t="s">
+      <c r="H3" s="532"/>
+      <c r="I3" s="532"/>
+      <c r="J3" s="532"/>
+      <c r="K3" s="532"/>
+      <c r="L3" s="532"/>
+      <c r="M3" s="532" t="s">
         <v>330</v>
       </c>
-      <c r="N3" s="518"/>
+      <c r="N3" s="532"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -44251,7 +44554,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="113"/>
       <c r="D4" s="114"/>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="537" t="s">
         <v>331</v>
       </c>
       <c r="F4" s="109"/>
@@ -44279,22 +44582,22 @@
         <v>65</v>
       </c>
       <c r="D5" s="116"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="468" t="s">
+      <c r="E5" s="446"/>
+      <c r="F5" s="469" t="s">
         <v>403</v>
       </c>
-      <c r="G5" s="469"/>
-      <c r="H5" s="470"/>
-      <c r="I5" s="597" t="s">
+      <c r="G5" s="470"/>
+      <c r="H5" s="471"/>
+      <c r="I5" s="561" t="s">
         <v>404</v>
       </c>
-      <c r="J5" s="598"/>
-      <c r="K5" s="598"/>
-      <c r="L5" s="525"/>
-      <c r="M5" s="597" t="s">
+      <c r="J5" s="562"/>
+      <c r="K5" s="562"/>
+      <c r="L5" s="543"/>
+      <c r="M5" s="561" t="s">
         <v>405</v>
       </c>
-      <c r="N5" s="525"/>
+      <c r="N5" s="543"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -44305,16 +44608,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="117"/>
       <c r="D6" s="118"/>
-      <c r="E6" s="458"/>
-      <c r="F6" s="471"/>
-      <c r="G6" s="472"/>
-      <c r="H6" s="473"/>
-      <c r="I6" s="466"/>
-      <c r="J6" s="427"/>
-      <c r="K6" s="427"/>
-      <c r="L6" s="526"/>
-      <c r="M6" s="466"/>
-      <c r="N6" s="526"/>
+      <c r="E6" s="446"/>
+      <c r="F6" s="472"/>
+      <c r="G6" s="473"/>
+      <c r="H6" s="474"/>
+      <c r="I6" s="467"/>
+      <c r="J6" s="428"/>
+      <c r="K6" s="428"/>
+      <c r="L6" s="544"/>
+      <c r="M6" s="467"/>
+      <c r="N6" s="544"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>66</v>
@@ -44331,16 +44634,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="458"/>
-      <c r="F7" s="471"/>
-      <c r="G7" s="472"/>
-      <c r="H7" s="473"/>
-      <c r="I7" s="466"/>
-      <c r="J7" s="427"/>
-      <c r="K7" s="427"/>
-      <c r="L7" s="526"/>
-      <c r="M7" s="466"/>
-      <c r="N7" s="526"/>
+      <c r="E7" s="446"/>
+      <c r="F7" s="472"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="467"/>
+      <c r="J7" s="428"/>
+      <c r="K7" s="428"/>
+      <c r="L7" s="544"/>
+      <c r="M7" s="467"/>
+      <c r="N7" s="544"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -44359,16 +44662,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="458"/>
-      <c r="F8" s="471"/>
-      <c r="G8" s="472"/>
-      <c r="H8" s="473"/>
-      <c r="I8" s="466"/>
-      <c r="J8" s="427"/>
-      <c r="K8" s="427"/>
-      <c r="L8" s="526"/>
-      <c r="M8" s="466"/>
-      <c r="N8" s="526"/>
+      <c r="E8" s="446"/>
+      <c r="F8" s="472"/>
+      <c r="G8" s="473"/>
+      <c r="H8" s="474"/>
+      <c r="I8" s="467"/>
+      <c r="J8" s="428"/>
+      <c r="K8" s="428"/>
+      <c r="L8" s="544"/>
+      <c r="M8" s="467"/>
+      <c r="N8" s="544"/>
       <c r="O8" s="5" t="s">
         <v>71</v>
       </c>
@@ -44389,16 +44692,16 @@
         <v>74</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="458"/>
-      <c r="F9" s="471"/>
-      <c r="G9" s="472"/>
-      <c r="H9" s="473"/>
-      <c r="I9" s="466"/>
-      <c r="J9" s="427"/>
-      <c r="K9" s="427"/>
-      <c r="L9" s="526"/>
-      <c r="M9" s="466"/>
-      <c r="N9" s="526"/>
+      <c r="E9" s="446"/>
+      <c r="F9" s="472"/>
+      <c r="G9" s="473"/>
+      <c r="H9" s="474"/>
+      <c r="I9" s="467"/>
+      <c r="J9" s="428"/>
+      <c r="K9" s="428"/>
+      <c r="L9" s="544"/>
+      <c r="M9" s="467"/>
+      <c r="N9" s="544"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -44415,16 +44718,16 @@
         <v>347</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="458"/>
-      <c r="F10" s="471"/>
-      <c r="G10" s="472"/>
-      <c r="H10" s="473"/>
-      <c r="I10" s="466"/>
-      <c r="J10" s="427"/>
-      <c r="K10" s="427"/>
-      <c r="L10" s="526"/>
-      <c r="M10" s="466"/>
-      <c r="N10" s="526"/>
+      <c r="E10" s="446"/>
+      <c r="F10" s="472"/>
+      <c r="G10" s="473"/>
+      <c r="H10" s="474"/>
+      <c r="I10" s="467"/>
+      <c r="J10" s="428"/>
+      <c r="K10" s="428"/>
+      <c r="L10" s="544"/>
+      <c r="M10" s="467"/>
+      <c r="N10" s="544"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -44437,16 +44740,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="458"/>
-      <c r="F11" s="471"/>
-      <c r="G11" s="472"/>
-      <c r="H11" s="473"/>
-      <c r="I11" s="466"/>
-      <c r="J11" s="427"/>
-      <c r="K11" s="427"/>
-      <c r="L11" s="526"/>
-      <c r="M11" s="466"/>
-      <c r="N11" s="526"/>
+      <c r="E11" s="446"/>
+      <c r="F11" s="472"/>
+      <c r="G11" s="473"/>
+      <c r="H11" s="474"/>
+      <c r="I11" s="467"/>
+      <c r="J11" s="428"/>
+      <c r="K11" s="428"/>
+      <c r="L11" s="544"/>
+      <c r="M11" s="467"/>
+      <c r="N11" s="544"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -44457,16 +44760,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="458"/>
-      <c r="F12" s="471"/>
-      <c r="G12" s="472"/>
-      <c r="H12" s="473"/>
-      <c r="I12" s="466"/>
-      <c r="J12" s="427"/>
-      <c r="K12" s="427"/>
-      <c r="L12" s="526"/>
-      <c r="M12" s="466"/>
-      <c r="N12" s="526"/>
+      <c r="E12" s="446"/>
+      <c r="F12" s="472"/>
+      <c r="G12" s="473"/>
+      <c r="H12" s="474"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="428"/>
+      <c r="K12" s="428"/>
+      <c r="L12" s="544"/>
+      <c r="M12" s="467"/>
+      <c r="N12" s="544"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -44479,16 +44782,16 @@
         <v>76</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="458"/>
-      <c r="F13" s="471"/>
-      <c r="G13" s="472"/>
-      <c r="H13" s="473"/>
-      <c r="I13" s="466"/>
-      <c r="J13" s="427"/>
-      <c r="K13" s="427"/>
-      <c r="L13" s="526"/>
-      <c r="M13" s="466"/>
-      <c r="N13" s="526"/>
+      <c r="E13" s="446"/>
+      <c r="F13" s="472"/>
+      <c r="G13" s="473"/>
+      <c r="H13" s="474"/>
+      <c r="I13" s="467"/>
+      <c r="J13" s="428"/>
+      <c r="K13" s="428"/>
+      <c r="L13" s="544"/>
+      <c r="M13" s="467"/>
+      <c r="N13" s="544"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -44499,16 +44802,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="458"/>
-      <c r="F14" s="471"/>
-      <c r="G14" s="472"/>
-      <c r="H14" s="473"/>
-      <c r="I14" s="466"/>
-      <c r="J14" s="427"/>
-      <c r="K14" s="427"/>
-      <c r="L14" s="526"/>
-      <c r="M14" s="466"/>
-      <c r="N14" s="526"/>
+      <c r="E14" s="446"/>
+      <c r="F14" s="472"/>
+      <c r="G14" s="473"/>
+      <c r="H14" s="474"/>
+      <c r="I14" s="467"/>
+      <c r="J14" s="428"/>
+      <c r="K14" s="428"/>
+      <c r="L14" s="544"/>
+      <c r="M14" s="467"/>
+      <c r="N14" s="544"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -44519,16 +44822,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="458"/>
-      <c r="F15" s="471"/>
-      <c r="G15" s="472"/>
-      <c r="H15" s="473"/>
-      <c r="I15" s="466"/>
-      <c r="J15" s="427"/>
-      <c r="K15" s="427"/>
-      <c r="L15" s="526"/>
-      <c r="M15" s="466"/>
-      <c r="N15" s="526"/>
+      <c r="E15" s="446"/>
+      <c r="F15" s="472"/>
+      <c r="G15" s="473"/>
+      <c r="H15" s="474"/>
+      <c r="I15" s="467"/>
+      <c r="J15" s="428"/>
+      <c r="K15" s="428"/>
+      <c r="L15" s="544"/>
+      <c r="M15" s="467"/>
+      <c r="N15" s="544"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -44539,16 +44842,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="458"/>
-      <c r="F16" s="471"/>
-      <c r="G16" s="472"/>
-      <c r="H16" s="473"/>
-      <c r="I16" s="466"/>
-      <c r="J16" s="427"/>
-      <c r="K16" s="427"/>
-      <c r="L16" s="526"/>
-      <c r="M16" s="466"/>
-      <c r="N16" s="526"/>
+      <c r="E16" s="446"/>
+      <c r="F16" s="472"/>
+      <c r="G16" s="473"/>
+      <c r="H16" s="474"/>
+      <c r="I16" s="467"/>
+      <c r="J16" s="428"/>
+      <c r="K16" s="428"/>
+      <c r="L16" s="544"/>
+      <c r="M16" s="467"/>
+      <c r="N16" s="544"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -44561,16 +44864,16 @@
         <v>77</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="458"/>
-      <c r="F17" s="471"/>
-      <c r="G17" s="472"/>
-      <c r="H17" s="473"/>
-      <c r="I17" s="466"/>
-      <c r="J17" s="427"/>
-      <c r="K17" s="427"/>
-      <c r="L17" s="526"/>
-      <c r="M17" s="466"/>
-      <c r="N17" s="526"/>
+      <c r="E17" s="446"/>
+      <c r="F17" s="472"/>
+      <c r="G17" s="473"/>
+      <c r="H17" s="474"/>
+      <c r="I17" s="467"/>
+      <c r="J17" s="428"/>
+      <c r="K17" s="428"/>
+      <c r="L17" s="544"/>
+      <c r="M17" s="467"/>
+      <c r="N17" s="544"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -44581,16 +44884,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="459"/>
-      <c r="F18" s="474"/>
-      <c r="G18" s="475"/>
-      <c r="H18" s="476"/>
-      <c r="I18" s="467"/>
-      <c r="J18" s="599"/>
-      <c r="K18" s="599"/>
-      <c r="L18" s="527"/>
-      <c r="M18" s="467"/>
-      <c r="N18" s="527"/>
+      <c r="E18" s="447"/>
+      <c r="F18" s="475"/>
+      <c r="G18" s="476"/>
+      <c r="H18" s="477"/>
+      <c r="I18" s="468"/>
+      <c r="J18" s="563"/>
+      <c r="K18" s="563"/>
+      <c r="L18" s="545"/>
+      <c r="M18" s="468"/>
+      <c r="N18" s="545"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -44619,26 +44922,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="442" t="s">
+      <c r="C20" s="443" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="443"/>
+      <c r="D20" s="444"/>
       <c r="E20" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="442" t="s">
+      <c r="F20" s="443" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="444"/>
-      <c r="H20" s="444"/>
-      <c r="I20" s="444"/>
-      <c r="J20" s="444"/>
-      <c r="K20" s="444"/>
-      <c r="L20" s="443"/>
-      <c r="M20" s="442" t="s">
+      <c r="G20" s="460"/>
+      <c r="H20" s="460"/>
+      <c r="I20" s="460"/>
+      <c r="J20" s="460"/>
+      <c r="K20" s="460"/>
+      <c r="L20" s="444"/>
+      <c r="M20" s="443" t="s">
         <v>338</v>
       </c>
-      <c r="N20" s="443"/>
+      <c r="N20" s="444"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -44666,39 +44969,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="536" t="s">
+      <c r="B24" s="531" t="s">
         <v>365</v>
       </c>
-      <c r="C24" s="536"/>
-      <c r="D24" s="535"/>
-      <c r="E24" s="535"/>
-      <c r="F24" s="535"/>
-      <c r="G24" s="535"/>
-      <c r="H24" s="535"/>
-      <c r="I24" s="535"/>
-      <c r="J24" s="535"/>
-      <c r="K24" s="535"/>
-      <c r="M24" s="560" t="s">
+      <c r="C24" s="531"/>
+      <c r="D24" s="530"/>
+      <c r="E24" s="530"/>
+      <c r="F24" s="530"/>
+      <c r="G24" s="530"/>
+      <c r="H24" s="530"/>
+      <c r="I24" s="530"/>
+      <c r="J24" s="530"/>
+      <c r="K24" s="530"/>
+      <c r="M24" s="590" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="560"/>
-      <c r="O24" s="560"/>
+      <c r="N24" s="590"/>
+      <c r="O24" s="590"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="561" t="s">
+      <c r="B25" s="591" t="s">
         <v>642</v>
       </c>
-      <c r="C25" s="505"/>
-      <c r="D25" s="421" t="s">
+      <c r="C25" s="508"/>
+      <c r="D25" s="422" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="421"/>
-      <c r="F25" s="421"/>
-      <c r="G25" s="421"/>
-      <c r="H25" s="421"/>
-      <c r="I25" s="421"/>
-      <c r="J25" s="421"/>
-      <c r="K25" s="422"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
+      <c r="G25" s="422"/>
+      <c r="H25" s="422"/>
+      <c r="I25" s="422"/>
+      <c r="J25" s="422"/>
+      <c r="K25" s="423"/>
       <c r="M25" s="33" t="s">
         <v>66</v>
       </c>
@@ -44710,22 +45013,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="506"/>
-      <c r="C26" s="507"/>
-      <c r="D26" s="574" t="s">
+      <c r="B26" s="509"/>
+      <c r="C26" s="510"/>
+      <c r="D26" s="564" t="s">
         <v>635</v>
       </c>
-      <c r="E26" s="575"/>
-      <c r="F26" s="592" t="s">
+      <c r="E26" s="565"/>
+      <c r="F26" s="583" t="s">
         <v>635</v>
       </c>
-      <c r="G26" s="593"/>
-      <c r="H26" s="594"/>
-      <c r="I26" s="596" t="s">
+      <c r="G26" s="584"/>
+      <c r="H26" s="585"/>
+      <c r="I26" s="588" t="s">
         <v>1370</v>
       </c>
-      <c r="J26" s="593"/>
-      <c r="K26" s="594"/>
+      <c r="J26" s="584"/>
+      <c r="K26" s="585"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -44740,22 +45043,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="506"/>
-      <c r="C27" s="507"/>
-      <c r="D27" s="572" t="s">
+      <c r="B27" s="509"/>
+      <c r="C27" s="510"/>
+      <c r="D27" s="566" t="s">
         <v>640</v>
       </c>
-      <c r="E27" s="576"/>
-      <c r="F27" s="595" t="s">
+      <c r="E27" s="567"/>
+      <c r="F27" s="586" t="s">
         <v>636</v>
       </c>
-      <c r="G27" s="572"/>
-      <c r="H27" s="573"/>
-      <c r="I27" s="571" t="s">
+      <c r="G27" s="566"/>
+      <c r="H27" s="587"/>
+      <c r="I27" s="589" t="s">
         <v>1371</v>
       </c>
-      <c r="J27" s="572"/>
-      <c r="K27" s="573"/>
+      <c r="J27" s="566"/>
+      <c r="K27" s="587"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -44770,22 +45073,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="506"/>
-      <c r="C28" s="507"/>
-      <c r="D28" s="572" t="s">
+      <c r="B28" s="509"/>
+      <c r="C28" s="510"/>
+      <c r="D28" s="566" t="s">
         <v>637</v>
       </c>
-      <c r="E28" s="576"/>
-      <c r="F28" s="595" t="s">
+      <c r="E28" s="567"/>
+      <c r="F28" s="586" t="s">
         <v>637</v>
       </c>
-      <c r="G28" s="572"/>
-      <c r="H28" s="573"/>
-      <c r="I28" s="571" t="s">
+      <c r="G28" s="566"/>
+      <c r="H28" s="587"/>
+      <c r="I28" s="589" t="s">
         <v>1372</v>
       </c>
-      <c r="J28" s="572"/>
-      <c r="K28" s="573"/>
+      <c r="J28" s="566"/>
+      <c r="K28" s="587"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -44794,22 +45097,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="508"/>
-      <c r="C29" s="509"/>
-      <c r="D29" s="572" t="s">
+      <c r="B29" s="511"/>
+      <c r="C29" s="512"/>
+      <c r="D29" s="566" t="s">
         <v>638</v>
       </c>
-      <c r="E29" s="576"/>
-      <c r="F29" s="595" t="s">
+      <c r="E29" s="567"/>
+      <c r="F29" s="586" t="s">
         <v>638</v>
       </c>
-      <c r="G29" s="572"/>
-      <c r="H29" s="573"/>
-      <c r="I29" s="571" t="s">
+      <c r="G29" s="566"/>
+      <c r="H29" s="587"/>
+      <c r="I29" s="589" t="s">
         <v>1373</v>
       </c>
-      <c r="J29" s="572"/>
-      <c r="K29" s="573"/>
+      <c r="J29" s="566"/>
+      <c r="K29" s="587"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -44818,149 +45121,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="432" t="s">
+      <c r="B30" s="451" t="s">
         <v>641</v>
       </c>
-      <c r="C30" s="434"/>
-      <c r="D30" s="577" t="s">
+      <c r="C30" s="453"/>
+      <c r="D30" s="568" t="s">
         <v>366</v>
       </c>
-      <c r="E30" s="578"/>
-      <c r="F30" s="583" t="s">
+      <c r="E30" s="569"/>
+      <c r="F30" s="574" t="s">
         <v>367</v>
       </c>
-      <c r="G30" s="584"/>
-      <c r="H30" s="578"/>
-      <c r="I30" s="583" t="s">
+      <c r="G30" s="575"/>
+      <c r="H30" s="569"/>
+      <c r="I30" s="574" t="s">
         <v>368</v>
       </c>
-      <c r="J30" s="584"/>
-      <c r="K30" s="589"/>
+      <c r="J30" s="575"/>
+      <c r="K30" s="580"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="436"/>
-      <c r="C31" s="437"/>
-      <c r="D31" s="579"/>
-      <c r="E31" s="580"/>
-      <c r="F31" s="585"/>
-      <c r="G31" s="586"/>
-      <c r="H31" s="580"/>
-      <c r="I31" s="585"/>
-      <c r="J31" s="586"/>
-      <c r="K31" s="590"/>
+      <c r="B31" s="455"/>
+      <c r="C31" s="450"/>
+      <c r="D31" s="570"/>
+      <c r="E31" s="571"/>
+      <c r="F31" s="576"/>
+      <c r="G31" s="577"/>
+      <c r="H31" s="571"/>
+      <c r="I31" s="576"/>
+      <c r="J31" s="577"/>
+      <c r="K31" s="581"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="436"/>
-      <c r="C32" s="437"/>
-      <c r="D32" s="579"/>
-      <c r="E32" s="580"/>
-      <c r="F32" s="585"/>
-      <c r="G32" s="586"/>
-      <c r="H32" s="580"/>
-      <c r="I32" s="585"/>
-      <c r="J32" s="586"/>
-      <c r="K32" s="590"/>
+      <c r="B32" s="455"/>
+      <c r="C32" s="450"/>
+      <c r="D32" s="570"/>
+      <c r="E32" s="571"/>
+      <c r="F32" s="576"/>
+      <c r="G32" s="577"/>
+      <c r="H32" s="571"/>
+      <c r="I32" s="576"/>
+      <c r="J32" s="577"/>
+      <c r="K32" s="581"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="436"/>
-      <c r="C33" s="437"/>
-      <c r="D33" s="581"/>
-      <c r="E33" s="582"/>
-      <c r="F33" s="587"/>
-      <c r="G33" s="588"/>
-      <c r="H33" s="582"/>
-      <c r="I33" s="587"/>
-      <c r="J33" s="588"/>
-      <c r="K33" s="591"/>
+      <c r="B33" s="455"/>
+      <c r="C33" s="450"/>
+      <c r="D33" s="572"/>
+      <c r="E33" s="573"/>
+      <c r="F33" s="578"/>
+      <c r="G33" s="579"/>
+      <c r="H33" s="573"/>
+      <c r="I33" s="578"/>
+      <c r="J33" s="579"/>
+      <c r="K33" s="582"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="436"/>
-      <c r="C34" s="438"/>
-      <c r="D34" s="562" t="s">
+      <c r="B34" s="455"/>
+      <c r="C34" s="456"/>
+      <c r="D34" s="592" t="s">
         <v>628</v>
       </c>
-      <c r="E34" s="563"/>
-      <c r="F34" s="562" t="s">
+      <c r="E34" s="593"/>
+      <c r="F34" s="592" t="s">
         <v>379</v>
       </c>
-      <c r="G34" s="568"/>
-      <c r="H34" s="563"/>
-      <c r="I34" s="562" t="s">
+      <c r="G34" s="598"/>
+      <c r="H34" s="593"/>
+      <c r="I34" s="592" t="s">
         <v>643</v>
       </c>
-      <c r="J34" s="568"/>
-      <c r="K34" s="563"/>
+      <c r="J34" s="598"/>
+      <c r="K34" s="593"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="436"/>
-      <c r="C35" s="438"/>
-      <c r="D35" s="564"/>
-      <c r="E35" s="565"/>
-      <c r="F35" s="564"/>
-      <c r="G35" s="569"/>
-      <c r="H35" s="565"/>
-      <c r="I35" s="564"/>
-      <c r="J35" s="569"/>
-      <c r="K35" s="565"/>
+      <c r="B35" s="455"/>
+      <c r="C35" s="456"/>
+      <c r="D35" s="594"/>
+      <c r="E35" s="595"/>
+      <c r="F35" s="594"/>
+      <c r="G35" s="599"/>
+      <c r="H35" s="595"/>
+      <c r="I35" s="594"/>
+      <c r="J35" s="599"/>
+      <c r="K35" s="595"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="436"/>
-      <c r="C36" s="438"/>
-      <c r="D36" s="564"/>
-      <c r="E36" s="565"/>
-      <c r="F36" s="564"/>
-      <c r="G36" s="569"/>
-      <c r="H36" s="565"/>
-      <c r="I36" s="564"/>
-      <c r="J36" s="569"/>
-      <c r="K36" s="565"/>
+      <c r="B36" s="455"/>
+      <c r="C36" s="456"/>
+      <c r="D36" s="594"/>
+      <c r="E36" s="595"/>
+      <c r="F36" s="594"/>
+      <c r="G36" s="599"/>
+      <c r="H36" s="595"/>
+      <c r="I36" s="594"/>
+      <c r="J36" s="599"/>
+      <c r="K36" s="595"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="436"/>
-      <c r="C37" s="438"/>
-      <c r="D37" s="564"/>
-      <c r="E37" s="565"/>
-      <c r="F37" s="564"/>
-      <c r="G37" s="569"/>
-      <c r="H37" s="565"/>
-      <c r="I37" s="564"/>
-      <c r="J37" s="569"/>
-      <c r="K37" s="565"/>
+      <c r="B37" s="455"/>
+      <c r="C37" s="456"/>
+      <c r="D37" s="594"/>
+      <c r="E37" s="595"/>
+      <c r="F37" s="594"/>
+      <c r="G37" s="599"/>
+      <c r="H37" s="595"/>
+      <c r="I37" s="594"/>
+      <c r="J37" s="599"/>
+      <c r="K37" s="595"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="436"/>
-      <c r="C38" s="438"/>
-      <c r="D38" s="566"/>
-      <c r="E38" s="567"/>
-      <c r="F38" s="566"/>
-      <c r="G38" s="570"/>
-      <c r="H38" s="567"/>
-      <c r="I38" s="566"/>
-      <c r="J38" s="570"/>
-      <c r="K38" s="567"/>
+      <c r="B38" s="455"/>
+      <c r="C38" s="456"/>
+      <c r="D38" s="596"/>
+      <c r="E38" s="597"/>
+      <c r="F38" s="596"/>
+      <c r="G38" s="600"/>
+      <c r="H38" s="597"/>
+      <c r="I38" s="596"/>
+      <c r="J38" s="600"/>
+      <c r="K38" s="597"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="439"/>
-      <c r="C39" s="441"/>
-      <c r="D39" s="544" t="s">
+      <c r="B39" s="457"/>
+      <c r="C39" s="459"/>
+      <c r="D39" s="519" t="s">
         <v>369</v>
       </c>
-      <c r="E39" s="545"/>
-      <c r="F39" s="545"/>
-      <c r="G39" s="545"/>
-      <c r="H39" s="545"/>
-      <c r="I39" s="545"/>
-      <c r="J39" s="545"/>
-      <c r="K39" s="546"/>
+      <c r="E39" s="520"/>
+      <c r="F39" s="520"/>
+      <c r="G39" s="520"/>
+      <c r="H39" s="520"/>
+      <c r="I39" s="520"/>
+      <c r="J39" s="520"/>
+      <c r="K39" s="521"/>
       <c r="L39" s="35" t="s">
         <v>370</v>
       </c>
@@ -44978,35 +45281,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="442" t="s">
+      <c r="B41" s="443" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="443"/>
-      <c r="D41" s="442" t="s">
+      <c r="C41" s="444"/>
+      <c r="D41" s="443" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="443"/>
-      <c r="F41" s="442" t="s">
+      <c r="E41" s="444"/>
+      <c r="F41" s="443" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="444"/>
-      <c r="H41" s="444"/>
-      <c r="I41" s="444"/>
-      <c r="J41" s="444"/>
-      <c r="K41" s="443"/>
+      <c r="G41" s="460"/>
+      <c r="H41" s="460"/>
+      <c r="I41" s="460"/>
+      <c r="J41" s="460"/>
+      <c r="K41" s="444"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -45023,17 +45327,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -45750,7 +46053,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="427" t="s">
+      <c r="A3" s="428" t="s">
         <v>1922</v>
       </c>
       <c r="C3" s="314">
@@ -45772,12 +46075,12 @@
       <c r="K3" s="391"/>
       <c r="L3" s="391"/>
       <c r="M3" s="392"/>
-      <c r="N3" s="427" t="s">
+      <c r="N3" s="428" t="s">
         <v>1923</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="427"/>
+      <c r="A4" s="428"/>
       <c r="C4" s="314">
         <v>0.2</v>
       </c>
@@ -45797,10 +46100,10 @@
       <c r="K4" s="394"/>
       <c r="L4" s="394"/>
       <c r="M4" s="395"/>
-      <c r="N4" s="427"/>
+      <c r="N4" s="428"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="427"/>
+      <c r="A5" s="428"/>
       <c r="C5" s="314">
         <v>0.3</v>
       </c>
@@ -45814,12 +46117,12 @@
       <c r="K5" s="402"/>
       <c r="L5" s="402"/>
       <c r="M5" s="403"/>
-      <c r="N5" s="427" t="s">
+      <c r="N5" s="428" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="427"/>
+      <c r="A6" s="428"/>
       <c r="C6" s="314">
         <v>0.4</v>
       </c>
@@ -45833,10 +46136,10 @@
       <c r="K6" s="404"/>
       <c r="L6" s="404"/>
       <c r="M6" s="405"/>
-      <c r="N6" s="427"/>
+      <c r="N6" s="428"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="427"/>
+      <c r="A7" s="428"/>
       <c r="C7" s="314">
         <v>0.5</v>
       </c>
@@ -45854,10 +46157,10 @@
       <c r="K7" s="404"/>
       <c r="L7" s="404"/>
       <c r="M7" s="405"/>
-      <c r="N7" s="427"/>
+      <c r="N7" s="428"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="427"/>
+      <c r="A8" s="428"/>
       <c r="C8" s="314">
         <v>0.6</v>
       </c>
@@ -45871,10 +46174,10 @@
       <c r="K8" s="404"/>
       <c r="L8" s="404"/>
       <c r="M8" s="405"/>
-      <c r="N8" s="427"/>
+      <c r="N8" s="428"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="427"/>
+      <c r="A9" s="428"/>
       <c r="C9" s="314">
         <v>0.7</v>
       </c>
@@ -45888,10 +46191,10 @@
       <c r="K9" s="404"/>
       <c r="L9" s="404"/>
       <c r="M9" s="405"/>
-      <c r="N9" s="427"/>
+      <c r="N9" s="428"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="427"/>
+      <c r="A10" s="428"/>
       <c r="C10" s="314">
         <v>0.8</v>
       </c>
@@ -45905,10 +46208,10 @@
       <c r="K10" s="404"/>
       <c r="L10" s="404"/>
       <c r="M10" s="405"/>
-      <c r="N10" s="427"/>
+      <c r="N10" s="428"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A11" s="427"/>
+      <c r="A11" s="428"/>
       <c r="C11" s="314">
         <v>0.9</v>
       </c>
@@ -45922,10 +46225,10 @@
       <c r="K11" s="406"/>
       <c r="L11" s="406"/>
       <c r="M11" s="407"/>
-      <c r="N11" s="427"/>
+      <c r="N11" s="428"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A12" s="427"/>
+      <c r="A12" s="428"/>
       <c r="C12" s="314">
         <v>1</v>
       </c>
@@ -45953,18 +46256,18 @@
     </row>
     <row r="14" spans="1:14">
       <c r="C14" s="314"/>
-      <c r="D14" s="427" t="s">
+      <c r="D14" s="428" t="s">
         <v>1922</v>
       </c>
-      <c r="E14" s="427"/>
-      <c r="F14" s="427"/>
-      <c r="G14" s="427"/>
-      <c r="H14" s="427"/>
-      <c r="I14" s="427"/>
-      <c r="J14" s="427"/>
-      <c r="K14" s="427"/>
-      <c r="L14" s="427"/>
-      <c r="M14" s="427"/>
+      <c r="E14" s="428"/>
+      <c r="F14" s="428"/>
+      <c r="G14" s="428"/>
+      <c r="H14" s="428"/>
+      <c r="I14" s="428"/>
+      <c r="J14" s="428"/>
+      <c r="K14" s="428"/>
+      <c r="L14" s="428"/>
+      <c r="M14" s="428"/>
       <c r="N14" s="316"/>
     </row>
     <row r="15" spans="1:14">
@@ -46009,11 +46312,11 @@
       <c r="N18" s="63"/>
     </row>
     <row r="19" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B19" s="429" t="s">
+      <c r="B19" s="430" t="s">
         <v>1935</v>
       </c>
-      <c r="C19" s="430"/>
-      <c r="D19" s="431"/>
+      <c r="C19" s="431"/>
+      <c r="D19" s="432"/>
       <c r="E19" s="24" t="s">
         <v>1943</v>
       </c>
@@ -46659,79 +46962,79 @@
       <c r="J88" s="256"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="427"/>
+      <c r="C134" s="428"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="427"/>
+      <c r="C135" s="428"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="427"/>
+      <c r="C136" s="428"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="427"/>
+      <c r="C137" s="428"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="427"/>
+      <c r="C138" s="428"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="427"/>
+      <c r="C139" s="428"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="427"/>
+      <c r="C140" s="428"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="427"/>
+      <c r="C141" s="428"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="427"/>
+      <c r="C142" s="428"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="428"/>
+      <c r="D147" s="429"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="427"/>
+      <c r="D148" s="428"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="427"/>
+      <c r="D149" s="428"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="427"/>
+      <c r="D150" s="428"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="427"/>
+      <c r="D151" s="428"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="427"/>
+      <c r="D152" s="428"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="427"/>
+      <c r="D153" s="428"/>
     </row>
     <row r="182" spans="14:14">
-      <c r="N182" s="427"/>
+      <c r="N182" s="428"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="427"/>
+      <c r="N183" s="428"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="427"/>
+      <c r="N184" s="428"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="427"/>
+      <c r="N185" s="428"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="427"/>
+      <c r="N186" s="428"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="427"/>
+      <c r="N187" s="428"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="427"/>
+      <c r="N188" s="428"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="427"/>
+      <c r="N189" s="428"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="427"/>
+      <c r="N190" s="428"/>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="315"/>
@@ -46918,14 +47221,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="420" t="s">
+      <c r="K4" s="421" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="421"/>
-      <c r="M4" s="421"/>
-      <c r="N4" s="421"/>
-      <c r="O4" s="421"/>
-      <c r="P4" s="422"/>
+      <c r="L4" s="422"/>
+      <c r="M4" s="422"/>
+      <c r="N4" s="422"/>
+      <c r="O4" s="422"/>
+      <c r="P4" s="423"/>
       <c r="Q4" s="95" t="s">
         <v>152</v>
       </c>
@@ -47059,10 +47362,10 @@
       <c r="L8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="445" t="s">
+      <c r="M8" s="461" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="446"/>
+      <c r="N8" s="462"/>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
@@ -47094,8 +47397,8 @@
       <c r="L9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="446"/>
-      <c r="N9" s="446"/>
+      <c r="M9" s="462"/>
+      <c r="N9" s="462"/>
       <c r="O9" s="5" t="s">
         <v>71</v>
       </c>
@@ -47134,8 +47437,8 @@
       <c r="L10" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="M10" s="446"/>
-      <c r="N10" s="446"/>
+      <c r="M10" s="462"/>
+      <c r="N10" s="462"/>
       <c r="O10" s="5"/>
       <c r="P10" s="188" t="s">
         <v>242</v>
@@ -47148,13 +47451,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="432" t="s">
+      <c r="A11" s="451" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="433"/>
-      <c r="C11" s="434"/>
-      <c r="D11" s="434"/>
-      <c r="E11" s="435"/>
+      <c r="B11" s="452"/>
+      <c r="C11" s="453"/>
+      <c r="D11" s="453"/>
+      <c r="E11" s="454"/>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
         <v>74</v>
@@ -47162,8 +47465,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="446"/>
-      <c r="N11" s="446"/>
+      <c r="M11" s="462"/>
+      <c r="N11" s="462"/>
       <c r="O11" s="5"/>
       <c r="P11" s="188" t="s">
         <v>243</v>
@@ -47173,11 +47476,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="436"/>
-      <c r="B12" s="437"/>
-      <c r="C12" s="437"/>
-      <c r="D12" s="437"/>
-      <c r="E12" s="438"/>
+      <c r="A12" s="455"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="450"/>
+      <c r="D12" s="450"/>
+      <c r="E12" s="456"/>
       <c r="F12" t="s">
         <v>1979</v>
       </c>
@@ -47186,8 +47489,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="446"/>
-      <c r="N12" s="446"/>
+      <c r="M12" s="462"/>
+      <c r="N12" s="462"/>
       <c r="O12" s="5"/>
       <c r="P12" s="188" t="s">
         <v>973</v>
@@ -47197,11 +47500,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="436"/>
-      <c r="B13" s="437"/>
-      <c r="C13" s="437"/>
-      <c r="D13" s="437"/>
-      <c r="E13" s="438"/>
+      <c r="A13" s="455"/>
+      <c r="B13" s="450"/>
+      <c r="C13" s="450"/>
+      <c r="D13" s="450"/>
+      <c r="E13" s="456"/>
       <c r="G13" t="s">
         <v>2126</v>
       </c>
@@ -47212,8 +47515,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="446"/>
-      <c r="N13" s="446"/>
+      <c r="M13" s="462"/>
+      <c r="N13" s="462"/>
       <c r="O13" s="26"/>
       <c r="P13" s="188"/>
       <c r="S13" t="s">
@@ -47221,11 +47524,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="439"/>
-      <c r="B14" s="440"/>
-      <c r="C14" s="440"/>
-      <c r="D14" s="440"/>
-      <c r="E14" s="441"/>
+      <c r="A14" s="457"/>
+      <c r="B14" s="458"/>
+      <c r="C14" s="458"/>
+      <c r="D14" s="458"/>
+      <c r="E14" s="459"/>
       <c r="G14" t="s">
         <v>2127</v>
       </c>
@@ -47251,13 +47554,13 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="454" t="s">
+      <c r="A15" s="440" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="455"/>
-      <c r="C15" s="455"/>
-      <c r="D15" s="455"/>
-      <c r="E15" s="456"/>
+      <c r="B15" s="441"/>
+      <c r="C15" s="441"/>
+      <c r="D15" s="441"/>
+      <c r="E15" s="442"/>
       <c r="G15" t="s">
         <v>2128</v>
       </c>
@@ -47416,20 +47719,20 @@
         <v>1088</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="442" t="s">
+      <c r="I20" s="443" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="443"/>
-      <c r="K20" s="442" t="s">
+      <c r="J20" s="444"/>
+      <c r="K20" s="443" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="443"/>
-      <c r="M20" s="442" t="s">
+      <c r="L20" s="444"/>
+      <c r="M20" s="443" t="s">
         <v>1176</v>
       </c>
-      <c r="N20" s="444"/>
-      <c r="O20" s="444"/>
-      <c r="P20" s="443"/>
+      <c r="N20" s="460"/>
+      <c r="O20" s="460"/>
+      <c r="P20" s="444"/>
       <c r="S20" t="s">
         <v>152</v>
       </c>
@@ -47992,13 +48295,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="461" t="s">
+      <c r="A85" s="449" t="s">
         <v>1070</v>
       </c>
-      <c r="B85" s="437"/>
-      <c r="C85" s="437"/>
-      <c r="D85" s="437"/>
-      <c r="E85" s="437"/>
+      <c r="B85" s="450"/>
+      <c r="C85" s="450"/>
+      <c r="D85" s="450"/>
+      <c r="E85" s="450"/>
       <c r="F85" s="6" t="s">
         <v>1074</v>
       </c>
@@ -48045,14 +48348,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="451" t="s">
+      <c r="K87" s="437" t="s">
         <v>1073</v>
       </c>
-      <c r="L87" s="448"/>
-      <c r="M87" s="451" t="s">
+      <c r="L87" s="434"/>
+      <c r="M87" s="437" t="s">
         <v>1084</v>
       </c>
-      <c r="N87" s="448"/>
+      <c r="N87" s="434"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -48069,10 +48372,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="449"/>
-      <c r="L88" s="450"/>
-      <c r="M88" s="452"/>
-      <c r="N88" s="453"/>
+      <c r="K88" s="435"/>
+      <c r="L88" s="436"/>
+      <c r="M88" s="438"/>
+      <c r="N88" s="439"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -48091,12 +48394,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="447" t="s">
+      <c r="K89" s="433" t="s">
         <v>1065</v>
       </c>
-      <c r="L89" s="448"/>
-      <c r="M89" s="452"/>
-      <c r="N89" s="453"/>
+      <c r="L89" s="434"/>
+      <c r="M89" s="438"/>
+      <c r="N89" s="439"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -48111,10 +48414,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="449"/>
-      <c r="L90" s="450"/>
-      <c r="M90" s="452"/>
-      <c r="N90" s="453"/>
+      <c r="K90" s="435"/>
+      <c r="L90" s="436"/>
+      <c r="M90" s="438"/>
+      <c r="N90" s="439"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -48131,12 +48434,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="447" t="s">
+      <c r="K91" s="433" t="s">
         <v>1066</v>
       </c>
-      <c r="L91" s="448"/>
-      <c r="M91" s="452"/>
-      <c r="N91" s="453"/>
+      <c r="L91" s="434"/>
+      <c r="M91" s="438"/>
+      <c r="N91" s="439"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -48153,10 +48456,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="449"/>
-      <c r="L92" s="450"/>
-      <c r="M92" s="452"/>
-      <c r="N92" s="453"/>
+      <c r="K92" s="435"/>
+      <c r="L92" s="436"/>
+      <c r="M92" s="438"/>
+      <c r="N92" s="439"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -48171,12 +48474,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="447" t="s">
+      <c r="K93" s="433" t="s">
         <v>1067</v>
       </c>
-      <c r="L93" s="448"/>
-      <c r="M93" s="452"/>
-      <c r="N93" s="453"/>
+      <c r="L93" s="434"/>
+      <c r="M93" s="438"/>
+      <c r="N93" s="439"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -48188,10 +48491,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="452"/>
-      <c r="L94" s="453"/>
-      <c r="M94" s="452"/>
-      <c r="N94" s="453"/>
+      <c r="K94" s="438"/>
+      <c r="L94" s="439"/>
+      <c r="M94" s="438"/>
+      <c r="N94" s="439"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -48205,10 +48508,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="449"/>
-      <c r="L95" s="450"/>
-      <c r="M95" s="449"/>
-      <c r="N95" s="450"/>
+      <c r="K95" s="435"/>
+      <c r="L95" s="436"/>
+      <c r="M95" s="435"/>
+      <c r="N95" s="436"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -48225,14 +48528,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="460" t="s">
+      <c r="K96" s="448" t="s">
         <v>1068</v>
       </c>
-      <c r="L96" s="460"/>
-      <c r="M96" s="460" t="s">
+      <c r="L96" s="448"/>
+      <c r="M96" s="448" t="s">
         <v>1069</v>
       </c>
-      <c r="N96" s="460"/>
+      <c r="N96" s="448"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -48356,7 +48659,7 @@
       <c r="E115" s="87"/>
       <c r="F115" s="88"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="457" t="s">
+      <c r="J115" s="445" t="s">
         <v>1097</v>
       </c>
       <c r="K115" s="2"/>
@@ -48373,7 +48676,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="458"/>
+      <c r="J116" s="446"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -48388,7 +48691,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="458"/>
+      <c r="J117" s="446"/>
       <c r="K117" s="5" t="s">
         <v>24</v>
       </c>
@@ -48405,7 +48708,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="458"/>
+      <c r="J118" s="446"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -48420,7 +48723,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="458"/>
+      <c r="J119" s="446"/>
       <c r="K119" s="5" t="s">
         <v>498</v>
       </c>
@@ -48440,7 +48743,7 @@
         <v>1096</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="458"/>
+      <c r="J120" s="446"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -48460,7 +48763,7 @@
         <v>150</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="458"/>
+      <c r="J121" s="446"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -48477,7 +48780,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="458"/>
+      <c r="J122" s="446"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1093</v>
@@ -48496,7 +48799,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="458"/>
+      <c r="J123" s="446"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1091</v>
@@ -48513,7 +48816,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="458"/>
+      <c r="J124" s="446"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>24</v>
@@ -48530,7 +48833,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="458"/>
+      <c r="J125" s="446"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -48545,7 +48848,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="459"/>
+      <c r="J126" s="447"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -49071,10 +49374,10 @@
         <v>152</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="442" t="s">
+      <c r="M160" s="443" t="s">
         <v>78</v>
       </c>
-      <c r="N160" s="443"/>
+      <c r="N160" s="444"/>
       <c r="O160" s="321" t="s">
         <v>79</v>
       </c>
@@ -49196,6 +49499,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="A11:E14"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M8:N13"/>
     <mergeCell ref="K89:L90"/>
     <mergeCell ref="K87:L88"/>
     <mergeCell ref="M87:N95"/>
@@ -49207,12 +49516,6 @@
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="K93:L95"/>
     <mergeCell ref="K91:L92"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="A11:E14"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M8:N13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="15" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="internet--basics" sheetId="24" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="spring" sheetId="18" r:id="rId21"/>
     <sheet name="spring beans scope" sheetId="19" r:id="rId22"/>
     <sheet name="junit" sheetId="20" r:id="rId23"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -9047,6 +9048,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9083,6 +9088,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9113,12 +9163,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9133,45 +9177,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9263,6 +9268,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9273,9 +9287,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9295,12 +9306,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9332,6 +9337,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9341,59 +9349,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9440,6 +9400,57 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9467,22 +9478,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9545,56 +9586,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10635,11 +10636,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="421" t="s">
+      <c r="H26" s="425" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="422"/>
-      <c r="J26" s="423"/>
+      <c r="I26" s="426"/>
+      <c r="J26" s="427"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="1" t="s">
@@ -10886,11 +10887,11 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="421" t="s">
+      <c r="H36" s="425" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="422"/>
-      <c r="J36" s="423"/>
+      <c r="I36" s="426"/>
+      <c r="J36" s="427"/>
       <c r="K36" s="5"/>
       <c r="L36" s="11"/>
       <c r="M36" s="4"/>
@@ -11274,7 +11275,7 @@
       <c r="M51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N51" s="425">
+      <c r="N51" s="429">
         <v>443</v>
       </c>
       <c r="O51" s="2" t="s">
@@ -11307,7 +11308,7 @@
         <v>1810</v>
       </c>
       <c r="M52" s="24"/>
-      <c r="N52" s="426"/>
+      <c r="N52" s="430"/>
       <c r="O52" s="5" t="s">
         <v>1852</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>152</v>
       </c>
       <c r="M58" s="5"/>
-      <c r="N58" s="427">
+      <c r="N58" s="431">
         <v>80</v>
       </c>
       <c r="O58" s="5" t="s">
@@ -11528,7 +11529,7 @@
         <v>152</v>
       </c>
       <c r="M59" s="24"/>
-      <c r="N59" s="427"/>
+      <c r="N59" s="431"/>
       <c r="O59" s="5" t="s">
         <v>1868</v>
       </c>
@@ -11623,7 +11624,7 @@
       <c r="H63" s="387" t="s">
         <v>1805</v>
       </c>
-      <c r="I63" s="424" t="s">
+      <c r="I63" s="428" t="s">
         <v>7</v>
       </c>
       <c r="J63" t="s">
@@ -11654,7 +11655,7 @@
       <c r="H64" s="385" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="424"/>
+      <c r="I64" s="428"/>
       <c r="J64" t="s">
         <v>39</v>
       </c>
@@ -15336,7 +15337,7 @@
       <c r="K155" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L155" s="463" t="s">
+      <c r="L155" s="467" t="s">
         <v>893</v>
       </c>
       <c r="M155" s="414"/>
@@ -15361,7 +15362,7 @@
       <c r="K156" s="30">
         <v>80</v>
       </c>
-      <c r="L156" s="464"/>
+      <c r="L156" s="468"/>
       <c r="M156" s="38"/>
       <c r="N156" s="38" t="s">
         <v>1675</v>
@@ -15380,7 +15381,7 @@
         <v>1987</v>
       </c>
       <c r="K157" s="4"/>
-      <c r="L157" s="464"/>
+      <c r="L157" s="468"/>
       <c r="M157" s="38"/>
       <c r="N157" s="38" t="s">
         <v>146</v>
@@ -15398,7 +15399,7 @@
       <c r="E158" s="5"/>
       <c r="F158" s="6"/>
       <c r="K158" s="4"/>
-      <c r="L158" s="464"/>
+      <c r="L158" s="468"/>
       <c r="M158" s="38"/>
       <c r="N158" s="38" t="s">
         <v>24</v>
@@ -15414,7 +15415,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="6"/>
       <c r="K159" s="4"/>
-      <c r="L159" s="464"/>
+      <c r="L159" s="468"/>
       <c r="M159" s="38" t="s">
         <v>836</v>
       </c>
@@ -15432,7 +15433,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="6"/>
       <c r="K160" s="4"/>
-      <c r="L160" s="465"/>
+      <c r="L160" s="469"/>
       <c r="M160" s="415" t="s">
         <v>1374</v>
       </c>
@@ -15500,7 +15501,7 @@
       <c r="K167" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L167" s="463" t="s">
+      <c r="L167" s="467" t="s">
         <v>893</v>
       </c>
       <c r="M167" s="414"/>
@@ -15523,7 +15524,7 @@
       <c r="K168" s="30">
         <v>80</v>
       </c>
-      <c r="L168" s="464"/>
+      <c r="L168" s="468"/>
       <c r="M168" s="38"/>
       <c r="N168" s="38" t="s">
         <v>1675</v>
@@ -15546,7 +15547,7 @@
         <v>1997</v>
       </c>
       <c r="K169" s="4"/>
-      <c r="L169" s="464"/>
+      <c r="L169" s="468"/>
       <c r="M169" s="38"/>
       <c r="N169" s="38" t="s">
         <v>146</v>
@@ -15566,7 +15567,7 @@
       <c r="E170" s="5"/>
       <c r="F170" s="6"/>
       <c r="K170" s="4"/>
-      <c r="L170" s="464"/>
+      <c r="L170" s="468"/>
       <c r="M170" s="38"/>
       <c r="N170" s="38" t="s">
         <v>24</v>
@@ -15584,7 +15585,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="6"/>
       <c r="K171" s="4"/>
-      <c r="L171" s="464"/>
+      <c r="L171" s="468"/>
       <c r="M171" s="38" t="s">
         <v>836</v>
       </c>
@@ -15606,7 +15607,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="6"/>
       <c r="K172" s="4"/>
-      <c r="L172" s="465"/>
+      <c r="L172" s="469"/>
       <c r="M172" s="415" t="s">
         <v>1374</v>
       </c>
@@ -15706,7 +15707,7 @@
       <c r="K186" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L186" s="463" t="s">
+      <c r="L186" s="467" t="s">
         <v>893</v>
       </c>
       <c r="M186" s="414"/>
@@ -15729,7 +15730,7 @@
       <c r="K187" s="30">
         <v>80</v>
       </c>
-      <c r="L187" s="464"/>
+      <c r="L187" s="468"/>
       <c r="M187" s="38"/>
       <c r="N187" s="38" t="s">
         <v>1675</v>
@@ -15752,7 +15753,7 @@
         <v>1997</v>
       </c>
       <c r="K188" s="4"/>
-      <c r="L188" s="464"/>
+      <c r="L188" s="468"/>
       <c r="M188" s="38"/>
       <c r="N188" s="38" t="s">
         <v>146</v>
@@ -15772,7 +15773,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="6"/>
       <c r="K189" s="4"/>
-      <c r="L189" s="464"/>
+      <c r="L189" s="468"/>
       <c r="M189" s="38"/>
       <c r="N189" s="38" t="s">
         <v>24</v>
@@ -15790,7 +15791,7 @@
       <c r="E190" s="5"/>
       <c r="F190" s="6"/>
       <c r="K190" s="4"/>
-      <c r="L190" s="464"/>
+      <c r="L190" s="468"/>
       <c r="M190" s="38" t="s">
         <v>836</v>
       </c>
@@ -15812,7 +15813,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="6"/>
       <c r="K191" s="4"/>
-      <c r="L191" s="465"/>
+      <c r="L191" s="469"/>
       <c r="M191" s="415" t="s">
         <v>1374</v>
       </c>
@@ -15943,7 +15944,7 @@
       <c r="K208" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L208" s="463" t="s">
+      <c r="L208" s="467" t="s">
         <v>893</v>
       </c>
       <c r="M208" s="414"/>
@@ -15963,7 +15964,7 @@
       <c r="K209" s="30">
         <v>80</v>
       </c>
-      <c r="L209" s="464"/>
+      <c r="L209" s="468"/>
       <c r="M209" s="38"/>
       <c r="N209" s="38" t="s">
         <v>1675</v>
@@ -15984,7 +15985,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="6"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="464"/>
+      <c r="L210" s="468"/>
       <c r="M210" s="38"/>
       <c r="N210" s="38" t="s">
         <v>146</v>
@@ -16010,7 +16011,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="6"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="464"/>
+      <c r="L211" s="468"/>
       <c r="M211" s="38"/>
       <c r="N211" s="38" t="s">
         <v>24</v>
@@ -16035,7 +16036,7 @@
       </c>
       <c r="F212" s="6"/>
       <c r="K212" s="4"/>
-      <c r="L212" s="464"/>
+      <c r="L212" s="468"/>
       <c r="M212" s="38" t="s">
         <v>836</v>
       </c>
@@ -16059,7 +16060,7 @@
       </c>
       <c r="F213" s="6"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="465"/>
+      <c r="L213" s="469"/>
       <c r="M213" s="415" t="s">
         <v>1374</v>
       </c>
@@ -16146,7 +16147,7 @@
       <c r="K219" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L219" s="463" t="s">
+      <c r="L219" s="467" t="s">
         <v>893</v>
       </c>
       <c r="M219" s="414"/>
@@ -16166,7 +16167,7 @@
       <c r="K220" s="30">
         <v>80</v>
       </c>
-      <c r="L220" s="464"/>
+      <c r="L220" s="468"/>
       <c r="M220" s="38"/>
       <c r="N220" s="38"/>
       <c r="O220" s="38"/>
@@ -16185,7 +16186,7 @@
         <v>2019</v>
       </c>
       <c r="K221" s="4"/>
-      <c r="L221" s="464"/>
+      <c r="L221" s="468"/>
       <c r="M221" s="38"/>
       <c r="N221" s="38" t="s">
         <v>2014</v>
@@ -16206,7 +16207,7 @@
         <v>2020</v>
       </c>
       <c r="K222" s="4"/>
-      <c r="L222" s="464"/>
+      <c r="L222" s="468"/>
       <c r="M222" s="38"/>
       <c r="N222" s="38"/>
       <c r="O222" s="38"/>
@@ -16222,7 +16223,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="6"/>
       <c r="K223" s="4"/>
-      <c r="L223" s="464"/>
+      <c r="L223" s="468"/>
       <c r="M223" s="38"/>
       <c r="N223" s="38"/>
       <c r="O223" s="38"/>
@@ -16236,7 +16237,7 @@
       <c r="E224" s="10"/>
       <c r="F224" s="9"/>
       <c r="K224" s="8"/>
-      <c r="L224" s="465"/>
+      <c r="L224" s="469"/>
       <c r="M224" s="415"/>
       <c r="N224" s="415"/>
       <c r="O224" s="415"/>
@@ -16274,7 +16275,7 @@
       <c r="K231" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L231" s="463" t="s">
+      <c r="L231" s="467" t="s">
         <v>893</v>
       </c>
       <c r="M231" s="414"/>
@@ -16292,7 +16293,7 @@
       <c r="K232" s="30">
         <v>80</v>
       </c>
-      <c r="L232" s="464"/>
+      <c r="L232" s="468"/>
       <c r="M232" s="38"/>
       <c r="N232" s="38"/>
       <c r="O232" s="38"/>
@@ -16306,7 +16307,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="6"/>
       <c r="K233" s="4"/>
-      <c r="L233" s="464"/>
+      <c r="L233" s="468"/>
       <c r="M233" s="38"/>
       <c r="N233" s="38"/>
       <c r="O233" s="38"/>
@@ -16321,7 +16322,7 @@
       <c r="E234" s="5"/>
       <c r="F234" s="6"/>
       <c r="K234" s="4"/>
-      <c r="L234" s="464"/>
+      <c r="L234" s="468"/>
       <c r="M234" s="38"/>
       <c r="N234" s="38"/>
       <c r="O234" s="38"/>
@@ -16342,7 +16343,7 @@
       </c>
       <c r="F235" s="6"/>
       <c r="K235" s="4"/>
-      <c r="L235" s="464"/>
+      <c r="L235" s="468"/>
       <c r="M235" s="38" t="s">
         <v>2022</v>
       </c>
@@ -16364,7 +16365,7 @@
       </c>
       <c r="F236" s="6"/>
       <c r="K236" s="4"/>
-      <c r="L236" s="465"/>
+      <c r="L236" s="469"/>
       <c r="M236" s="415"/>
       <c r="N236" s="415"/>
       <c r="O236" s="415"/>
@@ -16423,7 +16424,7 @@
       <c r="K241" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L241" s="463" t="s">
+      <c r="L241" s="467" t="s">
         <v>893</v>
       </c>
       <c r="M241" s="414"/>
@@ -16441,7 +16442,7 @@
       <c r="K242" s="30">
         <v>80</v>
       </c>
-      <c r="L242" s="464"/>
+      <c r="L242" s="468"/>
       <c r="M242" s="38"/>
       <c r="N242" s="38"/>
       <c r="O242" s="38"/>
@@ -16455,7 +16456,7 @@
       <c r="E243" s="5"/>
       <c r="F243" s="6"/>
       <c r="K243" s="4"/>
-      <c r="L243" s="464"/>
+      <c r="L243" s="468"/>
       <c r="M243" s="38"/>
       <c r="N243" s="38"/>
       <c r="O243" s="38"/>
@@ -16470,7 +16471,7 @@
       <c r="E244" s="5"/>
       <c r="F244" s="6"/>
       <c r="K244" s="4"/>
-      <c r="L244" s="464"/>
+      <c r="L244" s="468"/>
       <c r="M244" s="38"/>
       <c r="N244" s="38"/>
       <c r="O244" s="38"/>
@@ -16491,7 +16492,7 @@
       </c>
       <c r="F245" s="6"/>
       <c r="K245" s="4"/>
-      <c r="L245" s="464"/>
+      <c r="L245" s="468"/>
       <c r="M245" s="38" t="s">
         <v>2022</v>
       </c>
@@ -16513,7 +16514,7 @@
       </c>
       <c r="F246" s="6"/>
       <c r="K246" s="4"/>
-      <c r="L246" s="465"/>
+      <c r="L246" s="469"/>
       <c r="M246" s="415"/>
       <c r="N246" s="415"/>
       <c r="O246" s="415"/>
@@ -16580,7 +16581,7 @@
       <c r="K252" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L252" s="466" t="s">
+      <c r="L252" s="470" t="s">
         <v>893</v>
       </c>
       <c r="M252" s="140"/>
@@ -16604,7 +16605,7 @@
       <c r="K253" s="30">
         <v>80</v>
       </c>
-      <c r="L253" s="467"/>
+      <c r="L253" s="471"/>
       <c r="M253" s="24"/>
       <c r="N253" s="63" t="s">
         <v>24</v>
@@ -16624,7 +16625,7 @@
       <c r="E254" s="5"/>
       <c r="F254" s="6"/>
       <c r="K254" s="4"/>
-      <c r="L254" s="467"/>
+      <c r="L254" s="471"/>
       <c r="M254" s="24"/>
       <c r="N254" s="63"/>
       <c r="O254" s="24"/>
@@ -16638,7 +16639,7 @@
       <c r="E255" s="5"/>
       <c r="F255" s="6"/>
       <c r="K255" s="4"/>
-      <c r="L255" s="467"/>
+      <c r="L255" s="471"/>
       <c r="M255" s="24"/>
       <c r="N255" s="63"/>
       <c r="O255" s="24"/>
@@ -16654,7 +16655,7 @@
       <c r="E256" s="5"/>
       <c r="F256" s="6"/>
       <c r="K256" s="4"/>
-      <c r="L256" s="467"/>
+      <c r="L256" s="471"/>
       <c r="M256" s="24" t="s">
         <v>2022</v>
       </c>
@@ -16672,7 +16673,7 @@
       <c r="E257" s="5"/>
       <c r="F257" s="6"/>
       <c r="K257" s="4"/>
-      <c r="L257" s="468"/>
+      <c r="L257" s="472"/>
       <c r="M257" s="52"/>
       <c r="N257" s="256"/>
       <c r="O257" s="24"/>
@@ -16852,7 +16853,7 @@
       <c r="K277" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L277" s="466" t="s">
+      <c r="L277" s="470" t="s">
         <v>893</v>
       </c>
       <c r="M277" s="140"/>
@@ -16874,7 +16875,7 @@
       <c r="K278" s="30">
         <v>80</v>
       </c>
-      <c r="L278" s="467"/>
+      <c r="L278" s="471"/>
       <c r="M278" s="24"/>
       <c r="N278" s="63" t="s">
         <v>24</v>
@@ -16894,7 +16895,7 @@
       <c r="E279" s="5"/>
       <c r="F279" s="6"/>
       <c r="K279" s="4"/>
-      <c r="L279" s="467"/>
+      <c r="L279" s="471"/>
       <c r="M279" s="24"/>
       <c r="N279" s="63"/>
       <c r="O279" s="24"/>
@@ -16914,7 +16915,7 @@
       </c>
       <c r="F280" s="6"/>
       <c r="K280" s="4"/>
-      <c r="L280" s="467"/>
+      <c r="L280" s="471"/>
       <c r="M280" s="24"/>
       <c r="N280" s="63"/>
       <c r="O280" s="24"/>
@@ -16934,7 +16935,7 @@
       </c>
       <c r="F281" s="6"/>
       <c r="K281" s="4"/>
-      <c r="L281" s="467"/>
+      <c r="L281" s="471"/>
       <c r="M281" s="24" t="s">
         <v>2022</v>
       </c>
@@ -16956,7 +16957,7 @@
       <c r="E282" s="5"/>
       <c r="F282" s="6"/>
       <c r="K282" s="4"/>
-      <c r="L282" s="468"/>
+      <c r="L282" s="472"/>
       <c r="M282" s="52"/>
       <c r="N282" s="256"/>
       <c r="O282" s="24"/>
@@ -17151,7 +17152,7 @@
       <c r="K299" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L299" s="466" t="s">
+      <c r="L299" s="470" t="s">
         <v>893</v>
       </c>
       <c r="M299" s="140"/>
@@ -17169,7 +17170,7 @@
       <c r="K300" s="30">
         <v>80</v>
       </c>
-      <c r="L300" s="467"/>
+      <c r="L300" s="471"/>
       <c r="M300" s="24"/>
       <c r="N300" s="63" t="s">
         <v>24</v>
@@ -17185,7 +17186,7 @@
       <c r="E301" s="5"/>
       <c r="F301" s="6"/>
       <c r="K301" s="4"/>
-      <c r="L301" s="467"/>
+      <c r="L301" s="471"/>
       <c r="M301" s="24"/>
       <c r="N301" s="63"/>
       <c r="O301" s="24"/>
@@ -17199,7 +17200,7 @@
       <c r="E302" s="5"/>
       <c r="F302" s="6"/>
       <c r="K302" s="4"/>
-      <c r="L302" s="467"/>
+      <c r="L302" s="471"/>
       <c r="M302" s="24"/>
       <c r="N302" s="63"/>
       <c r="O302" s="24"/>
@@ -17213,7 +17214,7 @@
       <c r="E303" s="5"/>
       <c r="F303" s="6"/>
       <c r="K303" s="4"/>
-      <c r="L303" s="467"/>
+      <c r="L303" s="471"/>
       <c r="M303" s="24" t="s">
         <v>2022</v>
       </c>
@@ -17231,7 +17232,7 @@
       <c r="E304" s="5"/>
       <c r="F304" s="6"/>
       <c r="K304" s="4"/>
-      <c r="L304" s="468"/>
+      <c r="L304" s="472"/>
       <c r="M304" s="52"/>
       <c r="N304" s="256"/>
       <c r="O304" s="24"/>
@@ -17763,13 +17764,13 @@
         <v>65</v>
       </c>
       <c r="J3" s="126"/>
-      <c r="K3" s="478"/>
-      <c r="L3" s="478"/>
-      <c r="M3" s="478"/>
-      <c r="N3" s="478"/>
-      <c r="O3" s="478"/>
-      <c r="P3" s="478"/>
-      <c r="Q3" s="479"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="482"/>
+      <c r="M3" s="482"/>
+      <c r="N3" s="482"/>
+      <c r="O3" s="482"/>
+      <c r="P3" s="482"/>
+      <c r="Q3" s="483"/>
       <c r="T3" s="35" t="s">
         <v>63</v>
       </c>
@@ -18037,13 +18038,13 @@
       <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="469" t="s">
+      <c r="A12" s="473" t="s">
         <v>421</v>
       </c>
-      <c r="B12" s="470"/>
-      <c r="C12" s="470"/>
-      <c r="D12" s="470"/>
-      <c r="E12" s="471"/>
+      <c r="B12" s="474"/>
+      <c r="C12" s="474"/>
+      <c r="D12" s="474"/>
+      <c r="E12" s="475"/>
       <c r="F12" t="s">
         <v>434</v>
       </c>
@@ -18066,11 +18067,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="472"/>
-      <c r="B13" s="473"/>
-      <c r="C13" s="473"/>
-      <c r="D13" s="473"/>
-      <c r="E13" s="474"/>
+      <c r="A13" s="476"/>
+      <c r="B13" s="477"/>
+      <c r="C13" s="477"/>
+      <c r="D13" s="477"/>
+      <c r="E13" s="478"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -18091,11 +18092,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="472"/>
-      <c r="B14" s="473"/>
-      <c r="C14" s="473"/>
-      <c r="D14" s="473"/>
-      <c r="E14" s="474"/>
+      <c r="A14" s="476"/>
+      <c r="B14" s="477"/>
+      <c r="C14" s="477"/>
+      <c r="D14" s="477"/>
+      <c r="E14" s="478"/>
       <c r="F14" t="s">
         <v>431</v>
       </c>
@@ -18118,11 +18119,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="475"/>
-      <c r="B15" s="476"/>
-      <c r="C15" s="476"/>
-      <c r="D15" s="476"/>
-      <c r="E15" s="477"/>
+      <c r="A15" s="479"/>
+      <c r="B15" s="480"/>
+      <c r="C15" s="480"/>
+      <c r="D15" s="480"/>
+      <c r="E15" s="481"/>
       <c r="F15" s="24"/>
       <c r="H15" s="150"/>
       <c r="I15" s="4" t="s">
@@ -18180,17 +18181,17 @@
       <c r="F17" s="146"/>
       <c r="G17" s="107"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="422" t="s">
+      <c r="I17" s="426" t="s">
         <v>848</v>
       </c>
-      <c r="J17" s="422"/>
-      <c r="K17" s="422"/>
-      <c r="L17" s="422"/>
-      <c r="M17" s="422"/>
-      <c r="N17" s="422"/>
-      <c r="O17" s="422"/>
-      <c r="P17" s="422"/>
-      <c r="Q17" s="422"/>
+      <c r="J17" s="426"/>
+      <c r="K17" s="426"/>
+      <c r="L17" s="426"/>
+      <c r="M17" s="426"/>
+      <c r="N17" s="426"/>
+      <c r="O17" s="426"/>
+      <c r="P17" s="426"/>
+      <c r="Q17" s="426"/>
       <c r="S17" t="s">
         <v>201</v>
       </c>
@@ -21634,7 +21635,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="480">
+      <c r="O109" s="484">
         <v>123</v>
       </c>
       <c r="P109" s="249" t="s">
@@ -21656,7 +21657,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="446"/>
+      <c r="O110" s="463"/>
       <c r="P110" s="249"/>
       <c r="Q110" s="33" t="s">
         <v>207</v>
@@ -21674,7 +21675,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="446"/>
+      <c r="O111" s="463"/>
       <c r="P111" s="249"/>
       <c r="Q111" s="33" t="s">
         <v>718</v>
@@ -21692,7 +21693,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="446"/>
+      <c r="O112" s="463"/>
       <c r="P112" s="249"/>
       <c r="Q112" s="33"/>
     </row>
@@ -21711,7 +21712,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="447"/>
+      <c r="O113" s="464"/>
       <c r="P113" s="249"/>
       <c r="Q113" s="33"/>
     </row>
@@ -21736,7 +21737,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="480">
+      <c r="O114" s="484">
         <v>456</v>
       </c>
       <c r="P114" s="249" t="s">
@@ -21758,7 +21759,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="446"/>
+      <c r="O115" s="463"/>
       <c r="P115" s="249"/>
       <c r="Q115" s="33" t="s">
         <v>1142</v>
@@ -21779,7 +21780,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="446"/>
+      <c r="O116" s="463"/>
       <c r="P116" s="249"/>
       <c r="Q116" s="33"/>
     </row>
@@ -21798,7 +21799,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="447"/>
+      <c r="O117" s="464"/>
       <c r="P117" s="249"/>
       <c r="Q117" s="33"/>
     </row>
@@ -21814,7 +21815,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="480">
+      <c r="O118" s="484">
         <v>777</v>
       </c>
       <c r="P118" s="249"/>
@@ -21837,7 +21838,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="446"/>
+      <c r="O119" s="463"/>
       <c r="P119" s="249"/>
       <c r="Q119" s="33"/>
     </row>
@@ -21856,7 +21857,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="446"/>
+      <c r="O120" s="463"/>
       <c r="P120" s="249"/>
       <c r="Q120" s="33"/>
     </row>
@@ -21875,7 +21876,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="447"/>
+      <c r="O121" s="464"/>
       <c r="P121" s="249"/>
       <c r="Q121" s="33"/>
     </row>
@@ -22037,10 +22038,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="463">
+      <c r="O133" s="467">
         <v>123</v>
       </c>
-      <c r="P133" s="481" t="s">
+      <c r="P133" s="485" t="s">
         <v>519</v>
       </c>
       <c r="Q133" s="265" t="s">
@@ -22059,8 +22060,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="464"/>
-      <c r="P134" s="482"/>
+      <c r="O134" s="468"/>
+      <c r="P134" s="486"/>
       <c r="Q134" s="265" t="s">
         <v>207</v>
       </c>
@@ -22077,8 +22078,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="464"/>
-      <c r="P135" s="482"/>
+      <c r="O135" s="468"/>
+      <c r="P135" s="486"/>
       <c r="Q135" s="265"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -22097,8 +22098,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="464"/>
-      <c r="P136" s="482"/>
+      <c r="O136" s="468"/>
+      <c r="P136" s="486"/>
       <c r="Q136" s="265"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -22120,8 +22121,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="465"/>
-      <c r="P137" s="483"/>
+      <c r="O137" s="469"/>
+      <c r="P137" s="487"/>
       <c r="Q137" s="265"/>
     </row>
     <row r="138" spans="1:17">
@@ -22141,7 +22142,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="480"/>
+      <c r="O138" s="484"/>
       <c r="P138" s="249"/>
       <c r="Q138" s="33"/>
     </row>
@@ -22157,7 +22158,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="446"/>
+      <c r="O139" s="463"/>
       <c r="P139" s="249"/>
       <c r="Q139" s="33"/>
     </row>
@@ -22175,7 +22176,7 @@
       <c r="L140" s="38"/>
       <c r="M140" s="45"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="446"/>
+      <c r="O140" s="463"/>
       <c r="P140" s="249"/>
       <c r="Q140" s="33"/>
     </row>
@@ -22194,7 +22195,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="447"/>
+      <c r="O141" s="464"/>
       <c r="P141" s="249"/>
       <c r="Q141" s="33"/>
     </row>
@@ -22212,7 +22213,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="480"/>
+      <c r="O142" s="484"/>
       <c r="P142" s="249"/>
       <c r="Q142" s="33"/>
     </row>
@@ -22232,7 +22233,7 @@
       </c>
       <c r="M143" s="264"/>
       <c r="N143" s="151"/>
-      <c r="O143" s="446"/>
+      <c r="O143" s="463"/>
       <c r="P143" s="249"/>
       <c r="Q143" s="33"/>
     </row>
@@ -22248,7 +22249,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="446"/>
+      <c r="O144" s="463"/>
       <c r="P144" s="249"/>
       <c r="Q144" s="33"/>
     </row>
@@ -22268,7 +22269,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="447"/>
+      <c r="O145" s="464"/>
       <c r="P145" s="249"/>
       <c r="Q145" s="33"/>
     </row>
@@ -24652,8 +24653,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="487"/>
-      <c r="B2" s="456"/>
+      <c r="A2" s="491"/>
+      <c r="B2" s="443"/>
       <c r="C2" s="27" t="s">
         <v>1460</v>
       </c>
@@ -24671,8 +24672,8 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="487"/>
-      <c r="B3" s="456"/>
+      <c r="A3" s="491"/>
+      <c r="B3" s="443"/>
       <c r="C3" s="4" t="s">
         <v>174</v>
       </c>
@@ -24696,8 +24697,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="488"/>
-      <c r="B4" s="489"/>
+      <c r="A4" s="492"/>
+      <c r="B4" s="493"/>
       <c r="C4" s="7" t="s">
         <v>1682</v>
       </c>
@@ -24738,8 +24739,8 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="487"/>
-      <c r="B7" s="456"/>
+      <c r="A7" s="491"/>
+      <c r="B7" s="443"/>
       <c r="C7" s="27" t="s">
         <v>1460</v>
       </c>
@@ -24755,8 +24756,8 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="487"/>
-      <c r="B8" s="456"/>
+      <c r="A8" s="491"/>
+      <c r="B8" s="443"/>
       <c r="C8" s="4" t="s">
         <v>174</v>
       </c>
@@ -24776,8 +24777,8 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="488"/>
-      <c r="B9" s="489"/>
+      <c r="A9" s="492"/>
+      <c r="B9" s="493"/>
       <c r="C9" s="7" t="s">
         <v>1685</v>
       </c>
@@ -25107,8 +25108,8 @@
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="487"/>
-      <c r="B35" s="456"/>
+      <c r="A35" s="491"/>
+      <c r="B35" s="443"/>
       <c r="C35" s="27" t="s">
         <v>1460</v>
       </c>
@@ -25129,8 +25130,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A36" s="487"/>
-      <c r="B36" s="456"/>
+      <c r="A36" s="491"/>
+      <c r="B36" s="443"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
         <v>207</v>
@@ -25157,8 +25158,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A37" s="488"/>
-      <c r="B37" s="489"/>
+      <c r="A37" s="492"/>
+      <c r="B37" s="493"/>
       <c r="C37" s="7" t="s">
         <v>1694</v>
       </c>
@@ -25202,8 +25203,8 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="487"/>
-      <c r="B40" s="456"/>
+      <c r="A40" s="491"/>
+      <c r="B40" s="443"/>
       <c r="C40" s="27" t="s">
         <v>1460</v>
       </c>
@@ -25219,8 +25220,8 @@
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A41" s="487"/>
-      <c r="B41" s="456"/>
+      <c r="A41" s="491"/>
+      <c r="B41" s="443"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
         <v>174</v>
@@ -25238,8 +25239,8 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A42" s="488"/>
-      <c r="B42" s="489"/>
+      <c r="A42" s="492"/>
+      <c r="B42" s="493"/>
       <c r="C42" s="7" t="s">
         <v>1695</v>
       </c>
@@ -26626,7 +26627,7 @@
       <c r="E114" s="24" t="s">
         <v>1684</v>
       </c>
-      <c r="I114" s="484" t="s">
+      <c r="I114" s="488" t="s">
         <v>1730</v>
       </c>
       <c r="J114" s="375" t="s">
@@ -26647,7 +26648,7 @@
       <c r="B115" s="7"/>
       <c r="C115" s="87"/>
       <c r="D115" s="88"/>
-      <c r="I115" s="485"/>
+      <c r="I115" s="489"/>
       <c r="J115" s="5"/>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
@@ -26661,7 +26662,7 @@
       <c r="E116" t="s">
         <v>147</v>
       </c>
-      <c r="I116" s="486"/>
+      <c r="I116" s="490"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -26703,7 +26704,7 @@
       <c r="N119" s="6"/>
     </row>
     <row r="120" spans="2:14">
-      <c r="I120" s="484" t="s">
+      <c r="I120" s="488" t="s">
         <v>1731</v>
       </c>
       <c r="J120" s="5"/>
@@ -26713,7 +26714,7 @@
       <c r="N120" s="6"/>
     </row>
     <row r="121" spans="2:14">
-      <c r="I121" s="485"/>
+      <c r="I121" s="489"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -26721,7 +26722,7 @@
       <c r="N121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1">
-      <c r="I122" s="486"/>
+      <c r="I122" s="490"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -27786,10 +27787,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="490" t="s">
+      <c r="L35" s="494" t="s">
         <v>217</v>
       </c>
-      <c r="M35" s="490"/>
+      <c r="M35" s="494"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -29719,10 +29720,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="491" t="s">
+      <c r="A155" s="495" t="s">
         <v>709</v>
       </c>
-      <c r="B155" s="491"/>
+      <c r="B155" s="495"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="73" t="s">
@@ -30520,18 +30521,18 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="492" t="s">
+      <c r="B29" s="496" t="s">
         <v>1025</v>
       </c>
-      <c r="C29" s="492"/>
-      <c r="D29" s="492"/>
-      <c r="E29" s="492"/>
-      <c r="F29" s="492"/>
-      <c r="I29" s="492" t="s">
+      <c r="C29" s="496"/>
+      <c r="D29" s="496"/>
+      <c r="E29" s="496"/>
+      <c r="F29" s="496"/>
+      <c r="I29" s="496" t="s">
         <v>1209</v>
       </c>
-      <c r="J29" s="492"/>
-      <c r="K29" s="492"/>
+      <c r="J29" s="496"/>
+      <c r="K29" s="496"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
@@ -32169,8 +32170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J143" sqref="J143:K153"/>
+    <sheetView topLeftCell="A179" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32210,18 +32211,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="499" t="s">
+      <c r="E6" s="505" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="432"/>
-      <c r="G6" s="431" t="s">
+      <c r="F6" s="436"/>
+      <c r="G6" s="435" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="431"/>
-      <c r="I6" s="431"/>
-      <c r="J6" s="431"/>
-      <c r="K6" s="431"/>
-      <c r="L6" s="432"/>
+      <c r="H6" s="435"/>
+      <c r="I6" s="435"/>
+      <c r="J6" s="435"/>
+      <c r="K6" s="435"/>
+      <c r="L6" s="436"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -32231,7 +32232,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="D7" s="493">
+      <c r="D7" s="500">
         <v>80</v>
       </c>
       <c r="E7" s="269"/>
@@ -32249,7 +32250,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="493"/>
+      <c r="D8" s="500"/>
       <c r="E8" s="266" t="s">
         <v>250</v>
       </c>
@@ -32281,7 +32282,7 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D9" s="493"/>
+      <c r="D9" s="500"/>
       <c r="E9" s="272"/>
       <c r="F9" s="273"/>
       <c r="G9" s="272"/>
@@ -32308,7 +32309,7 @@
       <c r="A10" t="s">
         <v>1278</v>
       </c>
-      <c r="D10" s="493"/>
+      <c r="D10" s="500"/>
       <c r="E10" s="269"/>
       <c r="F10" s="270"/>
       <c r="G10" s="269"/>
@@ -32332,7 +32333,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="493"/>
+      <c r="D11" s="500"/>
       <c r="E11" s="266" t="s">
         <v>254</v>
       </c>
@@ -32361,7 +32362,7 @@
       <c r="B12" s="165" t="s">
         <v>258</v>
       </c>
-      <c r="D12" s="493"/>
+      <c r="D12" s="500"/>
       <c r="E12" s="272"/>
       <c r="F12" s="273"/>
       <c r="G12" s="272"/>
@@ -32382,7 +32383,7 @@
       <c r="B13" t="s">
         <v>2155</v>
       </c>
-      <c r="D13" s="493"/>
+      <c r="D13" s="500"/>
       <c r="E13" s="269"/>
       <c r="F13" s="270"/>
       <c r="G13" s="269"/>
@@ -32401,7 +32402,7 @@
       <c r="B14" t="s">
         <v>2156</v>
       </c>
-      <c r="D14" s="493"/>
+      <c r="D14" s="500"/>
       <c r="E14" s="266" t="s">
         <v>259</v>
       </c>
@@ -32428,7 +32429,7 @@
       <c r="B15" t="s">
         <v>2157</v>
       </c>
-      <c r="D15" s="493"/>
+      <c r="D15" s="500"/>
       <c r="E15" s="272"/>
       <c r="F15" s="273"/>
       <c r="G15" s="272"/>
@@ -32444,7 +32445,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1">
-      <c r="D16" s="493"/>
+      <c r="D16" s="500"/>
       <c r="E16" s="269"/>
       <c r="F16" s="270"/>
       <c r="G16" s="274"/>
@@ -32460,7 +32461,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="493"/>
+      <c r="D17" s="500"/>
       <c r="E17" s="266" t="s">
         <v>263</v>
       </c>
@@ -32484,7 +32485,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="493"/>
+      <c r="D18" s="500"/>
       <c r="E18" s="272"/>
       <c r="F18" s="273"/>
       <c r="G18" s="275"/>
@@ -32501,20 +32502,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="500" t="s">
+      <c r="E19" s="506" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="501"/>
-      <c r="G19" s="500" t="s">
+      <c r="F19" s="507"/>
+      <c r="G19" s="506" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="501"/>
-      <c r="I19" s="500" t="s">
+      <c r="H19" s="507"/>
+      <c r="I19" s="506" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="502"/>
-      <c r="K19" s="502"/>
-      <c r="L19" s="501"/>
+      <c r="J19" s="508"/>
+      <c r="K19" s="508"/>
+      <c r="L19" s="507"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -32582,12 +32583,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="497"/>
-      <c r="H24" s="497"/>
-      <c r="I24" s="497"/>
-      <c r="J24" s="497"/>
-      <c r="K24" s="497"/>
-      <c r="L24" s="497"/>
+      <c r="G24" s="498"/>
+      <c r="H24" s="498"/>
+      <c r="I24" s="498"/>
+      <c r="J24" s="498"/>
+      <c r="K24" s="498"/>
+      <c r="L24" s="498"/>
       <c r="O24" s="35" t="s">
         <v>63</v>
       </c>
@@ -32958,9 +32959,9 @@
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="G47" s="178"/>
-      <c r="H47" s="494"/>
-      <c r="I47" s="495"/>
-      <c r="J47" s="496"/>
+      <c r="H47" s="501"/>
+      <c r="I47" s="502"/>
+      <c r="J47" s="503"/>
       <c r="L47" t="s">
         <v>520</v>
       </c>
@@ -33652,14 +33653,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="427" t="s">
+      <c r="F97" s="431" t="s">
         <v>1135</v>
       </c>
-      <c r="G97" s="492"/>
-      <c r="H97" s="492"/>
-      <c r="I97" s="492"/>
-      <c r="J97" s="492"/>
-      <c r="K97" s="498"/>
+      <c r="G97" s="496"/>
+      <c r="H97" s="496"/>
+      <c r="I97" s="496"/>
+      <c r="J97" s="496"/>
+      <c r="K97" s="504"/>
       <c r="L97" s="4" t="s">
         <v>1268</v>
       </c>
@@ -34036,14 +34037,14 @@
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="I128" s="4"/>
-      <c r="J128" s="601" t="s">
+      <c r="J128" s="499" t="s">
         <v>2186</v>
       </c>
-      <c r="K128" s="601"/>
-      <c r="L128" s="497" t="s">
+      <c r="K128" s="499"/>
+      <c r="L128" s="498" t="s">
         <v>1279</v>
       </c>
-      <c r="M128" s="497"/>
+      <c r="M128" s="498"/>
       <c r="N128" s="6"/>
     </row>
     <row r="129" spans="2:17">
@@ -34075,10 +34076,10 @@
       <c r="G130" s="24"/>
       <c r="H130" s="24"/>
       <c r="I130" s="112"/>
-      <c r="J130" s="602" t="s">
+      <c r="J130" s="421" t="s">
         <v>2194</v>
       </c>
-      <c r="K130" s="603"/>
+      <c r="K130" s="422"/>
       <c r="L130" s="112" t="s">
         <v>2199</v>
       </c>
@@ -34099,10 +34100,10 @@
       <c r="I131" s="112" t="s">
         <v>821</v>
       </c>
-      <c r="J131" s="602" t="s">
+      <c r="J131" s="421" t="s">
         <v>2195</v>
       </c>
-      <c r="K131" s="603"/>
+      <c r="K131" s="422"/>
       <c r="L131" s="112" t="s">
         <v>358</v>
       </c>
@@ -34169,7 +34170,7 @@
     <row r="134" spans="2:17">
       <c r="B134" s="112"/>
       <c r="C134" s="24"/>
-      <c r="D134" s="606" t="s">
+      <c r="D134" s="497" t="s">
         <v>2191</v>
       </c>
       <c r="E134" s="420" t="s">
@@ -34197,7 +34198,7 @@
     <row r="135" spans="2:17">
       <c r="B135" s="112"/>
       <c r="C135" s="24"/>
-      <c r="D135" s="606"/>
+      <c r="D135" s="497"/>
       <c r="E135" s="420"/>
       <c r="F135" s="26" t="s">
         <v>2192</v>
@@ -34207,10 +34208,10 @@
       <c r="I135" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="J135" s="602" t="s">
+      <c r="J135" s="421" t="s">
         <v>2197</v>
       </c>
-      <c r="K135" s="603"/>
+      <c r="K135" s="422"/>
       <c r="L135" s="112"/>
       <c r="M135" s="63"/>
       <c r="N135" s="63"/>
@@ -34221,7 +34222,7 @@
     <row r="136" spans="2:17" ht="15.75" thickBot="1">
       <c r="B136" s="112"/>
       <c r="C136" s="24"/>
-      <c r="D136" s="606"/>
+      <c r="D136" s="497"/>
       <c r="E136" s="420"/>
       <c r="F136" s="26" t="s">
         <v>2193</v>
@@ -34229,10 +34230,10 @@
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
       <c r="I136" s="112"/>
-      <c r="J136" s="604" t="s">
+      <c r="J136" s="423" t="s">
         <v>2198</v>
       </c>
-      <c r="K136" s="605"/>
+      <c r="K136" s="424"/>
       <c r="L136" s="127"/>
       <c r="M136" s="256"/>
       <c r="N136" s="63"/>
@@ -34243,7 +34244,7 @@
     <row r="137" spans="2:17" ht="15.75" thickBot="1">
       <c r="B137" s="127"/>
       <c r="C137" s="52"/>
-      <c r="D137" s="606"/>
+      <c r="D137" s="497"/>
       <c r="E137" s="420" t="s">
         <v>120</v>
       </c>
@@ -34353,14 +34354,14 @@
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="I143" s="4"/>
-      <c r="J143" s="601" t="s">
+      <c r="J143" s="499" t="s">
         <v>2186</v>
       </c>
-      <c r="K143" s="601"/>
-      <c r="L143" s="497" t="s">
+      <c r="K143" s="499"/>
+      <c r="L143" s="498" t="s">
         <v>1279</v>
       </c>
-      <c r="M143" s="497"/>
+      <c r="M143" s="498"/>
       <c r="N143" s="6"/>
       <c r="O143" s="24"/>
       <c r="P143" s="24"/>
@@ -34395,10 +34396,10 @@
       <c r="G145" s="24"/>
       <c r="H145" s="24"/>
       <c r="I145" s="112"/>
-      <c r="J145" s="602" t="s">
+      <c r="J145" s="421" t="s">
         <v>2216</v>
       </c>
-      <c r="K145" s="603"/>
+      <c r="K145" s="422"/>
       <c r="L145" s="112" t="s">
         <v>2203</v>
       </c>
@@ -34417,10 +34418,10 @@
       <c r="G146" s="24"/>
       <c r="H146" s="24"/>
       <c r="I146" s="112"/>
-      <c r="J146" s="602" t="s">
+      <c r="J146" s="421" t="s">
         <v>2217</v>
       </c>
-      <c r="K146" s="603"/>
+      <c r="K146" s="422"/>
       <c r="L146" s="112" t="s">
         <v>358</v>
       </c>
@@ -34487,7 +34488,7 @@
     <row r="149" spans="2:17">
       <c r="B149" s="112"/>
       <c r="C149" s="24"/>
-      <c r="D149" s="606"/>
+      <c r="D149" s="497"/>
       <c r="E149" s="267"/>
       <c r="F149" s="24"/>
       <c r="G149" s="24"/>
@@ -34511,7 +34512,7 @@
     <row r="150" spans="2:17">
       <c r="B150" s="112"/>
       <c r="C150" s="24"/>
-      <c r="D150" s="606"/>
+      <c r="D150" s="497"/>
       <c r="E150" s="290" t="s">
         <v>2221</v>
       </c>
@@ -34521,10 +34522,10 @@
       <c r="I150" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="J150" s="602" t="s">
+      <c r="J150" s="421" t="s">
         <v>2210</v>
       </c>
-      <c r="K150" s="603"/>
+      <c r="K150" s="422"/>
       <c r="L150" s="112" t="s">
         <v>2207</v>
       </c>
@@ -34537,7 +34538,7 @@
     <row r="151" spans="2:17" ht="15.75" thickBot="1">
       <c r="B151" s="112"/>
       <c r="C151" s="24"/>
-      <c r="D151" s="606"/>
+      <c r="D151" s="497"/>
       <c r="E151" s="267"/>
       <c r="F151" s="24" t="s">
         <v>358</v>
@@ -34545,10 +34546,10 @@
       <c r="G151" s="24"/>
       <c r="H151" s="24"/>
       <c r="I151" s="112"/>
-      <c r="J151" s="604" t="s">
+      <c r="J151" s="423" t="s">
         <v>2211</v>
       </c>
-      <c r="K151" s="605"/>
+      <c r="K151" s="424"/>
       <c r="L151" s="127" t="s">
         <v>2214</v>
       </c>
@@ -34561,7 +34562,7 @@
     <row r="152" spans="2:17" ht="15.75" thickBot="1">
       <c r="B152" s="127"/>
       <c r="C152" s="52"/>
-      <c r="D152" s="606"/>
+      <c r="D152" s="497"/>
       <c r="E152" s="267"/>
       <c r="F152" s="24" t="s">
         <v>2222</v>
@@ -36447,12 +36448,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="L143:M143"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
@@ -36462,6 +36457,12 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:L19"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="L143:M143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -36708,13 +36709,13 @@
       <c r="C20" s="96">
         <v>43908</v>
       </c>
-      <c r="D20" s="503" t="s">
+      <c r="D20" s="509" t="s">
         <v>296</v>
       </c>
-      <c r="E20" s="503"/>
-      <c r="F20" s="503"/>
-      <c r="G20" s="503"/>
-      <c r="H20" s="503"/>
+      <c r="E20" s="509"/>
+      <c r="F20" s="509"/>
+      <c r="G20" s="509"/>
+      <c r="H20" s="509"/>
       <c r="I20" s="33" t="s">
         <v>297</v>
       </c>
@@ -36725,37 +36726,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="505">
+      <c r="C21" s="520">
         <v>43909</v>
       </c>
-      <c r="D21" s="503"/>
-      <c r="E21" s="503"/>
-      <c r="F21" s="503"/>
-      <c r="G21" s="503"/>
-      <c r="H21" s="503"/>
+      <c r="D21" s="509"/>
+      <c r="E21" s="509"/>
+      <c r="F21" s="509"/>
+      <c r="G21" s="509"/>
+      <c r="H21" s="509"/>
       <c r="I21" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="J21" s="503"/>
-      <c r="K21" s="503"/>
-      <c r="L21" s="503" t="s">
+      <c r="J21" s="509"/>
+      <c r="K21" s="509"/>
+      <c r="L21" s="509" t="s">
         <v>299</v>
       </c>
-      <c r="M21" s="503"/>
-      <c r="N21" s="503"/>
+      <c r="M21" s="509"/>
+      <c r="N21" s="509"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="505"/>
-      <c r="D22" s="503"/>
-      <c r="E22" s="503"/>
-      <c r="F22" s="503"/>
-      <c r="G22" s="503"/>
-      <c r="H22" s="503"/>
-      <c r="I22" s="504" t="s">
+      <c r="C22" s="520"/>
+      <c r="D22" s="509"/>
+      <c r="E22" s="509"/>
+      <c r="F22" s="509"/>
+      <c r="G22" s="509"/>
+      <c r="H22" s="509"/>
+      <c r="I22" s="524" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="503"/>
-      <c r="K22" s="503"/>
+      <c r="J22" s="509"/>
+      <c r="K22" s="509"/>
       <c r="L22" s="97" t="s">
         <v>301</v>
       </c>
@@ -36763,31 +36764,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="505"/>
-      <c r="D23" s="503"/>
-      <c r="E23" s="503"/>
-      <c r="F23" s="503"/>
-      <c r="G23" s="503"/>
-      <c r="H23" s="503"/>
-      <c r="I23" s="504"/>
-      <c r="J23" s="503"/>
-      <c r="K23" s="503"/>
-      <c r="L23" s="503" t="s">
+      <c r="C23" s="520"/>
+      <c r="D23" s="509"/>
+      <c r="E23" s="509"/>
+      <c r="F23" s="509"/>
+      <c r="G23" s="509"/>
+      <c r="H23" s="509"/>
+      <c r="I23" s="524"/>
+      <c r="J23" s="509"/>
+      <c r="K23" s="509"/>
+      <c r="L23" s="509" t="s">
         <v>302</v>
       </c>
-      <c r="M23" s="503"/>
-      <c r="N23" s="503"/>
+      <c r="M23" s="509"/>
+      <c r="N23" s="509"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="505"/>
-      <c r="D24" s="503"/>
-      <c r="E24" s="503"/>
-      <c r="F24" s="503"/>
-      <c r="G24" s="503"/>
-      <c r="H24" s="503"/>
-      <c r="I24" s="504"/>
-      <c r="J24" s="503"/>
-      <c r="K24" s="503"/>
+      <c r="C24" s="520"/>
+      <c r="D24" s="509"/>
+      <c r="E24" s="509"/>
+      <c r="F24" s="509"/>
+      <c r="G24" s="509"/>
+      <c r="H24" s="509"/>
+      <c r="I24" s="524"/>
+      <c r="J24" s="509"/>
+      <c r="K24" s="509"/>
       <c r="L24" s="98" t="s">
         <v>300</v>
       </c>
@@ -36798,13 +36799,13 @@
       <c r="C25" s="96">
         <v>43910</v>
       </c>
-      <c r="D25" s="503" t="s">
+      <c r="D25" s="509" t="s">
         <v>303</v>
       </c>
-      <c r="E25" s="503"/>
-      <c r="F25" s="503"/>
-      <c r="G25" s="503"/>
-      <c r="H25" s="503"/>
+      <c r="E25" s="509"/>
+      <c r="F25" s="509"/>
+      <c r="G25" s="509"/>
+      <c r="H25" s="509"/>
       <c r="I25" s="33" t="s">
         <v>304</v>
       </c>
@@ -36818,16 +36819,16 @@
       <c r="C26" s="96">
         <v>43911</v>
       </c>
-      <c r="D26" s="506"/>
-      <c r="E26" s="507"/>
-      <c r="F26" s="507"/>
-      <c r="G26" s="507"/>
-      <c r="H26" s="508"/>
-      <c r="I26" s="513" t="s">
+      <c r="D26" s="510"/>
+      <c r="E26" s="511"/>
+      <c r="F26" s="511"/>
+      <c r="G26" s="511"/>
+      <c r="H26" s="512"/>
+      <c r="I26" s="517" t="s">
         <v>300</v>
       </c>
-      <c r="J26" s="506"/>
-      <c r="K26" s="508"/>
+      <c r="J26" s="510"/>
+      <c r="K26" s="512"/>
       <c r="L26" s="97" t="s">
         <v>301</v>
       </c>
@@ -36836,30 +36837,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="509"/>
-      <c r="E27" s="497"/>
-      <c r="F27" s="497"/>
-      <c r="G27" s="497"/>
-      <c r="H27" s="510"/>
-      <c r="I27" s="514"/>
-      <c r="J27" s="509"/>
-      <c r="K27" s="510"/>
-      <c r="L27" s="503" t="s">
+      <c r="D27" s="513"/>
+      <c r="E27" s="498"/>
+      <c r="F27" s="498"/>
+      <c r="G27" s="498"/>
+      <c r="H27" s="514"/>
+      <c r="I27" s="518"/>
+      <c r="J27" s="513"/>
+      <c r="K27" s="514"/>
+      <c r="L27" s="509" t="s">
         <v>305</v>
       </c>
-      <c r="M27" s="503"/>
-      <c r="N27" s="503"/>
+      <c r="M27" s="509"/>
+      <c r="N27" s="509"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="509"/>
-      <c r="E28" s="497"/>
-      <c r="F28" s="497"/>
-      <c r="G28" s="497"/>
-      <c r="H28" s="510"/>
-      <c r="I28" s="514"/>
-      <c r="J28" s="509"/>
-      <c r="K28" s="510"/>
+      <c r="D28" s="513"/>
+      <c r="E28" s="498"/>
+      <c r="F28" s="498"/>
+      <c r="G28" s="498"/>
+      <c r="H28" s="514"/>
+      <c r="I28" s="518"/>
+      <c r="J28" s="513"/>
+      <c r="K28" s="514"/>
       <c r="L28" s="98" t="s">
         <v>300</v>
       </c>
@@ -36868,14 +36869,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="511"/>
-      <c r="E29" s="490"/>
-      <c r="F29" s="490"/>
-      <c r="G29" s="490"/>
-      <c r="H29" s="512"/>
-      <c r="I29" s="515"/>
-      <c r="J29" s="511"/>
-      <c r="K29" s="512"/>
+      <c r="D29" s="515"/>
+      <c r="E29" s="494"/>
+      <c r="F29" s="494"/>
+      <c r="G29" s="494"/>
+      <c r="H29" s="516"/>
+      <c r="I29" s="519"/>
+      <c r="J29" s="515"/>
+      <c r="K29" s="516"/>
       <c r="L29" s="99" t="s">
         <v>306</v>
       </c>
@@ -36923,13 +36924,13 @@
       <c r="C33" s="96">
         <v>43908</v>
       </c>
-      <c r="D33" s="503" t="s">
+      <c r="D33" s="509" t="s">
         <v>296</v>
       </c>
-      <c r="E33" s="503"/>
-      <c r="F33" s="503"/>
-      <c r="G33" s="503"/>
-      <c r="H33" s="503"/>
+      <c r="E33" s="509"/>
+      <c r="F33" s="509"/>
+      <c r="G33" s="509"/>
+      <c r="H33" s="509"/>
       <c r="I33" s="33" t="s">
         <v>297</v>
       </c>
@@ -36940,33 +36941,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="505">
+      <c r="C34" s="520">
         <v>43909</v>
       </c>
-      <c r="D34" s="503"/>
-      <c r="E34" s="503"/>
-      <c r="F34" s="503"/>
-      <c r="G34" s="503"/>
-      <c r="H34" s="503"/>
-      <c r="I34" s="516"/>
-      <c r="J34" s="503"/>
-      <c r="K34" s="503"/>
-      <c r="L34" s="503" t="s">
+      <c r="D34" s="509"/>
+      <c r="E34" s="509"/>
+      <c r="F34" s="509"/>
+      <c r="G34" s="509"/>
+      <c r="H34" s="509"/>
+      <c r="I34" s="521"/>
+      <c r="J34" s="509"/>
+      <c r="K34" s="509"/>
+      <c r="L34" s="509" t="s">
         <v>299</v>
       </c>
-      <c r="M34" s="503"/>
-      <c r="N34" s="503"/>
+      <c r="M34" s="509"/>
+      <c r="N34" s="509"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="505"/>
-      <c r="D35" s="503"/>
-      <c r="E35" s="503"/>
-      <c r="F35" s="503"/>
-      <c r="G35" s="503"/>
-      <c r="H35" s="503"/>
-      <c r="I35" s="517"/>
-      <c r="J35" s="503"/>
-      <c r="K35" s="503"/>
+      <c r="C35" s="520"/>
+      <c r="D35" s="509"/>
+      <c r="E35" s="509"/>
+      <c r="F35" s="509"/>
+      <c r="G35" s="509"/>
+      <c r="H35" s="509"/>
+      <c r="I35" s="522"/>
+      <c r="J35" s="509"/>
+      <c r="K35" s="509"/>
       <c r="L35" s="97" t="s">
         <v>301</v>
       </c>
@@ -36974,31 +36975,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="505"/>
-      <c r="D36" s="503"/>
-      <c r="E36" s="503"/>
-      <c r="F36" s="503"/>
-      <c r="G36" s="503"/>
-      <c r="H36" s="503"/>
-      <c r="I36" s="517"/>
-      <c r="J36" s="503"/>
-      <c r="K36" s="503"/>
-      <c r="L36" s="503" t="s">
+      <c r="C36" s="520"/>
+      <c r="D36" s="509"/>
+      <c r="E36" s="509"/>
+      <c r="F36" s="509"/>
+      <c r="G36" s="509"/>
+      <c r="H36" s="509"/>
+      <c r="I36" s="522"/>
+      <c r="J36" s="509"/>
+      <c r="K36" s="509"/>
+      <c r="L36" s="509" t="s">
         <v>302</v>
       </c>
-      <c r="M36" s="503"/>
-      <c r="N36" s="503"/>
+      <c r="M36" s="509"/>
+      <c r="N36" s="509"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="505"/>
-      <c r="D37" s="503"/>
-      <c r="E37" s="503"/>
-      <c r="F37" s="503"/>
-      <c r="G37" s="503"/>
-      <c r="H37" s="503"/>
-      <c r="I37" s="518"/>
-      <c r="J37" s="503"/>
-      <c r="K37" s="503"/>
+      <c r="C37" s="520"/>
+      <c r="D37" s="509"/>
+      <c r="E37" s="509"/>
+      <c r="F37" s="509"/>
+      <c r="G37" s="509"/>
+      <c r="H37" s="509"/>
+      <c r="I37" s="523"/>
+      <c r="J37" s="509"/>
+      <c r="K37" s="509"/>
       <c r="L37" s="98" t="s">
         <v>307</v>
       </c>
@@ -37009,13 +37010,13 @@
       <c r="C38" s="96">
         <v>43910</v>
       </c>
-      <c r="D38" s="503" t="s">
+      <c r="D38" s="509" t="s">
         <v>303</v>
       </c>
-      <c r="E38" s="503"/>
-      <c r="F38" s="503"/>
-      <c r="G38" s="503"/>
-      <c r="H38" s="503"/>
+      <c r="E38" s="509"/>
+      <c r="F38" s="509"/>
+      <c r="G38" s="509"/>
+      <c r="H38" s="509"/>
       <c r="I38" s="33" t="s">
         <v>304</v>
       </c>
@@ -37029,14 +37030,14 @@
       <c r="C39" s="96">
         <v>43911</v>
       </c>
-      <c r="D39" s="506"/>
-      <c r="E39" s="507"/>
-      <c r="F39" s="507"/>
-      <c r="G39" s="507"/>
-      <c r="H39" s="508"/>
-      <c r="I39" s="513"/>
-      <c r="J39" s="506"/>
-      <c r="K39" s="508"/>
+      <c r="D39" s="510"/>
+      <c r="E39" s="511"/>
+      <c r="F39" s="511"/>
+      <c r="G39" s="511"/>
+      <c r="H39" s="512"/>
+      <c r="I39" s="517"/>
+      <c r="J39" s="510"/>
+      <c r="K39" s="512"/>
       <c r="L39" s="97" t="s">
         <v>301</v>
       </c>
@@ -37045,30 +37046,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="509"/>
-      <c r="E40" s="497"/>
-      <c r="F40" s="497"/>
-      <c r="G40" s="497"/>
-      <c r="H40" s="510"/>
-      <c r="I40" s="514"/>
-      <c r="J40" s="509"/>
-      <c r="K40" s="510"/>
-      <c r="L40" s="503" t="s">
+      <c r="D40" s="513"/>
+      <c r="E40" s="498"/>
+      <c r="F40" s="498"/>
+      <c r="G40" s="498"/>
+      <c r="H40" s="514"/>
+      <c r="I40" s="518"/>
+      <c r="J40" s="513"/>
+      <c r="K40" s="514"/>
+      <c r="L40" s="509" t="s">
         <v>305</v>
       </c>
-      <c r="M40" s="503"/>
-      <c r="N40" s="503"/>
+      <c r="M40" s="509"/>
+      <c r="N40" s="509"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="509"/>
-      <c r="E41" s="497"/>
-      <c r="F41" s="497"/>
-      <c r="G41" s="497"/>
-      <c r="H41" s="510"/>
-      <c r="I41" s="515"/>
-      <c r="J41" s="509"/>
-      <c r="K41" s="510"/>
+      <c r="D41" s="513"/>
+      <c r="E41" s="498"/>
+      <c r="F41" s="498"/>
+      <c r="G41" s="498"/>
+      <c r="H41" s="514"/>
+      <c r="I41" s="519"/>
+      <c r="J41" s="513"/>
+      <c r="K41" s="514"/>
       <c r="L41" s="98" t="s">
         <v>307</v>
       </c>
@@ -37077,16 +37078,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="511"/>
-      <c r="E42" s="490"/>
-      <c r="F42" s="490"/>
-      <c r="G42" s="490"/>
-      <c r="H42" s="512"/>
+      <c r="D42" s="515"/>
+      <c r="E42" s="494"/>
+      <c r="F42" s="494"/>
+      <c r="G42" s="494"/>
+      <c r="H42" s="516"/>
       <c r="I42" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="J42" s="511"/>
-      <c r="K42" s="512"/>
+      <c r="J42" s="515"/>
+      <c r="K42" s="516"/>
       <c r="L42" s="99" t="s">
         <v>306</v>
       </c>
@@ -37398,17 +37399,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -37416,12 +37412,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37443,29 +37444,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="529" t="s">
+      <c r="B2" s="541" t="s">
         <v>762</v>
       </c>
-      <c r="C2" s="529"/>
-      <c r="D2" s="529"/>
-      <c r="E2" s="529"/>
-      <c r="F2" s="529"/>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
-      <c r="I2" s="529"/>
-      <c r="J2" s="529"/>
-      <c r="K2" s="529"/>
-      <c r="L2" s="529"/>
-      <c r="M2" s="529"/>
-      <c r="N2" s="529"/>
-      <c r="O2" s="529"/>
-      <c r="P2" s="529"/>
-      <c r="Q2" s="529"/>
-      <c r="R2" s="529"/>
-      <c r="S2" s="529"/>
-      <c r="T2" s="529"/>
-      <c r="U2" s="529"/>
-      <c r="V2" s="529"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="541"/>
+      <c r="E2" s="541"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
+      <c r="H2" s="541"/>
+      <c r="I2" s="541"/>
+      <c r="J2" s="541"/>
+      <c r="K2" s="541"/>
+      <c r="L2" s="541"/>
+      <c r="M2" s="541"/>
+      <c r="N2" s="541"/>
+      <c r="O2" s="541"/>
+      <c r="P2" s="541"/>
+      <c r="Q2" s="541"/>
+      <c r="R2" s="541"/>
+      <c r="S2" s="541"/>
+      <c r="T2" s="541"/>
+      <c r="U2" s="541"/>
+      <c r="V2" s="541"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -37498,22 +37499,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="532" t="s">
+      <c r="G5" s="525" t="s">
         <v>328</v>
       </c>
-      <c r="H5" s="532"/>
-      <c r="I5" s="532" t="s">
+      <c r="H5" s="525"/>
+      <c r="I5" s="525" t="s">
         <v>329</v>
       </c>
-      <c r="J5" s="532"/>
-      <c r="K5" s="532"/>
-      <c r="L5" s="532"/>
-      <c r="M5" s="532"/>
-      <c r="N5" s="532"/>
-      <c r="O5" s="532" t="s">
+      <c r="J5" s="525"/>
+      <c r="K5" s="525"/>
+      <c r="L5" s="525"/>
+      <c r="M5" s="525"/>
+      <c r="N5" s="525"/>
+      <c r="O5" s="525" t="s">
         <v>330</v>
       </c>
-      <c r="P5" s="532"/>
+      <c r="P5" s="525"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -37525,7 +37526,7 @@
       <c r="D6" s="113"/>
       <c r="E6" s="114"/>
       <c r="F6" s="116"/>
-      <c r="G6" s="537" t="s">
+      <c r="G6" s="526" t="s">
         <v>331</v>
       </c>
       <c r="H6" s="91"/>
@@ -37554,26 +37555,26 @@
       </c>
       <c r="E7" s="116"/>
       <c r="F7" s="116"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="538" t="s">
+      <c r="G7" s="463"/>
+      <c r="H7" s="527" t="s">
         <v>333</v>
       </c>
-      <c r="I7" s="541" t="s">
+      <c r="I7" s="530" t="s">
         <v>334</v>
       </c>
-      <c r="J7" s="542"/>
-      <c r="K7" s="466" t="s">
+      <c r="J7" s="531"/>
+      <c r="K7" s="470" t="s">
         <v>335</v>
       </c>
-      <c r="L7" s="543"/>
-      <c r="M7" s="541" t="s">
+      <c r="L7" s="532"/>
+      <c r="M7" s="530" t="s">
         <v>336</v>
       </c>
-      <c r="N7" s="542"/>
-      <c r="O7" s="546" t="s">
+      <c r="N7" s="531"/>
+      <c r="O7" s="535" t="s">
         <v>337</v>
       </c>
-      <c r="P7" s="547"/>
+      <c r="P7" s="536"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -37585,16 +37586,16 @@
       <c r="D8" s="117"/>
       <c r="E8" s="118"/>
       <c r="F8" s="116"/>
-      <c r="G8" s="446"/>
-      <c r="H8" s="539"/>
-      <c r="I8" s="455"/>
-      <c r="J8" s="456"/>
-      <c r="K8" s="467"/>
-      <c r="L8" s="544"/>
-      <c r="M8" s="455"/>
-      <c r="N8" s="456"/>
-      <c r="O8" s="548"/>
-      <c r="P8" s="549"/>
+      <c r="G8" s="463"/>
+      <c r="H8" s="528"/>
+      <c r="I8" s="441"/>
+      <c r="J8" s="443"/>
+      <c r="K8" s="471"/>
+      <c r="L8" s="533"/>
+      <c r="M8" s="441"/>
+      <c r="N8" s="443"/>
+      <c r="O8" s="537"/>
+      <c r="P8" s="538"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>66</v>
@@ -37612,16 +37613,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="446"/>
-      <c r="H9" s="539"/>
-      <c r="I9" s="455"/>
-      <c r="J9" s="456"/>
-      <c r="K9" s="467"/>
-      <c r="L9" s="544"/>
-      <c r="M9" s="455"/>
-      <c r="N9" s="456"/>
-      <c r="O9" s="548"/>
-      <c r="P9" s="549"/>
+      <c r="G9" s="463"/>
+      <c r="H9" s="528"/>
+      <c r="I9" s="441"/>
+      <c r="J9" s="443"/>
+      <c r="K9" s="471"/>
+      <c r="L9" s="533"/>
+      <c r="M9" s="441"/>
+      <c r="N9" s="443"/>
+      <c r="O9" s="537"/>
+      <c r="P9" s="538"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -37641,16 +37642,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="446"/>
-      <c r="H10" s="539"/>
-      <c r="I10" s="455"/>
-      <c r="J10" s="456"/>
-      <c r="K10" s="467"/>
-      <c r="L10" s="544"/>
-      <c r="M10" s="455"/>
-      <c r="N10" s="456"/>
-      <c r="O10" s="548"/>
-      <c r="P10" s="549"/>
+      <c r="G10" s="463"/>
+      <c r="H10" s="528"/>
+      <c r="I10" s="441"/>
+      <c r="J10" s="443"/>
+      <c r="K10" s="471"/>
+      <c r="L10" s="533"/>
+      <c r="M10" s="441"/>
+      <c r="N10" s="443"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="538"/>
       <c r="Q10" s="5" t="s">
         <v>71</v>
       </c>
@@ -37666,16 +37667,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="446"/>
-      <c r="H11" s="539"/>
-      <c r="I11" s="455"/>
-      <c r="J11" s="456"/>
-      <c r="K11" s="467"/>
-      <c r="L11" s="544"/>
-      <c r="M11" s="455"/>
-      <c r="N11" s="456"/>
-      <c r="O11" s="548"/>
-      <c r="P11" s="549"/>
+      <c r="G11" s="463"/>
+      <c r="H11" s="528"/>
+      <c r="I11" s="441"/>
+      <c r="J11" s="443"/>
+      <c r="K11" s="471"/>
+      <c r="L11" s="533"/>
+      <c r="M11" s="441"/>
+      <c r="N11" s="443"/>
+      <c r="O11" s="537"/>
+      <c r="P11" s="538"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -37693,16 +37694,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="446"/>
-      <c r="H12" s="539"/>
-      <c r="I12" s="455"/>
-      <c r="J12" s="456"/>
-      <c r="K12" s="467"/>
-      <c r="L12" s="544"/>
-      <c r="M12" s="455"/>
-      <c r="N12" s="456"/>
-      <c r="O12" s="548"/>
-      <c r="P12" s="549"/>
+      <c r="G12" s="463"/>
+      <c r="H12" s="528"/>
+      <c r="I12" s="441"/>
+      <c r="J12" s="443"/>
+      <c r="K12" s="471"/>
+      <c r="L12" s="533"/>
+      <c r="M12" s="441"/>
+      <c r="N12" s="443"/>
+      <c r="O12" s="537"/>
+      <c r="P12" s="538"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -37716,16 +37717,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="446"/>
-      <c r="H13" s="539"/>
-      <c r="I13" s="455"/>
-      <c r="J13" s="456"/>
-      <c r="K13" s="467"/>
-      <c r="L13" s="544"/>
-      <c r="M13" s="455"/>
-      <c r="N13" s="456"/>
-      <c r="O13" s="548"/>
-      <c r="P13" s="549"/>
+      <c r="G13" s="463"/>
+      <c r="H13" s="528"/>
+      <c r="I13" s="441"/>
+      <c r="J13" s="443"/>
+      <c r="K13" s="471"/>
+      <c r="L13" s="533"/>
+      <c r="M13" s="441"/>
+      <c r="N13" s="443"/>
+      <c r="O13" s="537"/>
+      <c r="P13" s="538"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -37737,16 +37738,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="446"/>
-      <c r="H14" s="539"/>
-      <c r="I14" s="455"/>
-      <c r="J14" s="456"/>
-      <c r="K14" s="467"/>
-      <c r="L14" s="544"/>
-      <c r="M14" s="455"/>
-      <c r="N14" s="456"/>
-      <c r="O14" s="548"/>
-      <c r="P14" s="549"/>
+      <c r="G14" s="463"/>
+      <c r="H14" s="528"/>
+      <c r="I14" s="441"/>
+      <c r="J14" s="443"/>
+      <c r="K14" s="471"/>
+      <c r="L14" s="533"/>
+      <c r="M14" s="441"/>
+      <c r="N14" s="443"/>
+      <c r="O14" s="537"/>
+      <c r="P14" s="538"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -37760,16 +37761,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="446"/>
-      <c r="H15" s="539"/>
-      <c r="I15" s="455"/>
-      <c r="J15" s="456"/>
-      <c r="K15" s="467"/>
-      <c r="L15" s="544"/>
-      <c r="M15" s="455"/>
-      <c r="N15" s="456"/>
-      <c r="O15" s="548"/>
-      <c r="P15" s="549"/>
+      <c r="G15" s="463"/>
+      <c r="H15" s="528"/>
+      <c r="I15" s="441"/>
+      <c r="J15" s="443"/>
+      <c r="K15" s="471"/>
+      <c r="L15" s="533"/>
+      <c r="M15" s="441"/>
+      <c r="N15" s="443"/>
+      <c r="O15" s="537"/>
+      <c r="P15" s="538"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -37781,16 +37782,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="446"/>
-      <c r="H16" s="539"/>
-      <c r="I16" s="455"/>
-      <c r="J16" s="456"/>
-      <c r="K16" s="467"/>
-      <c r="L16" s="544"/>
-      <c r="M16" s="455"/>
-      <c r="N16" s="456"/>
-      <c r="O16" s="548"/>
-      <c r="P16" s="549"/>
+      <c r="G16" s="463"/>
+      <c r="H16" s="528"/>
+      <c r="I16" s="441"/>
+      <c r="J16" s="443"/>
+      <c r="K16" s="471"/>
+      <c r="L16" s="533"/>
+      <c r="M16" s="441"/>
+      <c r="N16" s="443"/>
+      <c r="O16" s="537"/>
+      <c r="P16" s="538"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -37802,16 +37803,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="446"/>
-      <c r="H17" s="539"/>
-      <c r="I17" s="455"/>
-      <c r="J17" s="456"/>
-      <c r="K17" s="467"/>
-      <c r="L17" s="544"/>
-      <c r="M17" s="455"/>
-      <c r="N17" s="456"/>
-      <c r="O17" s="548"/>
-      <c r="P17" s="549"/>
+      <c r="G17" s="463"/>
+      <c r="H17" s="528"/>
+      <c r="I17" s="441"/>
+      <c r="J17" s="443"/>
+      <c r="K17" s="471"/>
+      <c r="L17" s="533"/>
+      <c r="M17" s="441"/>
+      <c r="N17" s="443"/>
+      <c r="O17" s="537"/>
+      <c r="P17" s="538"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -37823,16 +37824,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="446"/>
-      <c r="H18" s="539"/>
-      <c r="I18" s="455"/>
-      <c r="J18" s="456"/>
-      <c r="K18" s="467"/>
-      <c r="L18" s="544"/>
-      <c r="M18" s="455"/>
-      <c r="N18" s="456"/>
-      <c r="O18" s="548"/>
-      <c r="P18" s="549"/>
+      <c r="G18" s="463"/>
+      <c r="H18" s="528"/>
+      <c r="I18" s="441"/>
+      <c r="J18" s="443"/>
+      <c r="K18" s="471"/>
+      <c r="L18" s="533"/>
+      <c r="M18" s="441"/>
+      <c r="N18" s="443"/>
+      <c r="O18" s="537"/>
+      <c r="P18" s="538"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -37846,16 +37847,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="446"/>
-      <c r="H19" s="539"/>
-      <c r="I19" s="455"/>
-      <c r="J19" s="456"/>
-      <c r="K19" s="467"/>
-      <c r="L19" s="544"/>
-      <c r="M19" s="455"/>
-      <c r="N19" s="456"/>
-      <c r="O19" s="548"/>
-      <c r="P19" s="549"/>
+      <c r="G19" s="463"/>
+      <c r="H19" s="528"/>
+      <c r="I19" s="441"/>
+      <c r="J19" s="443"/>
+      <c r="K19" s="471"/>
+      <c r="L19" s="533"/>
+      <c r="M19" s="441"/>
+      <c r="N19" s="443"/>
+      <c r="O19" s="537"/>
+      <c r="P19" s="538"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -37867,16 +37868,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="447"/>
-      <c r="H20" s="540"/>
-      <c r="I20" s="457"/>
-      <c r="J20" s="459"/>
-      <c r="K20" s="468"/>
-      <c r="L20" s="545"/>
-      <c r="M20" s="457"/>
-      <c r="N20" s="459"/>
-      <c r="O20" s="550"/>
-      <c r="P20" s="551"/>
+      <c r="G20" s="464"/>
+      <c r="H20" s="529"/>
+      <c r="I20" s="444"/>
+      <c r="J20" s="446"/>
+      <c r="K20" s="472"/>
+      <c r="L20" s="534"/>
+      <c r="M20" s="444"/>
+      <c r="N20" s="446"/>
+      <c r="O20" s="539"/>
+      <c r="P20" s="540"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -37906,27 +37907,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="443" t="s">
+      <c r="D22" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="444"/>
+      <c r="E22" s="448"/>
       <c r="F22" s="207"/>
       <c r="G22" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="443" t="s">
+      <c r="H22" s="447" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="460"/>
-      <c r="J22" s="460"/>
-      <c r="K22" s="460"/>
-      <c r="L22" s="460"/>
-      <c r="M22" s="460"/>
-      <c r="N22" s="444"/>
-      <c r="O22" s="443" t="s">
+      <c r="I22" s="449"/>
+      <c r="J22" s="449"/>
+      <c r="K22" s="449"/>
+      <c r="L22" s="449"/>
+      <c r="M22" s="449"/>
+      <c r="N22" s="448"/>
+      <c r="O22" s="447" t="s">
         <v>338</v>
       </c>
-      <c r="P22" s="444"/>
+      <c r="P22" s="448"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -37957,59 +37958,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="529" t="s">
+      <c r="B25" s="541" t="s">
         <v>761</v>
       </c>
-      <c r="C25" s="529"/>
-      <c r="D25" s="529"/>
-      <c r="E25" s="529"/>
-      <c r="F25" s="529"/>
-      <c r="G25" s="529"/>
-      <c r="H25" s="529"/>
-      <c r="I25" s="529"/>
-      <c r="J25" s="529"/>
-      <c r="K25" s="529"/>
-      <c r="L25" s="529"/>
-      <c r="M25" s="529"/>
-      <c r="N25" s="529"/>
-      <c r="O25" s="529"/>
-      <c r="P25" s="529"/>
-      <c r="Q25" s="529"/>
-      <c r="R25" s="529"/>
-      <c r="S25" s="529"/>
-      <c r="T25" s="529"/>
-      <c r="U25" s="529"/>
-      <c r="V25" s="529"/>
+      <c r="C25" s="541"/>
+      <c r="D25" s="541"/>
+      <c r="E25" s="541"/>
+      <c r="F25" s="541"/>
+      <c r="G25" s="541"/>
+      <c r="H25" s="541"/>
+      <c r="I25" s="541"/>
+      <c r="J25" s="541"/>
+      <c r="K25" s="541"/>
+      <c r="L25" s="541"/>
+      <c r="M25" s="541"/>
+      <c r="N25" s="541"/>
+      <c r="O25" s="541"/>
+      <c r="P25" s="541"/>
+      <c r="Q25" s="541"/>
+      <c r="R25" s="541"/>
+      <c r="S25" s="541"/>
+      <c r="T25" s="541"/>
+      <c r="U25" s="541"/>
+      <c r="V25" s="541"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="530" t="s">
+      <c r="C26" s="542" t="s">
         <v>365</v>
       </c>
-      <c r="D26" s="530"/>
-      <c r="E26" s="530"/>
-      <c r="F26" s="530"/>
-      <c r="G26" s="530"/>
-      <c r="H26" s="530"/>
-      <c r="I26" s="530"/>
-      <c r="J26" s="530"/>
-      <c r="K26" s="530"/>
-      <c r="L26" s="530"/>
-      <c r="M26" s="530"/>
+      <c r="D26" s="542"/>
+      <c r="E26" s="542"/>
+      <c r="F26" s="542"/>
+      <c r="G26" s="542"/>
+      <c r="H26" s="542"/>
+      <c r="I26" s="542"/>
+      <c r="J26" s="542"/>
+      <c r="K26" s="542"/>
+      <c r="L26" s="542"/>
+      <c r="M26" s="542"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="440" t="s">
+      <c r="E27" s="459" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="441"/>
-      <c r="G27" s="441"/>
-      <c r="H27" s="422"/>
-      <c r="I27" s="422"/>
-      <c r="J27" s="422"/>
-      <c r="K27" s="422"/>
-      <c r="L27" s="422"/>
-      <c r="M27" s="423"/>
+      <c r="F27" s="460"/>
+      <c r="G27" s="460"/>
+      <c r="H27" s="426"/>
+      <c r="I27" s="426"/>
+      <c r="J27" s="426"/>
+      <c r="K27" s="426"/>
+      <c r="L27" s="426"/>
+      <c r="M27" s="427"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -38042,11 +38043,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="531" t="s">
+      <c r="O29" s="543" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="531"/>
-      <c r="Q29" s="531"/>
+      <c r="P29" s="543"/>
+      <c r="Q29" s="543"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -38091,21 +38092,21 @@
         <v>74</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="526" t="s">
+      <c r="E32" s="547" t="s">
         <v>765</v>
       </c>
-      <c r="F32" s="527"/>
-      <c r="G32" s="528"/>
-      <c r="H32" s="526" t="s">
+      <c r="F32" s="548"/>
+      <c r="G32" s="549"/>
+      <c r="H32" s="547" t="s">
         <v>766</v>
       </c>
-      <c r="I32" s="527"/>
-      <c r="J32" s="528"/>
-      <c r="K32" s="526" t="s">
+      <c r="I32" s="548"/>
+      <c r="J32" s="549"/>
+      <c r="K32" s="547" t="s">
         <v>767</v>
       </c>
-      <c r="L32" s="527"/>
-      <c r="M32" s="528"/>
+      <c r="L32" s="548"/>
+      <c r="M32" s="549"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -38122,15 +38123,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="526"/>
-      <c r="F33" s="527"/>
-      <c r="G33" s="528"/>
-      <c r="H33" s="526"/>
-      <c r="I33" s="527"/>
-      <c r="J33" s="528"/>
-      <c r="K33" s="526"/>
-      <c r="L33" s="527"/>
-      <c r="M33" s="528"/>
+      <c r="E33" s="547"/>
+      <c r="F33" s="548"/>
+      <c r="G33" s="549"/>
+      <c r="H33" s="547"/>
+      <c r="I33" s="548"/>
+      <c r="J33" s="549"/>
+      <c r="K33" s="547"/>
+      <c r="L33" s="548"/>
+      <c r="M33" s="549"/>
       <c r="N33" s="5" t="s">
         <v>71</v>
       </c>
@@ -38147,15 +38148,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="526"/>
-      <c r="F34" s="527"/>
-      <c r="G34" s="528"/>
-      <c r="H34" s="526"/>
-      <c r="I34" s="527"/>
-      <c r="J34" s="528"/>
-      <c r="K34" s="526"/>
-      <c r="L34" s="527"/>
-      <c r="M34" s="528"/>
+      <c r="E34" s="547"/>
+      <c r="F34" s="548"/>
+      <c r="G34" s="549"/>
+      <c r="H34" s="547"/>
+      <c r="I34" s="548"/>
+      <c r="J34" s="549"/>
+      <c r="K34" s="547"/>
+      <c r="L34" s="548"/>
+      <c r="M34" s="549"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -38166,15 +38167,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="526"/>
-      <c r="F35" s="527"/>
-      <c r="G35" s="528"/>
-      <c r="H35" s="526"/>
-      <c r="I35" s="527"/>
-      <c r="J35" s="528"/>
-      <c r="K35" s="526"/>
-      <c r="L35" s="527"/>
-      <c r="M35" s="528"/>
+      <c r="E35" s="547"/>
+      <c r="F35" s="548"/>
+      <c r="G35" s="549"/>
+      <c r="H35" s="547"/>
+      <c r="I35" s="548"/>
+      <c r="J35" s="549"/>
+      <c r="K35" s="547"/>
+      <c r="L35" s="548"/>
+      <c r="M35" s="549"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -38305,15 +38306,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="519"/>
-      <c r="F42" s="520"/>
-      <c r="G42" s="520"/>
-      <c r="H42" s="520"/>
-      <c r="I42" s="520"/>
-      <c r="J42" s="520"/>
-      <c r="K42" s="520"/>
-      <c r="L42" s="520"/>
-      <c r="M42" s="521"/>
+      <c r="E42" s="551"/>
+      <c r="F42" s="552"/>
+      <c r="G42" s="552"/>
+      <c r="H42" s="552"/>
+      <c r="I42" s="552"/>
+      <c r="J42" s="552"/>
+      <c r="K42" s="552"/>
+      <c r="L42" s="552"/>
+      <c r="M42" s="553"/>
       <c r="N42" s="35" t="s">
         <v>370</v>
       </c>
@@ -38332,23 +38333,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="443" t="s">
+      <c r="C44" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="444"/>
-      <c r="E44" s="443" t="s">
+      <c r="D44" s="448"/>
+      <c r="E44" s="447" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="460"/>
-      <c r="G44" s="444"/>
-      <c r="H44" s="443" t="s">
+      <c r="F44" s="449"/>
+      <c r="G44" s="448"/>
+      <c r="H44" s="447" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="460"/>
-      <c r="J44" s="460"/>
-      <c r="K44" s="460"/>
-      <c r="L44" s="460"/>
-      <c r="M44" s="444"/>
+      <c r="I44" s="449"/>
+      <c r="J44" s="449"/>
+      <c r="K44" s="449"/>
+      <c r="L44" s="449"/>
+      <c r="M44" s="448"/>
       <c r="Q44" t="s">
         <v>764</v>
       </c>
@@ -38368,61 +38369,61 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="529" t="s">
+      <c r="B47" s="541" t="s">
         <v>763</v>
       </c>
-      <c r="C47" s="529"/>
-      <c r="D47" s="529"/>
-      <c r="E47" s="529"/>
-      <c r="F47" s="529"/>
-      <c r="G47" s="529"/>
-      <c r="H47" s="529"/>
-      <c r="I47" s="529"/>
-      <c r="J47" s="529"/>
-      <c r="K47" s="529"/>
-      <c r="L47" s="529"/>
-      <c r="M47" s="529"/>
-      <c r="N47" s="529"/>
-      <c r="O47" s="529"/>
-      <c r="P47" s="529"/>
-      <c r="Q47" s="529"/>
-      <c r="R47" s="529"/>
-      <c r="S47" s="529"/>
-      <c r="T47" s="529"/>
-      <c r="U47" s="529"/>
-      <c r="V47" s="529"/>
+      <c r="C47" s="541"/>
+      <c r="D47" s="541"/>
+      <c r="E47" s="541"/>
+      <c r="F47" s="541"/>
+      <c r="G47" s="541"/>
+      <c r="H47" s="541"/>
+      <c r="I47" s="541"/>
+      <c r="J47" s="541"/>
+      <c r="K47" s="541"/>
+      <c r="L47" s="541"/>
+      <c r="M47" s="541"/>
+      <c r="N47" s="541"/>
+      <c r="O47" s="541"/>
+      <c r="P47" s="541"/>
+      <c r="Q47" s="541"/>
+      <c r="R47" s="541"/>
+      <c r="S47" s="541"/>
+      <c r="T47" s="541"/>
+      <c r="U47" s="541"/>
+      <c r="V47" s="541"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="530" t="s">
+      <c r="C48" s="542" t="s">
         <v>365</v>
       </c>
-      <c r="D48" s="530"/>
-      <c r="E48" s="530"/>
-      <c r="F48" s="530"/>
-      <c r="G48" s="530"/>
-      <c r="H48" s="530"/>
-      <c r="I48" s="530"/>
-      <c r="J48" s="530"/>
-      <c r="K48" s="530"/>
-      <c r="L48" s="530"/>
-      <c r="M48" s="530"/>
+      <c r="D48" s="542"/>
+      <c r="E48" s="542"/>
+      <c r="F48" s="542"/>
+      <c r="G48" s="542"/>
+      <c r="H48" s="542"/>
+      <c r="I48" s="542"/>
+      <c r="J48" s="542"/>
+      <c r="K48" s="542"/>
+      <c r="L48" s="542"/>
+      <c r="M48" s="542"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="440" t="s">
+      <c r="E49" s="459" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="441"/>
-      <c r="G49" s="441"/>
-      <c r="H49" s="422"/>
-      <c r="I49" s="422"/>
-      <c r="J49" s="422"/>
-      <c r="K49" s="422"/>
-      <c r="L49" s="422"/>
-      <c r="M49" s="423"/>
+      <c r="F49" s="460"/>
+      <c r="G49" s="460"/>
+      <c r="H49" s="426"/>
+      <c r="I49" s="426"/>
+      <c r="J49" s="426"/>
+      <c r="K49" s="426"/>
+      <c r="L49" s="426"/>
+      <c r="M49" s="427"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -38442,16 +38443,16 @@
       <c r="G50" s="187" t="s">
         <v>1280</v>
       </c>
-      <c r="H50" s="533" t="s">
+      <c r="H50" s="544" t="s">
         <v>766</v>
       </c>
-      <c r="I50" s="534"/>
-      <c r="J50" s="535"/>
-      <c r="K50" s="533" t="s">
+      <c r="I50" s="545"/>
+      <c r="J50" s="546"/>
+      <c r="K50" s="544" t="s">
         <v>767</v>
       </c>
-      <c r="L50" s="534"/>
-      <c r="M50" s="535"/>
+      <c r="L50" s="545"/>
+      <c r="M50" s="546"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -38465,20 +38466,20 @@
         <v>781</v>
       </c>
       <c r="F51" s="228"/>
-      <c r="G51" s="536" t="s">
+      <c r="G51" s="550" t="s">
         <v>789</v>
       </c>
-      <c r="H51" s="526"/>
-      <c r="I51" s="527"/>
-      <c r="J51" s="528"/>
-      <c r="K51" s="526"/>
-      <c r="L51" s="527"/>
-      <c r="M51" s="528"/>
-      <c r="O51" s="531" t="s">
+      <c r="H51" s="547"/>
+      <c r="I51" s="548"/>
+      <c r="J51" s="549"/>
+      <c r="K51" s="547"/>
+      <c r="L51" s="548"/>
+      <c r="M51" s="549"/>
+      <c r="O51" s="543" t="s">
         <v>63</v>
       </c>
-      <c r="P51" s="531"/>
-      <c r="Q51" s="531"/>
+      <c r="P51" s="543"/>
+      <c r="Q51" s="543"/>
       <c r="S51" s="215"/>
       <c r="T51" s="215"/>
       <c r="W51" s="35" t="s">
@@ -38492,13 +38493,13 @@
         <v>782</v>
       </c>
       <c r="F52" s="229"/>
-      <c r="G52" s="536"/>
-      <c r="H52" s="526"/>
-      <c r="I52" s="527"/>
-      <c r="J52" s="528"/>
-      <c r="K52" s="526"/>
-      <c r="L52" s="527"/>
-      <c r="M52" s="528"/>
+      <c r="G52" s="550"/>
+      <c r="H52" s="547"/>
+      <c r="I52" s="548"/>
+      <c r="J52" s="549"/>
+      <c r="K52" s="547"/>
+      <c r="L52" s="548"/>
+      <c r="M52" s="549"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -38509,13 +38510,13 @@
         <v>783</v>
       </c>
       <c r="F53" s="230"/>
-      <c r="G53" s="536"/>
-      <c r="H53" s="526"/>
-      <c r="I53" s="527"/>
-      <c r="J53" s="528"/>
-      <c r="K53" s="526"/>
-      <c r="L53" s="527"/>
-      <c r="M53" s="528"/>
+      <c r="G53" s="550"/>
+      <c r="H53" s="547"/>
+      <c r="I53" s="548"/>
+      <c r="J53" s="549"/>
+      <c r="K53" s="547"/>
+      <c r="L53" s="548"/>
+      <c r="M53" s="549"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>66</v>
@@ -38554,7 +38555,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="216"/>
       <c r="F54" s="231"/>
-      <c r="G54" s="524" t="s">
+      <c r="G54" s="556" t="s">
         <v>793</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -38601,11 +38602,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="522" t="s">
+      <c r="E55" s="554" t="s">
         <v>794</v>
       </c>
-      <c r="F55" s="523"/>
-      <c r="G55" s="525"/>
+      <c r="F55" s="555"/>
+      <c r="G55" s="557"/>
       <c r="H55" s="119" t="s">
         <v>785</v>
       </c>
@@ -38649,9 +38650,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="522"/>
-      <c r="F56" s="523"/>
-      <c r="G56" s="525"/>
+      <c r="E56" s="554"/>
+      <c r="F56" s="555"/>
+      <c r="G56" s="557"/>
       <c r="H56" s="119" t="s">
         <v>786</v>
       </c>
@@ -38681,9 +38682,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="522"/>
-      <c r="F57" s="523"/>
-      <c r="G57" s="525"/>
+      <c r="E57" s="554"/>
+      <c r="F57" s="555"/>
+      <c r="G57" s="557"/>
       <c r="H57" s="4" t="s">
         <v>798</v>
       </c>
@@ -38713,9 +38714,9 @@
         <v>76</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="522"/>
-      <c r="F58" s="523"/>
-      <c r="G58" s="525"/>
+      <c r="E58" s="554"/>
+      <c r="F58" s="555"/>
+      <c r="G58" s="557"/>
       <c r="H58" s="220" t="s">
         <v>784</v>
       </c>
@@ -38740,9 +38741,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="522"/>
-      <c r="F59" s="523"/>
-      <c r="G59" s="525"/>
+      <c r="E59" s="554"/>
+      <c r="F59" s="555"/>
+      <c r="G59" s="557"/>
       <c r="H59" s="220" t="s">
         <v>358</v>
       </c>
@@ -38767,9 +38768,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="522"/>
-      <c r="F60" s="523"/>
-      <c r="G60" s="525"/>
+      <c r="E60" s="554"/>
+      <c r="F60" s="555"/>
+      <c r="G60" s="557"/>
       <c r="H60" s="222"/>
       <c r="I60" s="223" t="s">
         <v>800</v>
@@ -38789,9 +38790,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="522"/>
-      <c r="F61" s="523"/>
-      <c r="G61" s="525"/>
+      <c r="E61" s="554"/>
+      <c r="F61" s="555"/>
+      <c r="G61" s="557"/>
       <c r="H61" s="222"/>
       <c r="I61" s="223" t="s">
         <v>801</v>
@@ -38811,7 +38812,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="211"/>
       <c r="F62" s="227"/>
-      <c r="G62" s="525"/>
+      <c r="G62" s="557"/>
       <c r="H62" s="224"/>
       <c r="I62" s="226" t="s">
         <v>802</v>
@@ -38853,17 +38854,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="519" t="s">
+      <c r="E64" s="551" t="s">
         <v>1281</v>
       </c>
-      <c r="F64" s="520"/>
-      <c r="G64" s="520"/>
-      <c r="H64" s="520"/>
-      <c r="I64" s="520"/>
-      <c r="J64" s="520"/>
-      <c r="K64" s="520"/>
-      <c r="L64" s="520"/>
-      <c r="M64" s="521"/>
+      <c r="F64" s="552"/>
+      <c r="G64" s="552"/>
+      <c r="H64" s="552"/>
+      <c r="I64" s="552"/>
+      <c r="J64" s="552"/>
+      <c r="K64" s="552"/>
+      <c r="L64" s="552"/>
+      <c r="M64" s="553"/>
       <c r="N64" s="35" t="s">
         <v>370</v>
       </c>
@@ -38892,23 +38893,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="443" t="s">
+      <c r="C66" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="444"/>
-      <c r="E66" s="443" t="s">
+      <c r="D66" s="448"/>
+      <c r="E66" s="447" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="460"/>
-      <c r="G66" s="444"/>
-      <c r="H66" s="443" t="s">
+      <c r="F66" s="449"/>
+      <c r="G66" s="448"/>
+      <c r="H66" s="447" t="s">
         <v>80</v>
       </c>
-      <c r="I66" s="460"/>
-      <c r="J66" s="460"/>
-      <c r="K66" s="460"/>
-      <c r="L66" s="460"/>
-      <c r="M66" s="444"/>
+      <c r="I66" s="449"/>
+      <c r="J66" s="449"/>
+      <c r="K66" s="449"/>
+      <c r="L66" s="449"/>
+      <c r="M66" s="448"/>
       <c r="Q66" t="s">
         <v>764</v>
       </c>
@@ -38929,23 +38930,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="503" t="s">
+      <c r="C68" s="509" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="503"/>
-      <c r="E68" s="503" t="s">
+      <c r="D68" s="509"/>
+      <c r="E68" s="509" t="s">
         <v>995</v>
       </c>
-      <c r="F68" s="503"/>
-      <c r="G68" s="503"/>
-      <c r="H68" s="503" t="s">
+      <c r="F68" s="509"/>
+      <c r="G68" s="509"/>
+      <c r="H68" s="509" t="s">
         <v>1011</v>
       </c>
-      <c r="I68" s="503"/>
-      <c r="J68" s="503"/>
-      <c r="K68" s="503"/>
-      <c r="L68" s="503"/>
-      <c r="M68" s="503"/>
+      <c r="I68" s="509"/>
+      <c r="J68" s="509"/>
+      <c r="K68" s="509"/>
+      <c r="L68" s="509"/>
+      <c r="M68" s="509"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -39742,6 +39743,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -39758,30 +39783,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -42141,12 +42142,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="552" t="s">
+      <c r="B1" s="558" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="552"/>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
+      <c r="C1" s="558"/>
+      <c r="D1" s="558"/>
+      <c r="E1" s="558"/>
       <c r="I1" s="281" t="s">
         <v>1312</v>
       </c>
@@ -42275,10 +42276,10 @@
       <c r="L7" s="279"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="497"/>
-      <c r="C8" s="497"/>
-      <c r="D8" s="497"/>
-      <c r="E8" s="497"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="498"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="498"/>
       <c r="G8" t="s">
         <v>1320</v>
       </c>
@@ -42373,11 +42374,11 @@
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="25" spans="2:18">
-      <c r="B25" s="553" t="s">
+      <c r="B25" s="559" t="s">
         <v>1310</v>
       </c>
-      <c r="C25" s="554"/>
-      <c r="D25" s="554"/>
+      <c r="C25" s="560"/>
+      <c r="D25" s="560"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -42885,32 +42886,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C2" s="530" t="s">
+      <c r="C2" s="542" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="530"/>
-      <c r="E2" s="530"/>
-      <c r="F2" s="530"/>
-      <c r="G2" s="530"/>
-      <c r="H2" s="530"/>
-      <c r="I2" s="530"/>
-      <c r="J2" s="530"/>
-      <c r="K2" s="530"/>
-      <c r="L2" s="530"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
+      <c r="L2" s="542"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="440" t="s">
+      <c r="E3" s="459" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="441"/>
-      <c r="G3" s="422"/>
-      <c r="H3" s="422"/>
-      <c r="I3" s="422"/>
-      <c r="J3" s="422"/>
-      <c r="K3" s="422"/>
-      <c r="L3" s="423"/>
+      <c r="F3" s="460"/>
+      <c r="G3" s="426"/>
+      <c r="H3" s="426"/>
+      <c r="I3" s="426"/>
+      <c r="J3" s="426"/>
+      <c r="K3" s="426"/>
+      <c r="L3" s="427"/>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="4" t="s">
@@ -42941,11 +42942,11 @@
         <v>375</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="531" t="s">
+      <c r="N5" s="543" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="531"/>
-      <c r="P5" s="531"/>
+      <c r="O5" s="543"/>
+      <c r="P5" s="543"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -43005,20 +43006,20 @@
         <v>74</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="526" t="s">
+      <c r="E8" s="547" t="s">
         <v>366</v>
       </c>
-      <c r="F8" s="528"/>
-      <c r="G8" s="526" t="s">
+      <c r="F8" s="549"/>
+      <c r="G8" s="547" t="s">
         <v>367</v>
       </c>
-      <c r="H8" s="527"/>
-      <c r="I8" s="528"/>
-      <c r="J8" s="526" t="s">
+      <c r="H8" s="548"/>
+      <c r="I8" s="549"/>
+      <c r="J8" s="547" t="s">
         <v>368</v>
       </c>
-      <c r="K8" s="527"/>
-      <c r="L8" s="528"/>
+      <c r="K8" s="548"/>
+      <c r="L8" s="549"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -43041,14 +43042,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="526"/>
-      <c r="F9" s="528"/>
-      <c r="G9" s="526"/>
-      <c r="H9" s="527"/>
-      <c r="I9" s="528"/>
-      <c r="J9" s="526"/>
-      <c r="K9" s="527"/>
-      <c r="L9" s="528"/>
+      <c r="E9" s="547"/>
+      <c r="F9" s="549"/>
+      <c r="G9" s="547"/>
+      <c r="H9" s="548"/>
+      <c r="I9" s="549"/>
+      <c r="J9" s="547"/>
+      <c r="K9" s="548"/>
+      <c r="L9" s="549"/>
       <c r="M9" s="5" t="s">
         <v>71</v>
       </c>
@@ -43065,14 +43066,14 @@
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="526"/>
-      <c r="F10" s="528"/>
-      <c r="G10" s="526"/>
-      <c r="H10" s="527"/>
-      <c r="I10" s="528"/>
-      <c r="J10" s="526"/>
-      <c r="K10" s="527"/>
-      <c r="L10" s="528"/>
+      <c r="E10" s="547"/>
+      <c r="F10" s="549"/>
+      <c r="G10" s="547"/>
+      <c r="H10" s="548"/>
+      <c r="I10" s="549"/>
+      <c r="J10" s="547"/>
+      <c r="K10" s="548"/>
+      <c r="L10" s="549"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -43086,14 +43087,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="526"/>
-      <c r="F11" s="528"/>
-      <c r="G11" s="526"/>
-      <c r="H11" s="527"/>
-      <c r="I11" s="528"/>
-      <c r="J11" s="526"/>
-      <c r="K11" s="527"/>
-      <c r="L11" s="528"/>
+      <c r="E11" s="547"/>
+      <c r="F11" s="549"/>
+      <c r="G11" s="547"/>
+      <c r="H11" s="548"/>
+      <c r="I11" s="549"/>
+      <c r="J11" s="547"/>
+      <c r="K11" s="548"/>
+      <c r="L11" s="549"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -43217,16 +43218,16 @@
     <row r="17" spans="2:18" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="519" t="s">
+      <c r="E17" s="551" t="s">
         <v>369</v>
       </c>
-      <c r="F17" s="520"/>
-      <c r="G17" s="520"/>
-      <c r="H17" s="520"/>
-      <c r="I17" s="520"/>
-      <c r="J17" s="520"/>
-      <c r="K17" s="520"/>
-      <c r="L17" s="521"/>
+      <c r="F17" s="552"/>
+      <c r="G17" s="552"/>
+      <c r="H17" s="552"/>
+      <c r="I17" s="552"/>
+      <c r="J17" s="552"/>
+      <c r="K17" s="552"/>
+      <c r="L17" s="553"/>
       <c r="M17" s="35" t="s">
         <v>370</v>
       </c>
@@ -43256,40 +43257,40 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C19" s="443" t="s">
+      <c r="C19" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="444"/>
-      <c r="E19" s="443" t="s">
+      <c r="D19" s="448"/>
+      <c r="E19" s="447" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="444"/>
-      <c r="G19" s="443" t="s">
+      <c r="F19" s="448"/>
+      <c r="G19" s="447" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="460"/>
-      <c r="I19" s="460"/>
-      <c r="J19" s="460"/>
-      <c r="K19" s="460"/>
-      <c r="L19" s="444"/>
+      <c r="H19" s="449"/>
+      <c r="I19" s="449"/>
+      <c r="J19" s="449"/>
+      <c r="K19" s="449"/>
+      <c r="L19" s="448"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:18" ht="15" customHeight="1">
-      <c r="E21" s="555" t="s">
+      <c r="E21" s="561" t="s">
         <v>1024</v>
       </c>
-      <c r="F21" s="556"/>
+      <c r="F21" s="562"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="E22" s="557"/>
-      <c r="F22" s="558"/>
+      <c r="E22" s="563"/>
+      <c r="F22" s="564"/>
       <c r="J22" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="E23" s="557"/>
-      <c r="F23" s="558"/>
+      <c r="E23" s="563"/>
+      <c r="F23" s="564"/>
       <c r="H23" t="s">
         <v>1031</v>
       </c>
@@ -43301,8 +43302,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1">
-      <c r="E24" s="559"/>
-      <c r="F24" s="560"/>
+      <c r="E24" s="565"/>
+      <c r="F24" s="566"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="2:18" ht="15.75" thickBot="1">
@@ -44528,22 +44529,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="532" t="s">
+      <c r="E3" s="525" t="s">
         <v>328</v>
       </c>
-      <c r="F3" s="532"/>
-      <c r="G3" s="532" t="s">
+      <c r="F3" s="525"/>
+      <c r="G3" s="525" t="s">
         <v>329</v>
       </c>
-      <c r="H3" s="532"/>
-      <c r="I3" s="532"/>
-      <c r="J3" s="532"/>
-      <c r="K3" s="532"/>
-      <c r="L3" s="532"/>
-      <c r="M3" s="532" t="s">
+      <c r="H3" s="525"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="525"/>
+      <c r="K3" s="525"/>
+      <c r="L3" s="525"/>
+      <c r="M3" s="525" t="s">
         <v>330</v>
       </c>
-      <c r="N3" s="532"/>
+      <c r="N3" s="525"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -44554,7 +44555,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="113"/>
       <c r="D4" s="114"/>
-      <c r="E4" s="537" t="s">
+      <c r="E4" s="526" t="s">
         <v>331</v>
       </c>
       <c r="F4" s="109"/>
@@ -44582,22 +44583,22 @@
         <v>65</v>
       </c>
       <c r="D5" s="116"/>
-      <c r="E5" s="446"/>
-      <c r="F5" s="469" t="s">
+      <c r="E5" s="463"/>
+      <c r="F5" s="473" t="s">
         <v>403</v>
       </c>
-      <c r="G5" s="470"/>
-      <c r="H5" s="471"/>
-      <c r="I5" s="561" t="s">
+      <c r="G5" s="474"/>
+      <c r="H5" s="475"/>
+      <c r="I5" s="604" t="s">
         <v>404</v>
       </c>
-      <c r="J5" s="562"/>
-      <c r="K5" s="562"/>
-      <c r="L5" s="543"/>
-      <c r="M5" s="561" t="s">
+      <c r="J5" s="605"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="532"/>
+      <c r="M5" s="604" t="s">
         <v>405</v>
       </c>
-      <c r="N5" s="543"/>
+      <c r="N5" s="532"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -44608,16 +44609,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="117"/>
       <c r="D6" s="118"/>
-      <c r="E6" s="446"/>
-      <c r="F6" s="472"/>
-      <c r="G6" s="473"/>
-      <c r="H6" s="474"/>
-      <c r="I6" s="467"/>
-      <c r="J6" s="428"/>
-      <c r="K6" s="428"/>
-      <c r="L6" s="544"/>
-      <c r="M6" s="467"/>
-      <c r="N6" s="544"/>
+      <c r="E6" s="463"/>
+      <c r="F6" s="476"/>
+      <c r="G6" s="477"/>
+      <c r="H6" s="478"/>
+      <c r="I6" s="471"/>
+      <c r="J6" s="432"/>
+      <c r="K6" s="432"/>
+      <c r="L6" s="533"/>
+      <c r="M6" s="471"/>
+      <c r="N6" s="533"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>66</v>
@@ -44634,16 +44635,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="446"/>
-      <c r="F7" s="472"/>
-      <c r="G7" s="473"/>
-      <c r="H7" s="474"/>
-      <c r="I7" s="467"/>
-      <c r="J7" s="428"/>
-      <c r="K7" s="428"/>
-      <c r="L7" s="544"/>
-      <c r="M7" s="467"/>
-      <c r="N7" s="544"/>
+      <c r="E7" s="463"/>
+      <c r="F7" s="476"/>
+      <c r="G7" s="477"/>
+      <c r="H7" s="478"/>
+      <c r="I7" s="471"/>
+      <c r="J7" s="432"/>
+      <c r="K7" s="432"/>
+      <c r="L7" s="533"/>
+      <c r="M7" s="471"/>
+      <c r="N7" s="533"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -44662,16 +44663,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="446"/>
-      <c r="F8" s="472"/>
-      <c r="G8" s="473"/>
-      <c r="H8" s="474"/>
-      <c r="I8" s="467"/>
-      <c r="J8" s="428"/>
-      <c r="K8" s="428"/>
-      <c r="L8" s="544"/>
-      <c r="M8" s="467"/>
-      <c r="N8" s="544"/>
+      <c r="E8" s="463"/>
+      <c r="F8" s="476"/>
+      <c r="G8" s="477"/>
+      <c r="H8" s="478"/>
+      <c r="I8" s="471"/>
+      <c r="J8" s="432"/>
+      <c r="K8" s="432"/>
+      <c r="L8" s="533"/>
+      <c r="M8" s="471"/>
+      <c r="N8" s="533"/>
       <c r="O8" s="5" t="s">
         <v>71</v>
       </c>
@@ -44692,16 +44693,16 @@
         <v>74</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="446"/>
-      <c r="F9" s="472"/>
-      <c r="G9" s="473"/>
-      <c r="H9" s="474"/>
-      <c r="I9" s="467"/>
-      <c r="J9" s="428"/>
-      <c r="K9" s="428"/>
-      <c r="L9" s="544"/>
-      <c r="M9" s="467"/>
-      <c r="N9" s="544"/>
+      <c r="E9" s="463"/>
+      <c r="F9" s="476"/>
+      <c r="G9" s="477"/>
+      <c r="H9" s="478"/>
+      <c r="I9" s="471"/>
+      <c r="J9" s="432"/>
+      <c r="K9" s="432"/>
+      <c r="L9" s="533"/>
+      <c r="M9" s="471"/>
+      <c r="N9" s="533"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -44718,16 +44719,16 @@
         <v>347</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="446"/>
-      <c r="F10" s="472"/>
-      <c r="G10" s="473"/>
-      <c r="H10" s="474"/>
-      <c r="I10" s="467"/>
-      <c r="J10" s="428"/>
-      <c r="K10" s="428"/>
-      <c r="L10" s="544"/>
-      <c r="M10" s="467"/>
-      <c r="N10" s="544"/>
+      <c r="E10" s="463"/>
+      <c r="F10" s="476"/>
+      <c r="G10" s="477"/>
+      <c r="H10" s="478"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="432"/>
+      <c r="K10" s="432"/>
+      <c r="L10" s="533"/>
+      <c r="M10" s="471"/>
+      <c r="N10" s="533"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -44740,16 +44741,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="446"/>
-      <c r="F11" s="472"/>
-      <c r="G11" s="473"/>
-      <c r="H11" s="474"/>
-      <c r="I11" s="467"/>
-      <c r="J11" s="428"/>
-      <c r="K11" s="428"/>
-      <c r="L11" s="544"/>
-      <c r="M11" s="467"/>
-      <c r="N11" s="544"/>
+      <c r="E11" s="463"/>
+      <c r="F11" s="476"/>
+      <c r="G11" s="477"/>
+      <c r="H11" s="478"/>
+      <c r="I11" s="471"/>
+      <c r="J11" s="432"/>
+      <c r="K11" s="432"/>
+      <c r="L11" s="533"/>
+      <c r="M11" s="471"/>
+      <c r="N11" s="533"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -44760,16 +44761,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="446"/>
-      <c r="F12" s="472"/>
-      <c r="G12" s="473"/>
-      <c r="H12" s="474"/>
-      <c r="I12" s="467"/>
-      <c r="J12" s="428"/>
-      <c r="K12" s="428"/>
-      <c r="L12" s="544"/>
-      <c r="M12" s="467"/>
-      <c r="N12" s="544"/>
+      <c r="E12" s="463"/>
+      <c r="F12" s="476"/>
+      <c r="G12" s="477"/>
+      <c r="H12" s="478"/>
+      <c r="I12" s="471"/>
+      <c r="J12" s="432"/>
+      <c r="K12" s="432"/>
+      <c r="L12" s="533"/>
+      <c r="M12" s="471"/>
+      <c r="N12" s="533"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -44782,16 +44783,16 @@
         <v>76</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="446"/>
-      <c r="F13" s="472"/>
-      <c r="G13" s="473"/>
-      <c r="H13" s="474"/>
-      <c r="I13" s="467"/>
-      <c r="J13" s="428"/>
-      <c r="K13" s="428"/>
-      <c r="L13" s="544"/>
-      <c r="M13" s="467"/>
-      <c r="N13" s="544"/>
+      <c r="E13" s="463"/>
+      <c r="F13" s="476"/>
+      <c r="G13" s="477"/>
+      <c r="H13" s="478"/>
+      <c r="I13" s="471"/>
+      <c r="J13" s="432"/>
+      <c r="K13" s="432"/>
+      <c r="L13" s="533"/>
+      <c r="M13" s="471"/>
+      <c r="N13" s="533"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -44802,16 +44803,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="446"/>
-      <c r="F14" s="472"/>
-      <c r="G14" s="473"/>
-      <c r="H14" s="474"/>
-      <c r="I14" s="467"/>
-      <c r="J14" s="428"/>
-      <c r="K14" s="428"/>
-      <c r="L14" s="544"/>
-      <c r="M14" s="467"/>
-      <c r="N14" s="544"/>
+      <c r="E14" s="463"/>
+      <c r="F14" s="476"/>
+      <c r="G14" s="477"/>
+      <c r="H14" s="478"/>
+      <c r="I14" s="471"/>
+      <c r="J14" s="432"/>
+      <c r="K14" s="432"/>
+      <c r="L14" s="533"/>
+      <c r="M14" s="471"/>
+      <c r="N14" s="533"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -44822,16 +44823,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="446"/>
-      <c r="F15" s="472"/>
-      <c r="G15" s="473"/>
-      <c r="H15" s="474"/>
-      <c r="I15" s="467"/>
-      <c r="J15" s="428"/>
-      <c r="K15" s="428"/>
-      <c r="L15" s="544"/>
-      <c r="M15" s="467"/>
-      <c r="N15" s="544"/>
+      <c r="E15" s="463"/>
+      <c r="F15" s="476"/>
+      <c r="G15" s="477"/>
+      <c r="H15" s="478"/>
+      <c r="I15" s="471"/>
+      <c r="J15" s="432"/>
+      <c r="K15" s="432"/>
+      <c r="L15" s="533"/>
+      <c r="M15" s="471"/>
+      <c r="N15" s="533"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -44842,16 +44843,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="446"/>
-      <c r="F16" s="472"/>
-      <c r="G16" s="473"/>
-      <c r="H16" s="474"/>
-      <c r="I16" s="467"/>
-      <c r="J16" s="428"/>
-      <c r="K16" s="428"/>
-      <c r="L16" s="544"/>
-      <c r="M16" s="467"/>
-      <c r="N16" s="544"/>
+      <c r="E16" s="463"/>
+      <c r="F16" s="476"/>
+      <c r="G16" s="477"/>
+      <c r="H16" s="478"/>
+      <c r="I16" s="471"/>
+      <c r="J16" s="432"/>
+      <c r="K16" s="432"/>
+      <c r="L16" s="533"/>
+      <c r="M16" s="471"/>
+      <c r="N16" s="533"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -44864,16 +44865,16 @@
         <v>77</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="446"/>
-      <c r="F17" s="472"/>
-      <c r="G17" s="473"/>
-      <c r="H17" s="474"/>
-      <c r="I17" s="467"/>
-      <c r="J17" s="428"/>
-      <c r="K17" s="428"/>
-      <c r="L17" s="544"/>
-      <c r="M17" s="467"/>
-      <c r="N17" s="544"/>
+      <c r="E17" s="463"/>
+      <c r="F17" s="476"/>
+      <c r="G17" s="477"/>
+      <c r="H17" s="478"/>
+      <c r="I17" s="471"/>
+      <c r="J17" s="432"/>
+      <c r="K17" s="432"/>
+      <c r="L17" s="533"/>
+      <c r="M17" s="471"/>
+      <c r="N17" s="533"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -44884,16 +44885,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="447"/>
-      <c r="F18" s="475"/>
-      <c r="G18" s="476"/>
-      <c r="H18" s="477"/>
-      <c r="I18" s="468"/>
-      <c r="J18" s="563"/>
-      <c r="K18" s="563"/>
-      <c r="L18" s="545"/>
-      <c r="M18" s="468"/>
-      <c r="N18" s="545"/>
+      <c r="E18" s="464"/>
+      <c r="F18" s="479"/>
+      <c r="G18" s="480"/>
+      <c r="H18" s="481"/>
+      <c r="I18" s="472"/>
+      <c r="J18" s="606"/>
+      <c r="K18" s="606"/>
+      <c r="L18" s="534"/>
+      <c r="M18" s="472"/>
+      <c r="N18" s="534"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -44922,26 +44923,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="443" t="s">
+      <c r="C20" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="444"/>
+      <c r="D20" s="448"/>
       <c r="E20" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="443" t="s">
+      <c r="F20" s="447" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="460"/>
-      <c r="H20" s="460"/>
-      <c r="I20" s="460"/>
-      <c r="J20" s="460"/>
-      <c r="K20" s="460"/>
-      <c r="L20" s="444"/>
-      <c r="M20" s="443" t="s">
+      <c r="G20" s="449"/>
+      <c r="H20" s="449"/>
+      <c r="I20" s="449"/>
+      <c r="J20" s="449"/>
+      <c r="K20" s="449"/>
+      <c r="L20" s="448"/>
+      <c r="M20" s="447" t="s">
         <v>338</v>
       </c>
-      <c r="N20" s="444"/>
+      <c r="N20" s="448"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -44969,39 +44970,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="531" t="s">
+      <c r="B24" s="543" t="s">
         <v>365</v>
       </c>
-      <c r="C24" s="531"/>
-      <c r="D24" s="530"/>
-      <c r="E24" s="530"/>
-      <c r="F24" s="530"/>
-      <c r="G24" s="530"/>
-      <c r="H24" s="530"/>
-      <c r="I24" s="530"/>
-      <c r="J24" s="530"/>
-      <c r="K24" s="530"/>
-      <c r="M24" s="590" t="s">
+      <c r="C24" s="543"/>
+      <c r="D24" s="542"/>
+      <c r="E24" s="542"/>
+      <c r="F24" s="542"/>
+      <c r="G24" s="542"/>
+      <c r="H24" s="542"/>
+      <c r="I24" s="542"/>
+      <c r="J24" s="542"/>
+      <c r="K24" s="542"/>
+      <c r="M24" s="567" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="590"/>
-      <c r="O24" s="590"/>
+      <c r="N24" s="567"/>
+      <c r="O24" s="567"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="591" t="s">
+      <c r="B25" s="568" t="s">
         <v>642</v>
       </c>
-      <c r="C25" s="508"/>
-      <c r="D25" s="422" t="s">
+      <c r="C25" s="512"/>
+      <c r="D25" s="426" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="422"/>
-      <c r="F25" s="422"/>
-      <c r="G25" s="422"/>
-      <c r="H25" s="422"/>
-      <c r="I25" s="422"/>
-      <c r="J25" s="422"/>
-      <c r="K25" s="423"/>
+      <c r="E25" s="426"/>
+      <c r="F25" s="426"/>
+      <c r="G25" s="426"/>
+      <c r="H25" s="426"/>
+      <c r="I25" s="426"/>
+      <c r="J25" s="426"/>
+      <c r="K25" s="427"/>
       <c r="M25" s="33" t="s">
         <v>66</v>
       </c>
@@ -45013,22 +45014,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="509"/>
-      <c r="C26" s="510"/>
-      <c r="D26" s="564" t="s">
+      <c r="B26" s="513"/>
+      <c r="C26" s="514"/>
+      <c r="D26" s="581" t="s">
         <v>635</v>
       </c>
-      <c r="E26" s="565"/>
-      <c r="F26" s="583" t="s">
+      <c r="E26" s="582"/>
+      <c r="F26" s="599" t="s">
         <v>635</v>
       </c>
-      <c r="G26" s="584"/>
-      <c r="H26" s="585"/>
-      <c r="I26" s="588" t="s">
+      <c r="G26" s="600"/>
+      <c r="H26" s="601"/>
+      <c r="I26" s="603" t="s">
         <v>1370</v>
       </c>
-      <c r="J26" s="584"/>
-      <c r="K26" s="585"/>
+      <c r="J26" s="600"/>
+      <c r="K26" s="601"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -45043,22 +45044,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="509"/>
-      <c r="C27" s="510"/>
-      <c r="D27" s="566" t="s">
+      <c r="B27" s="513"/>
+      <c r="C27" s="514"/>
+      <c r="D27" s="579" t="s">
         <v>640</v>
       </c>
-      <c r="E27" s="567"/>
-      <c r="F27" s="586" t="s">
+      <c r="E27" s="583"/>
+      <c r="F27" s="602" t="s">
         <v>636</v>
       </c>
-      <c r="G27" s="566"/>
-      <c r="H27" s="587"/>
-      <c r="I27" s="589" t="s">
+      <c r="G27" s="579"/>
+      <c r="H27" s="580"/>
+      <c r="I27" s="578" t="s">
         <v>1371</v>
       </c>
-      <c r="J27" s="566"/>
-      <c r="K27" s="587"/>
+      <c r="J27" s="579"/>
+      <c r="K27" s="580"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -45073,22 +45074,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="509"/>
-      <c r="C28" s="510"/>
-      <c r="D28" s="566" t="s">
+      <c r="B28" s="513"/>
+      <c r="C28" s="514"/>
+      <c r="D28" s="579" t="s">
         <v>637</v>
       </c>
-      <c r="E28" s="567"/>
-      <c r="F28" s="586" t="s">
+      <c r="E28" s="583"/>
+      <c r="F28" s="602" t="s">
         <v>637</v>
       </c>
-      <c r="G28" s="566"/>
-      <c r="H28" s="587"/>
-      <c r="I28" s="589" t="s">
+      <c r="G28" s="579"/>
+      <c r="H28" s="580"/>
+      <c r="I28" s="578" t="s">
         <v>1372</v>
       </c>
-      <c r="J28" s="566"/>
-      <c r="K28" s="587"/>
+      <c r="J28" s="579"/>
+      <c r="K28" s="580"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -45097,22 +45098,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="511"/>
-      <c r="C29" s="512"/>
-      <c r="D29" s="566" t="s">
+      <c r="B29" s="515"/>
+      <c r="C29" s="516"/>
+      <c r="D29" s="579" t="s">
         <v>638</v>
       </c>
-      <c r="E29" s="567"/>
-      <c r="F29" s="586" t="s">
+      <c r="E29" s="583"/>
+      <c r="F29" s="602" t="s">
         <v>638</v>
       </c>
-      <c r="G29" s="566"/>
-      <c r="H29" s="587"/>
-      <c r="I29" s="589" t="s">
+      <c r="G29" s="579"/>
+      <c r="H29" s="580"/>
+      <c r="I29" s="578" t="s">
         <v>1373</v>
       </c>
-      <c r="J29" s="566"/>
-      <c r="K29" s="587"/>
+      <c r="J29" s="579"/>
+      <c r="K29" s="580"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -45121,149 +45122,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="451" t="s">
+      <c r="B30" s="437" t="s">
         <v>641</v>
       </c>
-      <c r="C30" s="453"/>
-      <c r="D30" s="568" t="s">
+      <c r="C30" s="439"/>
+      <c r="D30" s="584" t="s">
         <v>366</v>
       </c>
-      <c r="E30" s="569"/>
-      <c r="F30" s="574" t="s">
+      <c r="E30" s="585"/>
+      <c r="F30" s="590" t="s">
         <v>367</v>
       </c>
-      <c r="G30" s="575"/>
-      <c r="H30" s="569"/>
-      <c r="I30" s="574" t="s">
+      <c r="G30" s="591"/>
+      <c r="H30" s="585"/>
+      <c r="I30" s="590" t="s">
         <v>368</v>
       </c>
-      <c r="J30" s="575"/>
-      <c r="K30" s="580"/>
+      <c r="J30" s="591"/>
+      <c r="K30" s="596"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="455"/>
-      <c r="C31" s="450"/>
-      <c r="D31" s="570"/>
-      <c r="E31" s="571"/>
-      <c r="F31" s="576"/>
-      <c r="G31" s="577"/>
-      <c r="H31" s="571"/>
-      <c r="I31" s="576"/>
-      <c r="J31" s="577"/>
-      <c r="K31" s="581"/>
+      <c r="B31" s="441"/>
+      <c r="C31" s="442"/>
+      <c r="D31" s="586"/>
+      <c r="E31" s="587"/>
+      <c r="F31" s="592"/>
+      <c r="G31" s="593"/>
+      <c r="H31" s="587"/>
+      <c r="I31" s="592"/>
+      <c r="J31" s="593"/>
+      <c r="K31" s="597"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="455"/>
-      <c r="C32" s="450"/>
-      <c r="D32" s="570"/>
-      <c r="E32" s="571"/>
-      <c r="F32" s="576"/>
-      <c r="G32" s="577"/>
-      <c r="H32" s="571"/>
-      <c r="I32" s="576"/>
-      <c r="J32" s="577"/>
-      <c r="K32" s="581"/>
+      <c r="B32" s="441"/>
+      <c r="C32" s="442"/>
+      <c r="D32" s="586"/>
+      <c r="E32" s="587"/>
+      <c r="F32" s="592"/>
+      <c r="G32" s="593"/>
+      <c r="H32" s="587"/>
+      <c r="I32" s="592"/>
+      <c r="J32" s="593"/>
+      <c r="K32" s="597"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="455"/>
-      <c r="C33" s="450"/>
-      <c r="D33" s="572"/>
-      <c r="E33" s="573"/>
-      <c r="F33" s="578"/>
-      <c r="G33" s="579"/>
-      <c r="H33" s="573"/>
-      <c r="I33" s="578"/>
-      <c r="J33" s="579"/>
-      <c r="K33" s="582"/>
+      <c r="B33" s="441"/>
+      <c r="C33" s="442"/>
+      <c r="D33" s="588"/>
+      <c r="E33" s="589"/>
+      <c r="F33" s="594"/>
+      <c r="G33" s="595"/>
+      <c r="H33" s="589"/>
+      <c r="I33" s="594"/>
+      <c r="J33" s="595"/>
+      <c r="K33" s="598"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="455"/>
-      <c r="C34" s="456"/>
-      <c r="D34" s="592" t="s">
+      <c r="B34" s="441"/>
+      <c r="C34" s="443"/>
+      <c r="D34" s="569" t="s">
         <v>628</v>
       </c>
-      <c r="E34" s="593"/>
-      <c r="F34" s="592" t="s">
+      <c r="E34" s="570"/>
+      <c r="F34" s="569" t="s">
         <v>379</v>
       </c>
-      <c r="G34" s="598"/>
-      <c r="H34" s="593"/>
-      <c r="I34" s="592" t="s">
+      <c r="G34" s="575"/>
+      <c r="H34" s="570"/>
+      <c r="I34" s="569" t="s">
         <v>643</v>
       </c>
-      <c r="J34" s="598"/>
-      <c r="K34" s="593"/>
+      <c r="J34" s="575"/>
+      <c r="K34" s="570"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="455"/>
-      <c r="C35" s="456"/>
-      <c r="D35" s="594"/>
-      <c r="E35" s="595"/>
-      <c r="F35" s="594"/>
-      <c r="G35" s="599"/>
-      <c r="H35" s="595"/>
-      <c r="I35" s="594"/>
-      <c r="J35" s="599"/>
-      <c r="K35" s="595"/>
+      <c r="B35" s="441"/>
+      <c r="C35" s="443"/>
+      <c r="D35" s="571"/>
+      <c r="E35" s="572"/>
+      <c r="F35" s="571"/>
+      <c r="G35" s="576"/>
+      <c r="H35" s="572"/>
+      <c r="I35" s="571"/>
+      <c r="J35" s="576"/>
+      <c r="K35" s="572"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="455"/>
-      <c r="C36" s="456"/>
-      <c r="D36" s="594"/>
-      <c r="E36" s="595"/>
-      <c r="F36" s="594"/>
-      <c r="G36" s="599"/>
-      <c r="H36" s="595"/>
-      <c r="I36" s="594"/>
-      <c r="J36" s="599"/>
-      <c r="K36" s="595"/>
+      <c r="B36" s="441"/>
+      <c r="C36" s="443"/>
+      <c r="D36" s="571"/>
+      <c r="E36" s="572"/>
+      <c r="F36" s="571"/>
+      <c r="G36" s="576"/>
+      <c r="H36" s="572"/>
+      <c r="I36" s="571"/>
+      <c r="J36" s="576"/>
+      <c r="K36" s="572"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="455"/>
-      <c r="C37" s="456"/>
-      <c r="D37" s="594"/>
-      <c r="E37" s="595"/>
-      <c r="F37" s="594"/>
-      <c r="G37" s="599"/>
-      <c r="H37" s="595"/>
-      <c r="I37" s="594"/>
-      <c r="J37" s="599"/>
-      <c r="K37" s="595"/>
+      <c r="B37" s="441"/>
+      <c r="C37" s="443"/>
+      <c r="D37" s="571"/>
+      <c r="E37" s="572"/>
+      <c r="F37" s="571"/>
+      <c r="G37" s="576"/>
+      <c r="H37" s="572"/>
+      <c r="I37" s="571"/>
+      <c r="J37" s="576"/>
+      <c r="K37" s="572"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="455"/>
-      <c r="C38" s="456"/>
-      <c r="D38" s="596"/>
-      <c r="E38" s="597"/>
-      <c r="F38" s="596"/>
-      <c r="G38" s="600"/>
-      <c r="H38" s="597"/>
-      <c r="I38" s="596"/>
-      <c r="J38" s="600"/>
-      <c r="K38" s="597"/>
+      <c r="B38" s="441"/>
+      <c r="C38" s="443"/>
+      <c r="D38" s="573"/>
+      <c r="E38" s="574"/>
+      <c r="F38" s="573"/>
+      <c r="G38" s="577"/>
+      <c r="H38" s="574"/>
+      <c r="I38" s="573"/>
+      <c r="J38" s="577"/>
+      <c r="K38" s="574"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="457"/>
-      <c r="C39" s="459"/>
-      <c r="D39" s="519" t="s">
+      <c r="B39" s="444"/>
+      <c r="C39" s="446"/>
+      <c r="D39" s="551" t="s">
         <v>369</v>
       </c>
-      <c r="E39" s="520"/>
-      <c r="F39" s="520"/>
-      <c r="G39" s="520"/>
-      <c r="H39" s="520"/>
-      <c r="I39" s="520"/>
-      <c r="J39" s="520"/>
-      <c r="K39" s="521"/>
+      <c r="E39" s="552"/>
+      <c r="F39" s="552"/>
+      <c r="G39" s="552"/>
+      <c r="H39" s="552"/>
+      <c r="I39" s="552"/>
+      <c r="J39" s="552"/>
+      <c r="K39" s="553"/>
       <c r="L39" s="35" t="s">
         <v>370</v>
       </c>
@@ -45281,36 +45282,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="443" t="s">
+      <c r="B41" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="444"/>
-      <c r="D41" s="443" t="s">
+      <c r="C41" s="448"/>
+      <c r="D41" s="447" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="444"/>
-      <c r="F41" s="443" t="s">
+      <c r="E41" s="448"/>
+      <c r="F41" s="447" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="460"/>
-      <c r="H41" s="460"/>
-      <c r="I41" s="460"/>
-      <c r="J41" s="460"/>
-      <c r="K41" s="444"/>
+      <c r="G41" s="449"/>
+      <c r="H41" s="449"/>
+      <c r="I41" s="449"/>
+      <c r="J41" s="449"/>
+      <c r="K41" s="448"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -45327,16 +45327,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -45348,6 +45349,20 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -46053,7 +46068,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="428" t="s">
+      <c r="A3" s="432" t="s">
         <v>1922</v>
       </c>
       <c r="C3" s="314">
@@ -46075,12 +46090,12 @@
       <c r="K3" s="391"/>
       <c r="L3" s="391"/>
       <c r="M3" s="392"/>
-      <c r="N3" s="428" t="s">
+      <c r="N3" s="432" t="s">
         <v>1923</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="428"/>
+      <c r="A4" s="432"/>
       <c r="C4" s="314">
         <v>0.2</v>
       </c>
@@ -46100,10 +46115,10 @@
       <c r="K4" s="394"/>
       <c r="L4" s="394"/>
       <c r="M4" s="395"/>
-      <c r="N4" s="428"/>
+      <c r="N4" s="432"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="428"/>
+      <c r="A5" s="432"/>
       <c r="C5" s="314">
         <v>0.3</v>
       </c>
@@ -46117,12 +46132,12 @@
       <c r="K5" s="402"/>
       <c r="L5" s="402"/>
       <c r="M5" s="403"/>
-      <c r="N5" s="428" t="s">
+      <c r="N5" s="432" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="428"/>
+      <c r="A6" s="432"/>
       <c r="C6" s="314">
         <v>0.4</v>
       </c>
@@ -46136,10 +46151,10 @@
       <c r="K6" s="404"/>
       <c r="L6" s="404"/>
       <c r="M6" s="405"/>
-      <c r="N6" s="428"/>
+      <c r="N6" s="432"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="428"/>
+      <c r="A7" s="432"/>
       <c r="C7" s="314">
         <v>0.5</v>
       </c>
@@ -46157,10 +46172,10 @@
       <c r="K7" s="404"/>
       <c r="L7" s="404"/>
       <c r="M7" s="405"/>
-      <c r="N7" s="428"/>
+      <c r="N7" s="432"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="428"/>
+      <c r="A8" s="432"/>
       <c r="C8" s="314">
         <v>0.6</v>
       </c>
@@ -46174,10 +46189,10 @@
       <c r="K8" s="404"/>
       <c r="L8" s="404"/>
       <c r="M8" s="405"/>
-      <c r="N8" s="428"/>
+      <c r="N8" s="432"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="428"/>
+      <c r="A9" s="432"/>
       <c r="C9" s="314">
         <v>0.7</v>
       </c>
@@ -46191,10 +46206,10 @@
       <c r="K9" s="404"/>
       <c r="L9" s="404"/>
       <c r="M9" s="405"/>
-      <c r="N9" s="428"/>
+      <c r="N9" s="432"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="428"/>
+      <c r="A10" s="432"/>
       <c r="C10" s="314">
         <v>0.8</v>
       </c>
@@ -46208,10 +46223,10 @@
       <c r="K10" s="404"/>
       <c r="L10" s="404"/>
       <c r="M10" s="405"/>
-      <c r="N10" s="428"/>
+      <c r="N10" s="432"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A11" s="428"/>
+      <c r="A11" s="432"/>
       <c r="C11" s="314">
         <v>0.9</v>
       </c>
@@ -46225,10 +46240,10 @@
       <c r="K11" s="406"/>
       <c r="L11" s="406"/>
       <c r="M11" s="407"/>
-      <c r="N11" s="428"/>
+      <c r="N11" s="432"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A12" s="428"/>
+      <c r="A12" s="432"/>
       <c r="C12" s="314">
         <v>1</v>
       </c>
@@ -46256,18 +46271,18 @@
     </row>
     <row r="14" spans="1:14">
       <c r="C14" s="314"/>
-      <c r="D14" s="428" t="s">
+      <c r="D14" s="432" t="s">
         <v>1922</v>
       </c>
-      <c r="E14" s="428"/>
-      <c r="F14" s="428"/>
-      <c r="G14" s="428"/>
-      <c r="H14" s="428"/>
-      <c r="I14" s="428"/>
-      <c r="J14" s="428"/>
-      <c r="K14" s="428"/>
-      <c r="L14" s="428"/>
-      <c r="M14" s="428"/>
+      <c r="E14" s="432"/>
+      <c r="F14" s="432"/>
+      <c r="G14" s="432"/>
+      <c r="H14" s="432"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="432"/>
+      <c r="K14" s="432"/>
+      <c r="L14" s="432"/>
+      <c r="M14" s="432"/>
       <c r="N14" s="316"/>
     </row>
     <row r="15" spans="1:14">
@@ -46312,11 +46327,11 @@
       <c r="N18" s="63"/>
     </row>
     <row r="19" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B19" s="430" t="s">
+      <c r="B19" s="434" t="s">
         <v>1935</v>
       </c>
-      <c r="C19" s="431"/>
-      <c r="D19" s="432"/>
+      <c r="C19" s="435"/>
+      <c r="D19" s="436"/>
       <c r="E19" s="24" t="s">
         <v>1943</v>
       </c>
@@ -46962,79 +46977,79 @@
       <c r="J88" s="256"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="428"/>
+      <c r="C134" s="432"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="428"/>
+      <c r="C135" s="432"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="428"/>
+      <c r="C136" s="432"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="428"/>
+      <c r="C137" s="432"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="428"/>
+      <c r="C138" s="432"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="428"/>
+      <c r="C139" s="432"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="428"/>
+      <c r="C140" s="432"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="428"/>
+      <c r="C141" s="432"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="428"/>
+      <c r="C142" s="432"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="429"/>
+      <c r="D147" s="433"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="428"/>
+      <c r="D148" s="432"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="428"/>
+      <c r="D149" s="432"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="428"/>
+      <c r="D150" s="432"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="428"/>
+      <c r="D151" s="432"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="428"/>
+      <c r="D152" s="432"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="428"/>
+      <c r="D153" s="432"/>
     </row>
     <row r="182" spans="14:14">
-      <c r="N182" s="428"/>
+      <c r="N182" s="432"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="428"/>
+      <c r="N183" s="432"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="428"/>
+      <c r="N184" s="432"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="428"/>
+      <c r="N185" s="432"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="428"/>
+      <c r="N186" s="432"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="428"/>
+      <c r="N187" s="432"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="428"/>
+      <c r="N188" s="432"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="428"/>
+      <c r="N189" s="432"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="428"/>
+      <c r="N190" s="432"/>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="315"/>
@@ -47221,14 +47236,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="421" t="s">
+      <c r="K4" s="425" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="422"/>
-      <c r="M4" s="422"/>
-      <c r="N4" s="422"/>
-      <c r="O4" s="422"/>
-      <c r="P4" s="423"/>
+      <c r="L4" s="426"/>
+      <c r="M4" s="426"/>
+      <c r="N4" s="426"/>
+      <c r="O4" s="426"/>
+      <c r="P4" s="427"/>
       <c r="Q4" s="95" t="s">
         <v>152</v>
       </c>
@@ -47362,10 +47377,10 @@
       <c r="L8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="461" t="s">
+      <c r="M8" s="450" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="462"/>
+      <c r="N8" s="451"/>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
@@ -47397,8 +47412,8 @@
       <c r="L9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="462"/>
-      <c r="N9" s="462"/>
+      <c r="M9" s="451"/>
+      <c r="N9" s="451"/>
       <c r="O9" s="5" t="s">
         <v>71</v>
       </c>
@@ -47437,8 +47452,8 @@
       <c r="L10" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="M10" s="462"/>
-      <c r="N10" s="462"/>
+      <c r="M10" s="451"/>
+      <c r="N10" s="451"/>
       <c r="O10" s="5"/>
       <c r="P10" s="188" t="s">
         <v>242</v>
@@ -47451,13 +47466,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="451" t="s">
+      <c r="A11" s="437" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="452"/>
-      <c r="C11" s="453"/>
-      <c r="D11" s="453"/>
-      <c r="E11" s="454"/>
+      <c r="B11" s="438"/>
+      <c r="C11" s="439"/>
+      <c r="D11" s="439"/>
+      <c r="E11" s="440"/>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
         <v>74</v>
@@ -47465,8 +47480,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="462"/>
-      <c r="N11" s="462"/>
+      <c r="M11" s="451"/>
+      <c r="N11" s="451"/>
       <c r="O11" s="5"/>
       <c r="P11" s="188" t="s">
         <v>243</v>
@@ -47476,11 +47491,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="455"/>
-      <c r="B12" s="450"/>
-      <c r="C12" s="450"/>
-      <c r="D12" s="450"/>
-      <c r="E12" s="456"/>
+      <c r="A12" s="441"/>
+      <c r="B12" s="442"/>
+      <c r="C12" s="442"/>
+      <c r="D12" s="442"/>
+      <c r="E12" s="443"/>
       <c r="F12" t="s">
         <v>1979</v>
       </c>
@@ -47489,8 +47504,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="462"/>
-      <c r="N12" s="462"/>
+      <c r="M12" s="451"/>
+      <c r="N12" s="451"/>
       <c r="O12" s="5"/>
       <c r="P12" s="188" t="s">
         <v>973</v>
@@ -47500,11 +47515,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="455"/>
-      <c r="B13" s="450"/>
-      <c r="C13" s="450"/>
-      <c r="D13" s="450"/>
-      <c r="E13" s="456"/>
+      <c r="A13" s="441"/>
+      <c r="B13" s="442"/>
+      <c r="C13" s="442"/>
+      <c r="D13" s="442"/>
+      <c r="E13" s="443"/>
       <c r="G13" t="s">
         <v>2126</v>
       </c>
@@ -47515,8 +47530,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="462"/>
-      <c r="N13" s="462"/>
+      <c r="M13" s="451"/>
+      <c r="N13" s="451"/>
       <c r="O13" s="26"/>
       <c r="P13" s="188"/>
       <c r="S13" t="s">
@@ -47524,11 +47539,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="457"/>
-      <c r="B14" s="458"/>
-      <c r="C14" s="458"/>
-      <c r="D14" s="458"/>
-      <c r="E14" s="459"/>
+      <c r="A14" s="444"/>
+      <c r="B14" s="445"/>
+      <c r="C14" s="445"/>
+      <c r="D14" s="445"/>
+      <c r="E14" s="446"/>
       <c r="G14" t="s">
         <v>2127</v>
       </c>
@@ -47554,13 +47569,13 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="440" t="s">
+      <c r="A15" s="459" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="441"/>
-      <c r="C15" s="441"/>
-      <c r="D15" s="441"/>
-      <c r="E15" s="442"/>
+      <c r="B15" s="460"/>
+      <c r="C15" s="460"/>
+      <c r="D15" s="460"/>
+      <c r="E15" s="461"/>
       <c r="G15" t="s">
         <v>2128</v>
       </c>
@@ -47719,20 +47734,20 @@
         <v>1088</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="443" t="s">
+      <c r="I20" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="444"/>
-      <c r="K20" s="443" t="s">
+      <c r="J20" s="448"/>
+      <c r="K20" s="447" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="444"/>
-      <c r="M20" s="443" t="s">
+      <c r="L20" s="448"/>
+      <c r="M20" s="447" t="s">
         <v>1176</v>
       </c>
-      <c r="N20" s="460"/>
-      <c r="O20" s="460"/>
-      <c r="P20" s="444"/>
+      <c r="N20" s="449"/>
+      <c r="O20" s="449"/>
+      <c r="P20" s="448"/>
       <c r="S20" t="s">
         <v>152</v>
       </c>
@@ -48295,13 +48310,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="449" t="s">
+      <c r="A85" s="466" t="s">
         <v>1070</v>
       </c>
-      <c r="B85" s="450"/>
-      <c r="C85" s="450"/>
-      <c r="D85" s="450"/>
-      <c r="E85" s="450"/>
+      <c r="B85" s="442"/>
+      <c r="C85" s="442"/>
+      <c r="D85" s="442"/>
+      <c r="E85" s="442"/>
       <c r="F85" s="6" t="s">
         <v>1074</v>
       </c>
@@ -48348,14 +48363,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="437" t="s">
+      <c r="K87" s="456" t="s">
         <v>1073</v>
       </c>
-      <c r="L87" s="434"/>
-      <c r="M87" s="437" t="s">
+      <c r="L87" s="453"/>
+      <c r="M87" s="456" t="s">
         <v>1084</v>
       </c>
-      <c r="N87" s="434"/>
+      <c r="N87" s="453"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -48372,10 +48387,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="435"/>
-      <c r="L88" s="436"/>
-      <c r="M88" s="438"/>
-      <c r="N88" s="439"/>
+      <c r="K88" s="454"/>
+      <c r="L88" s="455"/>
+      <c r="M88" s="457"/>
+      <c r="N88" s="458"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -48394,12 +48409,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="433" t="s">
+      <c r="K89" s="452" t="s">
         <v>1065</v>
       </c>
-      <c r="L89" s="434"/>
-      <c r="M89" s="438"/>
-      <c r="N89" s="439"/>
+      <c r="L89" s="453"/>
+      <c r="M89" s="457"/>
+      <c r="N89" s="458"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -48414,10 +48429,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="435"/>
-      <c r="L90" s="436"/>
-      <c r="M90" s="438"/>
-      <c r="N90" s="439"/>
+      <c r="K90" s="454"/>
+      <c r="L90" s="455"/>
+      <c r="M90" s="457"/>
+      <c r="N90" s="458"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -48434,12 +48449,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="433" t="s">
+      <c r="K91" s="452" t="s">
         <v>1066</v>
       </c>
-      <c r="L91" s="434"/>
-      <c r="M91" s="438"/>
-      <c r="N91" s="439"/>
+      <c r="L91" s="453"/>
+      <c r="M91" s="457"/>
+      <c r="N91" s="458"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -48456,10 +48471,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="435"/>
-      <c r="L92" s="436"/>
-      <c r="M92" s="438"/>
-      <c r="N92" s="439"/>
+      <c r="K92" s="454"/>
+      <c r="L92" s="455"/>
+      <c r="M92" s="457"/>
+      <c r="N92" s="458"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -48474,12 +48489,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="433" t="s">
+      <c r="K93" s="452" t="s">
         <v>1067</v>
       </c>
-      <c r="L93" s="434"/>
-      <c r="M93" s="438"/>
-      <c r="N93" s="439"/>
+      <c r="L93" s="453"/>
+      <c r="M93" s="457"/>
+      <c r="N93" s="458"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -48491,10 +48506,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="438"/>
-      <c r="L94" s="439"/>
-      <c r="M94" s="438"/>
-      <c r="N94" s="439"/>
+      <c r="K94" s="457"/>
+      <c r="L94" s="458"/>
+      <c r="M94" s="457"/>
+      <c r="N94" s="458"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -48508,10 +48523,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="435"/>
-      <c r="L95" s="436"/>
-      <c r="M95" s="435"/>
-      <c r="N95" s="436"/>
+      <c r="K95" s="454"/>
+      <c r="L95" s="455"/>
+      <c r="M95" s="454"/>
+      <c r="N95" s="455"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -48528,14 +48543,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="448" t="s">
+      <c r="K96" s="465" t="s">
         <v>1068</v>
       </c>
-      <c r="L96" s="448"/>
-      <c r="M96" s="448" t="s">
+      <c r="L96" s="465"/>
+      <c r="M96" s="465" t="s">
         <v>1069</v>
       </c>
-      <c r="N96" s="448"/>
+      <c r="N96" s="465"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -48659,7 +48674,7 @@
       <c r="E115" s="87"/>
       <c r="F115" s="88"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="445" t="s">
+      <c r="J115" s="462" t="s">
         <v>1097</v>
       </c>
       <c r="K115" s="2"/>
@@ -48676,7 +48691,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="446"/>
+      <c r="J116" s="463"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -48691,7 +48706,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="446"/>
+      <c r="J117" s="463"/>
       <c r="K117" s="5" t="s">
         <v>24</v>
       </c>
@@ -48708,7 +48723,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="446"/>
+      <c r="J118" s="463"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -48723,7 +48738,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="446"/>
+      <c r="J119" s="463"/>
       <c r="K119" s="5" t="s">
         <v>498</v>
       </c>
@@ -48743,7 +48758,7 @@
         <v>1096</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="446"/>
+      <c r="J120" s="463"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -48763,7 +48778,7 @@
         <v>150</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="446"/>
+      <c r="J121" s="463"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -48780,7 +48795,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="446"/>
+      <c r="J122" s="463"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1093</v>
@@ -48799,7 +48814,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="446"/>
+      <c r="J123" s="463"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1091</v>
@@ -48816,7 +48831,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="446"/>
+      <c r="J124" s="463"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>24</v>
@@ -48833,7 +48848,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="446"/>
+      <c r="J125" s="463"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -48848,7 +48863,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="447"/>
+      <c r="J126" s="464"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -49374,10 +49389,10 @@
         <v>152</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="443" t="s">
+      <c r="M160" s="447" t="s">
         <v>78</v>
       </c>
-      <c r="N160" s="444"/>
+      <c r="N160" s="448"/>
       <c r="O160" s="321" t="s">
         <v>79</v>
       </c>
@@ -49499,12 +49514,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="A11:E14"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M8:N13"/>
     <mergeCell ref="K89:L90"/>
     <mergeCell ref="K87:L88"/>
     <mergeCell ref="M87:N95"/>
@@ -49516,6 +49525,12 @@
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="K93:L95"/>
     <mergeCell ref="K91:L92"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="A11:E14"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M8:N13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>
